--- a/Data/LH_costmatrix_raw.xlsx
+++ b/Data/LH_costmatrix_raw.xlsx
@@ -1465,46 +1465,46 @@
         <v>315.3815886356634</v>
       </c>
       <c r="FT2">
+        <v>766.5692104697027</v>
+      </c>
+      <c r="FU2">
+        <v>1929.916211348289</v>
+      </c>
+      <c r="FV2">
+        <v>2182.696054906332</v>
+      </c>
+      <c r="FW2">
+        <v>68.23472775528421</v>
+      </c>
+      <c r="FX2">
+        <v>1292.599525678821</v>
+      </c>
+      <c r="FY2">
+        <v>2017.711281567832</v>
+      </c>
+      <c r="FZ2">
+        <v>499.828761115336</v>
+      </c>
+      <c r="GA2">
+        <v>2329.15564227634</v>
+      </c>
+      <c r="GB2">
+        <v>1659.091004192277</v>
+      </c>
+      <c r="GC2">
+        <v>1477.516443308458</v>
+      </c>
+      <c r="GD2">
+        <v>235.4530370997837</v>
+      </c>
+      <c r="GE2">
+        <v>1788.02538151044</v>
+      </c>
+      <c r="GF2">
         <v>777.9564491880736</v>
       </c>
-      <c r="FU2">
-        <v>1659.091004192277</v>
-      </c>
-      <c r="FV2">
-        <v>499.828761115336</v>
-      </c>
-      <c r="FW2">
-        <v>1929.916211348289</v>
-      </c>
-      <c r="FX2">
-        <v>2017.711281567832</v>
-      </c>
-      <c r="FY2">
-        <v>68.23472775528421</v>
-      </c>
-      <c r="FZ2">
-        <v>2329.15564227634</v>
-      </c>
-      <c r="GA2">
-        <v>1477.516443308458</v>
-      </c>
-      <c r="GB2">
-        <v>642.6427083647148</v>
-      </c>
-      <c r="GC2">
-        <v>766.5692104697027</v>
-      </c>
-      <c r="GD2">
-        <v>1292.599525678821</v>
-      </c>
-      <c r="GE2">
-        <v>2182.696054906332</v>
-      </c>
-      <c r="GF2">
-        <v>235.4530370997837</v>
-      </c>
       <c r="GG2">
-        <v>1944.001733938364</v>
+        <v>590.8753096158525</v>
       </c>
     </row>
     <row r="3" spans="1:189">
@@ -2034,46 +2034,46 @@
         <v>313.8159461816721</v>
       </c>
       <c r="FT3">
+        <v>755.8968785478631</v>
+      </c>
+      <c r="FU3">
+        <v>1889.707969954462</v>
+      </c>
+      <c r="FV3">
+        <v>2201.829653085244</v>
+      </c>
+      <c r="FW3">
+        <v>119.9810678410887</v>
+      </c>
+      <c r="FX3">
+        <v>1239.393482207187</v>
+      </c>
+      <c r="FY3">
+        <v>2012.873448361303</v>
+      </c>
+      <c r="FZ3">
+        <v>552.8246308581652</v>
+      </c>
+      <c r="GA3">
+        <v>2282.22463871915</v>
+      </c>
+      <c r="GB3">
+        <v>1675.36195824165</v>
+      </c>
+      <c r="GC3">
+        <v>1455.816318836141</v>
+      </c>
+      <c r="GD3">
+        <v>205.6644318399566</v>
+      </c>
+      <c r="GE3">
+        <v>1795.30596429027</v>
+      </c>
+      <c r="GF3">
         <v>725.1964588627189</v>
       </c>
-      <c r="FU3">
-        <v>1675.36195824165</v>
-      </c>
-      <c r="FV3">
-        <v>552.8246308581652</v>
-      </c>
-      <c r="FW3">
-        <v>1889.707969954462</v>
-      </c>
-      <c r="FX3">
-        <v>2012.873448361303</v>
-      </c>
-      <c r="FY3">
-        <v>119.9810678410887</v>
-      </c>
-      <c r="FZ3">
-        <v>2282.22463871915</v>
-      </c>
-      <c r="GA3">
-        <v>1455.816318836141</v>
-      </c>
-      <c r="GB3">
-        <v>689.2719903805393</v>
-      </c>
-      <c r="GC3">
-        <v>755.8968785478631</v>
-      </c>
-      <c r="GD3">
-        <v>1239.393482207187</v>
-      </c>
-      <c r="GE3">
-        <v>2201.829653085244</v>
-      </c>
-      <c r="GF3">
-        <v>205.6644318399566</v>
-      </c>
       <c r="GG3">
-        <v>1950.058763805771</v>
+        <v>636.795949304528</v>
       </c>
     </row>
     <row r="4" spans="1:189">
@@ -2603,46 +2603,46 @@
         <v>282.6550824726456</v>
       </c>
       <c r="FT4">
+        <v>737.4939851432998</v>
+      </c>
+      <c r="FU4">
+        <v>1932.709572099754</v>
+      </c>
+      <c r="FV4">
+        <v>2132.225978818416</v>
+      </c>
+      <c r="FW4">
+        <v>33.75417744322083</v>
+      </c>
+      <c r="FX4">
+        <v>1328.714351684101</v>
+      </c>
+      <c r="FY4">
+        <v>1981.974322024073</v>
+      </c>
+      <c r="FZ4">
+        <v>460.4628766475249</v>
+      </c>
+      <c r="GA4">
+        <v>2343.59718120381</v>
+      </c>
+      <c r="GB4">
+        <v>1610.041559023887</v>
+      </c>
+      <c r="GC4">
+        <v>1457.547999795097</v>
+      </c>
+      <c r="GD4">
+        <v>289.9914075239419</v>
+      </c>
+      <c r="GE4">
+        <v>1743.889382626035</v>
+      </c>
+      <c r="GF4">
         <v>820.5342063823327</v>
       </c>
-      <c r="FU4">
-        <v>1610.041559023887</v>
-      </c>
-      <c r="FV4">
-        <v>460.4628766475249</v>
-      </c>
-      <c r="FW4">
-        <v>1932.709572099754</v>
-      </c>
-      <c r="FX4">
-        <v>1981.974322024073</v>
-      </c>
-      <c r="FY4">
-        <v>33.75417744322083</v>
-      </c>
-      <c r="FZ4">
-        <v>2343.59718120381</v>
-      </c>
-      <c r="GA4">
-        <v>1457.547999795097</v>
-      </c>
-      <c r="GB4">
-        <v>590.7857273641202</v>
-      </c>
-      <c r="GC4">
-        <v>737.4939851432998</v>
-      </c>
-      <c r="GD4">
-        <v>1328.714351684101</v>
-      </c>
-      <c r="GE4">
-        <v>2132.225978818416</v>
-      </c>
-      <c r="GF4">
-        <v>289.9914075239419</v>
-      </c>
       <c r="GG4">
-        <v>1900.568155380594</v>
+        <v>538.5327479054644</v>
       </c>
     </row>
     <row r="5" spans="1:189">
@@ -3172,46 +3172,46 @@
         <v>165.3961363034745</v>
       </c>
       <c r="FT5">
+        <v>587.9787999046868</v>
+      </c>
+      <c r="FU5">
+        <v>1747.00521286878</v>
+      </c>
+      <c r="FV5">
+        <v>2072.291506156633</v>
+      </c>
+      <c r="FW5">
+        <v>219.4108008267956</v>
+      </c>
+      <c r="FX5">
+        <v>1194.192857799619</v>
+      </c>
+      <c r="FY5">
+        <v>1847.575466782786</v>
+      </c>
+      <c r="FZ5">
+        <v>610.8356810933979</v>
+      </c>
+      <c r="GA5">
+        <v>2164.134504508932</v>
+      </c>
+      <c r="GB5">
+        <v>1540.818703126225</v>
+      </c>
+      <c r="GC5">
+        <v>1287.057905047885</v>
+      </c>
+      <c r="GD5">
+        <v>346.9167348197104</v>
+      </c>
+      <c r="GE5">
+        <v>1644.124953362366</v>
+      </c>
+      <c r="GF5">
         <v>718.0893743957261</v>
       </c>
-      <c r="FU5">
-        <v>1540.818703126225</v>
-      </c>
-      <c r="FV5">
-        <v>610.8356810933979</v>
-      </c>
-      <c r="FW5">
-        <v>1747.00521286878</v>
-      </c>
-      <c r="FX5">
-        <v>1847.575466782786</v>
-      </c>
-      <c r="FY5">
-        <v>219.4108008267956</v>
-      </c>
-      <c r="FZ5">
-        <v>2164.134504508932</v>
-      </c>
-      <c r="GA5">
-        <v>1287.057905047885</v>
-      </c>
-      <c r="GB5">
-        <v>678.7241630073122</v>
-      </c>
-      <c r="GC5">
-        <v>587.9787999046868</v>
-      </c>
-      <c r="GD5">
-        <v>1194.192857799619</v>
-      </c>
-      <c r="GE5">
-        <v>2072.291506156633</v>
-      </c>
-      <c r="GF5">
-        <v>346.9167348197104</v>
-      </c>
       <c r="GG5">
-        <v>1796.834409459851</v>
+        <v>623.8695207799367</v>
       </c>
     </row>
     <row r="6" spans="1:189">
@@ -3741,46 +3741,46 @@
         <v>308.9697075534158</v>
       </c>
       <c r="FT6">
+        <v>764.1087266705579</v>
+      </c>
+      <c r="FU6">
+        <v>1966.356178939537</v>
+      </c>
+      <c r="FV6">
+        <v>2140.838814979187</v>
+      </c>
+      <c r="FW6">
+        <v>0</v>
+      </c>
+      <c r="FX6">
+        <v>1356.847101704532</v>
+      </c>
+      <c r="FY6">
+        <v>2004.435505640418</v>
+      </c>
+      <c r="FZ6">
+        <v>433.4175883183877</v>
+      </c>
+      <c r="GA6">
+        <v>2377.05705330035</v>
+      </c>
+      <c r="GB6">
+        <v>1620.858236866926</v>
+      </c>
+      <c r="GC6">
+        <v>1487.212085563108</v>
+      </c>
+      <c r="GD6">
+        <v>295.3976522992114</v>
+      </c>
+      <c r="GE6">
+        <v>1760.107068229698</v>
+      </c>
+      <c r="GF6">
         <v>845.1010770467474</v>
       </c>
-      <c r="FU6">
-        <v>1620.858236866926</v>
-      </c>
-      <c r="FV6">
-        <v>433.4175883183877</v>
-      </c>
-      <c r="FW6">
-        <v>1966.356178939537</v>
-      </c>
-      <c r="FX6">
-        <v>2004.435505640418</v>
-      </c>
-      <c r="FY6">
-        <v>0</v>
-      </c>
-      <c r="FZ6">
-        <v>2377.05705330035</v>
-      </c>
-      <c r="GA6">
-        <v>1487.212085563108</v>
-      </c>
-      <c r="GB6">
-        <v>576.0318945452501</v>
-      </c>
-      <c r="GC6">
-        <v>764.1087266705579</v>
-      </c>
-      <c r="GD6">
-        <v>1356.847101704532</v>
-      </c>
-      <c r="GE6">
-        <v>2140.838814979187</v>
-      </c>
-      <c r="GF6">
-        <v>295.3976522992114</v>
-      </c>
       <c r="GG6">
-        <v>1917.381932143699</v>
+        <v>524.7822504163031</v>
       </c>
     </row>
     <row r="7" spans="1:189">
@@ -4310,46 +4310,46 @@
         <v>548.8862333947122</v>
       </c>
       <c r="FT7">
+        <v>1002.661878292422</v>
+      </c>
+      <c r="FU7">
+        <v>2196.183169056604</v>
+      </c>
+      <c r="FV7">
+        <v>2303.999965680242</v>
+      </c>
+      <c r="FW7">
+        <v>242.9852099925136</v>
+      </c>
+      <c r="FX7">
+        <v>1500.664642956036</v>
+      </c>
+      <c r="FY7">
+        <v>2229.635049283246</v>
+      </c>
+      <c r="FZ7">
+        <v>387.5077091653985</v>
+      </c>
+      <c r="GA7">
+        <v>2586.092919593492</v>
+      </c>
+      <c r="GB7">
+        <v>1797.757767487578</v>
+      </c>
+      <c r="GC7">
+        <v>1729.787059622296</v>
+      </c>
+      <c r="GD7">
+        <v>340.7838360056893</v>
+      </c>
+      <c r="GE7">
+        <v>1961.430438226987</v>
+      </c>
+      <c r="GF7">
         <v>965.9398208494165</v>
       </c>
-      <c r="FU7">
-        <v>1797.757767487578</v>
-      </c>
-      <c r="FV7">
-        <v>387.5077091653985</v>
-      </c>
-      <c r="FW7">
-        <v>2196.183169056604</v>
-      </c>
-      <c r="FX7">
-        <v>2229.635049283246</v>
-      </c>
-      <c r="FY7">
-        <v>242.9852099925136</v>
-      </c>
-      <c r="FZ7">
-        <v>2586.092919593492</v>
-      </c>
-      <c r="GA7">
-        <v>1729.787059622296</v>
-      </c>
-      <c r="GB7">
-        <v>625.8757881298391</v>
-      </c>
-      <c r="GC7">
-        <v>1002.661878292422</v>
-      </c>
-      <c r="GD7">
-        <v>1500.664642956036</v>
-      </c>
-      <c r="GE7">
-        <v>2303.999965680242</v>
-      </c>
-      <c r="GF7">
-        <v>340.7838360056893</v>
-      </c>
       <c r="GG7">
-        <v>2120.809117748343</v>
+        <v>586.8152820784762</v>
       </c>
     </row>
     <row r="8" spans="1:189">
@@ -4879,46 +4879,46 @@
         <v>306.537003760296</v>
       </c>
       <c r="FT8">
+        <v>757.0874913299622</v>
+      </c>
+      <c r="FU8">
+        <v>1919.676910196227</v>
+      </c>
+      <c r="FV8">
+        <v>2177.268860513786</v>
+      </c>
+      <c r="FW8">
+        <v>72.48074115398526</v>
+      </c>
+      <c r="FX8">
+        <v>1285.878882318404</v>
+      </c>
+      <c r="FY8">
+        <v>2008.879832023911</v>
+      </c>
+      <c r="FZ8">
+        <v>505.4998868973768</v>
+      </c>
+      <c r="GA8">
+        <v>2319.61347546458</v>
+      </c>
+      <c r="GB8">
+        <v>1653.135236689358</v>
+      </c>
+      <c r="GC8">
+        <v>1467.346937524479</v>
+      </c>
+      <c r="GD8">
+        <v>237.8883351432412</v>
+      </c>
+      <c r="GE8">
+        <v>1780.678214543751</v>
+      </c>
+      <c r="GF8">
         <v>772.6712205839927</v>
       </c>
-      <c r="FU8">
-        <v>1653.135236689358</v>
-      </c>
-      <c r="FV8">
-        <v>505.4998868973768</v>
-      </c>
-      <c r="FW8">
-        <v>1919.676910196227</v>
-      </c>
-      <c r="FX8">
-        <v>2008.879832023911</v>
-      </c>
-      <c r="FY8">
-        <v>72.48074115398526</v>
-      </c>
-      <c r="FZ8">
-        <v>2319.61347546458</v>
-      </c>
-      <c r="GA8">
-        <v>1467.346937524479</v>
-      </c>
-      <c r="GB8">
-        <v>644.2130473318587</v>
-      </c>
-      <c r="GC8">
-        <v>757.0874913299622</v>
-      </c>
-      <c r="GD8">
-        <v>1285.878882318404</v>
-      </c>
-      <c r="GE8">
-        <v>2177.268860513786</v>
-      </c>
-      <c r="GF8">
-        <v>237.8883351432412</v>
-      </c>
       <c r="GG8">
-        <v>1936.491288072117</v>
+        <v>592.1464341842486</v>
       </c>
     </row>
     <row r="9" spans="1:189">
@@ -5448,46 +5448,46 @@
         <v>197.8680961078175</v>
       </c>
       <c r="FT9">
+        <v>645.8766832870573</v>
+      </c>
+      <c r="FU9">
+        <v>1828.555686020546</v>
+      </c>
+      <c r="FV9">
+        <v>2088.446306861457</v>
+      </c>
+      <c r="FW9">
+        <v>138.2078322678896</v>
+      </c>
+      <c r="FX9">
+        <v>1257.416923004291</v>
+      </c>
+      <c r="FY9">
+        <v>1899.252435369556</v>
+      </c>
+      <c r="FZ9">
+        <v>537.4895962142388</v>
+      </c>
+      <c r="GA9">
+        <v>2244.737232545102</v>
+      </c>
+      <c r="GB9">
+        <v>1560.673370672326</v>
+      </c>
+      <c r="GC9">
+        <v>1357.63488616813</v>
+      </c>
+      <c r="GD9">
+        <v>317.9818582996949</v>
+      </c>
+      <c r="GE9">
+        <v>1678.599542237891</v>
+      </c>
+      <c r="GF9">
         <v>766.2846397826282</v>
       </c>
-      <c r="FU9">
-        <v>1560.673370672326</v>
-      </c>
-      <c r="FV9">
-        <v>537.4895962142388</v>
-      </c>
-      <c r="FW9">
-        <v>1828.555686020546</v>
-      </c>
-      <c r="FX9">
-        <v>1899.252435369556</v>
-      </c>
-      <c r="FY9">
-        <v>138.2078322678896</v>
-      </c>
-      <c r="FZ9">
-        <v>2244.737232545102</v>
-      </c>
-      <c r="GA9">
-        <v>1357.63488616813</v>
-      </c>
-      <c r="GB9">
-        <v>627.565412719794</v>
-      </c>
-      <c r="GC9">
-        <v>645.8766832870573</v>
-      </c>
-      <c r="GD9">
-        <v>1257.416923004291</v>
-      </c>
-      <c r="GE9">
-        <v>2088.446306861457</v>
-      </c>
-      <c r="GF9">
-        <v>317.9818582996949</v>
-      </c>
       <c r="GG9">
-        <v>1833.371185171114</v>
+        <v>573.2186395527904</v>
       </c>
     </row>
     <row r="10" spans="1:189">
@@ -6017,46 +6017,46 @@
         <v>1461.595377865535</v>
       </c>
       <c r="FT10">
+        <v>1484.702750769659</v>
+      </c>
+      <c r="FU10">
+        <v>1251.176878418219</v>
+      </c>
+      <c r="FV10">
+        <v>3021.958611696206</v>
+      </c>
+      <c r="FW10">
+        <v>1528.596183820728</v>
+      </c>
+      <c r="FX10">
+        <v>177.7979728949436</v>
+      </c>
+      <c r="FY10">
+        <v>2365.808848096005</v>
+      </c>
+      <c r="FZ10">
+        <v>1961.523354543054</v>
+      </c>
+      <c r="GA10">
+        <v>1240.422206834747</v>
+      </c>
+      <c r="GB10">
+        <v>2511.266390825244</v>
+      </c>
+      <c r="GC10">
+        <v>1579.844712103981</v>
+      </c>
+      <c r="GD10">
+        <v>1326.143370440209</v>
+      </c>
+      <c r="GE10">
+        <v>2444.669948481261</v>
+      </c>
+      <c r="GF10">
         <v>699.5957353787878</v>
       </c>
-      <c r="FU10">
-        <v>2511.266390825244</v>
-      </c>
-      <c r="FV10">
-        <v>1961.523354543054</v>
-      </c>
-      <c r="FW10">
-        <v>1251.176878418219</v>
-      </c>
-      <c r="FX10">
-        <v>2365.808848096005</v>
-      </c>
-      <c r="FY10">
-        <v>1528.596183820728</v>
-      </c>
-      <c r="FZ10">
-        <v>1240.422206834747</v>
-      </c>
-      <c r="GA10">
-        <v>1579.844712103981</v>
-      </c>
-      <c r="GB10">
-        <v>2045.5216898217</v>
-      </c>
-      <c r="GC10">
-        <v>1484.702750769659</v>
-      </c>
-      <c r="GD10">
-        <v>177.7979728949436</v>
-      </c>
-      <c r="GE10">
-        <v>3021.958611696206</v>
-      </c>
-      <c r="GF10">
-        <v>1326.143370440209</v>
-      </c>
       <c r="GG10">
-        <v>2547.459003920119</v>
+        <v>1990.672286692612</v>
       </c>
     </row>
     <row r="11" spans="1:189">
@@ -6586,46 +6586,46 @@
         <v>1283.993057924355</v>
       </c>
       <c r="FT11">
+        <v>1313.981033523644</v>
+      </c>
+      <c r="FU11">
+        <v>1218.467442353749</v>
+      </c>
+      <c r="FV11">
+        <v>2865.750722220912</v>
+      </c>
+      <c r="FW11">
+        <v>1356.847101704532</v>
+      </c>
+      <c r="FX11">
+        <v>0</v>
+      </c>
+      <c r="FY11">
+        <v>2239.32858767394</v>
+      </c>
+      <c r="FZ11">
+        <v>1789.055123291982</v>
+      </c>
+      <c r="GA11">
+        <v>1294.431249717264</v>
+      </c>
+      <c r="GB11">
+        <v>2350.372934179823</v>
+      </c>
+      <c r="GC11">
+        <v>1454.961215984152</v>
+      </c>
+      <c r="GD11">
+        <v>1164.231267850083</v>
+      </c>
+      <c r="GE11">
+        <v>2295.2138595336</v>
+      </c>
+      <c r="GF11">
         <v>540.7414212062423</v>
       </c>
-      <c r="FU11">
-        <v>2350.372934179823</v>
-      </c>
-      <c r="FV11">
-        <v>1789.055123291982</v>
-      </c>
-      <c r="FW11">
-        <v>1218.467442353749</v>
-      </c>
-      <c r="FX11">
-        <v>2239.32858767394</v>
-      </c>
-      <c r="FY11">
-        <v>1356.847101704532</v>
-      </c>
-      <c r="FZ11">
-        <v>1294.431249717264</v>
-      </c>
-      <c r="GA11">
-        <v>1454.961215984152</v>
-      </c>
-      <c r="GB11">
-        <v>1868.74034593594</v>
-      </c>
-      <c r="GC11">
-        <v>1313.981033523644</v>
-      </c>
-      <c r="GD11">
-        <v>0</v>
-      </c>
-      <c r="GE11">
-        <v>2865.750722220912</v>
-      </c>
-      <c r="GF11">
-        <v>1164.231267850083</v>
-      </c>
       <c r="GG11">
-        <v>2403.050632691989</v>
+        <v>1813.916337113418</v>
       </c>
     </row>
     <row r="12" spans="1:189">
@@ -7155,46 +7155,46 @@
         <v>1106.041669761432</v>
       </c>
       <c r="FT12">
+        <v>1215.982773525993</v>
+      </c>
+      <c r="FU12">
+        <v>1395.402470239412</v>
+      </c>
+      <c r="FV12">
+        <v>2807.836298111551</v>
+      </c>
+      <c r="FW12">
+        <v>1137.579954668279</v>
+      </c>
+      <c r="FX12">
+        <v>259.4731435209294</v>
+      </c>
+      <c r="FY12">
+        <v>2260.70604099593</v>
+      </c>
+      <c r="FZ12">
+        <v>1570.892275923546</v>
+      </c>
+      <c r="GA12">
+        <v>1536.129149294197</v>
+      </c>
+      <c r="GB12">
+        <v>2280.410207953933</v>
+      </c>
+      <c r="GC12">
+        <v>1491.294702671202</v>
+      </c>
+      <c r="GD12">
+        <v>922.8438395917019</v>
+      </c>
+      <c r="GE12">
+        <v>2260.885857323207</v>
+      </c>
+      <c r="GF12">
         <v>296.8198749537156</v>
       </c>
-      <c r="FU12">
-        <v>2280.410207953933</v>
-      </c>
-      <c r="FV12">
-        <v>1570.892275923546</v>
-      </c>
-      <c r="FW12">
-        <v>1395.402470239412</v>
-      </c>
-      <c r="FX12">
-        <v>2260.70604099593</v>
-      </c>
-      <c r="FY12">
-        <v>1137.579954668279</v>
-      </c>
-      <c r="FZ12">
-        <v>1536.129149294197</v>
-      </c>
-      <c r="GA12">
-        <v>1491.294702671202</v>
-      </c>
-      <c r="GB12">
-        <v>1674.36844081184</v>
-      </c>
-      <c r="GC12">
-        <v>1215.982773525993</v>
-      </c>
-      <c r="GD12">
-        <v>259.4731435209294</v>
-      </c>
-      <c r="GE12">
-        <v>2807.836298111551</v>
-      </c>
-      <c r="GF12">
-        <v>922.8438395917019</v>
-      </c>
       <c r="GG12">
-        <v>2381.297767416743</v>
+        <v>1619.532141376912</v>
       </c>
     </row>
     <row r="13" spans="1:189">
@@ -7724,46 +7724,46 @@
         <v>1451.650000256546</v>
       </c>
       <c r="FT13">
+        <v>1580.682345658619</v>
+      </c>
+      <c r="FU13">
+        <v>1588.590826010172</v>
+      </c>
+      <c r="FV13">
+        <v>3170.263880024</v>
+      </c>
+      <c r="FW13">
+        <v>1445.040802669525</v>
+      </c>
+      <c r="FX13">
+        <v>380.1861951930076</v>
+      </c>
+      <c r="FY13">
+        <v>2595.452956163945</v>
+      </c>
+      <c r="FZ13">
+        <v>1873.120477754921</v>
+      </c>
+      <c r="GA13">
+        <v>1593.30520647498</v>
+      </c>
+      <c r="GB13">
+        <v>2644.098930450178</v>
+      </c>
+      <c r="GC13">
+        <v>1815.880191592712</v>
+      </c>
+      <c r="GD13">
+        <v>1195.929288972397</v>
+      </c>
+      <c r="GE13">
+        <v>2617.789898468679</v>
+      </c>
+      <c r="GF13">
         <v>610.3386837218271</v>
       </c>
-      <c r="FU13">
-        <v>2644.098930450178</v>
-      </c>
-      <c r="FV13">
-        <v>1873.120477754921</v>
-      </c>
-      <c r="FW13">
-        <v>1588.590826010172</v>
-      </c>
-      <c r="FX13">
-        <v>2595.452956163945</v>
-      </c>
-      <c r="FY13">
-        <v>1445.040802669525</v>
-      </c>
-      <c r="FZ13">
-        <v>1593.30520647498</v>
-      </c>
-      <c r="GA13">
-        <v>1815.880191592712</v>
-      </c>
-      <c r="GB13">
-        <v>2002.446998791217</v>
-      </c>
-      <c r="GC13">
-        <v>1580.682345658619</v>
-      </c>
-      <c r="GD13">
-        <v>380.1861951930076</v>
-      </c>
-      <c r="GE13">
-        <v>3170.263880024</v>
-      </c>
-      <c r="GF13">
-        <v>1195.929288972397</v>
-      </c>
       <c r="GG13">
-        <v>2734.566699041752</v>
+        <v>1948.050915625905</v>
       </c>
     </row>
     <row r="14" spans="1:189">
@@ -8293,46 +8293,46 @@
         <v>1385.169897549702</v>
       </c>
       <c r="FT14">
+        <v>1369.599914058275</v>
+      </c>
+      <c r="FU14">
+        <v>1106.769534191074</v>
+      </c>
+      <c r="FV14">
+        <v>2885.339385821297</v>
+      </c>
+      <c r="FW14">
+        <v>1481.106314016997</v>
+      </c>
+      <c r="FX14">
+        <v>155.7531290556531</v>
+      </c>
+      <c r="FY14">
+        <v>2214.407076819162</v>
+      </c>
+      <c r="FZ14">
+        <v>1910.649808266605</v>
+      </c>
+      <c r="GA14">
+        <v>1143.613443978647</v>
+      </c>
+      <c r="GB14">
+        <v>2379.599205056869</v>
+      </c>
+      <c r="GC14">
+        <v>1428.627021511098</v>
+      </c>
+      <c r="GD14">
+        <v>1302.885575975877</v>
+      </c>
+      <c r="GE14">
+        <v>2303.392702484089</v>
+      </c>
+      <c r="GF14">
         <v>685.6986900537775</v>
       </c>
-      <c r="FU14">
-        <v>2379.599205056869</v>
-      </c>
-      <c r="FV14">
-        <v>1910.649808266605</v>
-      </c>
-      <c r="FW14">
-        <v>1106.769534191074</v>
-      </c>
-      <c r="FX14">
-        <v>2214.407076819162</v>
-      </c>
-      <c r="FY14">
-        <v>1481.106314016997</v>
-      </c>
-      <c r="FZ14">
-        <v>1143.613443978647</v>
-      </c>
-      <c r="GA14">
-        <v>1428.627021511098</v>
-      </c>
-      <c r="GB14">
-        <v>1975.324930865973</v>
-      </c>
-      <c r="GC14">
-        <v>1369.599914058275</v>
-      </c>
-      <c r="GD14">
-        <v>155.7531290556531</v>
-      </c>
-      <c r="GE14">
-        <v>2885.339385821297</v>
-      </c>
-      <c r="GF14">
-        <v>1302.885575975877</v>
-      </c>
       <c r="GG14">
-        <v>2403.052588043231</v>
+        <v>1920.768989834054</v>
       </c>
     </row>
     <row r="15" spans="1:189">
@@ -8862,46 +8862,46 @@
         <v>1288.114482973389</v>
       </c>
       <c r="FT15">
+        <v>1391.062678317408</v>
+      </c>
+      <c r="FU15">
+        <v>1434.550270512337</v>
+      </c>
+      <c r="FV15">
+        <v>2975.631398838817</v>
+      </c>
+      <c r="FW15">
+        <v>1310.48412058798</v>
+      </c>
+      <c r="FX15">
+        <v>217.6295994438368</v>
+      </c>
+      <c r="FY15">
+        <v>2398.975878132381</v>
+      </c>
+      <c r="FZ15">
+        <v>1743.014913195684</v>
+      </c>
+      <c r="GA15">
+        <v>1500.132893479447</v>
+      </c>
+      <c r="GB15">
+        <v>2450.927920782348</v>
+      </c>
+      <c r="GC15">
+        <v>1620.746114676799</v>
+      </c>
+      <c r="GD15">
+        <v>1082.724855270781</v>
+      </c>
+      <c r="GE15">
+        <v>2420.866234351441</v>
+      </c>
+      <c r="GF15">
         <v>465.3992412719157</v>
       </c>
-      <c r="FU15">
-        <v>2450.927920782348</v>
-      </c>
-      <c r="FV15">
-        <v>1743.014913195684</v>
-      </c>
-      <c r="FW15">
-        <v>1434.550270512337</v>
-      </c>
-      <c r="FX15">
-        <v>2398.975878132381</v>
-      </c>
-      <c r="FY15">
-        <v>1310.48412058798</v>
-      </c>
-      <c r="FZ15">
-        <v>1500.132893479447</v>
-      </c>
-      <c r="GA15">
-        <v>1620.746114676799</v>
-      </c>
-      <c r="GB15">
-        <v>1853.631165900631</v>
-      </c>
-      <c r="GC15">
-        <v>1391.062678317408</v>
-      </c>
-      <c r="GD15">
-        <v>217.6295994438368</v>
-      </c>
-      <c r="GE15">
-        <v>2975.631398838817</v>
-      </c>
-      <c r="GF15">
-        <v>1082.724855270781</v>
-      </c>
       <c r="GG15">
-        <v>2537.096249021145</v>
+        <v>1798.856511394922</v>
       </c>
     </row>
     <row r="16" spans="1:189">
@@ -9431,46 +9431,46 @@
         <v>1161.18728233045</v>
       </c>
       <c r="FT16">
+        <v>1186.644700732664</v>
+      </c>
+      <c r="FU16">
+        <v>1183.117354132929</v>
+      </c>
+      <c r="FV16">
+        <v>2743.699215139246</v>
+      </c>
+      <c r="FW16">
+        <v>1245.854554670888</v>
+      </c>
+      <c r="FX16">
+        <v>127.8372292771171</v>
+      </c>
+      <c r="FY16">
+        <v>2134.260049088228</v>
+      </c>
+      <c r="FZ16">
+        <v>1676.360469784923</v>
+      </c>
+      <c r="GA16">
+        <v>1320.539983813022</v>
+      </c>
+      <c r="GB16">
+        <v>2226.348730157236</v>
+      </c>
+      <c r="GC16">
+        <v>1352.750260845459</v>
+      </c>
+      <c r="GD16">
+        <v>1067.309954018196</v>
+      </c>
+      <c r="GE16">
+        <v>2176.803984931717</v>
+      </c>
+      <c r="GF16">
         <v>455.8446408389261</v>
       </c>
-      <c r="FU16">
-        <v>2226.348730157236</v>
-      </c>
-      <c r="FV16">
-        <v>1676.360469784923</v>
-      </c>
-      <c r="FW16">
-        <v>1183.117354132929</v>
-      </c>
-      <c r="FX16">
-        <v>2134.260049088228</v>
-      </c>
-      <c r="FY16">
-        <v>1245.854554670888</v>
-      </c>
-      <c r="FZ16">
-        <v>1320.539983813022</v>
-      </c>
-      <c r="GA16">
-        <v>1352.750260845459</v>
-      </c>
-      <c r="GB16">
-        <v>1748.256870052213</v>
-      </c>
-      <c r="GC16">
-        <v>1186.644700732664</v>
-      </c>
-      <c r="GD16">
-        <v>127.8372292771171</v>
-      </c>
-      <c r="GE16">
-        <v>2743.699215139246</v>
-      </c>
-      <c r="GF16">
-        <v>1067.309954018196</v>
-      </c>
       <c r="GG16">
-        <v>2287.298067835753</v>
+        <v>1693.516971856567</v>
       </c>
     </row>
     <row r="17" spans="1:189">
@@ -10000,46 +10000,46 @@
         <v>686.4379173447376</v>
       </c>
       <c r="FT17">
+        <v>899.1697759149674</v>
+      </c>
+      <c r="FU17">
+        <v>1536.110224681321</v>
+      </c>
+      <c r="FV17">
+        <v>2500.848591676263</v>
+      </c>
+      <c r="FW17">
+        <v>695.0951870593037</v>
+      </c>
+      <c r="FX17">
+        <v>668.5102921102138</v>
+      </c>
+      <c r="FY17">
+        <v>2083.014961580369</v>
+      </c>
+      <c r="FZ17">
+        <v>1128.494047953592</v>
+      </c>
+      <c r="GA17">
+        <v>1818.722895897162</v>
+      </c>
+      <c r="GB17">
+        <v>1965.213608276392</v>
+      </c>
+      <c r="GC17">
+        <v>1372.896696281221</v>
+      </c>
+      <c r="GD17">
+        <v>500.3345081770329</v>
+      </c>
+      <c r="GE17">
+        <v>1996.727149616185</v>
+      </c>
+      <c r="GF17">
         <v>158.2159316369835</v>
       </c>
-      <c r="FU17">
-        <v>1965.213608276392</v>
-      </c>
-      <c r="FV17">
-        <v>1128.494047953592</v>
-      </c>
-      <c r="FW17">
-        <v>1536.110224681321</v>
-      </c>
-      <c r="FX17">
-        <v>2083.014961580369</v>
-      </c>
-      <c r="FY17">
-        <v>695.0951870593037</v>
-      </c>
-      <c r="FZ17">
-        <v>1818.722895897162</v>
-      </c>
-      <c r="GA17">
-        <v>1372.896696281221</v>
-      </c>
-      <c r="GB17">
-        <v>1236.734958500635</v>
-      </c>
-      <c r="GC17">
-        <v>899.1697759149674</v>
-      </c>
-      <c r="GD17">
-        <v>668.5102921102138</v>
-      </c>
-      <c r="GE17">
-        <v>2500.848591676263</v>
-      </c>
-      <c r="GF17">
-        <v>500.3345081770329</v>
-      </c>
       <c r="GG17">
-        <v>2133.141934794864</v>
+        <v>1182.083672027997</v>
       </c>
     </row>
     <row r="18" spans="1:189">
@@ -10569,46 +10569,46 @@
         <v>868.9621989519748</v>
       </c>
       <c r="FT18">
+        <v>996.2623547411174</v>
+      </c>
+      <c r="FU18">
+        <v>1389.159077644704</v>
+      </c>
+      <c r="FV18">
+        <v>2597.178549576636</v>
+      </c>
+      <c r="FW18">
+        <v>914.4737539108199</v>
+      </c>
+      <c r="FX18">
+        <v>443.8571358358769</v>
+      </c>
+      <c r="FY18">
+        <v>2098.390007109119</v>
+      </c>
+      <c r="FZ18">
+        <v>1347.474124890846</v>
+      </c>
+      <c r="GA18">
+        <v>1621.796709564227</v>
+      </c>
+      <c r="GB18">
+        <v>2066.02870245886</v>
+      </c>
+      <c r="GC18">
+        <v>1349.698871374432</v>
+      </c>
+      <c r="GD18">
+        <v>724.8003264429573</v>
+      </c>
+      <c r="GE18">
+        <v>2064.070963470615</v>
+      </c>
+      <c r="GF18">
         <v>134.1946951228162</v>
       </c>
-      <c r="FU18">
-        <v>2066.02870245886</v>
-      </c>
-      <c r="FV18">
-        <v>1347.474124890846</v>
-      </c>
-      <c r="FW18">
-        <v>1389.159077644704</v>
-      </c>
-      <c r="FX18">
-        <v>2098.390007109119</v>
-      </c>
-      <c r="FY18">
-        <v>914.4737539108199</v>
-      </c>
-      <c r="FZ18">
-        <v>1621.796709564227</v>
-      </c>
-      <c r="GA18">
-        <v>1349.698871374432</v>
-      </c>
-      <c r="GB18">
-        <v>1440.55304358981</v>
-      </c>
-      <c r="GC18">
-        <v>996.2623547411174</v>
-      </c>
-      <c r="GD18">
-        <v>443.8571358358769</v>
-      </c>
-      <c r="GE18">
-        <v>2597.178549576636</v>
-      </c>
-      <c r="GF18">
-        <v>724.8003264429573</v>
-      </c>
       <c r="GG18">
-        <v>2190.871712742312</v>
+        <v>1385.667691667149</v>
       </c>
     </row>
     <row r="19" spans="1:189">
@@ -11138,46 +11138,46 @@
         <v>658.3316503717103</v>
       </c>
       <c r="FT19">
+        <v>895.8509045983132</v>
+      </c>
+      <c r="FU19">
+        <v>1579.772104975718</v>
+      </c>
+      <c r="FV19">
+        <v>2493.209661740727</v>
+      </c>
+      <c r="FW19">
+        <v>650.752194375063</v>
+      </c>
+      <c r="FX19">
+        <v>717.5644714292528</v>
+      </c>
+      <c r="FY19">
+        <v>2095.174022367706</v>
+      </c>
+      <c r="FZ19">
+        <v>1083.841148785195</v>
+      </c>
+      <c r="GA19">
+        <v>1868.663518865395</v>
+      </c>
+      <c r="GB19">
+        <v>1957.114991127318</v>
+      </c>
+      <c r="GC19">
+        <v>1394.923214008804</v>
+      </c>
+      <c r="GD19">
+        <v>449.4936967938019</v>
+      </c>
+      <c r="GE19">
+        <v>1996.959444229212</v>
+      </c>
+      <c r="GF19">
         <v>195.394688078447</v>
       </c>
-      <c r="FU19">
-        <v>1957.114991127318</v>
-      </c>
-      <c r="FV19">
-        <v>1083.841148785195</v>
-      </c>
-      <c r="FW19">
-        <v>1579.772104975718</v>
-      </c>
-      <c r="FX19">
-        <v>2095.174022367706</v>
-      </c>
-      <c r="FY19">
-        <v>650.752194375063</v>
-      </c>
-      <c r="FZ19">
-        <v>1868.663518865395</v>
-      </c>
-      <c r="GA19">
-        <v>1394.923214008804</v>
-      </c>
-      <c r="GB19">
-        <v>1198.648318952709</v>
-      </c>
-      <c r="GC19">
-        <v>895.8509045983132</v>
-      </c>
-      <c r="GD19">
-        <v>717.5644714292528</v>
-      </c>
-      <c r="GE19">
-        <v>2493.209661740727</v>
-      </c>
-      <c r="GF19">
-        <v>449.4936967938019</v>
-      </c>
       <c r="GG19">
-        <v>2135.47063801248</v>
+        <v>1144.170443917885</v>
       </c>
     </row>
     <row r="20" spans="1:189">
@@ -11707,46 +11707,46 @@
         <v>956.5093385149976</v>
       </c>
       <c r="FT20">
+        <v>1196.095414057623</v>
+      </c>
+      <c r="FU20">
+        <v>1689.527138201934</v>
+      </c>
+      <c r="FV20">
+        <v>2797.309037926208</v>
+      </c>
+      <c r="FW20">
+        <v>898.5357239800097</v>
+      </c>
+      <c r="FX20">
+        <v>614.0156486026202</v>
+      </c>
+      <c r="FY20">
+        <v>2366.113040668501</v>
+      </c>
+      <c r="FZ20">
+        <v>1319.991280714714</v>
+      </c>
+      <c r="GA20">
+        <v>1882.042790668936</v>
+      </c>
+      <c r="GB20">
+        <v>2261.487857708213</v>
+      </c>
+      <c r="GC20">
+        <v>1636.395277564387</v>
+      </c>
+      <c r="GD20">
+        <v>637.33585011402</v>
+      </c>
+      <c r="GE20">
+        <v>2292.571891080082</v>
+      </c>
+      <c r="GF20">
         <v>189.3950268057681</v>
       </c>
-      <c r="FU20">
-        <v>2261.487857708213</v>
-      </c>
-      <c r="FV20">
-        <v>1319.991280714714</v>
-      </c>
-      <c r="FW20">
-        <v>1689.527138201934</v>
-      </c>
-      <c r="FX20">
-        <v>2366.113040668501</v>
-      </c>
-      <c r="FY20">
-        <v>898.5357239800097</v>
-      </c>
-      <c r="FZ20">
-        <v>1882.042790668936</v>
-      </c>
-      <c r="GA20">
-        <v>1636.395277564387</v>
-      </c>
-      <c r="GB20">
-        <v>1467.977990851022</v>
-      </c>
-      <c r="GC20">
-        <v>1196.095414057623</v>
-      </c>
-      <c r="GD20">
-        <v>614.0156486026202</v>
-      </c>
-      <c r="GE20">
-        <v>2797.309037926208</v>
-      </c>
-      <c r="GF20">
-        <v>637.33585011402</v>
-      </c>
       <c r="GG20">
-        <v>2427.756210455635</v>
+        <v>1414.593716085028</v>
       </c>
     </row>
     <row r="21" spans="1:189">
@@ -12276,46 +12276,46 @@
         <v>892.5508738987196</v>
       </c>
       <c r="FT21">
+        <v>1098.819083516361</v>
+      </c>
+      <c r="FU21">
+        <v>1578.403135778178</v>
+      </c>
+      <c r="FV21">
+        <v>2703.017612396271</v>
+      </c>
+      <c r="FW21">
+        <v>871.8610333823568</v>
+      </c>
+      <c r="FX21">
+        <v>550.8865148576836</v>
+      </c>
+      <c r="FY21">
+        <v>2252.672164175856</v>
+      </c>
+      <c r="FZ21">
+        <v>1301.804540031623</v>
+      </c>
+      <c r="GA21">
+        <v>1791.333238778456</v>
+      </c>
+      <c r="GB21">
+        <v>2168.092466597079</v>
+      </c>
+      <c r="GC21">
+        <v>1518.726898973712</v>
+      </c>
+      <c r="GD21">
+        <v>635.6073320583638</v>
+      </c>
+      <c r="GE21">
+        <v>2189.431624620642</v>
+      </c>
+      <c r="GF21">
         <v>71.67504812270678</v>
       </c>
-      <c r="FU21">
-        <v>2168.092466597079</v>
-      </c>
-      <c r="FV21">
-        <v>1301.804540031623</v>
-      </c>
-      <c r="FW21">
-        <v>1578.403135778178</v>
-      </c>
-      <c r="FX21">
-        <v>2252.672164175856</v>
-      </c>
-      <c r="FY21">
-        <v>871.8610333823568</v>
-      </c>
-      <c r="FZ21">
-        <v>1791.333238778456</v>
-      </c>
-      <c r="GA21">
-        <v>1518.726898973712</v>
-      </c>
-      <c r="GB21">
-        <v>1429.589506819375</v>
-      </c>
-      <c r="GC21">
-        <v>1098.819083516361</v>
-      </c>
-      <c r="GD21">
-        <v>550.8865148576836</v>
-      </c>
-      <c r="GE21">
-        <v>2703.017612396271</v>
-      </c>
-      <c r="GF21">
-        <v>635.6073320583638</v>
-      </c>
       <c r="GG21">
-        <v>2322.367432356157</v>
+        <v>1375.358701630832</v>
       </c>
     </row>
     <row r="22" spans="1:189">
@@ -12845,46 +12845,46 @@
         <v>844.0987264833343</v>
       </c>
       <c r="FT22">
+        <v>1032.766324625263</v>
+      </c>
+      <c r="FU22">
+        <v>1521.801904484974</v>
+      </c>
+      <c r="FV22">
+        <v>2637.454212781936</v>
+      </c>
+      <c r="FW22">
+        <v>845.1010770467474</v>
+      </c>
+      <c r="FX22">
+        <v>540.7414212062423</v>
+      </c>
+      <c r="FY22">
+        <v>2181.129490787039</v>
+      </c>
+      <c r="FZ22">
+        <v>1277.658653156077</v>
+      </c>
+      <c r="GA22">
+        <v>1752.997237725009</v>
+      </c>
+      <c r="GB22">
+        <v>2103.040243106572</v>
+      </c>
+      <c r="GC22">
+        <v>1447.372454793094</v>
+      </c>
+      <c r="GD22">
+        <v>626.5915178077541</v>
+      </c>
+      <c r="GE22">
+        <v>2120.593147051139</v>
+      </c>
+      <c r="GF22">
         <v>0</v>
       </c>
-      <c r="FU22">
-        <v>2103.040243106572</v>
-      </c>
-      <c r="FV22">
-        <v>1277.658653156077</v>
-      </c>
-      <c r="FW22">
-        <v>1521.801904484974</v>
-      </c>
-      <c r="FX22">
-        <v>2181.129490787039</v>
-      </c>
-      <c r="FY22">
-        <v>845.1010770467474</v>
-      </c>
-      <c r="FZ22">
-        <v>1752.997237725009</v>
-      </c>
-      <c r="GA22">
-        <v>1447.372454793094</v>
-      </c>
-      <c r="GB22">
-        <v>1393.455016447605</v>
-      </c>
-      <c r="GC22">
-        <v>1032.766324625263</v>
-      </c>
-      <c r="GD22">
-        <v>540.7414212062423</v>
-      </c>
-      <c r="GE22">
-        <v>2637.454212781936</v>
-      </c>
-      <c r="GF22">
-        <v>626.5915178077541</v>
-      </c>
       <c r="GG22">
-        <v>2252.761725222908</v>
+        <v>1338.897548960874</v>
       </c>
     </row>
     <row r="23" spans="1:189">
@@ -13414,46 +13414,46 @@
         <v>830.286949905208</v>
       </c>
       <c r="FT23">
+        <v>997.7392227692377</v>
+      </c>
+      <c r="FU23">
+        <v>1470.610743846127</v>
+      </c>
+      <c r="FV23">
+        <v>2602.329872670471</v>
+      </c>
+      <c r="FW23">
+        <v>850.6526737409038</v>
+      </c>
+      <c r="FX23">
+        <v>517.7164578106275</v>
+      </c>
+      <c r="FY23">
+        <v>2134.238381606189</v>
+      </c>
+      <c r="FZ23">
+        <v>1284.036587173867</v>
+      </c>
+      <c r="GA23">
+        <v>1709.709762922764</v>
+      </c>
+      <c r="GB23">
+        <v>2068.759293323599</v>
+      </c>
+      <c r="GC23">
+        <v>1397.170670130281</v>
+      </c>
+      <c r="GD23">
+        <v>646.5792024935108</v>
+      </c>
+      <c r="GE23">
+        <v>2080.487881224038</v>
+      </c>
+      <c r="GF23">
         <v>52.99949669990065</v>
       </c>
-      <c r="FU23">
-        <v>2068.759293323599</v>
-      </c>
-      <c r="FV23">
-        <v>1284.036587173867</v>
-      </c>
-      <c r="FW23">
-        <v>1470.610743846127</v>
-      </c>
-      <c r="FX23">
-        <v>2134.238381606189</v>
-      </c>
-      <c r="FY23">
-        <v>850.6526737409038</v>
-      </c>
-      <c r="FZ23">
-        <v>1709.709762922764</v>
-      </c>
-      <c r="GA23">
-        <v>1397.170670130281</v>
-      </c>
-      <c r="GB23">
-        <v>1389.750377095339</v>
-      </c>
-      <c r="GC23">
-        <v>997.7392227692377</v>
-      </c>
-      <c r="GD23">
-        <v>517.7164578106275</v>
-      </c>
-      <c r="GE23">
-        <v>2602.329872670471</v>
-      </c>
-      <c r="GF23">
-        <v>646.5792024935108</v>
-      </c>
       <c r="GG23">
-        <v>2211.198356140704</v>
+        <v>1334.997593611675</v>
       </c>
     </row>
     <row r="24" spans="1:189">
@@ -13983,46 +13983,46 @@
         <v>1837.74873619307</v>
       </c>
       <c r="FT24">
+        <v>1566.153072454196</v>
+      </c>
+      <c r="FU24">
+        <v>2420.08986910537</v>
+      </c>
+      <c r="FV24">
+        <v>158.5521057776684</v>
+      </c>
+      <c r="FW24">
+        <v>2056.980738633294</v>
+      </c>
+      <c r="FX24">
+        <v>2850.842611271256</v>
+      </c>
+      <c r="FY24">
+        <v>1070.536583284225</v>
+      </c>
+      <c r="FZ24">
+        <v>1903.382094656844</v>
+      </c>
+      <c r="GA24">
+        <v>3032.266333800138</v>
+      </c>
+      <c r="GB24">
+        <v>500.4937523573565</v>
+      </c>
+      <c r="GC24">
+        <v>1591.249574041257</v>
+      </c>
+      <c r="GD24">
+        <v>2329.920850496618</v>
+      </c>
+      <c r="GE24">
+        <v>655.0590286600707</v>
+      </c>
+      <c r="GF24">
         <v>2594.979889346879</v>
       </c>
-      <c r="FU24">
-        <v>500.4937523573565</v>
-      </c>
-      <c r="FV24">
-        <v>1903.382094656844</v>
-      </c>
-      <c r="FW24">
-        <v>2420.08986910537</v>
-      </c>
-      <c r="FX24">
-        <v>1070.536583284225</v>
-      </c>
-      <c r="FY24">
-        <v>2056.980738633294</v>
-      </c>
-      <c r="FZ24">
-        <v>3032.266333800138</v>
-      </c>
-      <c r="GA24">
-        <v>1591.249574041257</v>
-      </c>
-      <c r="GB24">
-        <v>1626.32258675641</v>
-      </c>
-      <c r="GC24">
-        <v>1566.153072454196</v>
-      </c>
-      <c r="GD24">
-        <v>2850.842611271256</v>
-      </c>
-      <c r="GE24">
-        <v>158.5521057776684</v>
-      </c>
-      <c r="GF24">
-        <v>2329.920850496618</v>
-      </c>
       <c r="GG24">
-        <v>662.5094841507452</v>
+        <v>1647.698095944643</v>
       </c>
     </row>
     <row r="25" spans="1:189">
@@ -14552,46 +14552,46 @@
         <v>1653.058975003952</v>
       </c>
       <c r="FT25">
+        <v>1347.274333669257</v>
+      </c>
+      <c r="FU25">
+        <v>2165.542723992149</v>
+      </c>
+      <c r="FV25">
+        <v>257.6707504164244</v>
+      </c>
+      <c r="FW25">
+        <v>1893.019039457731</v>
+      </c>
+      <c r="FX25">
+        <v>2614.11063290799</v>
+      </c>
+      <c r="FY25">
+        <v>845.5395286766365</v>
+      </c>
+      <c r="FZ25">
+        <v>1785.406061785597</v>
+      </c>
+      <c r="GA25">
+        <v>2777.743225316957</v>
+      </c>
+      <c r="GB25">
+        <v>279.1297681198093</v>
+      </c>
+      <c r="GC25">
+        <v>1336.060138294878</v>
+      </c>
+      <c r="GD25">
+        <v>2154.602301249736</v>
+      </c>
+      <c r="GE25">
+        <v>403.1816248236352</v>
+      </c>
+      <c r="GF25">
         <v>2379.898214048765</v>
       </c>
-      <c r="FU25">
-        <v>279.1297681198093</v>
-      </c>
-      <c r="FV25">
-        <v>1785.406061785597</v>
-      </c>
-      <c r="FW25">
-        <v>2165.542723992149</v>
-      </c>
-      <c r="FX25">
-        <v>845.5395286766365</v>
-      </c>
-      <c r="FY25">
-        <v>1893.019039457731</v>
-      </c>
-      <c r="FZ25">
-        <v>2777.743225316957</v>
-      </c>
-      <c r="GA25">
-        <v>1336.060138294878</v>
-      </c>
-      <c r="GB25">
-        <v>1511.84378270692</v>
-      </c>
-      <c r="GC25">
-        <v>1347.274333669257</v>
-      </c>
-      <c r="GD25">
-        <v>2614.11063290799</v>
-      </c>
-      <c r="GE25">
-        <v>257.6707504164244</v>
-      </c>
-      <c r="GF25">
-        <v>2154.602301249736</v>
-      </c>
       <c r="GG25">
-        <v>434.8418642166652</v>
+        <v>1525.762754665343</v>
       </c>
     </row>
     <row r="26" spans="1:189">
@@ -15121,46 +15121,46 @@
         <v>1906.905932428755</v>
       </c>
       <c r="FT26">
+        <v>1604.763311894769</v>
+      </c>
+      <c r="FU26">
+        <v>2367.239097417825</v>
+      </c>
+      <c r="FV26">
+        <v>0</v>
+      </c>
+      <c r="FW26">
+        <v>2140.838814979187</v>
+      </c>
+      <c r="FX26">
+        <v>2865.750722220912</v>
+      </c>
+      <c r="FY26">
+        <v>971.7399439992511</v>
+      </c>
+      <c r="FZ26">
+        <v>2012.59800866785</v>
+      </c>
+      <c r="GA26">
+        <v>2978.161445398661</v>
+      </c>
+      <c r="GB26">
+        <v>536.2752611961101</v>
+      </c>
+      <c r="GC26">
+        <v>1555.370820870623</v>
+      </c>
+      <c r="GD26">
+        <v>2406.335303967287</v>
+      </c>
+      <c r="GE26">
+        <v>606.7308341206729</v>
+      </c>
+      <c r="GF26">
         <v>2637.454212781936</v>
       </c>
-      <c r="FU26">
-        <v>536.2752611961101</v>
-      </c>
-      <c r="FV26">
-        <v>2012.59800866785</v>
-      </c>
-      <c r="FW26">
-        <v>2367.239097417825</v>
-      </c>
-      <c r="FX26">
-        <v>971.7399439992511</v>
-      </c>
-      <c r="FY26">
-        <v>2140.838814979187</v>
-      </c>
-      <c r="FZ26">
-        <v>2978.161445398661</v>
-      </c>
-      <c r="GA26">
-        <v>1555.370820870623</v>
-      </c>
-      <c r="GB26">
-        <v>1736.57327351836</v>
-      </c>
-      <c r="GC26">
-        <v>1604.763311894769</v>
-      </c>
-      <c r="GD26">
-        <v>2865.750722220912</v>
-      </c>
-      <c r="GE26">
-        <v>0</v>
-      </c>
-      <c r="GF26">
-        <v>2406.335303967287</v>
-      </c>
       <c r="GG26">
-        <v>577.1982863134238</v>
+        <v>1754.442681727774</v>
       </c>
     </row>
     <row r="27" spans="1:189">
@@ -15690,46 +15690,46 @@
         <v>2052.249646218537</v>
       </c>
       <c r="FT27">
+        <v>1732.500195056582</v>
+      </c>
+      <c r="FU27">
+        <v>2411.18382971289</v>
+      </c>
+      <c r="FV27">
+        <v>167.516770776738</v>
+      </c>
+      <c r="FW27">
+        <v>2293.385239618192</v>
+      </c>
+      <c r="FX27">
+        <v>2971.613412956453</v>
+      </c>
+      <c r="FY27">
+        <v>974.3678295961532</v>
+      </c>
+      <c r="FZ27">
+        <v>2175.600703077734</v>
+      </c>
+      <c r="GA27">
+        <v>3018.590927675719</v>
+      </c>
+      <c r="GB27">
+        <v>676.7601827435179</v>
+      </c>
+      <c r="GC27">
+        <v>1622.126768652684</v>
+      </c>
+      <c r="GD27">
+        <v>2554.68826712181</v>
+      </c>
+      <c r="GE27">
+        <v>682.9075949699363</v>
+      </c>
+      <c r="GF27">
         <v>2764.47341475763</v>
       </c>
-      <c r="FU27">
-        <v>676.7601827435179</v>
-      </c>
-      <c r="FV27">
-        <v>2175.600703077734</v>
-      </c>
-      <c r="FW27">
-        <v>2411.18382971289</v>
-      </c>
-      <c r="FX27">
-        <v>974.3678295961532</v>
-      </c>
-      <c r="FY27">
-        <v>2293.385239618192</v>
-      </c>
-      <c r="FZ27">
-        <v>3018.590927675719</v>
-      </c>
-      <c r="GA27">
-        <v>1622.126768652684</v>
-      </c>
-      <c r="GB27">
-        <v>1900.109611806428</v>
-      </c>
-      <c r="GC27">
-        <v>1732.500195056582</v>
-      </c>
-      <c r="GD27">
-        <v>2971.613412956453</v>
-      </c>
-      <c r="GE27">
-        <v>167.516770776738</v>
-      </c>
-      <c r="GF27">
-        <v>2554.68826712181</v>
-      </c>
       <c r="GG27">
-        <v>614.3247381828302</v>
+        <v>1916.876422679432</v>
       </c>
     </row>
     <row r="28" spans="1:189">
@@ -16259,46 +16259,46 @@
         <v>1330.892736939903</v>
       </c>
       <c r="FT28">
+        <v>1073.585795678836</v>
+      </c>
+      <c r="FU28">
+        <v>2084.20621369875</v>
+      </c>
+      <c r="FV28">
+        <v>586.4430727889381</v>
+      </c>
+      <c r="FW28">
+        <v>1555.729020794156</v>
+      </c>
+      <c r="FX28">
+        <v>2376.457261219382</v>
+      </c>
+      <c r="FY28">
+        <v>967.6428057527756</v>
+      </c>
+      <c r="FZ28">
+        <v>1434.496321395527</v>
+      </c>
+      <c r="GA28">
+        <v>2690.414472549051</v>
+      </c>
+      <c r="GB28">
+        <v>160.0485342092437</v>
+      </c>
+      <c r="GC28">
+        <v>1235.221275231684</v>
+      </c>
+      <c r="GD28">
+        <v>1824.966455338222</v>
+      </c>
+      <c r="GE28">
+        <v>483.5656160875095</v>
+      </c>
+      <c r="GF28">
         <v>2095.287940847649</v>
       </c>
-      <c r="FU28">
-        <v>160.0485342092437</v>
-      </c>
-      <c r="FV28">
-        <v>1434.496321395527</v>
-      </c>
-      <c r="FW28">
-        <v>2084.20621369875</v>
-      </c>
-      <c r="FX28">
-        <v>967.6428057527756</v>
-      </c>
-      <c r="FY28">
-        <v>1555.729020794156</v>
-      </c>
-      <c r="FZ28">
-        <v>2690.414472549051</v>
-      </c>
-      <c r="GA28">
-        <v>1235.221275231684</v>
-      </c>
-      <c r="GB28">
-        <v>1160.798038497201</v>
-      </c>
-      <c r="GC28">
-        <v>1073.585795678836</v>
-      </c>
-      <c r="GD28">
-        <v>2376.457261219382</v>
-      </c>
-      <c r="GE28">
-        <v>586.4430727889381</v>
-      </c>
-      <c r="GF28">
-        <v>1824.966455338222</v>
-      </c>
       <c r="GG28">
-        <v>609.5914461105975</v>
+        <v>1174.962635865266</v>
       </c>
     </row>
     <row r="29" spans="1:189">
@@ -16828,46 +16828,46 @@
         <v>1258.459187385208</v>
       </c>
       <c r="FT29">
+        <v>976.0986337945037</v>
+      </c>
+      <c r="FU29">
+        <v>1968.137441328871</v>
+      </c>
+      <c r="FV29">
+        <v>648.4509309450181</v>
+      </c>
+      <c r="FW29">
+        <v>1497.295876944792</v>
+      </c>
+      <c r="FX29">
+        <v>2271.678408396217</v>
+      </c>
+      <c r="FY29">
+        <v>888.4389276463099</v>
+      </c>
+      <c r="FZ29">
+        <v>1406.954436197033</v>
+      </c>
+      <c r="GA29">
+        <v>2574.003135761803</v>
+      </c>
+      <c r="GB29">
+        <v>130.0126445624274</v>
+      </c>
+      <c r="GC29">
+        <v>1119.117477497037</v>
+      </c>
+      <c r="GD29">
+        <v>1758.814527425947</v>
+      </c>
+      <c r="GE29">
+        <v>416.6494225194275</v>
+      </c>
+      <c r="GF29">
         <v>2003.765577681036</v>
       </c>
-      <c r="FU29">
-        <v>130.0126445624274</v>
-      </c>
-      <c r="FV29">
-        <v>1406.954436197033</v>
-      </c>
-      <c r="FW29">
-        <v>1968.137441328871</v>
-      </c>
-      <c r="FX29">
-        <v>888.4389276463099</v>
-      </c>
-      <c r="FY29">
-        <v>1497.295876944792</v>
-      </c>
-      <c r="FZ29">
-        <v>2574.003135761803</v>
-      </c>
-      <c r="GA29">
-        <v>1119.117477497037</v>
-      </c>
-      <c r="GB29">
-        <v>1138.2345107661</v>
-      </c>
-      <c r="GC29">
-        <v>976.0986337945037</v>
-      </c>
-      <c r="GD29">
-        <v>2271.678408396217</v>
-      </c>
-      <c r="GE29">
-        <v>648.4509309450181</v>
-      </c>
-      <c r="GF29">
-        <v>1758.814527425947</v>
-      </c>
       <c r="GG29">
-        <v>559.9627769076042</v>
+        <v>1147.109024676767</v>
       </c>
     </row>
     <row r="30" spans="1:189">
@@ -17397,46 +17397,46 @@
         <v>1284.312872648968</v>
       </c>
       <c r="FT30">
+        <v>1007.65410467755</v>
+      </c>
+      <c r="FU30">
+        <v>2000.572158023802</v>
+      </c>
+      <c r="FV30">
+        <v>623.0959688387464</v>
+      </c>
+      <c r="FW30">
+        <v>1519.711482543415</v>
+      </c>
+      <c r="FX30">
+        <v>2304.752486311645</v>
+      </c>
+      <c r="FY30">
+        <v>904.7641489351713</v>
+      </c>
+      <c r="FZ30">
+        <v>1421.0631777125</v>
+      </c>
+      <c r="GA30">
+        <v>2606.816680819979</v>
+      </c>
+      <c r="GB30">
+        <v>121.5939988741015</v>
+      </c>
+      <c r="GC30">
+        <v>1151.585532993183</v>
+      </c>
+      <c r="GD30">
+        <v>1783.280536539226</v>
+      </c>
+      <c r="GE30">
+        <v>427.4441476670224</v>
+      </c>
+      <c r="GF30">
         <v>2034.245987215027</v>
       </c>
-      <c r="FU30">
-        <v>121.5939988741015</v>
-      </c>
-      <c r="FV30">
-        <v>1421.0631777125</v>
-      </c>
-      <c r="FW30">
-        <v>2000.572158023802</v>
-      </c>
-      <c r="FX30">
-        <v>904.7641489351713</v>
-      </c>
-      <c r="FY30">
-        <v>1519.711482543415</v>
-      </c>
-      <c r="FZ30">
-        <v>2606.816680819979</v>
-      </c>
-      <c r="GA30">
-        <v>1151.585532993183</v>
-      </c>
-      <c r="GB30">
-        <v>1150.749281912029</v>
-      </c>
-      <c r="GC30">
-        <v>1007.65410467755</v>
-      </c>
-      <c r="GD30">
-        <v>2304.752486311645</v>
-      </c>
-      <c r="GE30">
-        <v>623.0959688387464</v>
-      </c>
-      <c r="GF30">
-        <v>1783.280536539226</v>
-      </c>
       <c r="GG30">
-        <v>565.3997500809425</v>
+        <v>1161.101655992264</v>
       </c>
     </row>
     <row r="31" spans="1:189">
@@ -17966,46 +17966,46 @@
         <v>1432.190468381216</v>
       </c>
       <c r="FT31">
+        <v>1127.207405024305</v>
+      </c>
+      <c r="FU31">
+        <v>2015.814063468659</v>
+      </c>
+      <c r="FV31">
+        <v>479.4083542778912</v>
+      </c>
+      <c r="FW31">
+        <v>1676.410385144314</v>
+      </c>
+      <c r="FX31">
+        <v>2403.630782641907</v>
+      </c>
+      <c r="FY31">
+        <v>808.5828555426174</v>
+      </c>
+      <c r="FZ31">
+        <v>1587.17906010864</v>
+      </c>
+      <c r="GA31">
+        <v>2626.627364680352</v>
+      </c>
+      <c r="GB31">
+        <v>56.97139655378361</v>
+      </c>
+      <c r="GC31">
+        <v>1172.650846280296</v>
+      </c>
+      <c r="GD31">
+        <v>1934.953612372864</v>
+      </c>
+      <c r="GE31">
+        <v>321.8858831337699</v>
+      </c>
+      <c r="GF31">
         <v>2159.38352421807</v>
       </c>
-      <c r="FU31">
-        <v>56.97139655378361</v>
-      </c>
-      <c r="FV31">
-        <v>1587.17906010864</v>
-      </c>
-      <c r="FW31">
-        <v>2015.814063468659</v>
-      </c>
-      <c r="FX31">
-        <v>808.5828555426174</v>
-      </c>
-      <c r="FY31">
-        <v>1676.410385144314</v>
-      </c>
-      <c r="FZ31">
-        <v>2626.627364680352</v>
-      </c>
-      <c r="GA31">
-        <v>1172.650846280296</v>
-      </c>
-      <c r="GB31">
-        <v>1317.233753592191</v>
-      </c>
-      <c r="GC31">
-        <v>1127.207405024305</v>
-      </c>
-      <c r="GD31">
-        <v>2403.630782641907</v>
-      </c>
-      <c r="GE31">
-        <v>479.4083542778912</v>
-      </c>
-      <c r="GF31">
-        <v>1934.953612372864</v>
-      </c>
       <c r="GG31">
-        <v>432.5011104279552</v>
+        <v>1327.240896317115</v>
       </c>
     </row>
     <row r="32" spans="1:189">
@@ -18535,46 +18535,46 @@
         <v>1375.501742849538</v>
       </c>
       <c r="FT32">
+        <v>1071.090925273024</v>
+      </c>
+      <c r="FU32">
+        <v>1980.441267399269</v>
+      </c>
+      <c r="FV32">
+        <v>536.2752611961101</v>
+      </c>
+      <c r="FW32">
+        <v>1620.858236866926</v>
+      </c>
+      <c r="FX32">
+        <v>2350.372934179823</v>
+      </c>
+      <c r="FY32">
+        <v>809.7785923858052</v>
+      </c>
+      <c r="FZ32">
+        <v>1536.888020980227</v>
+      </c>
+      <c r="GA32">
+        <v>2590.340308597805</v>
+      </c>
+      <c r="GB32">
+        <v>0</v>
+      </c>
+      <c r="GC32">
+        <v>1134.765445180305</v>
+      </c>
+      <c r="GD32">
+        <v>1878.560735837452</v>
+      </c>
+      <c r="GE32">
+        <v>324.1557342892302</v>
+      </c>
+      <c r="GF32">
         <v>2103.040243106572</v>
       </c>
-      <c r="FU32">
-        <v>0</v>
-      </c>
-      <c r="FV32">
-        <v>1536.888020980227</v>
-      </c>
-      <c r="FW32">
-        <v>1980.441267399269</v>
-      </c>
-      <c r="FX32">
-        <v>809.7785923858052</v>
-      </c>
-      <c r="FY32">
-        <v>1620.858236866926</v>
-      </c>
-      <c r="FZ32">
-        <v>2590.340308597805</v>
-      </c>
-      <c r="GA32">
-        <v>1134.765445180305</v>
-      </c>
-      <c r="GB32">
-        <v>1268.229875752277</v>
-      </c>
-      <c r="GC32">
-        <v>1071.090925273024</v>
-      </c>
-      <c r="GD32">
-        <v>2350.372934179823</v>
-      </c>
-      <c r="GE32">
-        <v>536.2752611961101</v>
-      </c>
-      <c r="GF32">
-        <v>1878.560735837452</v>
-      </c>
       <c r="GG32">
-        <v>450.913775465109</v>
+        <v>1277.068398901912</v>
       </c>
     </row>
     <row r="33" spans="1:189">
@@ -19104,46 +19104,46 @@
         <v>499.6863318086068</v>
       </c>
       <c r="FT33">
+        <v>872.6733517525387</v>
+      </c>
+      <c r="FU33">
+        <v>2207.315718818601</v>
+      </c>
+      <c r="FV33">
+        <v>1962.779488937596</v>
+      </c>
+      <c r="FW33">
+        <v>368.2980322688836</v>
+      </c>
+      <c r="FX33">
+        <v>1714.717925323395</v>
+      </c>
+      <c r="FY33">
+        <v>1996.768719322315</v>
+      </c>
+      <c r="FZ33">
+        <v>97.80084843190912</v>
+      </c>
+      <c r="GA33">
+        <v>2665.886041556122</v>
+      </c>
+      <c r="GB33">
+        <v>1476.061013173426</v>
+      </c>
+      <c r="GC33">
+        <v>1612.099961461016</v>
+      </c>
+      <c r="GD33">
+        <v>642.827697502079</v>
+      </c>
+      <c r="GE33">
+        <v>1674.553418278093</v>
+      </c>
+      <c r="GF33">
         <v>1211.974803267944</v>
       </c>
-      <c r="FU33">
-        <v>1476.061013173426</v>
-      </c>
-      <c r="FV33">
-        <v>97.80084843190912</v>
-      </c>
-      <c r="FW33">
-        <v>2207.315718818601</v>
-      </c>
-      <c r="FX33">
-        <v>1996.768719322315</v>
-      </c>
-      <c r="FY33">
-        <v>368.2980322688836</v>
-      </c>
-      <c r="FZ33">
-        <v>2665.886041556122</v>
-      </c>
-      <c r="GA33">
-        <v>1612.099961461016</v>
-      </c>
-      <c r="GB33">
-        <v>248.5427273192036</v>
-      </c>
-      <c r="GC33">
-        <v>872.6733517525387</v>
-      </c>
-      <c r="GD33">
-        <v>1714.717925323395</v>
-      </c>
-      <c r="GE33">
-        <v>1962.779488937596</v>
-      </c>
-      <c r="GF33">
-        <v>642.827697502079</v>
-      </c>
       <c r="GG33">
-        <v>1835.79991319492</v>
+        <v>213.8692844463879</v>
       </c>
     </row>
     <row r="34" spans="1:189">
@@ -19673,46 +19673,46 @@
         <v>594.4424609073457</v>
       </c>
       <c r="FT34">
+        <v>969.7956996288503</v>
+      </c>
+      <c r="FU34">
+        <v>2304.137529427024</v>
+      </c>
+      <c r="FV34">
+        <v>2012.59800866785</v>
+      </c>
+      <c r="FW34">
+        <v>433.4175883183877</v>
+      </c>
+      <c r="FX34">
+        <v>1789.055123291982</v>
+      </c>
+      <c r="FY34">
+        <v>2080.178776275282</v>
+      </c>
+      <c r="FZ34">
+        <v>0</v>
+      </c>
+      <c r="GA34">
+        <v>2759.125586227252</v>
+      </c>
+      <c r="GB34">
+        <v>1536.888020980227</v>
+      </c>
+      <c r="GC34">
+        <v>1708.449175647813</v>
+      </c>
+      <c r="GD34">
+        <v>687.589820448837</v>
+      </c>
+      <c r="GE34">
+        <v>1746.609525649385</v>
+      </c>
+      <c r="GF34">
         <v>1277.658653156077</v>
       </c>
-      <c r="FU34">
-        <v>1536.888020980227</v>
-      </c>
-      <c r="FV34">
-        <v>0</v>
-      </c>
-      <c r="FW34">
-        <v>2304.137529427024</v>
-      </c>
-      <c r="FX34">
-        <v>2080.178776275282</v>
-      </c>
-      <c r="FY34">
-        <v>433.4175883183877</v>
-      </c>
-      <c r="FZ34">
-        <v>2759.125586227252</v>
-      </c>
-      <c r="GA34">
-        <v>1708.449175647813</v>
-      </c>
-      <c r="GB34">
-        <v>277.1653991609436</v>
-      </c>
-      <c r="GC34">
-        <v>969.7956996288503</v>
-      </c>
-      <c r="GD34">
-        <v>1789.055123291982</v>
-      </c>
-      <c r="GE34">
-        <v>2012.59800866785</v>
-      </c>
-      <c r="GF34">
-        <v>687.589820448837</v>
-      </c>
       <c r="GG34">
-        <v>1907.885477686847</v>
+        <v>259.9665107247332</v>
       </c>
     </row>
     <row r="35" spans="1:189">
@@ -20242,46 +20242,46 @@
         <v>755.0872144746781</v>
       </c>
       <c r="FT35">
+        <v>1120.965921766643</v>
+      </c>
+      <c r="FU35">
+        <v>2463.713343017408</v>
+      </c>
+      <c r="FV35">
+        <v>2064.883951247962</v>
+      </c>
+      <c r="FW35">
+        <v>580.0127338392987</v>
+      </c>
+      <c r="FX35">
+        <v>1936.436764601656</v>
+      </c>
+      <c r="FY35">
+        <v>2195.327289306505</v>
+      </c>
+      <c r="FZ35">
+        <v>160.7125477956193</v>
+      </c>
+      <c r="GA35">
+        <v>2919.719359964111</v>
+      </c>
+      <c r="GB35">
+        <v>1611.181948250061</v>
+      </c>
+      <c r="GC35">
+        <v>1855.791054700558</v>
+      </c>
+      <c r="GD35">
+        <v>810.7807648351719</v>
+      </c>
+      <c r="GE35">
+        <v>1840.332864447834</v>
+      </c>
+      <c r="GF35">
         <v>1417.612595351679</v>
       </c>
-      <c r="FU35">
-        <v>1611.181948250061</v>
-      </c>
-      <c r="FV35">
-        <v>160.7125477956193</v>
-      </c>
-      <c r="FW35">
-        <v>2463.713343017408</v>
-      </c>
-      <c r="FX35">
-        <v>2195.327289306505</v>
-      </c>
-      <c r="FY35">
-        <v>580.0127338392987</v>
-      </c>
-      <c r="FZ35">
-        <v>2919.719359964111</v>
-      </c>
-      <c r="GA35">
-        <v>1855.791054700558</v>
-      </c>
-      <c r="GB35">
-        <v>348.112618387679</v>
-      </c>
-      <c r="GC35">
-        <v>1120.965921766643</v>
-      </c>
-      <c r="GD35">
-        <v>1936.436764601656</v>
-      </c>
-      <c r="GE35">
-        <v>2064.883951247962</v>
-      </c>
-      <c r="GF35">
-        <v>810.7807648351719</v>
-      </c>
       <c r="GG35">
-        <v>2001.062877280107</v>
+        <v>355.3380555784184</v>
       </c>
     </row>
     <row r="36" spans="1:189">
@@ -20811,46 +20811,46 @@
         <v>697.4835267259695</v>
       </c>
       <c r="FT36">
+        <v>916.0963288158725</v>
+      </c>
+      <c r="FU36">
+        <v>2301.188640977916</v>
+      </c>
+      <c r="FV36">
+        <v>1673.445439334468</v>
+      </c>
+      <c r="FW36">
+        <v>691.5424721935267</v>
+      </c>
+      <c r="FX36">
+        <v>1978.194081478968</v>
+      </c>
+      <c r="FY36">
+        <v>1848.251976140012</v>
+      </c>
+      <c r="FZ36">
+        <v>362.8613623325087</v>
+      </c>
+      <c r="GA36">
+        <v>2809.945554185307</v>
+      </c>
+      <c r="GB36">
+        <v>1224.623231128728</v>
+      </c>
+      <c r="GC36">
+        <v>1604.852990571556</v>
+      </c>
+      <c r="GD36">
+        <v>981.9962124468219</v>
+      </c>
+      <c r="GE36">
+        <v>1466.982453320637</v>
+      </c>
+      <c r="GF36">
         <v>1507.42128199751</v>
       </c>
-      <c r="FU36">
-        <v>1224.623231128728</v>
-      </c>
-      <c r="FV36">
-        <v>362.8613623325087</v>
-      </c>
-      <c r="FW36">
-        <v>2301.188640977916</v>
-      </c>
-      <c r="FX36">
-        <v>1848.251976140012</v>
-      </c>
-      <c r="FY36">
-        <v>691.5424721935267</v>
-      </c>
-      <c r="FZ36">
-        <v>2809.945554185307</v>
-      </c>
-      <c r="GA36">
-        <v>1604.852990571556</v>
-      </c>
-      <c r="GB36">
-        <v>115.6860997425716</v>
-      </c>
-      <c r="GC36">
-        <v>916.0963288158725</v>
-      </c>
-      <c r="GD36">
-        <v>1978.194081478968</v>
-      </c>
-      <c r="GE36">
-        <v>1673.445439334468</v>
-      </c>
-      <c r="GF36">
-        <v>981.9962124468219</v>
-      </c>
       <c r="GG36">
-        <v>1626.44512235721</v>
+        <v>169.035102014544</v>
       </c>
     </row>
     <row r="37" spans="1:189">
@@ -21380,46 +21380,46 @@
         <v>361.4727480284768</v>
       </c>
       <c r="FT37">
+        <v>734.7307554835129</v>
+      </c>
+      <c r="FU37">
+        <v>2065.919124598204</v>
+      </c>
+      <c r="FV37">
+        <v>1908.449616501309</v>
+      </c>
+      <c r="FW37">
+        <v>294.8756744411115</v>
+      </c>
+      <c r="FX37">
+        <v>1603.301329830905</v>
+      </c>
+      <c r="FY37">
+        <v>1885.766226525997</v>
+      </c>
+      <c r="FZ37">
+        <v>239.2445087355543</v>
+      </c>
+      <c r="GA37">
+        <v>2528.03406041927</v>
+      </c>
+      <c r="GB37">
+        <v>1406.002080099486</v>
+      </c>
+      <c r="GC37">
+        <v>1475.798174128969</v>
+      </c>
+      <c r="GD37">
+        <v>588.9035985712939</v>
+      </c>
+      <c r="GE37">
+        <v>1584.420219005443</v>
+      </c>
+      <c r="GF37">
         <v>1115.502421840838</v>
       </c>
-      <c r="FU37">
-        <v>1406.002080099486</v>
-      </c>
-      <c r="FV37">
-        <v>239.2445087355543</v>
-      </c>
-      <c r="FW37">
-        <v>2065.919124598204</v>
-      </c>
-      <c r="FX37">
-        <v>1885.766226525997</v>
-      </c>
-      <c r="FY37">
-        <v>294.8756744411115</v>
-      </c>
-      <c r="FZ37">
-        <v>2528.03406041927</v>
-      </c>
-      <c r="GA37">
-        <v>1475.798174128969</v>
-      </c>
-      <c r="GB37">
-        <v>282.7326842760723</v>
-      </c>
-      <c r="GC37">
-        <v>734.7307554835129</v>
-      </c>
-      <c r="GD37">
-        <v>1603.301329830905</v>
-      </c>
-      <c r="GE37">
-        <v>1908.449616501309</v>
-      </c>
-      <c r="GF37">
-        <v>588.9035985712939</v>
-      </c>
       <c r="GG37">
-        <v>1745.09677091884</v>
+        <v>230.3561245199942</v>
       </c>
     </row>
     <row r="38" spans="1:189">
@@ -21949,46 +21949,46 @@
         <v>401.561301216823</v>
       </c>
       <c r="FT38">
+        <v>746.6650947624413</v>
+      </c>
+      <c r="FU38">
+        <v>2093.972058572037</v>
+      </c>
+      <c r="FV38">
+        <v>1865.847176348344</v>
+      </c>
+      <c r="FW38">
+        <v>354.7999012763352</v>
+      </c>
+      <c r="FX38">
+        <v>1657.099095143359</v>
+      </c>
+      <c r="FY38">
+        <v>1869.921850173073</v>
+      </c>
+      <c r="FZ38">
+        <v>224.2826594112225</v>
+      </c>
+      <c r="GA38">
+        <v>2564.777166122035</v>
+      </c>
+      <c r="GB38">
+        <v>1368.776753350516</v>
+      </c>
+      <c r="GC38">
+        <v>1484.308627896925</v>
+      </c>
+      <c r="GD38">
+        <v>648.4661020716937</v>
+      </c>
+      <c r="GE38">
+        <v>1556.305693656192</v>
+      </c>
+      <c r="GF38">
         <v>1173.093270343165</v>
       </c>
-      <c r="FU38">
-        <v>1368.776753350516</v>
-      </c>
-      <c r="FV38">
-        <v>224.2826594112225</v>
-      </c>
-      <c r="FW38">
-        <v>2093.972058572037</v>
-      </c>
-      <c r="FX38">
-        <v>1869.921850173073</v>
-      </c>
-      <c r="FY38">
-        <v>354.7999012763352</v>
-      </c>
-      <c r="FZ38">
-        <v>2564.777166122035</v>
-      </c>
-      <c r="GA38">
-        <v>1484.308627896925</v>
-      </c>
-      <c r="GB38">
-        <v>223.0016457640002</v>
-      </c>
-      <c r="GC38">
-        <v>746.6650947624413</v>
-      </c>
-      <c r="GD38">
-        <v>1657.099095143359</v>
-      </c>
-      <c r="GE38">
-        <v>1865.847176348344</v>
-      </c>
-      <c r="GF38">
-        <v>648.4661020716937</v>
-      </c>
       <c r="GG38">
-        <v>1717.351862784924</v>
+        <v>170.3590125363384</v>
       </c>
     </row>
     <row r="39" spans="1:189">
@@ -22518,46 +22518,46 @@
         <v>660.3463077932836</v>
       </c>
       <c r="FT39">
+        <v>902.6998600863592</v>
+      </c>
+      <c r="FU39">
+        <v>2285.571133856522</v>
+      </c>
+      <c r="FV39">
+        <v>1717.462185776625</v>
+      </c>
+      <c r="FW39">
+        <v>640.6616920557194</v>
+      </c>
+      <c r="FX39">
+        <v>1937.377589476593</v>
+      </c>
+      <c r="FY39">
+        <v>1869.408868263184</v>
+      </c>
+      <c r="FZ39">
+        <v>310.3534750620796</v>
+      </c>
+      <c r="GA39">
+        <v>2787.406676970597</v>
+      </c>
+      <c r="GB39">
+        <v>1261.524372511312</v>
+      </c>
+      <c r="GC39">
+        <v>1603.056487871657</v>
+      </c>
+      <c r="GD39">
+        <v>929.9090566503509</v>
+      </c>
+      <c r="GE39">
+        <v>1497.012199202651</v>
+      </c>
+      <c r="GF39">
         <v>1461.62513993125</v>
       </c>
-      <c r="FU39">
-        <v>1261.524372511312</v>
-      </c>
-      <c r="FV39">
-        <v>310.3534750620796</v>
-      </c>
-      <c r="FW39">
-        <v>2285.571133856522</v>
-      </c>
-      <c r="FX39">
-        <v>1869.408868263184</v>
-      </c>
-      <c r="FY39">
-        <v>640.6616920557194</v>
-      </c>
-      <c r="FZ39">
-        <v>2787.406676970597</v>
-      </c>
-      <c r="GA39">
-        <v>1603.056487871657</v>
-      </c>
-      <c r="GB39">
-        <v>68.67846497453625</v>
-      </c>
-      <c r="GC39">
-        <v>902.6998600863592</v>
-      </c>
-      <c r="GD39">
-        <v>1937.377589476593</v>
-      </c>
-      <c r="GE39">
-        <v>1717.462185776625</v>
-      </c>
-      <c r="GF39">
-        <v>929.9090566503509</v>
-      </c>
       <c r="GG39">
-        <v>1657.106208984158</v>
+        <v>123.5719557505343</v>
       </c>
     </row>
     <row r="40" spans="1:189">
@@ -23087,46 +23087,46 @@
         <v>625.0782022691268</v>
       </c>
       <c r="FT40">
+        <v>977.989286611395</v>
+      </c>
+      <c r="FU40">
+        <v>2327.13672205501</v>
+      </c>
+      <c r="FV40">
+        <v>1964.853058476094</v>
+      </c>
+      <c r="FW40">
+        <v>489.1738294279598</v>
+      </c>
+      <c r="FX40">
+        <v>1841.177312687092</v>
+      </c>
+      <c r="FY40">
+        <v>2059.272350347574</v>
+      </c>
+      <c r="FZ40">
+        <v>66.41513577600516</v>
+      </c>
+      <c r="GA40">
+        <v>2791.734222303068</v>
+      </c>
+      <c r="GB40">
+        <v>1496.398381936366</v>
+      </c>
+      <c r="GC40">
+        <v>1711.995455368464</v>
+      </c>
+      <c r="GD40">
+        <v>750.5665339015206</v>
+      </c>
+      <c r="GE40">
+        <v>1714.469637073092</v>
+      </c>
+      <c r="GF40">
         <v>1334.274780825663</v>
       </c>
-      <c r="FU40">
-        <v>1496.398381936366</v>
-      </c>
-      <c r="FV40">
-        <v>66.41513577600516</v>
-      </c>
-      <c r="FW40">
-        <v>2327.13672205501</v>
-      </c>
-      <c r="FX40">
-        <v>2059.272350347574</v>
-      </c>
-      <c r="FY40">
-        <v>489.1738294279598</v>
-      </c>
-      <c r="FZ40">
-        <v>2791.734222303068</v>
-      </c>
-      <c r="GA40">
-        <v>1711.995455368464</v>
-      </c>
-      <c r="GB40">
-        <v>228.9934651589758</v>
-      </c>
-      <c r="GC40">
-        <v>977.989286611395</v>
-      </c>
-      <c r="GD40">
-        <v>1841.177312687092</v>
-      </c>
-      <c r="GE40">
-        <v>1964.853058476094</v>
-      </c>
-      <c r="GF40">
-        <v>750.5665339015206</v>
-      </c>
       <c r="GG40">
-        <v>1875.592427062324</v>
+        <v>222.8352304153107</v>
       </c>
     </row>
     <row r="41" spans="1:189">
@@ -23656,46 +23656,46 @@
         <v>577.8294795234111</v>
       </c>
       <c r="FT41">
+        <v>890.0483309987566</v>
+      </c>
+      <c r="FU41">
+        <v>2256.011973688054</v>
+      </c>
+      <c r="FV41">
+        <v>1848.428038898033</v>
+      </c>
+      <c r="FW41">
+        <v>505.1960574210812</v>
+      </c>
+      <c r="FX41">
+        <v>1832.12521716133</v>
+      </c>
+      <c r="FY41">
+        <v>1942.924215355498</v>
+      </c>
+      <c r="FZ41">
+        <v>164.8373329215132</v>
+      </c>
+      <c r="GA41">
+        <v>2736.386568762136</v>
+      </c>
+      <c r="GB41">
+        <v>1376.785058571447</v>
+      </c>
+      <c r="GC41">
+        <v>1615.879119232104</v>
+      </c>
+      <c r="GD41">
+        <v>787.849758262534</v>
+      </c>
+      <c r="GE41">
+        <v>1594.579431044276</v>
+      </c>
+      <c r="GF41">
         <v>1341.130591383734</v>
       </c>
-      <c r="FU41">
-        <v>1376.785058571447</v>
-      </c>
-      <c r="FV41">
-        <v>164.8373329215132</v>
-      </c>
-      <c r="FW41">
-        <v>2256.011973688054</v>
-      </c>
-      <c r="FX41">
-        <v>1942.924215355498</v>
-      </c>
-      <c r="FY41">
-        <v>505.1960574210812</v>
-      </c>
-      <c r="FZ41">
-        <v>2736.386568762136</v>
-      </c>
-      <c r="GA41">
-        <v>1615.879119232104</v>
-      </c>
-      <c r="GB41">
-        <v>112.3288559341177</v>
-      </c>
-      <c r="GC41">
-        <v>890.0483309987566</v>
-      </c>
-      <c r="GD41">
-        <v>1832.12521716133</v>
-      </c>
-      <c r="GE41">
-        <v>1848.428038898033</v>
-      </c>
-      <c r="GF41">
-        <v>787.849758262534</v>
-      </c>
       <c r="GG41">
-        <v>1755.669703146357</v>
+        <v>103.4348811662454</v>
       </c>
     </row>
     <row r="42" spans="1:189">
@@ -24225,46 +24225,46 @@
         <v>579.7609763158861</v>
       </c>
       <c r="FT42">
+        <v>858.6197069088229</v>
+      </c>
+      <c r="FU42">
+        <v>2233.880170327612</v>
+      </c>
+      <c r="FV42">
+        <v>1778.168611469406</v>
+      </c>
+      <c r="FW42">
+        <v>544.1088040406474</v>
+      </c>
+      <c r="FX42">
+        <v>1849.707381781982</v>
+      </c>
+      <c r="FY42">
+        <v>1882.857872641294</v>
+      </c>
+      <c r="FZ42">
+        <v>234.9779488106452</v>
+      </c>
+      <c r="GA42">
+        <v>2724.522184902092</v>
+      </c>
+      <c r="GB42">
+        <v>1307.711944994037</v>
+      </c>
+      <c r="GC42">
+        <v>1575.595967659209</v>
+      </c>
+      <c r="GD42">
+        <v>833.1088191782339</v>
+      </c>
+      <c r="GE42">
+        <v>1528.571909901297</v>
+      </c>
+      <c r="GF42">
         <v>1368.690125379696</v>
       </c>
-      <c r="FU42">
-        <v>1307.711944994037</v>
-      </c>
-      <c r="FV42">
-        <v>234.9779488106452</v>
-      </c>
-      <c r="FW42">
-        <v>2233.880170327612</v>
-      </c>
-      <c r="FX42">
-        <v>1882.857872641294</v>
-      </c>
-      <c r="FY42">
-        <v>544.1088040406474</v>
-      </c>
-      <c r="FZ42">
-        <v>2724.522184902092</v>
-      </c>
-      <c r="GA42">
-        <v>1575.595967659209</v>
-      </c>
-      <c r="GB42">
-        <v>42.49665954282744</v>
-      </c>
-      <c r="GC42">
-        <v>858.6197069088229</v>
-      </c>
-      <c r="GD42">
-        <v>1849.707381781982</v>
-      </c>
-      <c r="GE42">
-        <v>1778.168611469406</v>
-      </c>
-      <c r="GF42">
-        <v>833.1088191782339</v>
-      </c>
       <c r="GG42">
-        <v>1689.527725359579</v>
+        <v>49.79181675242354</v>
       </c>
     </row>
     <row r="43" spans="1:189">
@@ -24794,46 +24794,46 @@
         <v>592.5526851156742</v>
       </c>
       <c r="FT43">
+        <v>849.331368981776</v>
+      </c>
+      <c r="FU43">
+        <v>2229.079032317666</v>
+      </c>
+      <c r="FV43">
+        <v>1736.57327351836</v>
+      </c>
+      <c r="FW43">
+        <v>576.0318945452501</v>
+      </c>
+      <c r="FX43">
+        <v>1868.74034593594</v>
+      </c>
+      <c r="FY43">
+        <v>1851.644086354249</v>
+      </c>
+      <c r="FZ43">
+        <v>277.1653991609436</v>
+      </c>
+      <c r="GA43">
+        <v>2725.952761402729</v>
+      </c>
+      <c r="GB43">
+        <v>1268.229875752277</v>
+      </c>
+      <c r="GC43">
+        <v>1559.164906045376</v>
+      </c>
+      <c r="GD43">
+        <v>867.184836433303</v>
+      </c>
+      <c r="GE43">
+        <v>1492.301977372202</v>
+      </c>
+      <c r="GF43">
         <v>1393.455016447605</v>
       </c>
-      <c r="FU43">
-        <v>1268.229875752277</v>
-      </c>
-      <c r="FV43">
-        <v>277.1653991609436</v>
-      </c>
-      <c r="FW43">
-        <v>2229.079032317666</v>
-      </c>
-      <c r="FX43">
-        <v>1851.644086354249</v>
-      </c>
-      <c r="FY43">
-        <v>576.0318945452501</v>
-      </c>
-      <c r="FZ43">
-        <v>2725.952761402729</v>
-      </c>
-      <c r="GA43">
-        <v>1559.164906045376</v>
-      </c>
-      <c r="GB43">
-        <v>0</v>
-      </c>
-      <c r="GC43">
-        <v>849.331368981776</v>
-      </c>
-      <c r="GD43">
-        <v>1868.74034593594</v>
-      </c>
-      <c r="GE43">
-        <v>1736.57327351836</v>
-      </c>
-      <c r="GF43">
-        <v>867.184836433303</v>
-      </c>
       <c r="GG43">
-        <v>1653.098389730191</v>
+        <v>54.89720394667815</v>
       </c>
     </row>
     <row r="44" spans="1:189">
@@ -25363,46 +25363,46 @@
         <v>538.6904395112406</v>
       </c>
       <c r="FT44">
+        <v>808.9249118163835</v>
+      </c>
+      <c r="FU44">
+        <v>2184.933818183642</v>
+      </c>
+      <c r="FV44">
+        <v>1754.442681727774</v>
+      </c>
+      <c r="FW44">
+        <v>524.7822504163031</v>
+      </c>
+      <c r="FX44">
+        <v>1813.916337113418</v>
+      </c>
+      <c r="FY44">
+        <v>1840.003959379539</v>
+      </c>
+      <c r="FZ44">
+        <v>259.9665107247332</v>
+      </c>
+      <c r="GA44">
+        <v>2677.482710022975</v>
+      </c>
+      <c r="GB44">
+        <v>1277.068398901912</v>
+      </c>
+      <c r="GC44">
+        <v>1526.083523222766</v>
+      </c>
+      <c r="GD44">
+        <v>817.3587631501539</v>
+      </c>
+      <c r="GE44">
+        <v>1491.659691234148</v>
+      </c>
+      <c r="GF44">
         <v>1338.897548960874</v>
       </c>
-      <c r="FU44">
-        <v>1277.068398901912</v>
-      </c>
-      <c r="FV44">
-        <v>259.9665107247332</v>
-      </c>
-      <c r="FW44">
-        <v>2184.933818183642</v>
-      </c>
-      <c r="FX44">
-        <v>1840.003959379539</v>
-      </c>
-      <c r="FY44">
-        <v>524.7822504163031</v>
-      </c>
-      <c r="FZ44">
-        <v>2677.482710022975</v>
-      </c>
-      <c r="GA44">
-        <v>1526.083523222766</v>
-      </c>
-      <c r="GB44">
-        <v>54.89720394667815</v>
-      </c>
-      <c r="GC44">
-        <v>808.9249118163835</v>
-      </c>
-      <c r="GD44">
-        <v>1813.916337113418</v>
-      </c>
-      <c r="GE44">
-        <v>1754.442681727774</v>
-      </c>
-      <c r="GF44">
-        <v>817.3587631501539</v>
-      </c>
       <c r="GG44">
-        <v>1652.798869655626</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:189">
@@ -25932,46 +25932,46 @@
         <v>741.7761624019241</v>
       </c>
       <c r="FT45">
+        <v>1116.887223865106</v>
+      </c>
+      <c r="FU45">
+        <v>1960.280787775514</v>
+      </c>
+      <c r="FV45">
+        <v>2648.668716114871</v>
+      </c>
+      <c r="FW45">
+        <v>562.7970042104752</v>
+      </c>
+      <c r="FX45">
+        <v>1024.33879427389</v>
+      </c>
+      <c r="FY45">
+        <v>2369.293856951108</v>
+      </c>
+      <c r="FZ45">
+        <v>941.3528095601845</v>
+      </c>
+      <c r="GA45">
+        <v>2238.836476121754</v>
+      </c>
+      <c r="GB45">
+        <v>2116.636145581857</v>
+      </c>
+      <c r="GC45">
+        <v>1719.337563231224</v>
+      </c>
+      <c r="GD45">
+        <v>267.4801508070989</v>
+      </c>
+      <c r="GE45">
+        <v>2207.567559155363</v>
+      </c>
+      <c r="GF45">
         <v>493.2620174868303</v>
       </c>
-      <c r="FU45">
-        <v>2116.636145581857</v>
-      </c>
-      <c r="FV45">
-        <v>941.3528095601845</v>
-      </c>
-      <c r="FW45">
-        <v>1960.280787775514</v>
-      </c>
-      <c r="FX45">
-        <v>2369.293856951108</v>
-      </c>
-      <c r="FY45">
-        <v>562.7970042104752</v>
-      </c>
-      <c r="FZ45">
-        <v>2238.836476121754</v>
-      </c>
-      <c r="GA45">
-        <v>1719.337563231224</v>
-      </c>
-      <c r="GB45">
-        <v>1133.557964900759</v>
-      </c>
-      <c r="GC45">
-        <v>1116.887223865106</v>
-      </c>
-      <c r="GD45">
-        <v>1024.33879427389</v>
-      </c>
-      <c r="GE45">
-        <v>2648.668716114871</v>
-      </c>
-      <c r="GF45">
-        <v>267.4801508070989</v>
-      </c>
       <c r="GG45">
-        <v>2356.55108266054</v>
+        <v>1084.245970187232</v>
       </c>
     </row>
     <row r="46" spans="1:189">
@@ -26501,46 +26501,46 @@
         <v>455.4653813541684</v>
       </c>
       <c r="FT46">
+        <v>854.59151967027</v>
+      </c>
+      <c r="FU46">
+        <v>1855.779292698527</v>
+      </c>
+      <c r="FV46">
+        <v>2361.97543645961</v>
+      </c>
+      <c r="FW46">
+        <v>301.226156485895</v>
+      </c>
+      <c r="FX46">
+        <v>1095.936964396971</v>
+      </c>
+      <c r="FY46">
+        <v>2115.599817737079</v>
+      </c>
+      <c r="FZ46">
+        <v>721.9200721722793</v>
+      </c>
+      <c r="GA46">
+        <v>2205.606171059078</v>
+      </c>
+      <c r="GB46">
+        <v>1830.966521834425</v>
+      </c>
+      <c r="GC46">
+        <v>1506.915868564414</v>
+      </c>
+      <c r="GD46">
+        <v>92.24119508760425</v>
+      </c>
+      <c r="GE46">
+        <v>1930.864578422501</v>
+      </c>
+      <c r="GF46">
         <v>564.5988662923388</v>
       </c>
-      <c r="FU46">
-        <v>1830.966521834425</v>
-      </c>
-      <c r="FV46">
-        <v>721.9200721722793</v>
-      </c>
-      <c r="FW46">
-        <v>1855.779292698527</v>
-      </c>
-      <c r="FX46">
-        <v>2115.599817737079</v>
-      </c>
-      <c r="FY46">
-        <v>301.226156485895</v>
-      </c>
-      <c r="FZ46">
-        <v>2205.606171059078</v>
-      </c>
-      <c r="GA46">
-        <v>1506.915868564414</v>
-      </c>
-      <c r="GB46">
-        <v>876.2452760257975</v>
-      </c>
-      <c r="GC46">
-        <v>854.59151967027</v>
-      </c>
-      <c r="GD46">
-        <v>1095.936964396971</v>
-      </c>
-      <c r="GE46">
-        <v>2361.97543645961</v>
-      </c>
-      <c r="GF46">
-        <v>92.24119508760425</v>
-      </c>
       <c r="GG46">
-        <v>2082.150776649821</v>
+        <v>824.2132756402364</v>
       </c>
     </row>
     <row r="47" spans="1:189">
@@ -27070,46 +27070,46 @@
         <v>622.2411035268569</v>
       </c>
       <c r="FT47">
+        <v>1072.231558122217</v>
+      </c>
+      <c r="FU47">
+        <v>2167.443376431992</v>
+      </c>
+      <c r="FV47">
+        <v>2458.131052381989</v>
+      </c>
+      <c r="FW47">
+        <v>326.4645256237236</v>
+      </c>
+      <c r="FX47">
+        <v>1377.057768929679</v>
+      </c>
+      <c r="FY47">
+        <v>2324.499446773549</v>
+      </c>
+      <c r="FZ47">
+        <v>578.7765844126178</v>
+      </c>
+      <c r="GA47">
+        <v>2519.155888968042</v>
+      </c>
+      <c r="GB47">
+        <v>1942.705862896893</v>
+      </c>
+      <c r="GC47">
+        <v>1772.568045659715</v>
+      </c>
+      <c r="GD47">
+        <v>226.195091072986</v>
+      </c>
+      <c r="GE47">
+        <v>2086.55503047109</v>
+      </c>
+      <c r="GF47">
         <v>836.4603302117282</v>
       </c>
-      <c r="FU47">
-        <v>1942.705862896893</v>
-      </c>
-      <c r="FV47">
-        <v>578.7765844126178</v>
-      </c>
-      <c r="FW47">
-        <v>2167.443376431992</v>
-      </c>
-      <c r="FX47">
-        <v>2324.499446773549</v>
-      </c>
-      <c r="FY47">
-        <v>326.4645256237236</v>
-      </c>
-      <c r="FZ47">
-        <v>2519.155888968042</v>
-      </c>
-      <c r="GA47">
-        <v>1772.568045659715</v>
-      </c>
-      <c r="GB47">
-        <v>811.2689363368894</v>
-      </c>
-      <c r="GC47">
-        <v>1072.231558122217</v>
-      </c>
-      <c r="GD47">
-        <v>1377.057768929679</v>
-      </c>
-      <c r="GE47">
-        <v>2458.131052381989</v>
-      </c>
-      <c r="GF47">
-        <v>226.195091072986</v>
-      </c>
       <c r="GG47">
-        <v>2243.836374326177</v>
+        <v>769.4219340353922</v>
       </c>
     </row>
     <row r="48" spans="1:189">
@@ -27639,46 +27639,46 @@
         <v>507.8009905580573</v>
       </c>
       <c r="FT48">
+        <v>927.2556214530194</v>
+      </c>
+      <c r="FU48">
+        <v>1947.71051178082</v>
+      </c>
+      <c r="FV48">
+        <v>2406.335303967287</v>
+      </c>
+      <c r="FW48">
+        <v>295.3976522992114</v>
+      </c>
+      <c r="FX48">
+        <v>1164.231267850083</v>
+      </c>
+      <c r="FY48">
+        <v>2189.064501471923</v>
+      </c>
+      <c r="FZ48">
+        <v>687.589820448837</v>
+      </c>
+      <c r="GA48">
+        <v>2292.978805295378</v>
+      </c>
+      <c r="GB48">
+        <v>1878.560735837452</v>
+      </c>
+      <c r="GC48">
+        <v>1592.844294549488</v>
+      </c>
+      <c r="GD48">
+        <v>0</v>
+      </c>
+      <c r="GE48">
+        <v>1990.498302305505</v>
+      </c>
+      <c r="GF48">
         <v>626.5915178077541</v>
       </c>
-      <c r="FU48">
-        <v>1878.560735837452</v>
-      </c>
-      <c r="FV48">
-        <v>687.589820448837</v>
-      </c>
-      <c r="FW48">
-        <v>1947.71051178082</v>
-      </c>
-      <c r="FX48">
-        <v>2189.064501471923</v>
-      </c>
-      <c r="FY48">
-        <v>295.3976522992114</v>
-      </c>
-      <c r="FZ48">
-        <v>2292.978805295378</v>
-      </c>
-      <c r="GA48">
-        <v>1592.844294549488</v>
-      </c>
-      <c r="GB48">
-        <v>867.184836433303</v>
-      </c>
-      <c r="GC48">
-        <v>927.2556214530194</v>
-      </c>
-      <c r="GD48">
-        <v>1164.231267850083</v>
-      </c>
-      <c r="GE48">
-        <v>2406.335303967287</v>
-      </c>
-      <c r="GF48">
-        <v>0</v>
-      </c>
       <c r="GG48">
-        <v>2143.607838751089</v>
+        <v>817.3587631501539</v>
       </c>
     </row>
     <row r="49" spans="1:189">
@@ -28208,46 +28208,46 @@
         <v>366.5033846826824</v>
       </c>
       <c r="FT49">
+        <v>781.6633328847261</v>
+      </c>
+      <c r="FU49">
+        <v>1844.775310027142</v>
+      </c>
+      <c r="FV49">
+        <v>2271.150836845505</v>
+      </c>
+      <c r="FW49">
+        <v>220.0126786021348</v>
+      </c>
+      <c r="FX49">
+        <v>1147.029781521533</v>
+      </c>
+      <c r="FY49">
+        <v>2043.423364269398</v>
+      </c>
+      <c r="FZ49">
+        <v>650.6764070209389</v>
+      </c>
+      <c r="GA49">
+        <v>2217.580546933605</v>
+      </c>
+      <c r="GB49">
+        <v>1741.153487597905</v>
+      </c>
+      <c r="GC49">
+        <v>1455.106311487037</v>
+      </c>
+      <c r="GD49">
+        <v>145.7882796965619</v>
+      </c>
+      <c r="GE49">
+        <v>1846.977048451541</v>
+      </c>
+      <c r="GF49">
         <v>627.1145873979671</v>
       </c>
-      <c r="FU49">
-        <v>1741.153487597905</v>
-      </c>
-      <c r="FV49">
-        <v>650.6764070209389</v>
-      </c>
-      <c r="FW49">
-        <v>1844.775310027142</v>
-      </c>
-      <c r="FX49">
-        <v>2043.423364269398</v>
-      </c>
-      <c r="FY49">
-        <v>220.0126786021348</v>
-      </c>
-      <c r="FZ49">
-        <v>2217.580546933605</v>
-      </c>
-      <c r="GA49">
-        <v>1455.106311487037</v>
-      </c>
-      <c r="GB49">
-        <v>789.5571226920863</v>
-      </c>
-      <c r="GC49">
-        <v>781.6633328847261</v>
-      </c>
-      <c r="GD49">
-        <v>1147.029781521533</v>
-      </c>
-      <c r="GE49">
-        <v>2271.150836845505</v>
-      </c>
-      <c r="GF49">
-        <v>145.7882796965619</v>
-      </c>
       <c r="GG49">
-        <v>1999.471197727117</v>
+        <v>736.8013576909603</v>
       </c>
     </row>
     <row r="50" spans="1:189">
@@ -28777,46 +28777,46 @@
         <v>507.0739383664227</v>
       </c>
       <c r="FT50">
+        <v>960.3339955103513</v>
+      </c>
+      <c r="FU50">
+        <v>2162.598411548857</v>
+      </c>
+      <c r="FV50">
+        <v>2264.887177015536</v>
+      </c>
+      <c r="FW50">
+        <v>203.1677295790646</v>
+      </c>
+      <c r="FX50">
+        <v>1486.861547401626</v>
+      </c>
+      <c r="FY50">
+        <v>2186.455970611118</v>
+      </c>
+      <c r="FZ50">
+        <v>369.7623910080335</v>
+      </c>
+      <c r="GA50">
+        <v>2558.523020105009</v>
+      </c>
+      <c r="GB50">
+        <v>1757.206261106456</v>
+      </c>
+      <c r="GC50">
+        <v>1688.682576980445</v>
+      </c>
+      <c r="GD50">
+        <v>334.9623995294463</v>
+      </c>
+      <c r="GE50">
+        <v>1919.108233831766</v>
+      </c>
+      <c r="GF50">
         <v>955.2360002939307</v>
       </c>
-      <c r="FU50">
-        <v>1757.206261106456</v>
-      </c>
-      <c r="FV50">
-        <v>369.7623910080335</v>
-      </c>
-      <c r="FW50">
-        <v>2162.598411548857</v>
-      </c>
-      <c r="FX50">
-        <v>2186.455970611118</v>
-      </c>
-      <c r="FY50">
-        <v>203.1677295790646</v>
-      </c>
-      <c r="FZ50">
-        <v>2558.523020105009</v>
-      </c>
-      <c r="GA50">
-        <v>1688.682576980445</v>
-      </c>
-      <c r="GB50">
-        <v>596.8482531650253</v>
-      </c>
-      <c r="GC50">
-        <v>960.3339955103513</v>
-      </c>
-      <c r="GD50">
-        <v>1486.861547401626</v>
-      </c>
-      <c r="GE50">
-        <v>2264.887177015536</v>
-      </c>
-      <c r="GF50">
-        <v>334.9623995294463</v>
-      </c>
       <c r="GG50">
-        <v>2078.383772186734</v>
+        <v>555.8164620551599</v>
       </c>
     </row>
     <row r="51" spans="1:189">
@@ -29346,46 +29346,46 @@
         <v>440.5289576377635</v>
       </c>
       <c r="FT51">
+        <v>864.9100117272241</v>
+      </c>
+      <c r="FU51">
+        <v>1918.361865253077</v>
+      </c>
+      <c r="FV51">
+        <v>2338.333692743688</v>
+      </c>
+      <c r="FW51">
+        <v>235.9926750336956</v>
+      </c>
+      <c r="FX51">
+        <v>1177.525810938293</v>
+      </c>
+      <c r="FY51">
+        <v>2126.369210130919</v>
+      </c>
+      <c r="FZ51">
+        <v>645.3713052189403</v>
+      </c>
+      <c r="GA51">
+        <v>2278.959077323523</v>
+      </c>
+      <c r="GB51">
+        <v>1810.556042026494</v>
+      </c>
+      <c r="GC51">
+        <v>1539.993593385953</v>
+      </c>
+      <c r="GD51">
+        <v>68.02076529614645</v>
+      </c>
+      <c r="GE51">
+        <v>1923.600294227255</v>
+      </c>
+      <c r="GF51">
         <v>645.8822385250492</v>
       </c>
-      <c r="FU51">
-        <v>1810.556042026494</v>
-      </c>
-      <c r="FV51">
-        <v>645.3713052189403</v>
-      </c>
-      <c r="FW51">
-        <v>1918.361865253077</v>
-      </c>
-      <c r="FX51">
-        <v>2126.369210130919</v>
-      </c>
-      <c r="FY51">
-        <v>235.9926750336956</v>
-      </c>
-      <c r="FZ51">
-        <v>2278.959077323523</v>
-      </c>
-      <c r="GA51">
-        <v>1539.993593385953</v>
-      </c>
-      <c r="GB51">
-        <v>811.4472501685578</v>
-      </c>
-      <c r="GC51">
-        <v>864.9100117272241</v>
-      </c>
-      <c r="GD51">
-        <v>1177.525810938293</v>
-      </c>
-      <c r="GE51">
-        <v>2338.333692743688</v>
-      </c>
-      <c r="GF51">
-        <v>68.02076529614645</v>
-      </c>
       <c r="GG51">
-        <v>2077.03443532564</v>
+        <v>760.5930825326394</v>
       </c>
     </row>
     <row r="52" spans="1:189">
@@ -29915,46 +29915,46 @@
         <v>519.9308673513192</v>
       </c>
       <c r="FT52">
+        <v>926.6696853912049</v>
+      </c>
+      <c r="FU52">
+        <v>1916.373273195157</v>
+      </c>
+      <c r="FV52">
+        <v>2424.027813383663</v>
+      </c>
+      <c r="FW52">
+        <v>330.5179178289891</v>
+      </c>
+      <c r="FX52">
+        <v>1118.695029320384</v>
+      </c>
+      <c r="FY52">
+        <v>2188.003725412793</v>
+      </c>
+      <c r="FZ52">
+        <v>731.3580729839653</v>
+      </c>
+      <c r="GA52">
+        <v>2254.32488075841</v>
+      </c>
+      <c r="GB52">
+        <v>1894.433843529429</v>
+      </c>
+      <c r="GC52">
+        <v>1579.367853106086</v>
+      </c>
+      <c r="GD52">
+        <v>46.41187113353489</v>
+      </c>
+      <c r="GE52">
+        <v>1999.328086965613</v>
+      </c>
+      <c r="GF52">
         <v>580.557837723432</v>
       </c>
-      <c r="FU52">
-        <v>1894.433843529429</v>
-      </c>
-      <c r="FV52">
-        <v>731.3580729839653</v>
-      </c>
-      <c r="FW52">
-        <v>1916.373273195157</v>
-      </c>
-      <c r="FX52">
-        <v>2188.003725412793</v>
-      </c>
-      <c r="FY52">
-        <v>330.5179178289891</v>
-      </c>
-      <c r="FZ52">
-        <v>2254.32488075841</v>
-      </c>
-      <c r="GA52">
-        <v>1579.367853106086</v>
-      </c>
-      <c r="GB52">
-        <v>905.2449402751772</v>
-      </c>
-      <c r="GC52">
-        <v>926.6696853912049</v>
-      </c>
-      <c r="GD52">
-        <v>1118.695029320384</v>
-      </c>
-      <c r="GE52">
-        <v>2424.027813383663</v>
-      </c>
-      <c r="GF52">
-        <v>46.41187113353489</v>
-      </c>
       <c r="GG52">
-        <v>2151.281284394282</v>
+        <v>854.7191709424565</v>
       </c>
     </row>
     <row r="53" spans="1:189">
@@ -30484,46 +30484,46 @@
         <v>403.3966689560276</v>
       </c>
       <c r="FT53">
+        <v>821.9127281234219</v>
+      </c>
+      <c r="FU53">
+        <v>1876.717489671799</v>
+      </c>
+      <c r="FV53">
+        <v>2305.82214210157</v>
+      </c>
+      <c r="FW53">
+        <v>228.7657657151987</v>
+      </c>
+      <c r="FX53">
+        <v>1155.888266734348</v>
+      </c>
+      <c r="FY53">
+        <v>2083.629380884304</v>
+      </c>
+      <c r="FZ53">
+        <v>651.9466940040791</v>
+      </c>
+      <c r="GA53">
+        <v>2242.715469121756</v>
+      </c>
+      <c r="GB53">
+        <v>1776.667907392082</v>
+      </c>
+      <c r="GC53">
+        <v>1494.72308145771</v>
+      </c>
+      <c r="GD53">
+        <v>105.9898320501571</v>
+      </c>
+      <c r="GE53">
+        <v>1885.229780341391</v>
+      </c>
+      <c r="GF53">
         <v>629.5586374117785</v>
       </c>
-      <c r="FU53">
-        <v>1776.667907392082</v>
-      </c>
-      <c r="FV53">
-        <v>651.9466940040791</v>
-      </c>
-      <c r="FW53">
-        <v>1876.717489671799</v>
-      </c>
-      <c r="FX53">
-        <v>2083.629380884304</v>
-      </c>
-      <c r="FY53">
-        <v>228.7657657151987</v>
-      </c>
-      <c r="FZ53">
-        <v>2242.715469121756</v>
-      </c>
-      <c r="GA53">
-        <v>1494.72308145771</v>
-      </c>
-      <c r="GB53">
-        <v>803.8112831074268</v>
-      </c>
-      <c r="GC53">
-        <v>821.9127281234219</v>
-      </c>
-      <c r="GD53">
-        <v>1155.888266734348</v>
-      </c>
-      <c r="GE53">
-        <v>2305.82214210157</v>
-      </c>
-      <c r="GF53">
-        <v>105.9898320501571</v>
-      </c>
       <c r="GG53">
-        <v>2038.059632860892</v>
+        <v>751.8609641086211</v>
       </c>
     </row>
     <row r="54" spans="1:189">
@@ -31053,46 +31053,46 @@
         <v>540.5939823983861</v>
       </c>
       <c r="FT54">
+        <v>968.2090243034412</v>
+      </c>
+      <c r="FU54">
+        <v>1998.333805919081</v>
+      </c>
+      <c r="FV54">
+        <v>2431.228443106197</v>
+      </c>
+      <c r="FW54">
+        <v>303.5739546757216</v>
+      </c>
+      <c r="FX54">
+        <v>1203.622894190623</v>
+      </c>
+      <c r="FY54">
+        <v>2229.618014109515</v>
+      </c>
+      <c r="FZ54">
+        <v>672.6374765387297</v>
+      </c>
+      <c r="GA54">
+        <v>2341.415349436308</v>
+      </c>
+      <c r="GB54">
+        <v>1905.501971731118</v>
+      </c>
+      <c r="GC54">
+        <v>1640.129824602487</v>
+      </c>
+      <c r="GD54">
+        <v>50.72838674286199</v>
+      </c>
+      <c r="GE54">
+        <v>2023.777614163008</v>
+      </c>
+      <c r="GF54">
         <v>664.1817872163393</v>
       </c>
-      <c r="FU54">
-        <v>1905.501971731118</v>
-      </c>
-      <c r="FV54">
-        <v>672.6374765387297</v>
-      </c>
-      <c r="FW54">
-        <v>1998.333805919081</v>
-      </c>
-      <c r="FX54">
-        <v>2229.618014109515</v>
-      </c>
-      <c r="FY54">
-        <v>303.5739546757216</v>
-      </c>
-      <c r="FZ54">
-        <v>2341.415349436308</v>
-      </c>
-      <c r="GA54">
-        <v>1640.129824602487</v>
-      </c>
-      <c r="GB54">
-        <v>865.6050501020849</v>
-      </c>
-      <c r="GC54">
-        <v>968.2090243034412</v>
-      </c>
-      <c r="GD54">
-        <v>1203.622894190623</v>
-      </c>
-      <c r="GE54">
-        <v>2431.228443106197</v>
-      </c>
-      <c r="GF54">
-        <v>50.72838674286199</v>
-      </c>
       <c r="GG54">
-        <v>2177.784552301732</v>
+        <v>817.2578983014064</v>
       </c>
     </row>
     <row r="55" spans="1:189">
@@ -31622,46 +31622,46 @@
         <v>520.8380927333058</v>
       </c>
       <c r="FT55">
+        <v>858.5658500087894</v>
+      </c>
+      <c r="FU55">
+        <v>1743.246987433977</v>
+      </c>
+      <c r="FV55">
+        <v>2415.79200558208</v>
+      </c>
+      <c r="FW55">
+        <v>440.7715081940946</v>
+      </c>
+      <c r="FX55">
+        <v>941.6138316362913</v>
+      </c>
+      <c r="FY55">
+        <v>2106.044612398462</v>
+      </c>
+      <c r="FZ55">
+        <v>869.962280914538</v>
+      </c>
+      <c r="GA55">
+        <v>2069.560239301473</v>
+      </c>
+      <c r="GB55">
+        <v>1880.872421527929</v>
+      </c>
+      <c r="GC55">
+        <v>1457.020973451717</v>
+      </c>
+      <c r="GD55">
+        <v>228.1105643415489</v>
+      </c>
+      <c r="GE55">
+        <v>1956.149291968002</v>
+      </c>
+      <c r="GF55">
         <v>410.8224260220781</v>
       </c>
-      <c r="FU55">
-        <v>1880.872421527929</v>
-      </c>
-      <c r="FV55">
-        <v>869.962280914538</v>
-      </c>
-      <c r="FW55">
-        <v>1743.246987433977</v>
-      </c>
-      <c r="FX55">
-        <v>2106.044612398462</v>
-      </c>
-      <c r="FY55">
-        <v>440.7715081940946</v>
-      </c>
-      <c r="FZ55">
-        <v>2069.560239301473</v>
-      </c>
-      <c r="GA55">
-        <v>1457.020973451717</v>
-      </c>
-      <c r="GB55">
-        <v>1006.787935622078</v>
-      </c>
-      <c r="GC55">
-        <v>858.5658500087894</v>
-      </c>
-      <c r="GD55">
-        <v>941.6138316362913</v>
-      </c>
-      <c r="GE55">
-        <v>2415.79200558208</v>
-      </c>
-      <c r="GF55">
-        <v>228.1105643415489</v>
-      </c>
       <c r="GG55">
-        <v>2102.767294874782</v>
+        <v>953.3706239468535</v>
       </c>
     </row>
     <row r="56" spans="1:189">
@@ -32191,46 +32191,46 @@
         <v>1712.958890746949</v>
       </c>
       <c r="FT56">
+        <v>1385.569038720099</v>
+      </c>
+      <c r="FU56">
+        <v>0</v>
+      </c>
+      <c r="FV56">
+        <v>2367.239097417825</v>
+      </c>
+      <c r="FW56">
+        <v>1966.356178939537</v>
+      </c>
+      <c r="FX56">
+        <v>1218.467442353749</v>
+      </c>
+      <c r="FY56">
+        <v>1468.200226639043</v>
+      </c>
+      <c r="FZ56">
+        <v>2304.137529427024</v>
+      </c>
+      <c r="GA56">
+        <v>612.2011787023229</v>
+      </c>
+      <c r="GB56">
+        <v>1980.441267399269</v>
+      </c>
+      <c r="GC56">
+        <v>849.0218689274357</v>
+      </c>
+      <c r="GD56">
+        <v>1947.71051178082</v>
+      </c>
+      <c r="GE56">
+        <v>1766.468128509116</v>
+      </c>
+      <c r="GF56">
         <v>1521.801904484974</v>
       </c>
-      <c r="FU56">
-        <v>1980.441267399269</v>
-      </c>
-      <c r="FV56">
-        <v>2304.137529427024</v>
-      </c>
-      <c r="FW56">
-        <v>0</v>
-      </c>
-      <c r="FX56">
-        <v>1468.200226639043</v>
-      </c>
-      <c r="FY56">
-        <v>1966.356178939537</v>
-      </c>
-      <c r="FZ56">
-        <v>612.2011787023229</v>
-      </c>
-      <c r="GA56">
-        <v>849.0218689274357</v>
-      </c>
-      <c r="GB56">
-        <v>2229.079032317666</v>
-      </c>
-      <c r="GC56">
-        <v>1385.569038720099</v>
-      </c>
-      <c r="GD56">
-        <v>1218.467442353749</v>
-      </c>
-      <c r="GE56">
-        <v>2367.239097417825</v>
-      </c>
-      <c r="GF56">
-        <v>1947.71051178082</v>
-      </c>
       <c r="GG56">
-        <v>1798.332658341223</v>
+        <v>2184.933818183642</v>
       </c>
     </row>
     <row r="57" spans="1:189">
@@ -32760,46 +32760,46 @@
         <v>1579.529605844037</v>
       </c>
       <c r="FT57">
+        <v>1244.002265374939</v>
+      </c>
+      <c r="FU57">
+        <v>143.4959789630574</v>
+      </c>
+      <c r="FV57">
+        <v>2247.01036799259</v>
+      </c>
+      <c r="FW57">
+        <v>1838.705873627947</v>
+      </c>
+      <c r="FX57">
+        <v>1174.974862743859</v>
+      </c>
+      <c r="FY57">
+        <v>1367.643024033791</v>
+      </c>
+      <c r="FZ57">
+        <v>2168.871014282338</v>
+      </c>
+      <c r="GA57">
+        <v>741.9941724982177</v>
+      </c>
+      <c r="GB57">
+        <v>1848.463159752431</v>
+      </c>
+      <c r="GC57">
+        <v>714.3329203907607</v>
+      </c>
+      <c r="GD57">
+        <v>1831.784379386889</v>
+      </c>
+      <c r="GE57">
+        <v>1643.426128267196</v>
+      </c>
+      <c r="GF57">
         <v>1434.170334138102</v>
       </c>
-      <c r="FU57">
-        <v>1848.463159752431</v>
-      </c>
-      <c r="FV57">
-        <v>2168.871014282338</v>
-      </c>
-      <c r="FW57">
-        <v>143.4959789630574</v>
-      </c>
-      <c r="FX57">
-        <v>1367.643024033791</v>
-      </c>
-      <c r="FY57">
-        <v>1838.705873627947</v>
-      </c>
-      <c r="FZ57">
-        <v>741.9941724982177</v>
-      </c>
-      <c r="GA57">
-        <v>714.3329203907607</v>
-      </c>
-      <c r="GB57">
-        <v>2089.012728423209</v>
-      </c>
-      <c r="GC57">
-        <v>1244.002265374939</v>
-      </c>
-      <c r="GD57">
-        <v>1174.974862743859</v>
-      </c>
-      <c r="GE57">
-        <v>2247.01036799259</v>
-      </c>
-      <c r="GF57">
-        <v>1831.784379386889</v>
-      </c>
       <c r="GG57">
-        <v>1682.545386914505</v>
+        <v>2045.365509620538</v>
       </c>
     </row>
     <row r="58" spans="1:189">
@@ -33329,46 +33329,46 @@
         <v>1879.462760743626</v>
       </c>
       <c r="FT58">
+        <v>1530.408810780716</v>
+      </c>
+      <c r="FU58">
+        <v>194.1363056056288</v>
+      </c>
+      <c r="FV58">
+        <v>2390.689742061864</v>
+      </c>
+      <c r="FW58">
+        <v>2141.070515819373</v>
+      </c>
+      <c r="FX58">
+        <v>1406.225268311255</v>
+      </c>
+      <c r="FY58">
+        <v>1458.210387784508</v>
+      </c>
+      <c r="FZ58">
+        <v>2466.81567997644</v>
+      </c>
+      <c r="GA58">
+        <v>613.3949530573411</v>
+      </c>
+      <c r="GB58">
+        <v>2037.583738710657</v>
+      </c>
+      <c r="GC58">
+        <v>928.4607188114537</v>
+      </c>
+      <c r="GD58">
+        <v>2132.78745792187</v>
+      </c>
+      <c r="GE58">
+        <v>1800.428307323139</v>
+      </c>
+      <c r="GF58">
         <v>1715.690378637673</v>
       </c>
-      <c r="FU58">
-        <v>2037.583738710657</v>
-      </c>
-      <c r="FV58">
-        <v>2466.81567997644</v>
-      </c>
-      <c r="FW58">
-        <v>194.1363056056288</v>
-      </c>
-      <c r="FX58">
-        <v>1458.210387784508</v>
-      </c>
-      <c r="FY58">
-        <v>2141.070515819373</v>
-      </c>
-      <c r="FZ58">
-        <v>613.3949530573411</v>
-      </c>
-      <c r="GA58">
-        <v>928.4607188114537</v>
-      </c>
-      <c r="GB58">
-        <v>2378.759168916865</v>
-      </c>
-      <c r="GC58">
-        <v>1530.408810780716</v>
-      </c>
-      <c r="GD58">
-        <v>1406.225268311255</v>
-      </c>
-      <c r="GE58">
-        <v>2390.689742061864</v>
-      </c>
-      <c r="GF58">
-        <v>2132.78745792187</v>
-      </c>
       <c r="GG58">
-        <v>1815.181160835804</v>
+        <v>2336.429842641679</v>
       </c>
     </row>
     <row r="59" spans="1:189">
@@ -33898,46 +33898,46 @@
         <v>1458.321487475708</v>
       </c>
       <c r="FT59">
+        <v>1138.723307843685</v>
+      </c>
+      <c r="FU59">
+        <v>254.694544939913</v>
+      </c>
+      <c r="FV59">
+        <v>2226.831199363003</v>
+      </c>
+      <c r="FW59">
+        <v>1712.524250521775</v>
+      </c>
+      <c r="FX59">
+        <v>1062.372994576193</v>
+      </c>
+      <c r="FY59">
+        <v>1381.231187581728</v>
+      </c>
+      <c r="FZ59">
+        <v>2049.813197151171</v>
+      </c>
+      <c r="GA59">
+        <v>800.6469760851916</v>
+      </c>
+      <c r="GB59">
+        <v>1806.228205960925</v>
+      </c>
+      <c r="GC59">
+        <v>674.9747676672591</v>
+      </c>
+      <c r="GD59">
+        <v>1700.555790702361</v>
+      </c>
+      <c r="GE59">
+        <v>1620.438158095671</v>
+      </c>
+      <c r="GF59">
         <v>1303.355668270563</v>
       </c>
-      <c r="FU59">
-        <v>1806.228205960925</v>
-      </c>
-      <c r="FV59">
-        <v>2049.813197151171</v>
-      </c>
-      <c r="FW59">
-        <v>254.694544939913</v>
-      </c>
-      <c r="FX59">
-        <v>1381.231187581728</v>
-      </c>
-      <c r="FY59">
-        <v>1712.524250521775</v>
-      </c>
-      <c r="FZ59">
-        <v>800.6469760851916</v>
-      </c>
-      <c r="GA59">
-        <v>674.9747676672591</v>
-      </c>
-      <c r="GB59">
-        <v>1978.460213983548</v>
-      </c>
-      <c r="GC59">
-        <v>1138.723307843685</v>
-      </c>
-      <c r="GD59">
-        <v>1062.372994576193</v>
-      </c>
-      <c r="GE59">
-        <v>2226.831199363003</v>
-      </c>
-      <c r="GF59">
-        <v>1700.555790702361</v>
-      </c>
       <c r="GG59">
-        <v>1671.86851382694</v>
+        <v>1933.642377930124</v>
       </c>
     </row>
     <row r="60" spans="1:189">
@@ -34467,46 +34467,46 @@
         <v>1519.305594937145</v>
       </c>
       <c r="FT60">
+        <v>1151.272157527125</v>
+      </c>
+      <c r="FU60">
+        <v>292.5196854541394</v>
+      </c>
+      <c r="FV60">
+        <v>2078.003067948911</v>
+      </c>
+      <c r="FW60">
+        <v>1793.627309153909</v>
+      </c>
+      <c r="FX60">
+        <v>1268.813089008749</v>
+      </c>
+      <c r="FY60">
+        <v>1196.240769113751</v>
+      </c>
+      <c r="FZ60">
+        <v>2099.596057966915</v>
+      </c>
+      <c r="GA60">
+        <v>904.2643322405752</v>
+      </c>
+      <c r="GB60">
+        <v>1688.08991884421</v>
+      </c>
+      <c r="GC60">
+        <v>558.6607201629156</v>
+      </c>
+      <c r="GD60">
+        <v>1814.117379681718</v>
+      </c>
+      <c r="GE60">
+        <v>1475.662518801673</v>
+      </c>
+      <c r="GF60">
         <v>1469.710034203682</v>
       </c>
-      <c r="FU60">
-        <v>1688.08991884421</v>
-      </c>
-      <c r="FV60">
-        <v>2099.596057966915</v>
-      </c>
-      <c r="FW60">
-        <v>292.5196854541394</v>
-      </c>
-      <c r="FX60">
-        <v>1196.240769113751</v>
-      </c>
-      <c r="FY60">
-        <v>1793.627309153909</v>
-      </c>
-      <c r="FZ60">
-        <v>904.2643322405752</v>
-      </c>
-      <c r="GA60">
-        <v>558.6607201629156</v>
-      </c>
-      <c r="GB60">
-        <v>2000.57928602719</v>
-      </c>
-      <c r="GC60">
-        <v>1151.272157527125</v>
-      </c>
-      <c r="GD60">
-        <v>1268.813089008749</v>
-      </c>
-      <c r="GE60">
-        <v>2078.003067948911</v>
-      </c>
-      <c r="GF60">
-        <v>1814.117379681718</v>
-      </c>
       <c r="GG60">
-        <v>1511.936170952169</v>
+        <v>1959.483814068845</v>
       </c>
     </row>
     <row r="61" spans="1:189">
@@ -35036,46 +35036,46 @@
         <v>1801.583669203883</v>
       </c>
       <c r="FT61">
+        <v>1464.272447824977</v>
+      </c>
+      <c r="FU61">
+        <v>98.05901464887026</v>
+      </c>
+      <c r="FV61">
+        <v>2388.147477045949</v>
+      </c>
+      <c r="FW61">
+        <v>2058.48544681988</v>
+      </c>
+      <c r="FX61">
+        <v>1309.666653667009</v>
+      </c>
+      <c r="FY61">
+        <v>1471.132315428259</v>
+      </c>
+      <c r="FZ61">
+        <v>2391.295791045003</v>
+      </c>
+      <c r="GA61">
+        <v>593.8897389818142</v>
+      </c>
+      <c r="GB61">
+        <v>2017.65380181623</v>
+      </c>
+      <c r="GC61">
+        <v>894.6578043382506</v>
+      </c>
+      <c r="GD61">
+        <v>2043.771658392359</v>
+      </c>
+      <c r="GE61">
+        <v>1791.949705895003</v>
+      </c>
+      <c r="GF61">
         <v>1619.692114480247</v>
       </c>
-      <c r="FU61">
-        <v>2017.65380181623</v>
-      </c>
-      <c r="FV61">
-        <v>2391.295791045003</v>
-      </c>
-      <c r="FW61">
-        <v>98.05901464887026</v>
-      </c>
-      <c r="FX61">
-        <v>1471.132315428259</v>
-      </c>
-      <c r="FY61">
-        <v>2058.48544681988</v>
-      </c>
-      <c r="FZ61">
-        <v>593.8897389818142</v>
-      </c>
-      <c r="GA61">
-        <v>894.6578043382506</v>
-      </c>
-      <c r="GB61">
-        <v>2310.488937132395</v>
-      </c>
-      <c r="GC61">
-        <v>1464.272447824977</v>
-      </c>
-      <c r="GD61">
-        <v>1309.666653667009</v>
-      </c>
-      <c r="GE61">
-        <v>2388.147477045949</v>
-      </c>
-      <c r="GF61">
-        <v>2043.771658392359</v>
-      </c>
       <c r="GG61">
-        <v>1815.330087647173</v>
+        <v>2267.141399197434</v>
       </c>
     </row>
     <row r="62" spans="1:189">
@@ -35605,46 +35605,46 @@
         <v>1724.192530942505</v>
       </c>
       <c r="FT62">
+        <v>1476.87460710462</v>
+      </c>
+      <c r="FU62">
+        <v>360.9731297400503</v>
+      </c>
+      <c r="FV62">
+        <v>2648.644410534672</v>
+      </c>
+      <c r="FW62">
+        <v>1938.010722329472</v>
+      </c>
+      <c r="FX62">
+        <v>956.7917471854025</v>
+      </c>
+      <c r="FY62">
+        <v>1789.713125354962</v>
+      </c>
+      <c r="FZ62">
+        <v>2316.897532167678</v>
+      </c>
+      <c r="GA62">
+        <v>442.5183713362562</v>
+      </c>
+      <c r="GB62">
+        <v>2224.13884244292</v>
+      </c>
+      <c r="GC62">
+        <v>1096.169081390228</v>
+      </c>
+      <c r="GD62">
+        <v>1865.406391911059</v>
+      </c>
+      <c r="GE62">
+        <v>2042.285145376576</v>
+      </c>
+      <c r="GF62">
         <v>1354.898587323019</v>
       </c>
-      <c r="FU62">
-        <v>2224.13884244292</v>
-      </c>
-      <c r="FV62">
-        <v>2316.897532167678</v>
-      </c>
-      <c r="FW62">
-        <v>360.9731297400503</v>
-      </c>
-      <c r="FX62">
-        <v>1789.713125354962</v>
-      </c>
-      <c r="FY62">
-        <v>1938.010722329472</v>
-      </c>
-      <c r="FZ62">
-        <v>442.5183713362562</v>
-      </c>
-      <c r="GA62">
-        <v>1096.169081390228</v>
-      </c>
-      <c r="GB62">
-        <v>2284.625907600956</v>
-      </c>
-      <c r="GC62">
-        <v>1476.87460710462</v>
-      </c>
-      <c r="GD62">
-        <v>956.7917471854025</v>
-      </c>
-      <c r="GE62">
-        <v>2648.644410534672</v>
-      </c>
-      <c r="GF62">
-        <v>1865.406391911059</v>
-      </c>
       <c r="GG62">
-        <v>2092.150318056944</v>
+        <v>2235.844710275173</v>
       </c>
     </row>
     <row r="63" spans="1:189">
@@ -36174,46 +36174,46 @@
         <v>1182.604231994676</v>
       </c>
       <c r="FT63">
+        <v>742.1300272160526</v>
+      </c>
+      <c r="FU63">
+        <v>849.0218689274357</v>
+      </c>
+      <c r="FV63">
+        <v>1555.370820870623</v>
+      </c>
+      <c r="FW63">
+        <v>1487.212085563108</v>
+      </c>
+      <c r="FX63">
+        <v>1454.961215984152</v>
+      </c>
+      <c r="FY63">
+        <v>785.968908805777</v>
+      </c>
+      <c r="FZ63">
+        <v>1708.449175647813</v>
+      </c>
+      <c r="GA63">
+        <v>1456.300827132447</v>
+      </c>
+      <c r="GB63">
+        <v>1134.765445180305</v>
+      </c>
+      <c r="GC63">
+        <v>0</v>
+      </c>
+      <c r="GD63">
+        <v>1592.844294549488</v>
+      </c>
+      <c r="GE63">
+        <v>948.6759183891151</v>
+      </c>
+      <c r="GF63">
         <v>1447.372454793094</v>
       </c>
-      <c r="FU63">
-        <v>1134.765445180305</v>
-      </c>
-      <c r="FV63">
-        <v>1708.449175647813</v>
-      </c>
-      <c r="FW63">
-        <v>849.0218689274357</v>
-      </c>
-      <c r="FX63">
-        <v>785.968908805777</v>
-      </c>
-      <c r="FY63">
-        <v>1487.212085563108</v>
-      </c>
-      <c r="FZ63">
-        <v>1456.300827132447</v>
-      </c>
-      <c r="GA63">
-        <v>0</v>
-      </c>
-      <c r="GB63">
-        <v>1559.164906045376</v>
-      </c>
-      <c r="GC63">
-        <v>742.1300272160526</v>
-      </c>
-      <c r="GD63">
-        <v>1454.961215984152</v>
-      </c>
-      <c r="GE63">
-        <v>1555.370820870623</v>
-      </c>
-      <c r="GF63">
-        <v>1592.844294549488</v>
-      </c>
       <c r="GG63">
-        <v>1012.615310433973</v>
+        <v>1526.083523222766</v>
       </c>
     </row>
     <row r="64" spans="1:189">
@@ -36743,46 +36743,46 @@
         <v>1032.198007813574</v>
       </c>
       <c r="FT64">
+        <v>649.6839626712886</v>
+      </c>
+      <c r="FU64">
+        <v>746.9099455086618</v>
+      </c>
+      <c r="FV64">
+        <v>1800.281730152573</v>
+      </c>
+      <c r="FW64">
+        <v>1319.608174212826</v>
+      </c>
+      <c r="FX64">
+        <v>1152.808813437833</v>
+      </c>
+      <c r="FY64">
+        <v>1086.680734677368</v>
+      </c>
+      <c r="FZ64">
+        <v>1603.175640372244</v>
+      </c>
+      <c r="GA64">
+        <v>1312.770493539037</v>
+      </c>
+      <c r="GB64">
+        <v>1336.954844386958</v>
+      </c>
+      <c r="GC64">
+        <v>302.8748624694482</v>
+      </c>
+      <c r="GD64">
+        <v>1379.082979396924</v>
+      </c>
+      <c r="GE64">
+        <v>1199.584346023232</v>
+      </c>
+      <c r="GF64">
         <v>1162.992986188108</v>
       </c>
-      <c r="FU64">
-        <v>1336.954844386958</v>
-      </c>
-      <c r="FV64">
-        <v>1603.175640372244</v>
-      </c>
-      <c r="FW64">
-        <v>746.9099455086618</v>
-      </c>
-      <c r="FX64">
-        <v>1086.680734677368</v>
-      </c>
-      <c r="FY64">
-        <v>1319.608174212826</v>
-      </c>
-      <c r="FZ64">
-        <v>1312.770493539037</v>
-      </c>
-      <c r="GA64">
-        <v>302.8748624694482</v>
-      </c>
-      <c r="GB64">
-        <v>1498.979896829636</v>
-      </c>
-      <c r="GC64">
-        <v>649.6839626712886</v>
-      </c>
-      <c r="GD64">
-        <v>1152.808813437833</v>
-      </c>
-      <c r="GE64">
-        <v>1800.281730152573</v>
-      </c>
-      <c r="GF64">
-        <v>1379.082979396924</v>
-      </c>
       <c r="GG64">
-        <v>1283.40162284337</v>
+        <v>1457.987891725407</v>
       </c>
     </row>
     <row r="65" spans="1:189">
@@ -37312,46 +37312,46 @@
         <v>1225.122161815765</v>
       </c>
       <c r="FT65">
+        <v>770.0085988518408</v>
+      </c>
+      <c r="FU65">
+        <v>1058.528985589027</v>
+      </c>
+      <c r="FV65">
+        <v>1325.334161500135</v>
+      </c>
+      <c r="FW65">
+        <v>1534.091619523791</v>
+      </c>
+      <c r="FX65">
+        <v>1664.225575478051</v>
+      </c>
+      <c r="FY65">
+        <v>579.638425840815</v>
+      </c>
+      <c r="FZ65">
+        <v>1699.303973312193</v>
+      </c>
+      <c r="GA65">
+        <v>1670.037460352651</v>
+      </c>
+      <c r="GB65">
+        <v>923.6822375405293</v>
+      </c>
+      <c r="GC65">
+        <v>232.6038714904711</v>
+      </c>
+      <c r="GD65">
+        <v>1677.71221367733</v>
+      </c>
+      <c r="GE65">
+        <v>718.7378101358277</v>
+      </c>
+      <c r="GF65">
         <v>1608.767796622782</v>
       </c>
-      <c r="FU65">
-        <v>923.6822375405293</v>
-      </c>
-      <c r="FV65">
-        <v>1699.303973312193</v>
-      </c>
-      <c r="FW65">
-        <v>1058.528985589027</v>
-      </c>
-      <c r="FX65">
-        <v>579.638425840815</v>
-      </c>
-      <c r="FY65">
-        <v>1534.091619523791</v>
-      </c>
-      <c r="FZ65">
-        <v>1670.037460352651</v>
-      </c>
-      <c r="GA65">
-        <v>232.6038714904711</v>
-      </c>
-      <c r="GB65">
-        <v>1518.274598686564</v>
-      </c>
-      <c r="GC65">
-        <v>770.0085988518408</v>
-      </c>
-      <c r="GD65">
-        <v>1664.225575478051</v>
-      </c>
-      <c r="GE65">
-        <v>1325.334161500135</v>
-      </c>
-      <c r="GF65">
-        <v>1677.71221367733</v>
-      </c>
       <c r="GG65">
-        <v>780.0686785333509</v>
+        <v>1492.150641507411</v>
       </c>
     </row>
     <row r="66" spans="1:189">
@@ -37881,46 +37881,46 @@
         <v>1205.121608579108</v>
       </c>
       <c r="FT66">
+        <v>761.6112661088823</v>
+      </c>
+      <c r="FU66">
+        <v>863.8510562006435</v>
+      </c>
+      <c r="FV66">
+        <v>1531.17349697149</v>
+      </c>
+      <c r="FW66">
+        <v>1510.637973388774</v>
+      </c>
+      <c r="FX66">
+        <v>1488.464409476226</v>
+      </c>
+      <c r="FY66">
+        <v>753.0000765960648</v>
+      </c>
+      <c r="FZ66">
+        <v>1725.572323643961</v>
+      </c>
+      <c r="GA66">
+        <v>1472.984549208486</v>
+      </c>
+      <c r="GB66">
+        <v>1117.356824361293</v>
+      </c>
+      <c r="GC66">
+        <v>33.84503696752498</v>
+      </c>
+      <c r="GD66">
+        <v>1620.215667625813</v>
+      </c>
+      <c r="GE66">
+        <v>924.4661339346878</v>
+      </c>
+      <c r="GF66">
         <v>1480.339600527344</v>
       </c>
-      <c r="FU66">
-        <v>1117.356824361293</v>
-      </c>
-      <c r="FV66">
-        <v>1725.572323643961</v>
-      </c>
-      <c r="FW66">
-        <v>863.8510562006435</v>
-      </c>
-      <c r="FX66">
-        <v>753.0000765960648</v>
-      </c>
-      <c r="FY66">
-        <v>1510.637973388774</v>
-      </c>
-      <c r="FZ66">
-        <v>1472.984549208486</v>
-      </c>
-      <c r="GA66">
-        <v>33.84503696752498</v>
-      </c>
-      <c r="GB66">
-        <v>1571.993315836649</v>
-      </c>
-      <c r="GC66">
-        <v>761.6112661088823</v>
-      </c>
-      <c r="GD66">
-        <v>1488.464409476226</v>
-      </c>
-      <c r="GE66">
-        <v>1531.17349697149</v>
-      </c>
-      <c r="GF66">
-        <v>1620.215667625813</v>
-      </c>
       <c r="GG66">
-        <v>985.0642453764279</v>
+        <v>1539.799026825227</v>
       </c>
     </row>
     <row r="67" spans="1:189">
@@ -38450,46 +38450,46 @@
         <v>1056.806093947772</v>
       </c>
       <c r="FT67">
+        <v>642.6366431223045</v>
+      </c>
+      <c r="FU67">
+        <v>801.3504864338805</v>
+      </c>
+      <c r="FV67">
+        <v>1687.827754178614</v>
+      </c>
+      <c r="FW67">
+        <v>1353.932247849718</v>
+      </c>
+      <c r="FX67">
+        <v>1270.738839531788</v>
+      </c>
+      <c r="FY67">
+        <v>968.6136688862637</v>
+      </c>
+      <c r="FZ67">
+        <v>1610.302609668838</v>
+      </c>
+      <c r="GA67">
+        <v>1387.394876575396</v>
+      </c>
+      <c r="GB67">
+        <v>1233.883961317546</v>
+      </c>
+      <c r="GC67">
+        <v>189.2344112232919</v>
+      </c>
+      <c r="GD67">
+        <v>1436.442388385263</v>
+      </c>
+      <c r="GE67">
+        <v>1085.089812960672</v>
+      </c>
+      <c r="GF67">
         <v>1260.897726577338</v>
       </c>
-      <c r="FU67">
-        <v>1233.883961317546</v>
-      </c>
-      <c r="FV67">
-        <v>1610.302609668838</v>
-      </c>
-      <c r="FW67">
-        <v>801.3504864338805</v>
-      </c>
-      <c r="FX67">
-        <v>968.6136688862637</v>
-      </c>
-      <c r="FY67">
-        <v>1353.932247849718</v>
-      </c>
-      <c r="FZ67">
-        <v>1387.394876575396</v>
-      </c>
-      <c r="GA67">
-        <v>189.2344112232919</v>
-      </c>
-      <c r="GB67">
-        <v>1486.627537326069</v>
-      </c>
-      <c r="GC67">
-        <v>642.6366431223045</v>
-      </c>
-      <c r="GD67">
-        <v>1270.738839531788</v>
-      </c>
-      <c r="GE67">
-        <v>1687.827754178614</v>
-      </c>
-      <c r="GF67">
-        <v>1436.442388385263</v>
-      </c>
       <c r="GG67">
-        <v>1165.705846379305</v>
+        <v>1448.715819828684</v>
       </c>
     </row>
     <row r="68" spans="1:189">
@@ -39019,46 +39019,46 @@
         <v>1004.831728154517</v>
       </c>
       <c r="FT68">
+        <v>562.3372593958078</v>
+      </c>
+      <c r="FU68">
+        <v>956.3724738276285</v>
+      </c>
+      <c r="FV68">
+        <v>1531.854605450893</v>
+      </c>
+      <c r="FW68">
+        <v>1310.627258356753</v>
+      </c>
+      <c r="FX68">
+        <v>1388.95638950359</v>
+      </c>
+      <c r="FY68">
+        <v>865.0336529388038</v>
+      </c>
+      <c r="FZ68">
+        <v>1528.937183021177</v>
+      </c>
+      <c r="GA68">
+        <v>1548.706317579863</v>
+      </c>
+      <c r="GB68">
+        <v>1070.64142983219</v>
+      </c>
+      <c r="GC68">
+        <v>179.8266870929529</v>
+      </c>
+      <c r="GD68">
+        <v>1425.801597711021</v>
+      </c>
+      <c r="GE68">
+        <v>932.8136102767006</v>
+      </c>
+      <c r="GF68">
         <v>1323.112769129727</v>
       </c>
-      <c r="FU68">
-        <v>1070.64142983219</v>
-      </c>
-      <c r="FV68">
-        <v>1528.937183021177</v>
-      </c>
-      <c r="FW68">
-        <v>956.3724738276285</v>
-      </c>
-      <c r="FX68">
-        <v>865.0336529388038</v>
-      </c>
-      <c r="FY68">
-        <v>1310.627258356753</v>
-      </c>
-      <c r="FZ68">
-        <v>1548.706317579863</v>
-      </c>
-      <c r="GA68">
-        <v>179.8266870929529</v>
-      </c>
-      <c r="GB68">
-        <v>1383.351087543669</v>
-      </c>
-      <c r="GC68">
-        <v>562.3372593958078</v>
-      </c>
-      <c r="GD68">
-        <v>1388.95638950359</v>
-      </c>
-      <c r="GE68">
-        <v>1531.854605450893</v>
-      </c>
-      <c r="GF68">
-        <v>1425.801597711021</v>
-      </c>
       <c r="GG68">
-        <v>1022.769193752096</v>
+        <v>1349.218847475684</v>
       </c>
     </row>
     <row r="69" spans="1:189">
@@ -39588,46 +39588,46 @@
         <v>1233.528694333948</v>
       </c>
       <c r="FT69">
+        <v>805.6935487948261</v>
+      </c>
+      <c r="FU69">
+        <v>742.0425671156638</v>
+      </c>
+      <c r="FV69">
+        <v>1654.240744621133</v>
+      </c>
+      <c r="FW69">
+        <v>1533.728184429853</v>
+      </c>
+      <c r="FX69">
+        <v>1402.81190903839</v>
+      </c>
+      <c r="FY69">
+        <v>852.6759613393226</v>
+      </c>
+      <c r="FZ69">
+        <v>1775.424577226897</v>
+      </c>
+      <c r="GA69">
+        <v>1349.905749892677</v>
+      </c>
+      <c r="GB69">
+        <v>1240.649043303421</v>
+      </c>
+      <c r="GC69">
+        <v>107.0697737575445</v>
+      </c>
+      <c r="GD69">
+        <v>1621.405530564566</v>
+      </c>
+      <c r="GE69">
+        <v>1047.650310425549</v>
+      </c>
+      <c r="GF69">
         <v>1433.534981433488</v>
       </c>
-      <c r="FU69">
-        <v>1240.649043303421</v>
-      </c>
-      <c r="FV69">
-        <v>1775.424577226897</v>
-      </c>
-      <c r="FW69">
-        <v>742.0425671156638</v>
-      </c>
-      <c r="FX69">
-        <v>852.6759613393226</v>
-      </c>
-      <c r="FY69">
-        <v>1533.728184429853</v>
-      </c>
-      <c r="FZ69">
-        <v>1349.905749892677</v>
-      </c>
-      <c r="GA69">
-        <v>107.0697737575445</v>
-      </c>
-      <c r="GB69">
-        <v>1637.301690784213</v>
-      </c>
-      <c r="GC69">
-        <v>805.6935487948261</v>
-      </c>
-      <c r="GD69">
-        <v>1402.81190903839</v>
-      </c>
-      <c r="GE69">
-        <v>1654.240744621133</v>
-      </c>
-      <c r="GF69">
-        <v>1621.405530564566</v>
-      </c>
       <c r="GG69">
-        <v>1104.608721632181</v>
+        <v>1602.199154307693</v>
       </c>
     </row>
     <row r="70" spans="1:189">
@@ -40157,46 +40157,46 @@
         <v>981.9833781749766</v>
       </c>
       <c r="FT70">
+        <v>572.8699181703921</v>
+      </c>
+      <c r="FU70">
+        <v>847.6816562721161</v>
+      </c>
+      <c r="FV70">
+        <v>1693.472690553678</v>
+      </c>
+      <c r="FW70">
+        <v>1278.476133202621</v>
+      </c>
+      <c r="FX70">
+        <v>1232.223986342361</v>
+      </c>
+      <c r="FY70">
+        <v>1011.405534579599</v>
+      </c>
+      <c r="FZ70">
+        <v>1538.435889182408</v>
+      </c>
+      <c r="GA70">
+        <v>1422.208408237486</v>
+      </c>
+      <c r="GB70">
+        <v>1225.175414733926</v>
+      </c>
+      <c r="GC70">
+        <v>249.4380072966607</v>
+      </c>
+      <c r="GD70">
+        <v>1361.439387908185</v>
+      </c>
+      <c r="GE70">
+        <v>1095.51062419614</v>
+      </c>
+      <c r="GF70">
         <v>1198.340917086457</v>
       </c>
-      <c r="FU70">
-        <v>1225.175414733926</v>
-      </c>
-      <c r="FV70">
-        <v>1538.435889182408</v>
-      </c>
-      <c r="FW70">
-        <v>847.6816562721161</v>
-      </c>
-      <c r="FX70">
-        <v>1011.405534579599</v>
-      </c>
-      <c r="FY70">
-        <v>1278.476133202621</v>
-      </c>
-      <c r="FZ70">
-        <v>1422.208408237486</v>
-      </c>
-      <c r="GA70">
-        <v>249.4380072966607</v>
-      </c>
-      <c r="GB70">
-        <v>1419.63079478014</v>
-      </c>
-      <c r="GC70">
-        <v>572.8699181703921</v>
-      </c>
-      <c r="GD70">
-        <v>1232.223986342361</v>
-      </c>
-      <c r="GE70">
-        <v>1693.472690553678</v>
-      </c>
-      <c r="GF70">
-        <v>1361.439387908185</v>
-      </c>
       <c r="GG70">
-        <v>1185.103648887182</v>
+        <v>1380.780827032846</v>
       </c>
     </row>
     <row r="71" spans="1:189">
@@ -40726,46 +40726,46 @@
         <v>1329.704811022829</v>
       </c>
       <c r="FT71">
+        <v>955.6531922966975</v>
+      </c>
+      <c r="FU71">
+        <v>1711.601523545493</v>
+      </c>
+      <c r="FV71">
+        <v>701.6493097757242</v>
+      </c>
+      <c r="FW71">
+        <v>1606.190689103894</v>
+      </c>
+      <c r="FX71">
+        <v>2171.121949023391</v>
+      </c>
+      <c r="FY71">
+        <v>564.0475214545233</v>
+      </c>
+      <c r="FZ71">
+        <v>1598.563169443345</v>
+      </c>
+      <c r="GA71">
+        <v>2323.199939147177</v>
+      </c>
+      <c r="GB71">
+        <v>282.7243549562519</v>
+      </c>
+      <c r="GC71">
+        <v>873.579957474921</v>
+      </c>
+      <c r="GD71">
+        <v>1837.105501767512</v>
+      </c>
+      <c r="GE71">
+        <v>153.9425274258294</v>
+      </c>
+      <c r="GF71">
         <v>1978.496700469187</v>
       </c>
-      <c r="FU71">
-        <v>282.7243549562519</v>
-      </c>
-      <c r="FV71">
-        <v>1598.563169443345</v>
-      </c>
-      <c r="FW71">
-        <v>1711.601523545493</v>
-      </c>
-      <c r="FX71">
-        <v>564.0475214545233</v>
-      </c>
-      <c r="FY71">
-        <v>1606.190689103894</v>
-      </c>
-      <c r="FZ71">
-        <v>2323.199939147177</v>
-      </c>
-      <c r="GA71">
-        <v>873.579957474921</v>
-      </c>
-      <c r="GB71">
-        <v>1347.789233315065</v>
-      </c>
-      <c r="GC71">
-        <v>955.6531922966975</v>
-      </c>
-      <c r="GD71">
-        <v>2171.121949023391</v>
-      </c>
-      <c r="GE71">
-        <v>701.6493097757242</v>
-      </c>
-      <c r="GF71">
-        <v>1837.105501767512</v>
-      </c>
       <c r="GG71">
-        <v>312.7520549515853</v>
+        <v>1345.201782396599</v>
       </c>
     </row>
     <row r="72" spans="1:189">
@@ -41295,46 +41295,46 @@
         <v>1753.177461365114</v>
       </c>
       <c r="FT72">
+        <v>1366.532293359762</v>
+      </c>
+      <c r="FU72">
+        <v>1890.566338866817</v>
+      </c>
+      <c r="FV72">
+        <v>513.3066621313901</v>
+      </c>
+      <c r="FW72">
+        <v>2030.419811251658</v>
+      </c>
+      <c r="FX72">
+        <v>2521.774448257541</v>
+      </c>
+      <c r="FY72">
+        <v>459.1223610704129</v>
+      </c>
+      <c r="FZ72">
+        <v>2008.490445839093</v>
+      </c>
+      <c r="GA72">
+        <v>2496.662306113575</v>
+      </c>
+      <c r="GB72">
+        <v>513.0969448920848</v>
+      </c>
+      <c r="GC72">
+        <v>1121.149891729814</v>
+      </c>
+      <c r="GD72">
+        <v>2260.168513170813</v>
+      </c>
+      <c r="GE72">
+        <v>270.370062834607</v>
+      </c>
+      <c r="GF72">
         <v>2374.138874090274</v>
       </c>
-      <c r="FU72">
-        <v>513.0969448920848</v>
-      </c>
-      <c r="FV72">
-        <v>2008.490445839093</v>
-      </c>
-      <c r="FW72">
-        <v>1890.566338866817</v>
-      </c>
-      <c r="FX72">
-        <v>459.1223610704129</v>
-      </c>
-      <c r="FY72">
-        <v>2030.419811251658</v>
-      </c>
-      <c r="FZ72">
-        <v>2496.662306113575</v>
-      </c>
-      <c r="GA72">
-        <v>1121.149891729814</v>
-      </c>
-      <c r="GB72">
-        <v>1749.66468820382</v>
-      </c>
-      <c r="GC72">
-        <v>1366.532293359762</v>
-      </c>
-      <c r="GD72">
-        <v>2521.774448257541</v>
-      </c>
-      <c r="GE72">
-        <v>513.3066621313901</v>
-      </c>
-      <c r="GF72">
-        <v>2260.168513170813</v>
-      </c>
       <c r="GG72">
-        <v>121.3816813803645</v>
+        <v>1751.687605798541</v>
       </c>
     </row>
     <row r="73" spans="1:189">
@@ -41864,46 +41864,46 @@
         <v>1646.110380745351</v>
       </c>
       <c r="FT73">
+        <v>1332.329436063281</v>
+      </c>
+      <c r="FU73">
+        <v>2132.498827978574</v>
+      </c>
+      <c r="FV73">
+        <v>273.8377376902392</v>
+      </c>
+      <c r="FW73">
+        <v>1890.092789428946</v>
+      </c>
+      <c r="FX73">
+        <v>2592.885919350477</v>
+      </c>
+      <c r="FY73">
+        <v>808.2252201700509</v>
+      </c>
+      <c r="FZ73">
+        <v>1791.014086632373</v>
+      </c>
+      <c r="GA73">
+        <v>2744.677394159593</v>
+      </c>
+      <c r="GB73">
+        <v>270.6369937427432</v>
+      </c>
+      <c r="GC73">
+        <v>1305.126252294265</v>
+      </c>
+      <c r="GD73">
+        <v>2149.109981067109</v>
+      </c>
+      <c r="GE73">
+        <v>368.3541428344373</v>
+      </c>
+      <c r="GF73">
         <v>2365.092307862843</v>
       </c>
-      <c r="FU73">
-        <v>270.6369937427432</v>
-      </c>
-      <c r="FV73">
-        <v>1791.014086632373</v>
-      </c>
-      <c r="FW73">
-        <v>2132.498827978574</v>
-      </c>
-      <c r="FX73">
-        <v>808.2252201700509</v>
-      </c>
-      <c r="FY73">
-        <v>1890.092789428946</v>
-      </c>
-      <c r="FZ73">
-        <v>2744.677394159593</v>
-      </c>
-      <c r="GA73">
-        <v>1305.126252294265</v>
-      </c>
-      <c r="GB73">
-        <v>1518.516180810221</v>
-      </c>
-      <c r="GC73">
-        <v>1332.329436063281</v>
-      </c>
-      <c r="GD73">
-        <v>2592.885919350477</v>
-      </c>
-      <c r="GE73">
-        <v>273.8377376902392</v>
-      </c>
-      <c r="GF73">
-        <v>2149.109981067109</v>
-      </c>
       <c r="GG73">
-        <v>397.5457104937072</v>
+        <v>1531.146192972155</v>
       </c>
     </row>
     <row r="74" spans="1:189">
@@ -42433,46 +42433,46 @@
         <v>1480.304325499007</v>
       </c>
       <c r="FT74">
+        <v>1087.875346971875</v>
+      </c>
+      <c r="FU74">
+        <v>1704.810127305452</v>
+      </c>
+      <c r="FV74">
+        <v>664.4656160577582</v>
+      </c>
+      <c r="FW74">
+        <v>1762.629584225142</v>
+      </c>
+      <c r="FX74">
+        <v>2257.173449125231</v>
+      </c>
+      <c r="FY74">
+        <v>425.5276968863239</v>
+      </c>
+      <c r="FZ74">
+        <v>1765.513056301651</v>
+      </c>
+      <c r="GA74">
+        <v>2316.521334110994</v>
+      </c>
+      <c r="GB74">
+        <v>384.3225728969718</v>
+      </c>
+      <c r="GC74">
+        <v>893.2118810424475</v>
+      </c>
+      <c r="GD74">
+        <v>1986.220209848038</v>
+      </c>
+      <c r="GE74">
+        <v>67.34605862364431</v>
+      </c>
+      <c r="GF74">
         <v>2096.55162701937</v>
       </c>
-      <c r="FU74">
-        <v>384.3225728969718</v>
-      </c>
-      <c r="FV74">
-        <v>1765.513056301651</v>
-      </c>
-      <c r="FW74">
-        <v>1704.810127305452</v>
-      </c>
-      <c r="FX74">
-        <v>425.5276968863239</v>
-      </c>
-      <c r="FY74">
-        <v>1762.629584225142</v>
-      </c>
-      <c r="FZ74">
-        <v>2316.521334110994</v>
-      </c>
-      <c r="GA74">
-        <v>893.2118810424475</v>
-      </c>
-      <c r="GB74">
-        <v>1515.73716180079</v>
-      </c>
-      <c r="GC74">
-        <v>1087.875346971875</v>
-      </c>
-      <c r="GD74">
-        <v>2257.173449125231</v>
-      </c>
-      <c r="GE74">
-        <v>664.4656160577582</v>
-      </c>
-      <c r="GF74">
-        <v>1986.220209848038</v>
-      </c>
       <c r="GG74">
-        <v>158.5407836898937</v>
+        <v>1512.774922140095</v>
       </c>
     </row>
     <row r="75" spans="1:189">
@@ -43002,46 +43002,46 @@
         <v>1595.230604037031</v>
       </c>
       <c r="FT75">
+        <v>1228.705510457825</v>
+      </c>
+      <c r="FU75">
+        <v>1890.93639892742</v>
+      </c>
+      <c r="FV75">
+        <v>476.7399328676094</v>
+      </c>
+      <c r="FW75">
+        <v>1864.79367793904</v>
+      </c>
+      <c r="FX75">
+        <v>2431.981251108199</v>
+      </c>
+      <c r="FY75">
+        <v>546.0283918483485</v>
+      </c>
+      <c r="FZ75">
+        <v>1827.021981140202</v>
+      </c>
+      <c r="GA75">
+        <v>2502.223615724191</v>
+      </c>
+      <c r="GB75">
+        <v>325.9135388590792</v>
+      </c>
+      <c r="GC75">
+        <v>1081.488532034626</v>
+      </c>
+      <c r="GD75">
+        <v>2103.030196370858</v>
+      </c>
+      <c r="GE75">
+        <v>137.3981072880761</v>
+      </c>
+      <c r="GF75">
         <v>2250.968703903236</v>
       </c>
-      <c r="FU75">
-        <v>325.9135388590792</v>
-      </c>
-      <c r="FV75">
-        <v>1827.021981140202</v>
-      </c>
-      <c r="FW75">
-        <v>1890.93639892742</v>
-      </c>
-      <c r="FX75">
-        <v>546.0283918483485</v>
-      </c>
-      <c r="FY75">
-        <v>1864.79367793904</v>
-      </c>
-      <c r="FZ75">
-        <v>2502.223615724191</v>
-      </c>
-      <c r="GA75">
-        <v>1081.488532034626</v>
-      </c>
-      <c r="GB75">
-        <v>1565.730070129918</v>
-      </c>
-      <c r="GC75">
-        <v>1228.705510457825</v>
-      </c>
-      <c r="GD75">
-        <v>2431.981251108199</v>
-      </c>
-      <c r="GE75">
-        <v>476.7399328676094</v>
-      </c>
-      <c r="GF75">
-        <v>2103.030196370858</v>
-      </c>
       <c r="GG75">
-        <v>139.9368381543991</v>
+        <v>1569.207324416219</v>
       </c>
     </row>
     <row r="76" spans="1:189">
@@ -43571,46 +43571,46 @@
         <v>1483.258354295864</v>
       </c>
       <c r="FT76">
+        <v>1103.433129294198</v>
+      </c>
+      <c r="FU76">
+        <v>1766.468128509116</v>
+      </c>
+      <c r="FV76">
+        <v>606.7308341206729</v>
+      </c>
+      <c r="FW76">
+        <v>1760.107068229698</v>
+      </c>
+      <c r="FX76">
+        <v>2295.2138595336</v>
+      </c>
+      <c r="FY76">
+        <v>487.011547218689</v>
+      </c>
+      <c r="FZ76">
+        <v>1746.609525649385</v>
+      </c>
+      <c r="GA76">
+        <v>2378.450378414138</v>
+      </c>
+      <c r="GB76">
+        <v>324.1557342892302</v>
+      </c>
+      <c r="GC76">
+        <v>948.6759183891151</v>
+      </c>
+      <c r="GD76">
+        <v>1990.498302305505</v>
+      </c>
+      <c r="GE76">
+        <v>0</v>
+      </c>
+      <c r="GF76">
         <v>2120.593147051139</v>
       </c>
-      <c r="FU76">
-        <v>324.1557342892302</v>
-      </c>
-      <c r="FV76">
-        <v>1746.609525649385</v>
-      </c>
-      <c r="FW76">
-        <v>1766.468128509116</v>
-      </c>
-      <c r="FX76">
-        <v>487.011547218689</v>
-      </c>
-      <c r="FY76">
-        <v>1760.107068229698</v>
-      </c>
-      <c r="FZ76">
-        <v>2378.450378414138</v>
-      </c>
-      <c r="GA76">
-        <v>948.6759183891151</v>
-      </c>
-      <c r="GB76">
-        <v>1492.301977372202</v>
-      </c>
-      <c r="GC76">
-        <v>1103.433129294198</v>
-      </c>
-      <c r="GD76">
-        <v>2295.2138595336</v>
-      </c>
-      <c r="GE76">
-        <v>606.7308341206729</v>
-      </c>
-      <c r="GF76">
-        <v>1990.498302305505</v>
-      </c>
       <c r="GG76">
-        <v>161.2907276789513</v>
+        <v>1491.659691234148</v>
       </c>
     </row>
     <row r="77" spans="1:189">
@@ -44140,46 +44140,46 @@
         <v>1386.563828253004</v>
       </c>
       <c r="FT77">
+        <v>1042.939864350439</v>
+      </c>
+      <c r="FU77">
+        <v>1857.592856382699</v>
+      </c>
+      <c r="FV77">
+        <v>575.9546717543826</v>
+      </c>
+      <c r="FW77">
+        <v>1649.142707861918</v>
+      </c>
+      <c r="FX77">
+        <v>2289.807931209242</v>
+      </c>
+      <c r="FY77">
+        <v>662.7394045387417</v>
+      </c>
+      <c r="FZ77">
+        <v>1602.872144433732</v>
+      </c>
+      <c r="GA77">
+        <v>2469.084695111085</v>
+      </c>
+      <c r="GB77">
+        <v>148.7513857171557</v>
+      </c>
+      <c r="GC77">
+        <v>1018.131974997718</v>
+      </c>
+      <c r="GD77">
+        <v>1893.852326734406</v>
+      </c>
+      <c r="GE77">
+        <v>181.2894030044008</v>
+      </c>
+      <c r="GF77">
         <v>2073.938014463946</v>
       </c>
-      <c r="FU77">
-        <v>148.7513857171557</v>
-      </c>
-      <c r="FV77">
-        <v>1602.872144433732</v>
-      </c>
-      <c r="FW77">
-        <v>1857.592856382699</v>
-      </c>
-      <c r="FX77">
-        <v>662.7394045387417</v>
-      </c>
-      <c r="FY77">
-        <v>1649.142707861918</v>
-      </c>
-      <c r="FZ77">
-        <v>2469.084695111085</v>
-      </c>
-      <c r="GA77">
-        <v>1018.131974997718</v>
-      </c>
-      <c r="GB77">
-        <v>1341.59871060092</v>
-      </c>
-      <c r="GC77">
-        <v>1042.939864350439</v>
-      </c>
-      <c r="GD77">
-        <v>2289.807931209242</v>
-      </c>
-      <c r="GE77">
-        <v>575.9546717543826</v>
-      </c>
-      <c r="GF77">
-        <v>1893.852326734406</v>
-      </c>
       <c r="GG77">
-        <v>325.4031523102259</v>
+        <v>1344.975323227697</v>
       </c>
     </row>
     <row r="78" spans="1:189">
@@ -44709,46 +44709,46 @@
         <v>1637.217121241835</v>
       </c>
       <c r="FT78">
+        <v>1246.34942642334</v>
+      </c>
+      <c r="FU78">
+        <v>1798.332658341223</v>
+      </c>
+      <c r="FV78">
+        <v>577.1982863134238</v>
+      </c>
+      <c r="FW78">
+        <v>1917.381932143699</v>
+      </c>
+      <c r="FX78">
+        <v>2403.050632691989</v>
+      </c>
+      <c r="FY78">
+        <v>411.0816437505482</v>
+      </c>
+      <c r="FZ78">
+        <v>1907.885477686847</v>
+      </c>
+      <c r="GA78">
+        <v>2407.259504208528</v>
+      </c>
+      <c r="GB78">
+        <v>450.913775465109</v>
+      </c>
+      <c r="GC78">
+        <v>1012.615310433973</v>
+      </c>
+      <c r="GD78">
+        <v>2143.607838751089</v>
+      </c>
+      <c r="GE78">
+        <v>161.2907276789513</v>
+      </c>
+      <c r="GF78">
         <v>2252.761725222908</v>
       </c>
-      <c r="FU78">
-        <v>450.913775465109</v>
-      </c>
-      <c r="FV78">
-        <v>1907.885477686847</v>
-      </c>
-      <c r="FW78">
-        <v>1798.332658341223</v>
-      </c>
-      <c r="FX78">
-        <v>411.0816437505482</v>
-      </c>
-      <c r="FY78">
-        <v>1917.381932143699</v>
-      </c>
-      <c r="FZ78">
-        <v>2407.259504208528</v>
-      </c>
-      <c r="GA78">
-        <v>1012.615310433973</v>
-      </c>
-      <c r="GB78">
-        <v>1653.098389730191</v>
-      </c>
-      <c r="GC78">
-        <v>1246.34942642334</v>
-      </c>
-      <c r="GD78">
-        <v>2403.050632691989</v>
-      </c>
-      <c r="GE78">
-        <v>577.1982863134238</v>
-      </c>
-      <c r="GF78">
-        <v>2143.607838751089</v>
-      </c>
       <c r="GG78">
-        <v>0</v>
+        <v>1652.798869655626</v>
       </c>
     </row>
     <row r="79" spans="1:189">
@@ -45278,46 +45278,46 @@
         <v>674.4512416612494</v>
       </c>
       <c r="FT79">
+        <v>243.6289659784976</v>
+      </c>
+      <c r="FU79">
+        <v>1373.298226931041</v>
+      </c>
+      <c r="FV79">
+        <v>1382.587222149701</v>
+      </c>
+      <c r="FW79">
+        <v>979.0386328321982</v>
+      </c>
+      <c r="FX79">
+        <v>1497.899898365263</v>
+      </c>
+      <c r="FY79">
+        <v>1028.280642550083</v>
+      </c>
+      <c r="FZ79">
+        <v>1118.985232914958</v>
+      </c>
+      <c r="GA79">
+        <v>1939.625037337395</v>
+      </c>
+      <c r="GB79">
+        <v>855.7833727582489</v>
+      </c>
+      <c r="GC79">
+        <v>615.9853988904827</v>
+      </c>
+      <c r="GD79">
+        <v>1164.020939396995</v>
+      </c>
+      <c r="GE79">
+        <v>862.5592459037262</v>
+      </c>
+      <c r="GF79">
         <v>1262.622741749623</v>
       </c>
-      <c r="FU79">
-        <v>855.7833727582489</v>
-      </c>
-      <c r="FV79">
-        <v>1118.985232914958</v>
-      </c>
-      <c r="FW79">
-        <v>1373.298226931041</v>
-      </c>
-      <c r="FX79">
-        <v>1028.280642550083</v>
-      </c>
-      <c r="FY79">
-        <v>979.0386328321982</v>
-      </c>
-      <c r="FZ79">
-        <v>1939.625037337395</v>
-      </c>
-      <c r="GA79">
-        <v>615.9853988904827</v>
-      </c>
-      <c r="GB79">
-        <v>947.6094081588481</v>
-      </c>
-      <c r="GC79">
-        <v>243.6289659784976</v>
-      </c>
-      <c r="GD79">
-        <v>1497.899898365263</v>
-      </c>
-      <c r="GE79">
-        <v>1382.587222149701</v>
-      </c>
-      <c r="GF79">
-        <v>1164.020939396995</v>
-      </c>
       <c r="GG79">
-        <v>1003.444834539236</v>
+        <v>917.7213742844619</v>
       </c>
     </row>
     <row r="80" spans="1:189">
@@ -45847,46 +45847,46 @@
         <v>632.9398862959245</v>
       </c>
       <c r="FT80">
+        <v>177.8786399332136</v>
+      </c>
+      <c r="FU80">
+        <v>1273.557336349578</v>
+      </c>
+      <c r="FV80">
+        <v>1513.553693513409</v>
+      </c>
+      <c r="FW80">
+        <v>941.9094668858282</v>
+      </c>
+      <c r="FX80">
+        <v>1361.051770185596</v>
+      </c>
+      <c r="FY80">
+        <v>1095.311251735366</v>
+      </c>
+      <c r="FZ80">
+        <v>1134.903363763771</v>
+      </c>
+      <c r="GA80">
+        <v>1826.073758601715</v>
+      </c>
+      <c r="GB80">
+        <v>990.3860427871608</v>
+      </c>
+      <c r="GC80">
+        <v>573.6370536670489</v>
+      </c>
+      <c r="GD80">
+        <v>1097.222591840506</v>
+      </c>
+      <c r="GE80">
+        <v>977.6440958475506</v>
+      </c>
+      <c r="GF80">
         <v>1142.964825926888</v>
       </c>
-      <c r="FU80">
-        <v>990.3860427871608</v>
-      </c>
-      <c r="FV80">
-        <v>1134.903363763771</v>
-      </c>
-      <c r="FW80">
-        <v>1273.557336349578</v>
-      </c>
-      <c r="FX80">
-        <v>1095.311251735366</v>
-      </c>
-      <c r="FY80">
-        <v>941.9094668858282</v>
-      </c>
-      <c r="FZ80">
-        <v>1826.073758601715</v>
-      </c>
-      <c r="GA80">
-        <v>573.6370536670489</v>
-      </c>
-      <c r="GB80">
-        <v>993.001578469387</v>
-      </c>
-      <c r="GC80">
-        <v>177.8786399332136</v>
-      </c>
-      <c r="GD80">
-        <v>1361.051770185596</v>
-      </c>
-      <c r="GE80">
-        <v>1513.553693513409</v>
-      </c>
-      <c r="GF80">
-        <v>1097.222591840506</v>
-      </c>
       <c r="GG80">
-        <v>1111.535568414422</v>
+        <v>957.0516653228299</v>
       </c>
     </row>
     <row r="81" spans="1:189">
@@ -46416,46 +46416,46 @@
         <v>621.3448838802391</v>
       </c>
       <c r="FT81">
+        <v>295.8191950233522</v>
+      </c>
+      <c r="FU81">
+        <v>1112.098906652667</v>
+      </c>
+      <c r="FV81">
+        <v>1788.589441457957</v>
+      </c>
+      <c r="FW81">
+        <v>909.2927278698656</v>
+      </c>
+      <c r="FX81">
+        <v>1080.165273336332</v>
+      </c>
+      <c r="FY81">
+        <v>1281.528221774515</v>
+      </c>
+      <c r="FZ81">
+        <v>1199.485455459765</v>
+      </c>
+      <c r="GA81">
+        <v>1619.287121571243</v>
+      </c>
+      <c r="GB81">
+        <v>1270.210806071794</v>
+      </c>
+      <c r="GC81">
+        <v>604.8643466475432</v>
+      </c>
+      <c r="GD81">
+        <v>989.3330802994128</v>
+      </c>
+      <c r="GE81">
+        <v>1234.686132749848</v>
+      </c>
+      <c r="GF81">
         <v>903.7920720149059</v>
       </c>
-      <c r="FU81">
-        <v>1270.210806071794</v>
-      </c>
-      <c r="FV81">
-        <v>1199.485455459765</v>
-      </c>
-      <c r="FW81">
-        <v>1112.098906652667</v>
-      </c>
-      <c r="FX81">
-        <v>1281.528221774515</v>
-      </c>
-      <c r="FY81">
-        <v>909.2927278698656</v>
-      </c>
-      <c r="FZ81">
-        <v>1619.287121571243</v>
-      </c>
-      <c r="GA81">
-        <v>604.8643466475432</v>
-      </c>
-      <c r="GB81">
-        <v>1118.29276192073</v>
-      </c>
-      <c r="GC81">
-        <v>295.8191950233522</v>
-      </c>
-      <c r="GD81">
-        <v>1080.165273336332</v>
-      </c>
-      <c r="GE81">
-        <v>1788.589441457957</v>
-      </c>
-      <c r="GF81">
-        <v>989.3330802994128</v>
-      </c>
       <c r="GG81">
-        <v>1357.913017983126</v>
+        <v>1073.270664886812</v>
       </c>
     </row>
     <row r="82" spans="1:189">
@@ -46985,46 +46985,46 @@
         <v>582.6816464437462</v>
       </c>
       <c r="FT82">
+        <v>179.0121187164972</v>
+      </c>
+      <c r="FU82">
+        <v>1206.658481128847</v>
+      </c>
+      <c r="FV82">
+        <v>1663.723580182163</v>
+      </c>
+      <c r="FW82">
+        <v>886.1841365439677</v>
+      </c>
+      <c r="FX82">
+        <v>1211.423372066764</v>
+      </c>
+      <c r="FY82">
+        <v>1209.204222944999</v>
+      </c>
+      <c r="FZ82">
+        <v>1133.25561500881</v>
+      </c>
+      <c r="GA82">
+        <v>1734.500045075881</v>
+      </c>
+      <c r="GB82">
+        <v>1140.721943006315</v>
+      </c>
+      <c r="GC82">
+        <v>601.0347539873843</v>
+      </c>
+      <c r="GD82">
+        <v>1006.577707663798</v>
+      </c>
+      <c r="GE82">
+        <v>1122.424606818479</v>
+      </c>
+      <c r="GF82">
         <v>1000.382845051785</v>
       </c>
-      <c r="FU82">
-        <v>1140.721943006315</v>
-      </c>
-      <c r="FV82">
-        <v>1133.25561500881</v>
-      </c>
-      <c r="FW82">
-        <v>1206.658481128847</v>
-      </c>
-      <c r="FX82">
-        <v>1209.204222944999</v>
-      </c>
-      <c r="FY82">
-        <v>886.1841365439677</v>
-      </c>
-      <c r="FZ82">
-        <v>1734.500045075881</v>
-      </c>
-      <c r="GA82">
-        <v>601.0347539873843</v>
-      </c>
-      <c r="GB82">
-        <v>1025.947386239112</v>
-      </c>
-      <c r="GC82">
-        <v>179.0121187164972</v>
-      </c>
-      <c r="GD82">
-        <v>1211.423372066764</v>
-      </c>
-      <c r="GE82">
-        <v>1663.723580182163</v>
-      </c>
-      <c r="GF82">
-        <v>1006.577707663798</v>
-      </c>
       <c r="GG82">
-        <v>1252.412225362983</v>
+        <v>984.2351544748586</v>
       </c>
     </row>
     <row r="83" spans="1:189">
@@ -47554,46 +47554,46 @@
         <v>410.2639656024951</v>
       </c>
       <c r="FT83">
+        <v>187.9009605509411</v>
+      </c>
+      <c r="FU83">
+        <v>1318.733953250071</v>
+      </c>
+      <c r="FV83">
+        <v>1790.067691801918</v>
+      </c>
+      <c r="FW83">
+        <v>704.2033245577431</v>
+      </c>
+      <c r="FX83">
+        <v>1130.785046188998</v>
+      </c>
+      <c r="FY83">
+        <v>1396.01198343432</v>
+      </c>
+      <c r="FZ83">
+        <v>988.4218810096019</v>
+      </c>
+      <c r="GA83">
+        <v>1808.015615423747</v>
+      </c>
+      <c r="GB83">
+        <v>1257.523222365614</v>
+      </c>
+      <c r="GC83">
+        <v>788.005044648549</v>
+      </c>
+      <c r="GD83">
+        <v>812.921158720423</v>
+      </c>
+      <c r="GE83">
+        <v>1276.40284021037</v>
+      </c>
+      <c r="GF83">
         <v>849.0479585273794</v>
       </c>
-      <c r="FU83">
-        <v>1257.523222365614</v>
-      </c>
-      <c r="FV83">
-        <v>988.4218810096019</v>
-      </c>
-      <c r="FW83">
-        <v>1318.733953250071</v>
-      </c>
-      <c r="FX83">
-        <v>1396.01198343432</v>
-      </c>
-      <c r="FY83">
-        <v>704.2033245577431</v>
-      </c>
-      <c r="FZ83">
-        <v>1808.015615423747</v>
-      </c>
-      <c r="GA83">
-        <v>788.005044648549</v>
-      </c>
-      <c r="GB83">
-        <v>919.0251540415106</v>
-      </c>
-      <c r="GC83">
-        <v>187.9009605509411</v>
-      </c>
-      <c r="GD83">
-        <v>1130.785046188998</v>
-      </c>
-      <c r="GE83">
-        <v>1790.067691801918</v>
-      </c>
-      <c r="GF83">
-        <v>812.921158720423</v>
-      </c>
       <c r="GG83">
-        <v>1414.344807589904</v>
+        <v>871.915527224387</v>
       </c>
     </row>
     <row r="84" spans="1:189">
@@ -48123,46 +48123,46 @@
         <v>490.7578844520484</v>
       </c>
       <c r="FT84">
+        <v>107.4292940712628</v>
+      </c>
+      <c r="FU84">
+        <v>1452.930347077751</v>
+      </c>
+      <c r="FV84">
+        <v>1506.213772885434</v>
+      </c>
+      <c r="FW84">
+        <v>794.868607158942</v>
+      </c>
+      <c r="FX84">
+        <v>1421.402844152136</v>
+      </c>
+      <c r="FY84">
+        <v>1211.593457365197</v>
+      </c>
+      <c r="FZ84">
+        <v>951.7955616167743</v>
+      </c>
+      <c r="GA84">
+        <v>1992.307265591839</v>
+      </c>
+      <c r="GB84">
+        <v>971.105242567399</v>
+      </c>
+      <c r="GC84">
+        <v>759.8428935813431</v>
+      </c>
+      <c r="GD84">
+        <v>984.8165205329321</v>
+      </c>
+      <c r="GE84">
+        <v>1020.226591728707</v>
+      </c>
+      <c r="GF84">
         <v>1132.047406759517</v>
       </c>
-      <c r="FU84">
-        <v>971.105242567399</v>
-      </c>
-      <c r="FV84">
-        <v>951.7955616167743</v>
-      </c>
-      <c r="FW84">
-        <v>1452.930347077751</v>
-      </c>
-      <c r="FX84">
-        <v>1211.593457365197</v>
-      </c>
-      <c r="FY84">
-        <v>794.868607158942</v>
-      </c>
-      <c r="FZ84">
-        <v>1992.307265591839</v>
-      </c>
-      <c r="GA84">
-        <v>759.8428935813431</v>
-      </c>
-      <c r="GB84">
-        <v>803.4627585618975</v>
-      </c>
-      <c r="GC84">
-        <v>107.4292940712628</v>
-      </c>
-      <c r="GD84">
-        <v>1421.402844152136</v>
-      </c>
-      <c r="GE84">
-        <v>1506.213772885434</v>
-      </c>
-      <c r="GF84">
-        <v>984.8165205329321</v>
-      </c>
       <c r="GG84">
-        <v>1167.522430839368</v>
+        <v>767.871983738428</v>
       </c>
     </row>
     <row r="85" spans="1:189">
@@ -48692,46 +48692,46 @@
         <v>572.3459735225481</v>
       </c>
       <c r="FT85">
+        <v>219.1491539917556</v>
+      </c>
+      <c r="FU85">
+        <v>1503.858635952434</v>
+      </c>
+      <c r="FV85">
+        <v>1393.665695214136</v>
+      </c>
+      <c r="FW85">
+        <v>867.1474725322995</v>
+      </c>
+      <c r="FX85">
+        <v>1531.5272503234</v>
+      </c>
+      <c r="FY85">
+        <v>1139.234763227529</v>
+      </c>
+      <c r="FZ85">
+        <v>976.9616683642233</v>
+      </c>
+      <c r="GA85">
+        <v>2058.686824062338</v>
+      </c>
+      <c r="GB85">
+        <v>858.1264915265141</v>
+      </c>
+      <c r="GC85">
+        <v>763.5803695378321</v>
+      </c>
+      <c r="GD85">
+        <v>1075.680296223071</v>
+      </c>
+      <c r="GE85">
+        <v>918.4823343640123</v>
+      </c>
+      <c r="GF85">
         <v>1245.425025880942</v>
       </c>
-      <c r="FU85">
-        <v>858.1264915265141</v>
-      </c>
-      <c r="FV85">
-        <v>976.9616683642233</v>
-      </c>
-      <c r="FW85">
-        <v>1503.858635952434</v>
-      </c>
-      <c r="FX85">
-        <v>1139.234763227529</v>
-      </c>
-      <c r="FY85">
-        <v>867.1474725322995</v>
-      </c>
-      <c r="FZ85">
-        <v>2058.686824062338</v>
-      </c>
-      <c r="GA85">
-        <v>763.5803695378321</v>
-      </c>
-      <c r="GB85">
-        <v>799.7425862733932</v>
-      </c>
-      <c r="GC85">
-        <v>219.1491539917556</v>
-      </c>
-      <c r="GD85">
-        <v>1531.5272503234</v>
-      </c>
-      <c r="GE85">
-        <v>1393.665695214136</v>
-      </c>
-      <c r="GF85">
-        <v>1075.680296223071</v>
-      </c>
       <c r="GG85">
-        <v>1068.995930382836</v>
+        <v>770.5699081451664</v>
       </c>
     </row>
     <row r="86" spans="1:189">
@@ -49261,46 +49261,46 @@
         <v>420.5131485125544</v>
       </c>
       <c r="FT86">
+        <v>66.79262625569991</v>
+      </c>
+      <c r="FU86">
+        <v>1452.129922133154</v>
+      </c>
+      <c r="FV86">
+        <v>1583.914020055373</v>
+      </c>
+      <c r="FW86">
+        <v>727.6805321103533</v>
+      </c>
+      <c r="FX86">
+        <v>1358.995803506446</v>
+      </c>
+      <c r="FY86">
+        <v>1283.966180389816</v>
+      </c>
+      <c r="FZ86">
+        <v>912.0844778520328</v>
+      </c>
+      <c r="GA86">
+        <v>1977.342631865509</v>
+      </c>
+      <c r="GB86">
+        <v>1048.308713851717</v>
+      </c>
+      <c r="GC86">
+        <v>796.7556962495172</v>
+      </c>
+      <c r="GD86">
+        <v>908.4383377310276</v>
+      </c>
+      <c r="GE86">
+        <v>1100.127785477576</v>
+      </c>
+      <c r="GF86">
         <v>1055.794126046708</v>
       </c>
-      <c r="FU86">
-        <v>1048.308713851717</v>
-      </c>
-      <c r="FV86">
-        <v>912.0844778520328</v>
-      </c>
-      <c r="FW86">
-        <v>1452.129922133154</v>
-      </c>
-      <c r="FX86">
-        <v>1283.966180389816</v>
-      </c>
-      <c r="FY86">
-        <v>727.6805321103533</v>
-      </c>
-      <c r="FZ86">
-        <v>1977.342631865509</v>
-      </c>
-      <c r="GA86">
-        <v>796.7556962495172</v>
-      </c>
-      <c r="GB86">
-        <v>784.5127212918381</v>
-      </c>
-      <c r="GC86">
-        <v>66.79262625569991</v>
-      </c>
-      <c r="GD86">
-        <v>1358.995803506446</v>
-      </c>
-      <c r="GE86">
-        <v>1583.914020055373</v>
-      </c>
-      <c r="GF86">
-        <v>908.4383377310276</v>
-      </c>
       <c r="GG86">
-        <v>1247.070350224069</v>
+        <v>744.9398857485049</v>
       </c>
     </row>
     <row r="87" spans="1:189">
@@ -49830,46 +49830,46 @@
         <v>455.1515384320251</v>
       </c>
       <c r="FT87">
+        <v>0</v>
+      </c>
+      <c r="FU87">
+        <v>1385.569038720099</v>
+      </c>
+      <c r="FV87">
+        <v>1604.763311894769</v>
+      </c>
+      <c r="FW87">
+        <v>764.1087266705579</v>
+      </c>
+      <c r="FX87">
+        <v>1313.981033523644</v>
+      </c>
+      <c r="FY87">
+        <v>1261.823060385196</v>
+      </c>
+      <c r="FZ87">
+        <v>969.7956996288503</v>
+      </c>
+      <c r="GA87">
+        <v>1910.927125445697</v>
+      </c>
+      <c r="GB87">
+        <v>1071.090925273024</v>
+      </c>
+      <c r="GC87">
+        <v>742.1300272160526</v>
+      </c>
+      <c r="GD87">
+        <v>927.2556214530194</v>
+      </c>
+      <c r="GE87">
+        <v>1103.433129294198</v>
+      </c>
+      <c r="GF87">
         <v>1032.766324625263</v>
       </c>
-      <c r="FU87">
-        <v>1071.090925273024</v>
-      </c>
-      <c r="FV87">
-        <v>969.7956996288503</v>
-      </c>
-      <c r="FW87">
-        <v>1385.569038720099</v>
-      </c>
-      <c r="FX87">
-        <v>1261.823060385196</v>
-      </c>
-      <c r="FY87">
-        <v>764.1087266705579</v>
-      </c>
-      <c r="FZ87">
-        <v>1910.927125445697</v>
-      </c>
-      <c r="GA87">
-        <v>742.1300272160526</v>
-      </c>
-      <c r="GB87">
-        <v>849.331368981776</v>
-      </c>
-      <c r="GC87">
-        <v>0</v>
-      </c>
-      <c r="GD87">
-        <v>1313.981033523644</v>
-      </c>
-      <c r="GE87">
-        <v>1604.763311894769</v>
-      </c>
-      <c r="GF87">
-        <v>927.2556214530194</v>
-      </c>
       <c r="GG87">
-        <v>1246.34942642334</v>
+        <v>808.9249118163835</v>
       </c>
     </row>
     <row r="88" spans="1:189">
@@ -50399,46 +50399,46 @@
         <v>2085.840642839735</v>
       </c>
       <c r="FT88">
+        <v>1854.168852944468</v>
+      </c>
+      <c r="FU88">
+        <v>629.7390398150832</v>
+      </c>
+      <c r="FV88">
+        <v>2990.883971444247</v>
+      </c>
+      <c r="FW88">
+        <v>2284.411711379415</v>
+      </c>
+      <c r="FX88">
+        <v>1162.365885000306</v>
+      </c>
+      <c r="FY88">
+        <v>2097.559283836537</v>
+      </c>
+      <c r="FZ88">
+        <v>2675.246242760777</v>
+      </c>
+      <c r="GA88">
+        <v>143.0416520787503</v>
+      </c>
+      <c r="GB88">
+        <v>2584.522796704426</v>
+      </c>
+      <c r="GC88">
+        <v>1450.574424036748</v>
+      </c>
+      <c r="GD88">
+        <v>2187.645464108314</v>
+      </c>
+      <c r="GE88">
+        <v>2387.110114446656</v>
+      </c>
+      <c r="GF88">
         <v>1633.819771344985</v>
       </c>
-      <c r="FU88">
-        <v>2584.522796704426</v>
-      </c>
-      <c r="FV88">
-        <v>2675.246242760777</v>
-      </c>
-      <c r="FW88">
-        <v>629.7390398150832</v>
-      </c>
-      <c r="FX88">
-        <v>2097.559283836537</v>
-      </c>
-      <c r="FY88">
-        <v>2284.411711379415</v>
-      </c>
-      <c r="FZ88">
-        <v>143.0416520787503</v>
-      </c>
-      <c r="GA88">
-        <v>1450.574424036748</v>
-      </c>
-      <c r="GB88">
-        <v>2654.317411202699</v>
-      </c>
-      <c r="GC88">
-        <v>1854.168852944468</v>
-      </c>
-      <c r="GD88">
-        <v>1162.365885000306</v>
-      </c>
-      <c r="GE88">
-        <v>2990.883971444247</v>
-      </c>
-      <c r="GF88">
-        <v>2187.645464108314</v>
-      </c>
       <c r="GG88">
-        <v>2425.283643619665</v>
+        <v>2604.70555940965</v>
       </c>
     </row>
     <row r="89" spans="1:189">
@@ -50968,46 +50968,46 @@
         <v>2166.661152871417</v>
       </c>
       <c r="FT89">
+        <v>1910.927125445697</v>
+      </c>
+      <c r="FU89">
+        <v>612.2011787023229</v>
+      </c>
+      <c r="FV89">
+        <v>2978.161445398661</v>
+      </c>
+      <c r="FW89">
+        <v>2377.05705330035</v>
+      </c>
+      <c r="FX89">
+        <v>1294.431249717264</v>
+      </c>
+      <c r="FY89">
+        <v>2064.612053979791</v>
+      </c>
+      <c r="FZ89">
+        <v>2759.125586227252</v>
+      </c>
+      <c r="GA89">
+        <v>0</v>
+      </c>
+      <c r="GB89">
+        <v>2590.340308597805</v>
+      </c>
+      <c r="GC89">
+        <v>1456.300827132447</v>
+      </c>
+      <c r="GD89">
+        <v>2292.978805295378</v>
+      </c>
+      <c r="GE89">
+        <v>2378.450378414138</v>
+      </c>
+      <c r="GF89">
         <v>1752.997237725009</v>
       </c>
-      <c r="FU89">
-        <v>2590.340308597805</v>
-      </c>
-      <c r="FV89">
-        <v>2759.125586227252</v>
-      </c>
-      <c r="FW89">
-        <v>612.2011787023229</v>
-      </c>
-      <c r="FX89">
-        <v>2064.612053979791</v>
-      </c>
-      <c r="FY89">
-        <v>2377.05705330035</v>
-      </c>
-      <c r="FZ89">
-        <v>0</v>
-      </c>
-      <c r="GA89">
-        <v>1456.300827132447</v>
-      </c>
-      <c r="GB89">
-        <v>2725.952761402729</v>
-      </c>
-      <c r="GC89">
-        <v>1910.927125445697</v>
-      </c>
-      <c r="GD89">
-        <v>1294.431249717264</v>
-      </c>
-      <c r="GE89">
-        <v>2978.161445398661</v>
-      </c>
-      <c r="GF89">
-        <v>2292.978805295378</v>
-      </c>
       <c r="GG89">
-        <v>2407.259504208528</v>
+        <v>2677.482710022975</v>
       </c>
     </row>
     <row r="90" spans="1:189">
@@ -51537,46 +51537,46 @@
         <v>2341.336685435321</v>
       </c>
       <c r="FT90">
+        <v>2101.186822142997</v>
+      </c>
+      <c r="FU90">
+        <v>814.420760765028</v>
+      </c>
+      <c r="FV90">
+        <v>3179.072486159952</v>
+      </c>
+      <c r="FW90">
+        <v>2540.795111546557</v>
+      </c>
+      <c r="FX90">
+        <v>1393.752125503732</v>
+      </c>
+      <c r="FY90">
+        <v>2260.555485237192</v>
+      </c>
+      <c r="FZ90">
+        <v>2931.283173519457</v>
+      </c>
+      <c r="GA90">
+        <v>202.7073544089431</v>
+      </c>
+      <c r="GB90">
+        <v>2793.045987373165</v>
+      </c>
+      <c r="GC90">
+        <v>1658.983447191009</v>
+      </c>
+      <c r="GD90">
+        <v>2441.713349078249</v>
+      </c>
+      <c r="GE90">
+        <v>2580.165780139078</v>
+      </c>
+      <c r="GF90">
         <v>1880.415390181699</v>
       </c>
-      <c r="FU90">
-        <v>2793.045987373165</v>
-      </c>
-      <c r="FV90">
-        <v>2931.283173519457</v>
-      </c>
-      <c r="FW90">
-        <v>814.420760765028</v>
-      </c>
-      <c r="FX90">
-        <v>2260.555485237192</v>
-      </c>
-      <c r="FY90">
-        <v>2540.795111546557</v>
-      </c>
-      <c r="FZ90">
-        <v>202.7073544089431</v>
-      </c>
-      <c r="GA90">
-        <v>1658.983447191009</v>
-      </c>
-      <c r="GB90">
-        <v>2907.707926029943</v>
-      </c>
-      <c r="GC90">
-        <v>2101.186822142997</v>
-      </c>
-      <c r="GD90">
-        <v>1393.752125503732</v>
-      </c>
-      <c r="GE90">
-        <v>3179.072486159952</v>
-      </c>
-      <c r="GF90">
-        <v>2441.713349078249</v>
-      </c>
       <c r="GG90">
-        <v>2607.288379702899</v>
+        <v>2858.427081327212</v>
       </c>
     </row>
     <row r="91" spans="1:189">
@@ -52106,46 +52106,46 @@
         <v>2032.218298615531</v>
       </c>
       <c r="FT91">
+        <v>1721.52108531072</v>
+      </c>
+      <c r="FU91">
+        <v>340.5001789684775</v>
+      </c>
+      <c r="FV91">
+        <v>2666.033997145066</v>
+      </c>
+      <c r="FW91">
+        <v>2273.20303874762</v>
+      </c>
+      <c r="FX91">
+        <v>1369.440922737579</v>
+      </c>
+      <c r="FY91">
+        <v>1736.503454204559</v>
+      </c>
+      <c r="FZ91">
+        <v>2625.882080607564</v>
+      </c>
+      <c r="GA91">
+        <v>342.5767844385426</v>
+      </c>
+      <c r="GB91">
+        <v>2302.050943033654</v>
+      </c>
+      <c r="GC91">
+        <v>1179.000189021479</v>
+      </c>
+      <c r="GD91">
+        <v>2230.944375741169</v>
+      </c>
+      <c r="GE91">
+        <v>2072.815635888687</v>
+      </c>
+      <c r="GF91">
         <v>1753.151848716588</v>
       </c>
-      <c r="FU91">
-        <v>2302.050943033654</v>
-      </c>
-      <c r="FV91">
-        <v>2625.882080607564</v>
-      </c>
-      <c r="FW91">
-        <v>340.5001789684775</v>
-      </c>
-      <c r="FX91">
-        <v>1736.503454204559</v>
-      </c>
-      <c r="FY91">
-        <v>2273.20303874762</v>
-      </c>
-      <c r="FZ91">
-        <v>342.5767844385426</v>
-      </c>
-      <c r="GA91">
-        <v>1179.000189021479</v>
-      </c>
-      <c r="GB91">
-        <v>2561.165572304993</v>
-      </c>
-      <c r="GC91">
-        <v>1721.52108531072</v>
-      </c>
-      <c r="GD91">
-        <v>1369.440922737579</v>
-      </c>
-      <c r="GE91">
-        <v>2666.033997145066</v>
-      </c>
-      <c r="GF91">
-        <v>2230.944375741169</v>
-      </c>
       <c r="GG91">
-        <v>2091.35159170046</v>
+        <v>2515.976150313739</v>
       </c>
     </row>
     <row r="92" spans="1:189">
@@ -52675,46 +52675,46 @@
         <v>2188.53726030792</v>
       </c>
       <c r="FT92">
+        <v>1913.887027965326</v>
+      </c>
+      <c r="FU92">
+        <v>574.3830556368341</v>
+      </c>
+      <c r="FV92">
+        <v>2928.55245556869</v>
+      </c>
+      <c r="FW92">
+        <v>2408.795925242089</v>
+      </c>
+      <c r="FX92">
+        <v>1368.703328815124</v>
+      </c>
+      <c r="FY92">
+        <v>2003.543313126395</v>
+      </c>
+      <c r="FZ92">
+        <v>2782.508769643509</v>
+      </c>
+      <c r="GA92">
+        <v>105.1140432231545</v>
+      </c>
+      <c r="GB92">
+        <v>2553.844855762413</v>
+      </c>
+      <c r="GC92">
+        <v>1423.404806204417</v>
+      </c>
+      <c r="GD92">
+        <v>2336.59242806869</v>
+      </c>
+      <c r="GE92">
+        <v>2332.485326838606</v>
+      </c>
+      <c r="GF92">
         <v>1811.52280855225</v>
       </c>
-      <c r="FU92">
-        <v>2553.844855762413</v>
-      </c>
-      <c r="FV92">
-        <v>2782.508769643509</v>
-      </c>
-      <c r="FW92">
-        <v>574.3830556368341</v>
-      </c>
-      <c r="FX92">
-        <v>2003.543313126395</v>
-      </c>
-      <c r="FY92">
-        <v>2408.795925242089</v>
-      </c>
-      <c r="FZ92">
-        <v>105.1140432231545</v>
-      </c>
-      <c r="GA92">
-        <v>1423.404806204417</v>
-      </c>
-      <c r="GB92">
-        <v>2739.008738280041</v>
-      </c>
-      <c r="GC92">
-        <v>1913.887027965326</v>
-      </c>
-      <c r="GD92">
-        <v>1368.703328815124</v>
-      </c>
-      <c r="GE92">
-        <v>2928.55245556869</v>
-      </c>
-      <c r="GF92">
-        <v>2336.59242806869</v>
-      </c>
       <c r="GG92">
-        <v>2355.045765957657</v>
+        <v>2691.566375012972</v>
       </c>
     </row>
     <row r="93" spans="1:189">
@@ -53244,46 +53244,46 @@
         <v>2061.247868539997</v>
       </c>
       <c r="FT93">
+        <v>1804.527133820729</v>
+      </c>
+      <c r="FU93">
+        <v>520.9447492018544</v>
+      </c>
+      <c r="FV93">
+        <v>2888.052681764204</v>
+      </c>
+      <c r="FW93">
+        <v>2273.738630751659</v>
+      </c>
+      <c r="FX93">
+        <v>1215.68886474172</v>
+      </c>
+      <c r="FY93">
+        <v>1983.373323291821</v>
+      </c>
+      <c r="FZ93">
+        <v>2654.028735718156</v>
+      </c>
+      <c r="GA93">
+        <v>106.514079164533</v>
+      </c>
+      <c r="GB93">
+        <v>2493.431822771382</v>
+      </c>
+      <c r="GC93">
+        <v>1358.758856541469</v>
+      </c>
+      <c r="GD93">
+        <v>2193.669996266093</v>
+      </c>
+      <c r="GE93">
+        <v>2286.529504182276</v>
+      </c>
+      <c r="GF93">
         <v>1661.413652401142</v>
       </c>
-      <c r="FU93">
-        <v>2493.431822771382</v>
-      </c>
-      <c r="FV93">
-        <v>2654.028735718156</v>
-      </c>
-      <c r="FW93">
-        <v>520.9447492018544</v>
-      </c>
-      <c r="FX93">
-        <v>1983.373323291821</v>
-      </c>
-      <c r="FY93">
-        <v>2273.738630751659</v>
-      </c>
-      <c r="FZ93">
-        <v>106.514079164533</v>
-      </c>
-      <c r="GA93">
-        <v>1358.758856541469</v>
-      </c>
-      <c r="GB93">
-        <v>2619.636562093568</v>
-      </c>
-      <c r="GC93">
-        <v>1804.527133820729</v>
-      </c>
-      <c r="GD93">
-        <v>1215.68886474172</v>
-      </c>
-      <c r="GE93">
-        <v>2888.052681764204</v>
-      </c>
-      <c r="GF93">
-        <v>2193.669996266093</v>
-      </c>
       <c r="GG93">
-        <v>2319.175480842397</v>
+        <v>2571.234899093045</v>
       </c>
     </row>
     <row r="94" spans="1:189">
@@ -53813,46 +53813,46 @@
         <v>2233.877809707645</v>
       </c>
       <c r="FT94">
+        <v>1939.100645380867</v>
+      </c>
+      <c r="FU94">
+        <v>567.5175633086475</v>
+      </c>
+      <c r="FV94">
+        <v>2888.360523271532</v>
+      </c>
+      <c r="FW94">
+        <v>2464.274705427926</v>
+      </c>
+      <c r="FX94">
+        <v>1468.734947707836</v>
+      </c>
+      <c r="FY94">
+        <v>1950.357203408483</v>
+      </c>
+      <c r="FZ94">
+        <v>2828.310470874469</v>
+      </c>
+      <c r="GA94">
+        <v>226.9480192324523</v>
+      </c>
+      <c r="GB94">
+        <v>2530.657392835387</v>
+      </c>
+      <c r="GC94">
+        <v>1408.805720404409</v>
+      </c>
+      <c r="GD94">
+        <v>2404.702132482176</v>
+      </c>
+      <c r="GE94">
+        <v>2297.971969800574</v>
+      </c>
+      <c r="GF94">
         <v>1895.737273710907</v>
       </c>
-      <c r="FU94">
-        <v>2530.657392835387</v>
-      </c>
-      <c r="FV94">
-        <v>2828.310470874469</v>
-      </c>
-      <c r="FW94">
-        <v>567.5175633086475</v>
-      </c>
-      <c r="FX94">
-        <v>1950.357203408483</v>
-      </c>
-      <c r="FY94">
-        <v>2464.274705427926</v>
-      </c>
-      <c r="FZ94">
-        <v>226.9480192324523</v>
-      </c>
-      <c r="GA94">
-        <v>1408.805720404409</v>
-      </c>
-      <c r="GB94">
-        <v>2773.485044350038</v>
-      </c>
-      <c r="GC94">
-        <v>1939.100645380867</v>
-      </c>
-      <c r="GD94">
-        <v>1468.734947707836</v>
-      </c>
-      <c r="GE94">
-        <v>2888.360523271532</v>
-      </c>
-      <c r="GF94">
-        <v>2404.702132482176</v>
-      </c>
       <c r="GG94">
-        <v>2312.53565517886</v>
+        <v>2727.26961221897</v>
       </c>
     </row>
     <row r="95" spans="1:189">
@@ -54382,46 +54382,46 @@
         <v>2068.688137287756</v>
       </c>
       <c r="FT95">
+        <v>1825.722393253814</v>
+      </c>
+      <c r="FU95">
+        <v>575.5769397304546</v>
+      </c>
+      <c r="FV95">
+        <v>2940.069799676609</v>
+      </c>
+      <c r="FW95">
+        <v>2273.676962700783</v>
+      </c>
+      <c r="FX95">
+        <v>1180.967236908127</v>
+      </c>
+      <c r="FY95">
+        <v>2042.132703633684</v>
+      </c>
+      <c r="FZ95">
+        <v>2659.846391539954</v>
+      </c>
+      <c r="GA95">
+        <v>113.6357700454867</v>
+      </c>
+      <c r="GB95">
+        <v>2538.50252016393</v>
+      </c>
+      <c r="GC95">
+        <v>1403.90047198046</v>
+      </c>
+      <c r="GD95">
+        <v>2184.561276208833</v>
+      </c>
+      <c r="GE95">
+        <v>2337.137084804796</v>
+      </c>
+      <c r="GF95">
         <v>1640.516312538851</v>
       </c>
-      <c r="FU95">
-        <v>2538.50252016393</v>
-      </c>
-      <c r="FV95">
-        <v>2659.846391539954</v>
-      </c>
-      <c r="FW95">
-        <v>575.5769397304546</v>
-      </c>
-      <c r="FX95">
-        <v>2042.132703633684</v>
-      </c>
-      <c r="FY95">
-        <v>2273.676962700783</v>
-      </c>
-      <c r="FZ95">
-        <v>113.6357700454867</v>
-      </c>
-      <c r="GA95">
-        <v>1403.90047198046</v>
-      </c>
-      <c r="GB95">
-        <v>2632.839990964951</v>
-      </c>
-      <c r="GC95">
-        <v>1825.722393253814</v>
-      </c>
-      <c r="GD95">
-        <v>1180.967236908127</v>
-      </c>
-      <c r="GE95">
-        <v>2940.069799676609</v>
-      </c>
-      <c r="GF95">
-        <v>2184.561276208833</v>
-      </c>
       <c r="GG95">
-        <v>2373.079971483722</v>
+        <v>2583.756175746235</v>
       </c>
     </row>
     <row r="96" spans="1:189">
@@ -54951,46 +54951,46 @@
         <v>1762.294127114606</v>
       </c>
       <c r="FT96">
+        <v>1321.276780816838</v>
+      </c>
+      <c r="FU96">
+        <v>1490.783063696187</v>
+      </c>
+      <c r="FV96">
+        <v>981.5638096654868</v>
+      </c>
+      <c r="FW96">
+        <v>2064.491448449923</v>
+      </c>
+      <c r="FX96">
+        <v>2286.439210074429</v>
+      </c>
+      <c r="FY96">
+        <v>60.0945328883939</v>
+      </c>
+      <c r="FZ96">
+        <v>2139.401278860867</v>
+      </c>
+      <c r="GA96">
+        <v>2082.420511046259</v>
+      </c>
+      <c r="GB96">
+        <v>850.535110643594</v>
+      </c>
+      <c r="GC96">
+        <v>831.7331936287776</v>
+      </c>
+      <c r="GD96">
+        <v>2248.532332593565</v>
+      </c>
+      <c r="GE96">
+        <v>526.4692782087576</v>
+      </c>
+      <c r="GF96">
         <v>2235.789718278801</v>
       </c>
-      <c r="FU96">
-        <v>850.535110643594</v>
-      </c>
-      <c r="FV96">
-        <v>2139.401278860867</v>
-      </c>
-      <c r="FW96">
-        <v>1490.783063696187</v>
-      </c>
-      <c r="FX96">
-        <v>60.0945328883939</v>
-      </c>
-      <c r="FY96">
-        <v>2064.491448449923</v>
-      </c>
-      <c r="FZ96">
-        <v>2082.420511046259</v>
-      </c>
-      <c r="GA96">
-        <v>831.7331936287776</v>
-      </c>
-      <c r="GB96">
-        <v>1909.885882472841</v>
-      </c>
-      <c r="GC96">
-        <v>1321.276780816838</v>
-      </c>
-      <c r="GD96">
-        <v>2286.439210074429</v>
-      </c>
-      <c r="GE96">
-        <v>981.5638096654868</v>
-      </c>
-      <c r="GF96">
-        <v>2248.532332593565</v>
-      </c>
       <c r="GG96">
-        <v>435.4305459197316</v>
+        <v>1898.645879019992</v>
       </c>
     </row>
     <row r="97" spans="1:189">
@@ -55520,46 +55520,46 @@
         <v>1622.338170277859</v>
       </c>
       <c r="FT97">
+        <v>1178.127312488492</v>
+      </c>
+      <c r="FU97">
+        <v>1388.796834748075</v>
+      </c>
+      <c r="FV97">
+        <v>1020.959963425247</v>
+      </c>
+      <c r="FW97">
+        <v>1926.212498710177</v>
+      </c>
+      <c r="FX97">
+        <v>2143.922720523957</v>
+      </c>
+      <c r="FY97">
+        <v>95.50454497260695</v>
+      </c>
+      <c r="FZ97">
+        <v>2015.274293857335</v>
+      </c>
+      <c r="GA97">
+        <v>1989.434008756974</v>
+      </c>
+      <c r="GB97">
+        <v>807.3202565481743</v>
+      </c>
+      <c r="GC97">
+        <v>690.9640408768793</v>
+      </c>
+      <c r="GD97">
+        <v>2105.142435880916</v>
+      </c>
+      <c r="GE97">
+        <v>492.8048197742068</v>
+      </c>
+      <c r="GF97">
         <v>2087.602538020352</v>
       </c>
-      <c r="FU97">
-        <v>807.3202565481743</v>
-      </c>
-      <c r="FV97">
-        <v>2015.274293857335</v>
-      </c>
-      <c r="FW97">
-        <v>1388.796834748075</v>
-      </c>
-      <c r="FX97">
-        <v>95.50454497260695</v>
-      </c>
-      <c r="FY97">
-        <v>1926.212498710177</v>
-      </c>
-      <c r="FZ97">
-        <v>1989.434008756974</v>
-      </c>
-      <c r="GA97">
-        <v>690.9640408768793</v>
-      </c>
-      <c r="GB97">
-        <v>1792.803787608952</v>
-      </c>
-      <c r="GC97">
-        <v>1178.127312488492</v>
-      </c>
-      <c r="GD97">
-        <v>2143.922720523957</v>
-      </c>
-      <c r="GE97">
-        <v>1020.959963425247</v>
-      </c>
-      <c r="GF97">
-        <v>2105.142435880916</v>
-      </c>
       <c r="GG97">
-        <v>447.1979054244193</v>
+        <v>1778.976847245407</v>
       </c>
     </row>
     <row r="98" spans="1:189">
@@ -56089,46 +56089,46 @@
         <v>1702.347825829961</v>
       </c>
       <c r="FT98">
+        <v>1261.823060385196</v>
+      </c>
+      <c r="FU98">
+        <v>1468.200226639043</v>
+      </c>
+      <c r="FV98">
+        <v>971.7399439992511</v>
+      </c>
+      <c r="FW98">
+        <v>2004.435505640418</v>
+      </c>
+      <c r="FX98">
+        <v>2239.32858767394</v>
+      </c>
+      <c r="FY98">
+        <v>0</v>
+      </c>
+      <c r="FZ98">
+        <v>2080.178776275282</v>
+      </c>
+      <c r="GA98">
+        <v>2064.612053979791</v>
+      </c>
+      <c r="GB98">
+        <v>809.7785923858052</v>
+      </c>
+      <c r="GC98">
+        <v>785.968908805777</v>
+      </c>
+      <c r="GD98">
+        <v>2189.064501471923</v>
+      </c>
+      <c r="GE98">
+        <v>487.011547218689</v>
+      </c>
+      <c r="GF98">
         <v>2181.129490787039</v>
       </c>
-      <c r="FU98">
-        <v>809.7785923858052</v>
-      </c>
-      <c r="FV98">
-        <v>2080.178776275282</v>
-      </c>
-      <c r="FW98">
-        <v>1468.200226639043</v>
-      </c>
-      <c r="FX98">
-        <v>0</v>
-      </c>
-      <c r="FY98">
-        <v>2004.435505640418</v>
-      </c>
-      <c r="FZ98">
-        <v>2064.612053979791</v>
-      </c>
-      <c r="GA98">
-        <v>785.968908805777</v>
-      </c>
-      <c r="GB98">
-        <v>1851.644086354249</v>
-      </c>
-      <c r="GC98">
-        <v>1261.823060385196</v>
-      </c>
-      <c r="GD98">
-        <v>2239.32858767394</v>
-      </c>
-      <c r="GE98">
-        <v>971.7399439992511</v>
-      </c>
-      <c r="GF98">
-        <v>2189.064501471923</v>
-      </c>
       <c r="GG98">
-        <v>411.0816437505482</v>
+        <v>1840.003959379539</v>
       </c>
     </row>
     <row r="99" spans="1:189">
@@ -56658,46 +56658,46 @@
         <v>1609.349008123349</v>
       </c>
       <c r="FT99">
+        <v>1172.394111895128</v>
+      </c>
+      <c r="FU99">
+        <v>1465.440699228469</v>
+      </c>
+      <c r="FV99">
+        <v>933.5392674050487</v>
+      </c>
+      <c r="FW99">
+        <v>1910.071626924605</v>
+      </c>
+      <c r="FX99">
+        <v>2185.207656289705</v>
+      </c>
+      <c r="FY99">
+        <v>100.4439222071138</v>
+      </c>
+      <c r="FZ99">
+        <v>1980.648067372531</v>
+      </c>
+      <c r="GA99">
+        <v>2068.825986885106</v>
+      </c>
+      <c r="GB99">
+        <v>725.9169775681808</v>
+      </c>
+      <c r="GC99">
+        <v>739.6756873231482</v>
+      </c>
+      <c r="GD99">
+        <v>2099.128167886137</v>
+      </c>
+      <c r="GE99">
+        <v>407.7673330796325</v>
+      </c>
+      <c r="GF99">
         <v>2107.965774877132</v>
       </c>
-      <c r="FU99">
-        <v>725.9169775681808</v>
-      </c>
-      <c r="FV99">
-        <v>1980.648067372531</v>
-      </c>
-      <c r="FW99">
-        <v>1465.440699228469</v>
-      </c>
-      <c r="FX99">
-        <v>100.4439222071138</v>
-      </c>
-      <c r="FY99">
-        <v>1910.071626924605</v>
-      </c>
-      <c r="FZ99">
-        <v>2068.825986885106</v>
-      </c>
-      <c r="GA99">
-        <v>739.6756873231482</v>
-      </c>
-      <c r="GB99">
-        <v>1751.342254479836</v>
-      </c>
-      <c r="GC99">
-        <v>1172.394111895128</v>
-      </c>
-      <c r="GD99">
-        <v>2185.207656289705</v>
-      </c>
-      <c r="GE99">
-        <v>933.5392674050487</v>
-      </c>
-      <c r="GF99">
-        <v>2099.128167886137</v>
-      </c>
       <c r="GG99">
-        <v>358.7639195965816</v>
+        <v>1739.906634973697</v>
       </c>
     </row>
     <row r="100" spans="1:189">
@@ -57227,46 +57227,46 @@
         <v>1662.564205898721</v>
       </c>
       <c r="FT100">
+        <v>1228.46894317921</v>
+      </c>
+      <c r="FU100">
+        <v>1516.955095705132</v>
+      </c>
+      <c r="FV100">
+        <v>898.5532901470923</v>
+      </c>
+      <c r="FW100">
+        <v>1961.878631361313</v>
+      </c>
+      <c r="FX100">
+        <v>2247.651411534252</v>
+      </c>
+      <c r="FY100">
+        <v>82.58726662375588</v>
+      </c>
+      <c r="FZ100">
+        <v>2023.648622031338</v>
+      </c>
+      <c r="GA100">
+        <v>2118.036163968248</v>
+      </c>
+      <c r="GB100">
+        <v>727.8847533122329</v>
+      </c>
+      <c r="GC100">
+        <v>801.1993631117732</v>
+      </c>
+      <c r="GD100">
+        <v>2154.50384690763</v>
+      </c>
+      <c r="GE100">
+        <v>404.705062227588</v>
+      </c>
+      <c r="GF100">
         <v>2169.402735092009</v>
       </c>
-      <c r="FU100">
-        <v>727.8847533122329</v>
-      </c>
-      <c r="FV100">
-        <v>2023.648622031338</v>
-      </c>
-      <c r="FW100">
-        <v>1516.955095705132</v>
-      </c>
-      <c r="FX100">
-        <v>82.58726662375588</v>
-      </c>
-      <c r="FY100">
-        <v>1961.878631361313</v>
-      </c>
-      <c r="FZ100">
-        <v>2118.036163968248</v>
-      </c>
-      <c r="GA100">
-        <v>801.1993631117732</v>
-      </c>
-      <c r="GB100">
-        <v>1790.517916765083</v>
-      </c>
-      <c r="GC100">
-        <v>1228.46894317921</v>
-      </c>
-      <c r="GD100">
-        <v>2247.651411534252</v>
-      </c>
-      <c r="GE100">
-        <v>898.5532901470923</v>
-      </c>
-      <c r="GF100">
-        <v>2154.50384690763</v>
-      </c>
       <c r="GG100">
-        <v>331.5468552831649</v>
+        <v>1780.550999277638</v>
       </c>
     </row>
     <row r="101" spans="1:189">
@@ -57796,46 +57796,46 @@
         <v>1596.044088785165</v>
       </c>
       <c r="FT101">
+        <v>1158.794735382131</v>
+      </c>
+      <c r="FU101">
+        <v>1456.902353546904</v>
+      </c>
+      <c r="FV101">
+        <v>938.1754923583968</v>
+      </c>
+      <c r="FW101">
+        <v>1896.930767292745</v>
+      </c>
+      <c r="FX101">
+        <v>2172.194737866935</v>
+      </c>
+      <c r="FY101">
+        <v>111.5757229068901</v>
+      </c>
+      <c r="FZ101">
+        <v>1968.775145502505</v>
+      </c>
+      <c r="GA101">
+        <v>2060.938632139293</v>
+      </c>
+      <c r="GB101">
+        <v>722.2786785354651</v>
+      </c>
+      <c r="GC101">
+        <v>727.4034514751789</v>
+      </c>
+      <c r="GD101">
+        <v>2085.58068896</v>
+      </c>
+      <c r="GE101">
+        <v>405.7781336251169</v>
+      </c>
+      <c r="GF101">
         <v>2094.194025192947</v>
       </c>
-      <c r="FU101">
-        <v>722.2786785354651</v>
-      </c>
-      <c r="FV101">
-        <v>1968.775145502505</v>
-      </c>
-      <c r="FW101">
-        <v>1456.902353546904</v>
-      </c>
-      <c r="FX101">
-        <v>111.5757229068901</v>
-      </c>
-      <c r="FY101">
-        <v>1896.930767292745</v>
-      </c>
-      <c r="FZ101">
-        <v>2060.938632139293</v>
-      </c>
-      <c r="GA101">
-        <v>727.4034514751789</v>
-      </c>
-      <c r="GB101">
-        <v>1740.10814575514</v>
-      </c>
-      <c r="GC101">
-        <v>1158.794735382131</v>
-      </c>
-      <c r="GD101">
-        <v>2172.194737866935</v>
-      </c>
-      <c r="GE101">
-        <v>938.1754923583968</v>
-      </c>
-      <c r="GF101">
-        <v>2085.58068896</v>
-      </c>
       <c r="GG101">
-        <v>362.3474142318991</v>
+        <v>1728.428836461589</v>
       </c>
     </row>
     <row r="102" spans="1:189">
@@ -58365,46 +58365,46 @@
         <v>1705.113718739868</v>
       </c>
       <c r="FT102">
+        <v>1265.938970684921</v>
+      </c>
+      <c r="FU102">
+        <v>1484.803930059252</v>
+      </c>
+      <c r="FV102">
+        <v>954.8776542162676</v>
+      </c>
+      <c r="FW102">
+        <v>2006.588472192445</v>
+      </c>
+      <c r="FX102">
+        <v>2251.296659748836</v>
+      </c>
+      <c r="FY102">
+        <v>17.27877067005251</v>
+      </c>
+      <c r="FZ102">
+        <v>2078.71904921713</v>
+      </c>
+      <c r="GA102">
+        <v>2081.539941752834</v>
+      </c>
+      <c r="GB102">
+        <v>797.8701798809374</v>
+      </c>
+      <c r="GC102">
+        <v>798.6172872664207</v>
+      </c>
+      <c r="GD102">
+        <v>2193.081446633184</v>
+      </c>
+      <c r="GE102">
+        <v>474.574793622317</v>
+      </c>
+      <c r="GF102">
         <v>2189.744111833585</v>
       </c>
-      <c r="FU102">
-        <v>797.8701798809374</v>
-      </c>
-      <c r="FV102">
-        <v>2078.71904921713</v>
-      </c>
-      <c r="FW102">
-        <v>1484.803930059252</v>
-      </c>
-      <c r="FX102">
-        <v>17.27877067005251</v>
-      </c>
-      <c r="FY102">
-        <v>2006.588472192445</v>
-      </c>
-      <c r="FZ102">
-        <v>2081.539941752834</v>
-      </c>
-      <c r="GA102">
-        <v>798.6172872664207</v>
-      </c>
-      <c r="GB102">
-        <v>1848.82233794995</v>
-      </c>
-      <c r="GC102">
-        <v>1265.938970684921</v>
-      </c>
-      <c r="GD102">
-        <v>2251.296659748836</v>
-      </c>
-      <c r="GE102">
-        <v>954.8776542162676</v>
-      </c>
-      <c r="GF102">
-        <v>2193.081446633184</v>
-      </c>
       <c r="GG102">
-        <v>395.4831772329746</v>
+        <v>1837.679661501414</v>
       </c>
     </row>
     <row r="103" spans="1:189">
@@ -58934,46 +58934,46 @@
         <v>1598.17968480109</v>
       </c>
       <c r="FT103">
+        <v>1149.921450787148</v>
+      </c>
+      <c r="FU103">
+        <v>1321.312309578699</v>
+      </c>
+      <c r="FV103">
+        <v>1083.517876147561</v>
+      </c>
+      <c r="FW103">
+        <v>1903.872220748577</v>
+      </c>
+      <c r="FX103">
+        <v>2086.50984087331</v>
+      </c>
+      <c r="FY103">
+        <v>156.1299639899798</v>
+      </c>
+      <c r="FZ103">
+        <v>2007.087518780928</v>
+      </c>
+      <c r="GA103">
+        <v>1922.207543064886</v>
+      </c>
+      <c r="GB103">
+        <v>848.5833796309727</v>
+      </c>
+      <c r="GC103">
+        <v>631.9538617667313</v>
+      </c>
+      <c r="GD103">
+        <v>2075.403454942868</v>
+      </c>
+      <c r="GE103">
+        <v>541.0511406344351</v>
+      </c>
+      <c r="GF103">
         <v>2041.16164102135</v>
       </c>
-      <c r="FU103">
-        <v>848.5833796309727</v>
-      </c>
-      <c r="FV103">
-        <v>2007.087518780928</v>
-      </c>
-      <c r="FW103">
-        <v>1321.312309578699</v>
-      </c>
-      <c r="FX103">
-        <v>156.1299639899798</v>
-      </c>
-      <c r="FY103">
-        <v>1903.872220748577</v>
-      </c>
-      <c r="FZ103">
-        <v>1922.207543064886</v>
-      </c>
-      <c r="GA103">
-        <v>631.9538617667313</v>
-      </c>
-      <c r="GB103">
-        <v>1790.616144050821</v>
-      </c>
-      <c r="GC103">
-        <v>1149.921450787148</v>
-      </c>
-      <c r="GD103">
-        <v>2086.50984087331</v>
-      </c>
-      <c r="GE103">
-        <v>1083.517876147561</v>
-      </c>
-      <c r="GF103">
-        <v>2075.403454942868</v>
-      </c>
       <c r="GG103">
-        <v>507.7404980392457</v>
+        <v>1774.792026467163</v>
       </c>
     </row>
     <row r="104" spans="1:189">
@@ -59503,46 +59503,46 @@
         <v>570.8000231720082</v>
       </c>
       <c r="FT104">
+        <v>967.1762537502468</v>
+      </c>
+      <c r="FU104">
+        <v>2283.716066382881</v>
+      </c>
+      <c r="FV104">
+        <v>2062.459549219011</v>
+      </c>
+      <c r="FW104">
+        <v>381.4367056421884</v>
+      </c>
+      <c r="FX104">
+        <v>1738.236489288902</v>
+      </c>
+      <c r="FY104">
+        <v>2104.155556190674</v>
+      </c>
+      <c r="FZ104">
+        <v>66.90852831829814</v>
+      </c>
+      <c r="GA104">
+        <v>2728.475511396906</v>
+      </c>
+      <c r="GB104">
+        <v>1580.268526119061</v>
+      </c>
+      <c r="GC104">
+        <v>1708.561029432534</v>
+      </c>
+      <c r="GD104">
+        <v>625.2680030750175</v>
+      </c>
+      <c r="GE104">
+        <v>1781.819075279842</v>
+      </c>
+      <c r="GF104">
         <v>1222.229948182216</v>
       </c>
-      <c r="FU104">
-        <v>1580.268526119061</v>
-      </c>
-      <c r="FV104">
-        <v>66.90852831829814</v>
-      </c>
-      <c r="FW104">
-        <v>2283.716066382881</v>
-      </c>
-      <c r="FX104">
-        <v>2104.155556190674</v>
-      </c>
-      <c r="FY104">
-        <v>381.4367056421884</v>
-      </c>
-      <c r="FZ104">
-        <v>2728.475511396906</v>
-      </c>
-      <c r="GA104">
-        <v>1708.561029432534</v>
-      </c>
-      <c r="GB104">
-        <v>332.6762543352143</v>
-      </c>
-      <c r="GC104">
-        <v>967.1762537502468</v>
-      </c>
-      <c r="GD104">
-        <v>1738.236489288902</v>
-      </c>
-      <c r="GE104">
-        <v>2062.459549219011</v>
-      </c>
-      <c r="GF104">
-        <v>625.2680030750175</v>
-      </c>
       <c r="GG104">
-        <v>1943.085561789505</v>
+        <v>308.2007945522555</v>
       </c>
     </row>
     <row r="105" spans="1:189">
@@ -60072,46 +60072,46 @@
         <v>512.838883159973</v>
       </c>
       <c r="FT105">
+        <v>918.3661082112619</v>
+      </c>
+      <c r="FU105">
+        <v>2225.661375217637</v>
+      </c>
+      <c r="FV105">
+        <v>2058.995117655576</v>
+      </c>
+      <c r="FW105">
+        <v>320.7866510885363</v>
+      </c>
+      <c r="FX105">
+        <v>1677.590310659193</v>
+      </c>
+      <c r="FY105">
+        <v>2072.913971981963</v>
+      </c>
+      <c r="FZ105">
+        <v>115.4101110334508</v>
+      </c>
+      <c r="GA105">
+        <v>2667.582625079087</v>
+      </c>
+      <c r="GB105">
+        <v>1569.071652194851</v>
+      </c>
+      <c r="GC105">
+        <v>1660.421314580667</v>
+      </c>
+      <c r="GD105">
+        <v>572.7153090500901</v>
+      </c>
+      <c r="GE105">
+        <v>1761.390900789849</v>
+      </c>
+      <c r="GF105">
         <v>1163.444404434374</v>
       </c>
-      <c r="FU105">
-        <v>1569.071652194851</v>
-      </c>
-      <c r="FV105">
-        <v>115.4101110334508</v>
-      </c>
-      <c r="FW105">
-        <v>2225.661375217637</v>
-      </c>
-      <c r="FX105">
-        <v>2072.913971981963</v>
-      </c>
-      <c r="FY105">
-        <v>320.7866510885363</v>
-      </c>
-      <c r="FZ105">
-        <v>2667.582625079087</v>
-      </c>
-      <c r="GA105">
-        <v>1660.421314580667</v>
-      </c>
-      <c r="GB105">
-        <v>345.285446870078</v>
-      </c>
-      <c r="GC105">
-        <v>918.3661082112619</v>
-      </c>
-      <c r="GD105">
-        <v>1677.590310659193</v>
-      </c>
-      <c r="GE105">
-        <v>2058.995117655576</v>
-      </c>
-      <c r="GF105">
-        <v>572.7153090500901</v>
-      </c>
       <c r="GG105">
-        <v>1922.488582340444</v>
+        <v>311.9832572493019</v>
       </c>
     </row>
     <row r="106" spans="1:189">
@@ -60641,46 +60641,46 @@
         <v>828.7347589446098</v>
       </c>
       <c r="FT106">
+        <v>1151.702936174674</v>
+      </c>
+      <c r="FU106">
+        <v>2518.315043608914</v>
+      </c>
+      <c r="FV106">
+        <v>1969.366169168735</v>
+      </c>
+      <c r="FW106">
+        <v>695.576238294231</v>
+      </c>
+      <c r="FX106">
+        <v>2050.232160689974</v>
+      </c>
+      <c r="FY106">
+        <v>2159.577132345645</v>
+      </c>
+      <c r="FZ106">
+        <v>262.2387927354486</v>
+      </c>
+      <c r="GA106">
+        <v>2993.668618957312</v>
+      </c>
+      <c r="GB106">
+        <v>1535.852319787468</v>
+      </c>
+      <c r="GC106">
+        <v>1872.530567329037</v>
+      </c>
+      <c r="GD106">
+        <v>944.1293865715401</v>
+      </c>
+      <c r="GE106">
+        <v>1782.085541410669</v>
+      </c>
+      <c r="GF106">
         <v>1539.854343094222</v>
       </c>
-      <c r="FU106">
-        <v>1535.852319787468</v>
-      </c>
-      <c r="FV106">
-        <v>262.2387927354486</v>
-      </c>
-      <c r="FW106">
-        <v>2518.315043608914</v>
-      </c>
-      <c r="FX106">
-        <v>2159.577132345645</v>
-      </c>
-      <c r="FY106">
-        <v>695.576238294231</v>
-      </c>
-      <c r="FZ106">
-        <v>2993.668618957312</v>
-      </c>
-      <c r="GA106">
-        <v>1872.530567329037</v>
-      </c>
-      <c r="GB106">
-        <v>317.1986241405571</v>
-      </c>
-      <c r="GC106">
-        <v>1151.702936174674</v>
-      </c>
-      <c r="GD106">
-        <v>2050.232160689974</v>
-      </c>
-      <c r="GE106">
-        <v>1969.366169168735</v>
-      </c>
-      <c r="GF106">
-        <v>944.1293865715401</v>
-      </c>
       <c r="GG106">
-        <v>1941.449384544502</v>
+        <v>346.4476110833114</v>
       </c>
     </row>
     <row r="107" spans="1:189">
@@ -61210,46 +61210,46 @@
         <v>524.5150829415981</v>
       </c>
       <c r="FT107">
+        <v>609.1148224596865</v>
+      </c>
+      <c r="FU107">
+        <v>1991.825418293704</v>
+      </c>
+      <c r="FV107">
+        <v>1497.509902247095</v>
+      </c>
+      <c r="FW107">
+        <v>665.1480837665837</v>
+      </c>
+      <c r="FX107">
+        <v>1786.303799473342</v>
+      </c>
+      <c r="FY107">
+        <v>1546.326291295974</v>
+      </c>
+      <c r="FZ107">
+        <v>546.5851025213542</v>
+      </c>
+      <c r="GA107">
+        <v>2518.665906142461</v>
+      </c>
+      <c r="GB107">
+        <v>999.9656633945109</v>
+      </c>
+      <c r="GC107">
+        <v>1276.979206655618</v>
+      </c>
+      <c r="GD107">
+        <v>953.1422334131393</v>
+      </c>
+      <c r="GE107">
+        <v>1200.024502011771</v>
+      </c>
+      <c r="GF107">
         <v>1368.318067067148</v>
       </c>
-      <c r="FU107">
-        <v>999.9656633945109</v>
-      </c>
-      <c r="FV107">
-        <v>546.5851025213542</v>
-      </c>
-      <c r="FW107">
-        <v>1991.825418293704</v>
-      </c>
-      <c r="FX107">
-        <v>1546.326291295974</v>
-      </c>
-      <c r="FY107">
-        <v>665.1480837665837</v>
-      </c>
-      <c r="FZ107">
-        <v>2518.665906142461</v>
-      </c>
-      <c r="GA107">
-        <v>1276.979206655618</v>
-      </c>
-      <c r="GB107">
-        <v>306.3044040597314</v>
-      </c>
-      <c r="GC107">
-        <v>609.1148224596865</v>
-      </c>
-      <c r="GD107">
-        <v>1786.303799473342</v>
-      </c>
-      <c r="GE107">
-        <v>1497.509902247095</v>
-      </c>
-      <c r="GF107">
-        <v>953.1422334131393</v>
-      </c>
       <c r="GG107">
-        <v>1361.301406934566</v>
+        <v>294.701221637118</v>
       </c>
     </row>
     <row r="108" spans="1:189">
@@ -61779,46 +61779,46 @@
         <v>589.8190711278985</v>
       </c>
       <c r="FT108">
+        <v>740.1524711507923</v>
+      </c>
+      <c r="FU108">
+        <v>2125.216635042185</v>
+      </c>
+      <c r="FV108">
+        <v>1557.631380079257</v>
+      </c>
+      <c r="FW108">
+        <v>666.3343209673583</v>
+      </c>
+      <c r="FX108">
+        <v>1870.692960319367</v>
+      </c>
+      <c r="FY108">
+        <v>1668.859124282156</v>
+      </c>
+      <c r="FZ108">
+        <v>456.7956713868294</v>
+      </c>
+      <c r="GA108">
+        <v>2645.263549976445</v>
+      </c>
+      <c r="GB108">
+        <v>1081.346922928538</v>
+      </c>
+      <c r="GC108">
+        <v>1416.290967694169</v>
+      </c>
+      <c r="GD108">
+        <v>961.3674350134374</v>
+      </c>
+      <c r="GE108">
+        <v>1303.739285787557</v>
+      </c>
+      <c r="GF108">
         <v>1428.361703463058</v>
       </c>
-      <c r="FU108">
-        <v>1081.346922928538</v>
-      </c>
-      <c r="FV108">
-        <v>456.7956713868294</v>
-      </c>
-      <c r="FW108">
-        <v>2125.216635042185</v>
-      </c>
-      <c r="FX108">
-        <v>1668.859124282156</v>
-      </c>
-      <c r="FY108">
-        <v>666.3343209673583</v>
-      </c>
-      <c r="FZ108">
-        <v>2645.263549976445</v>
-      </c>
-      <c r="GA108">
-        <v>1416.290967694169</v>
-      </c>
-      <c r="GB108">
-        <v>188.7426399995301</v>
-      </c>
-      <c r="GC108">
-        <v>740.1524711507923</v>
-      </c>
-      <c r="GD108">
-        <v>1870.692960319367</v>
-      </c>
-      <c r="GE108">
-        <v>1557.631380079257</v>
-      </c>
-      <c r="GF108">
-        <v>961.3674350134374</v>
-      </c>
       <c r="GG108">
-        <v>1464.470230111996</v>
+        <v>197.128532235374</v>
       </c>
     </row>
     <row r="109" spans="1:189">
@@ -62348,46 +62348,46 @@
         <v>647.294281112568</v>
       </c>
       <c r="FT109">
+        <v>1009.217570879871</v>
+      </c>
+      <c r="FU109">
+        <v>2353.355303324</v>
+      </c>
+      <c r="FV109">
+        <v>1999.667989591111</v>
+      </c>
+      <c r="FW109">
+        <v>494.6106417055487</v>
+      </c>
+      <c r="FX109">
+        <v>1850.009988287148</v>
+      </c>
+      <c r="FY109">
+        <v>2096.198469191059</v>
+      </c>
+      <c r="FZ109">
+        <v>61.21525370028444</v>
+      </c>
+      <c r="GA109">
+        <v>2813.509362711236</v>
+      </c>
+      <c r="GB109">
+        <v>1532.792945557662</v>
+      </c>
+      <c r="GC109">
+        <v>1744.731010051728</v>
+      </c>
+      <c r="GD109">
+        <v>747.0856296615908</v>
+      </c>
+      <c r="GE109">
+        <v>1751.60084838467</v>
+      </c>
+      <c r="GF109">
         <v>1338.859179375401</v>
       </c>
-      <c r="FU109">
-        <v>1532.792945557662</v>
-      </c>
-      <c r="FV109">
-        <v>61.21525370028444</v>
-      </c>
-      <c r="FW109">
-        <v>2353.355303324</v>
-      </c>
-      <c r="FX109">
-        <v>2096.198469191059</v>
-      </c>
-      <c r="FY109">
-        <v>494.6106417055487</v>
-      </c>
-      <c r="FZ109">
-        <v>2813.509362711236</v>
-      </c>
-      <c r="GA109">
-        <v>1744.731010051728</v>
-      </c>
-      <c r="GB109">
-        <v>264.8615957888548</v>
-      </c>
-      <c r="GC109">
-        <v>1009.217570879871</v>
-      </c>
-      <c r="GD109">
-        <v>1850.009988287148</v>
-      </c>
-      <c r="GE109">
-        <v>1999.667989591111</v>
-      </c>
-      <c r="GF109">
-        <v>747.0856296615908</v>
-      </c>
       <c r="GG109">
-        <v>1912.714080422693</v>
+        <v>259.9990473408942</v>
       </c>
     </row>
     <row r="110" spans="1:189">
@@ -62917,46 +62917,46 @@
         <v>759.1253136230611</v>
       </c>
       <c r="FT110">
+        <v>1016.26732035214</v>
+      </c>
+      <c r="FU110">
+        <v>2398.571510284511</v>
+      </c>
+      <c r="FV110">
+        <v>1769.785138394243</v>
+      </c>
+      <c r="FW110">
+        <v>705.2419457556932</v>
+      </c>
+      <c r="FX110">
+        <v>2027.22081473407</v>
+      </c>
+      <c r="FY110">
+        <v>1965.544629278248</v>
+      </c>
+      <c r="FZ110">
+        <v>318.8556655696736</v>
+      </c>
+      <c r="GA110">
+        <v>2897.606995452644</v>
+      </c>
+      <c r="GB110">
+        <v>1332.652954140139</v>
+      </c>
+      <c r="GC110">
+        <v>1715.599254735632</v>
+      </c>
+      <c r="GD110">
+        <v>985.1822076988818</v>
+      </c>
+      <c r="GE110">
+        <v>1580.825923868529</v>
+      </c>
+      <c r="GF110">
         <v>1540.610941799147</v>
       </c>
-      <c r="FU110">
-        <v>1332.652954140139</v>
-      </c>
-      <c r="FV110">
-        <v>318.8556655696736</v>
-      </c>
-      <c r="FW110">
-        <v>2398.571510284511</v>
-      </c>
-      <c r="FX110">
-        <v>1965.544629278248</v>
-      </c>
-      <c r="FY110">
-        <v>705.2419457556932</v>
-      </c>
-      <c r="FZ110">
-        <v>2897.606995452644</v>
-      </c>
-      <c r="GA110">
-        <v>1715.599254735632</v>
-      </c>
-      <c r="GB110">
-        <v>171.6897602049043</v>
-      </c>
-      <c r="GC110">
-        <v>1016.26732035214</v>
-      </c>
-      <c r="GD110">
-        <v>2027.22081473407</v>
-      </c>
-      <c r="GE110">
-        <v>1769.785138394243</v>
-      </c>
-      <c r="GF110">
-        <v>985.1822076988818</v>
-      </c>
       <c r="GG110">
-        <v>1739.796250559737</v>
+        <v>222.1639839070232</v>
       </c>
     </row>
     <row r="111" spans="1:189">
@@ -63486,46 +63486,46 @@
         <v>567.3270930370339</v>
       </c>
       <c r="FT111">
+        <v>977.3710339724882</v>
+      </c>
+      <c r="FU111">
+        <v>2279.222959143337</v>
+      </c>
+      <c r="FV111">
+        <v>2104.411167415854</v>
+      </c>
+      <c r="FW111">
+        <v>354.5353855585357</v>
+      </c>
+      <c r="FX111">
+        <v>1709.11156277478</v>
+      </c>
+      <c r="FY111">
+        <v>2130.802211677115</v>
+      </c>
+      <c r="FZ111">
+        <v>114.7460663953346</v>
+      </c>
+      <c r="GA111">
+        <v>2715.867947902166</v>
+      </c>
+      <c r="GB111">
+        <v>1618.843768593025</v>
+      </c>
+      <c r="GC111">
+        <v>1719.475747371227</v>
+      </c>
+      <c r="GD111">
+        <v>585.5343575777036</v>
+      </c>
+      <c r="GE111">
+        <v>1815.570637426209</v>
+      </c>
+      <c r="GF111">
         <v>1189.127463179708</v>
       </c>
-      <c r="FU111">
-        <v>1618.843768593025</v>
-      </c>
-      <c r="FV111">
-        <v>114.7460663953346</v>
-      </c>
-      <c r="FW111">
-        <v>2279.222959143337</v>
-      </c>
-      <c r="FX111">
-        <v>2130.802211677115</v>
-      </c>
-      <c r="FY111">
-        <v>354.5353855585357</v>
-      </c>
-      <c r="FZ111">
-        <v>2715.867947902166</v>
-      </c>
-      <c r="GA111">
-        <v>1719.475747371227</v>
-      </c>
-      <c r="GB111">
-        <v>378.5965000544917</v>
-      </c>
-      <c r="GC111">
-        <v>977.3710339724882</v>
-      </c>
-      <c r="GD111">
-        <v>1709.11156277478</v>
-      </c>
-      <c r="GE111">
-        <v>2104.411167415854</v>
-      </c>
-      <c r="GF111">
-        <v>585.5343575777036</v>
-      </c>
       <c r="GG111">
-        <v>1976.757995158838</v>
+        <v>351.5150897351692</v>
       </c>
     </row>
     <row r="112" spans="1:189">
@@ -64055,46 +64055,46 @@
         <v>637.0298386880614</v>
       </c>
       <c r="FT112">
+        <v>1004.459472665077</v>
+      </c>
+      <c r="FU112">
+        <v>2344.872084925416</v>
+      </c>
+      <c r="FV112">
+        <v>2010.503452811589</v>
+      </c>
+      <c r="FW112">
+        <v>478.6839804908348</v>
+      </c>
+      <c r="FX112">
+        <v>1834.605209884034</v>
+      </c>
+      <c r="FY112">
+        <v>2099.265952192047</v>
+      </c>
+      <c r="FZ112">
+        <v>45.68096676446184</v>
+      </c>
+      <c r="GA112">
+        <v>2802.643065022577</v>
+      </c>
+      <c r="GB112">
+        <v>1541.378248421275</v>
+      </c>
+      <c r="GC112">
+        <v>1741.21303802816</v>
+      </c>
+      <c r="GD112">
+        <v>729.56751007516</v>
+      </c>
+      <c r="GE112">
+        <v>1757.793385649477</v>
+      </c>
+      <c r="GF112">
         <v>1322.520818095869</v>
       </c>
-      <c r="FU112">
-        <v>1541.378248421275</v>
-      </c>
-      <c r="FV112">
-        <v>45.68096676446184</v>
-      </c>
-      <c r="FW112">
-        <v>2344.872084925416</v>
-      </c>
-      <c r="FX112">
-        <v>2099.265952192047</v>
-      </c>
-      <c r="FY112">
-        <v>478.6839804908348</v>
-      </c>
-      <c r="FZ112">
-        <v>2802.643065022577</v>
-      </c>
-      <c r="GA112">
-        <v>1741.21303802816</v>
-      </c>
-      <c r="GB112">
-        <v>274.474807527662</v>
-      </c>
-      <c r="GC112">
-        <v>1004.459472665077</v>
-      </c>
-      <c r="GD112">
-        <v>1834.605209884034</v>
-      </c>
-      <c r="GE112">
-        <v>2010.503452811589</v>
-      </c>
-      <c r="GF112">
-        <v>729.56751007516</v>
-      </c>
       <c r="GG112">
-        <v>1918.969309874514</v>
+        <v>266.323670786231</v>
       </c>
     </row>
     <row r="113" spans="1:189">
@@ -64624,46 +64624,46 @@
         <v>632.8414847017278</v>
       </c>
       <c r="FT113">
+        <v>1034.631411822385</v>
+      </c>
+      <c r="FU113">
+        <v>2345.551624348236</v>
+      </c>
+      <c r="FV113">
+        <v>2114.718206011168</v>
+      </c>
+      <c r="FW113">
+        <v>423.1865558011732</v>
+      </c>
+      <c r="FX113">
+        <v>1776.309358315718</v>
+      </c>
+      <c r="FY113">
+        <v>2170.463735806192</v>
+      </c>
+      <c r="FZ113">
+        <v>102.1388831184507</v>
+      </c>
+      <c r="GA113">
+        <v>2784.649414665677</v>
+      </c>
+      <c r="GB113">
+        <v>1637.7956473729</v>
+      </c>
+      <c r="GC113">
+        <v>1776.225221704897</v>
+      </c>
+      <c r="GD113">
+        <v>645.3449563998477</v>
+      </c>
+      <c r="GE113">
+        <v>1844.098797238877</v>
+      </c>
+      <c r="GF113">
         <v>1254.306065366782</v>
       </c>
-      <c r="FU113">
-        <v>1637.7956473729</v>
-      </c>
-      <c r="FV113">
-        <v>102.1388831184507</v>
-      </c>
-      <c r="FW113">
-        <v>2345.551624348236</v>
-      </c>
-      <c r="FX113">
-        <v>2170.463735806192</v>
-      </c>
-      <c r="FY113">
-        <v>423.1865558011732</v>
-      </c>
-      <c r="FZ113">
-        <v>2784.649414665677</v>
-      </c>
-      <c r="GA113">
-        <v>1776.225221704897</v>
-      </c>
-      <c r="GB113">
-        <v>379.1482013107773</v>
-      </c>
-      <c r="GC113">
-        <v>1034.631411822385</v>
-      </c>
-      <c r="GD113">
-        <v>1776.309358315718</v>
-      </c>
-      <c r="GE113">
-        <v>2114.718206011168</v>
-      </c>
-      <c r="GF113">
-        <v>645.3449563998477</v>
-      </c>
       <c r="GG113">
-        <v>2005.388931444462</v>
+        <v>361.48756390706</v>
       </c>
     </row>
     <row r="114" spans="1:189">
@@ -65193,46 +65193,46 @@
         <v>344.8073698221564</v>
       </c>
       <c r="FT114">
+        <v>798.9340702434125</v>
+      </c>
+      <c r="FU114">
+        <v>2012.124162977426</v>
+      </c>
+      <c r="FV114">
+        <v>2149.248817465333</v>
+      </c>
+      <c r="FW114">
+        <v>46.4486611784135</v>
+      </c>
+      <c r="FX114">
+        <v>1398.121355141747</v>
+      </c>
+      <c r="FY114">
+        <v>2032.520942739618</v>
+      </c>
+      <c r="FZ114">
+        <v>395.1119580307268</v>
+      </c>
+      <c r="GA114">
+        <v>2423.474584478633</v>
+      </c>
+      <c r="GB114">
+        <v>1632.605522106974</v>
+      </c>
+      <c r="GC114">
+        <v>1526.12248729905</v>
+      </c>
+      <c r="GD114">
+        <v>312.7862411060349</v>
+      </c>
+      <c r="GE114">
+        <v>1779.358110598144</v>
+      </c>
+      <c r="GF114">
         <v>882.5897323985873</v>
       </c>
-      <c r="FU114">
-        <v>1632.605522106974</v>
-      </c>
-      <c r="FV114">
-        <v>395.1119580307268</v>
-      </c>
-      <c r="FW114">
-        <v>2012.124162977426</v>
-      </c>
-      <c r="FX114">
-        <v>2032.520942739618</v>
-      </c>
-      <c r="FY114">
-        <v>46.4486611784135</v>
-      </c>
-      <c r="FZ114">
-        <v>2423.474584478633</v>
-      </c>
-      <c r="GA114">
-        <v>1526.12248729905</v>
-      </c>
-      <c r="GB114">
-        <v>554.4021159590952</v>
-      </c>
-      <c r="GC114">
-        <v>798.9340702434125</v>
-      </c>
-      <c r="GD114">
-        <v>1398.121355141747</v>
-      </c>
-      <c r="GE114">
-        <v>2149.248817465333</v>
-      </c>
-      <c r="GF114">
-        <v>312.7862411060349</v>
-      </c>
       <c r="GG114">
-        <v>1937.407268612432</v>
+        <v>504.8185312321597</v>
       </c>
     </row>
     <row r="115" spans="1:189">
@@ -65762,46 +65762,46 @@
         <v>346.0706491154921</v>
       </c>
       <c r="FT115">
+        <v>795.4111346797201</v>
+      </c>
+      <c r="FU115">
+        <v>1943.694995221083</v>
+      </c>
+      <c r="FV115">
+        <v>2215.63162074931</v>
+      </c>
+      <c r="FW115">
+        <v>91.04804121557227</v>
+      </c>
+      <c r="FX115">
+        <v>1284.91443624306</v>
+      </c>
+      <c r="FY115">
+        <v>2048.326903498619</v>
+      </c>
+      <c r="FZ115">
+        <v>513.1193948602713</v>
+      </c>
+      <c r="GA115">
+        <v>2336.04742417552</v>
+      </c>
+      <c r="GB115">
+        <v>1692.111154718892</v>
+      </c>
+      <c r="GC115">
+        <v>1502.513699993801</v>
+      </c>
+      <c r="GD115">
+        <v>205.5551328839888</v>
+      </c>
+      <c r="GE115">
+        <v>1820.630463283911</v>
+      </c>
+      <c r="GF115">
         <v>765.3001971313081</v>
       </c>
-      <c r="FU115">
-        <v>1692.111154718892</v>
-      </c>
-      <c r="FV115">
-        <v>513.1193948602713</v>
-      </c>
-      <c r="FW115">
-        <v>1943.694995221083</v>
-      </c>
-      <c r="FX115">
-        <v>2048.326903498619</v>
-      </c>
-      <c r="FY115">
-        <v>91.04804121557227</v>
-      </c>
-      <c r="FZ115">
-        <v>2336.04742417552</v>
-      </c>
-      <c r="GA115">
-        <v>1502.513699993801</v>
-      </c>
-      <c r="GB115">
-        <v>666.8706029539269</v>
-      </c>
-      <c r="GC115">
-        <v>795.4111346797201</v>
-      </c>
-      <c r="GD115">
-        <v>1284.91443624306</v>
-      </c>
-      <c r="GE115">
-        <v>2215.63162074931</v>
-      </c>
-      <c r="GF115">
-        <v>205.5551328839888</v>
-      </c>
       <c r="GG115">
-        <v>1976.484025781697</v>
+        <v>615.7766302855484</v>
       </c>
     </row>
     <row r="116" spans="1:189">
@@ -66331,46 +66331,46 @@
         <v>247.7502713028823</v>
       </c>
       <c r="FT116">
+        <v>702.5354803286618</v>
+      </c>
+      <c r="FU116">
+        <v>1922.148686641001</v>
+      </c>
+      <c r="FV116">
+        <v>2083.94582544947</v>
+      </c>
+      <c r="FW116">
+        <v>63.1436218408767</v>
+      </c>
+      <c r="FX116">
+        <v>1350.154048710479</v>
+      </c>
+      <c r="FY116">
+        <v>1941.314715809784</v>
+      </c>
+      <c r="FZ116">
+        <v>440.7041624135588</v>
+      </c>
+      <c r="GA116">
+        <v>2343.225155352953</v>
+      </c>
+      <c r="GB116">
+        <v>1562.197890852499</v>
+      </c>
+      <c r="GC116">
+        <v>1428.546148186869</v>
+      </c>
+      <c r="GD116">
+        <v>337.1715874067943</v>
+      </c>
+      <c r="GE116">
+        <v>1698.246425209766</v>
+      </c>
+      <c r="GF116">
         <v>849.5916606544675</v>
       </c>
-      <c r="FU116">
-        <v>1562.197890852499</v>
-      </c>
-      <c r="FV116">
-        <v>440.7041624135588</v>
-      </c>
-      <c r="FW116">
-        <v>1922.148686641001</v>
-      </c>
-      <c r="FX116">
-        <v>1941.314715809784</v>
-      </c>
-      <c r="FY116">
-        <v>63.1436218408767</v>
-      </c>
-      <c r="FZ116">
-        <v>2343.225155352953</v>
-      </c>
-      <c r="GA116">
-        <v>1428.546148186869</v>
-      </c>
-      <c r="GB116">
-        <v>552.2968130437771</v>
-      </c>
-      <c r="GC116">
-        <v>702.5354803286618</v>
-      </c>
-      <c r="GD116">
-        <v>1350.154048710479</v>
-      </c>
-      <c r="GE116">
-        <v>2083.94582544947</v>
-      </c>
-      <c r="GF116">
-        <v>337.1715874067943</v>
-      </c>
       <c r="GG116">
-        <v>1855.279279024875</v>
+        <v>499.2213468234353</v>
       </c>
     </row>
     <row r="117" spans="1:189">
@@ -66900,46 +66900,46 @@
         <v>344.5740099152765</v>
       </c>
       <c r="FT117">
+        <v>789.5569285862889</v>
+      </c>
+      <c r="FU117">
+        <v>1922.930549456376</v>
+      </c>
+      <c r="FV117">
+        <v>2224.849384492247</v>
+      </c>
+      <c r="FW117">
+        <v>114.1871660817137</v>
+      </c>
+      <c r="FX117">
+        <v>1257.591986652068</v>
+      </c>
+      <c r="FY117">
+        <v>2045.36287956254</v>
+      </c>
+      <c r="FZ117">
+        <v>540.0580263202095</v>
+      </c>
+      <c r="GA117">
+        <v>2311.862810038825</v>
+      </c>
+      <c r="GB117">
+        <v>1699.817822149693</v>
+      </c>
+      <c r="GC117">
+        <v>1491.094675541428</v>
+      </c>
+      <c r="GD117">
+        <v>188.2586437061806</v>
+      </c>
+      <c r="GE117">
+        <v>1823.785522505112</v>
+      </c>
+      <c r="GF117">
         <v>738.1152414309634</v>
       </c>
-      <c r="FU117">
-        <v>1699.817822149693</v>
-      </c>
-      <c r="FV117">
-        <v>540.0580263202095</v>
-      </c>
-      <c r="FW117">
-        <v>1922.930549456376</v>
-      </c>
-      <c r="FX117">
-        <v>2045.36287956254</v>
-      </c>
-      <c r="FY117">
-        <v>114.1871660817137</v>
-      </c>
-      <c r="FZ117">
-        <v>2311.862810038825</v>
-      </c>
-      <c r="GA117">
-        <v>1491.094675541428</v>
-      </c>
-      <c r="GB117">
-        <v>689.9848422987005</v>
-      </c>
-      <c r="GC117">
-        <v>789.5569285862889</v>
-      </c>
-      <c r="GD117">
-        <v>1257.591986652068</v>
-      </c>
-      <c r="GE117">
-        <v>2224.849384492247</v>
-      </c>
-      <c r="GF117">
-        <v>188.2586437061806</v>
-      </c>
       <c r="GG117">
-        <v>1979.028127841454</v>
+        <v>638.4437241923678</v>
       </c>
     </row>
     <row r="118" spans="1:189">
@@ -67469,46 +67469,46 @@
         <v>538.6928152400144</v>
       </c>
       <c r="FT118">
+        <v>966.9899678838547</v>
+      </c>
+      <c r="FU118">
+        <v>1999.474306954776</v>
+      </c>
+      <c r="FV118">
+        <v>2428.720945560795</v>
+      </c>
+      <c r="FW118">
+        <v>300.4801575000173</v>
+      </c>
+      <c r="FX118">
+        <v>1206.470491935434</v>
+      </c>
+      <c r="FY118">
+        <v>2228.322750662384</v>
+      </c>
+      <c r="FZ118">
+        <v>669.0908628491879</v>
+      </c>
+      <c r="GA118">
+        <v>2343.30567809679</v>
+      </c>
+      <c r="GB118">
+        <v>1903.121266160041</v>
+      </c>
+      <c r="GC118">
+        <v>1639.772823432862</v>
+      </c>
+      <c r="GD118">
+        <v>51.76382015734057</v>
+      </c>
+      <c r="GE118">
+        <v>2021.827977770254</v>
+      </c>
+      <c r="GF118">
         <v>667.1167159521041</v>
       </c>
-      <c r="FU118">
-        <v>1903.121266160041</v>
-      </c>
-      <c r="FV118">
-        <v>669.0908628491879</v>
-      </c>
-      <c r="FW118">
-        <v>1999.474306954776</v>
-      </c>
-      <c r="FX118">
-        <v>2228.322750662384</v>
-      </c>
-      <c r="FY118">
-        <v>300.4801575000173</v>
-      </c>
-      <c r="FZ118">
-        <v>2343.30567809679</v>
-      </c>
-      <c r="GA118">
-        <v>1639.772823432862</v>
-      </c>
-      <c r="GB118">
-        <v>862.1791525187688</v>
-      </c>
-      <c r="GC118">
-        <v>966.9899678838547</v>
-      </c>
-      <c r="GD118">
-        <v>1206.470491935434</v>
-      </c>
-      <c r="GE118">
-        <v>2428.720945560795</v>
-      </c>
-      <c r="GF118">
-        <v>51.76382015734057</v>
-      </c>
       <c r="GG118">
-        <v>2175.902922874596</v>
+        <v>813.8620989492139</v>
       </c>
     </row>
     <row r="119" spans="1:189">
@@ -68038,46 +68038,46 @@
         <v>269.1097153918495</v>
       </c>
       <c r="FT119">
+        <v>714.8969284484222</v>
+      </c>
+      <c r="FU119">
+        <v>1968.911403977059</v>
+      </c>
+      <c r="FV119">
+        <v>2046.469917864226</v>
+      </c>
+      <c r="FW119">
+        <v>100.5655802129055</v>
+      </c>
+      <c r="FX119">
+        <v>1420.544040741213</v>
+      </c>
+      <c r="FY119">
+        <v>1936.722876804326</v>
+      </c>
+      <c r="FZ119">
+        <v>372.7808667076673</v>
+      </c>
+      <c r="GA119">
+        <v>2400.059946228459</v>
+      </c>
+      <c r="GB119">
+        <v>1529.371446870437</v>
+      </c>
+      <c r="GC119">
+        <v>1449.78454306351</v>
+      </c>
+      <c r="GD119">
+        <v>395.243934710645</v>
+      </c>
+      <c r="GE119">
+        <v>1677.39640836603</v>
+      </c>
+      <c r="GF119">
         <v>921.2435492479507</v>
       </c>
-      <c r="FU119">
-        <v>1529.371446870437</v>
-      </c>
-      <c r="FV119">
-        <v>372.7808667076673</v>
-      </c>
-      <c r="FW119">
-        <v>1968.911403977059</v>
-      </c>
-      <c r="FX119">
-        <v>1936.722876804326</v>
-      </c>
-      <c r="FY119">
-        <v>100.5655802129055</v>
-      </c>
-      <c r="FZ119">
-        <v>2400.059946228459</v>
-      </c>
-      <c r="GA119">
-        <v>1449.78454306351</v>
-      </c>
-      <c r="GB119">
-        <v>482.6798693545946</v>
-      </c>
-      <c r="GC119">
-        <v>714.8969284484222</v>
-      </c>
-      <c r="GD119">
-        <v>1420.544040741213</v>
-      </c>
-      <c r="GE119">
-        <v>2046.469917864226</v>
-      </c>
-      <c r="GF119">
-        <v>395.243934710645</v>
-      </c>
       <c r="GG119">
-        <v>1835.743933953187</v>
+        <v>430.1570314008308</v>
       </c>
     </row>
   </sheetData>

--- a/Data/LH_costmatrix_raw.xlsx
+++ b/Data/LH_costmatrix_raw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GG119"/>
+  <dimension ref="A1:GF119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:189">
+    <row r="1" spans="1:188">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -934,11 +934,8 @@
       <c r="GF1" s="1">
         <v>186</v>
       </c>
-      <c r="GG1" s="1">
-        <v>187</v>
-      </c>
     </row>
-    <row r="2" spans="1:189">
+    <row r="2" spans="1:188">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1465,49 +1462,46 @@
         <v>315.3815886356634</v>
       </c>
       <c r="FT2">
+        <v>68.23472775528421</v>
+      </c>
+      <c r="FU2">
+        <v>2182.696054906332</v>
+      </c>
+      <c r="FV2">
+        <v>2329.15564227634</v>
+      </c>
+      <c r="FW2">
+        <v>1477.516443308458</v>
+      </c>
+      <c r="FX2">
+        <v>2017.711281567832</v>
+      </c>
+      <c r="FY2">
+        <v>499.828761115336</v>
+      </c>
+      <c r="FZ2">
+        <v>777.9564491880736</v>
+      </c>
+      <c r="GA2">
         <v>766.5692104697027</v>
       </c>
-      <c r="FU2">
+      <c r="GB2">
+        <v>1682.219800764477</v>
+      </c>
+      <c r="GC2">
+        <v>235.4530370997837</v>
+      </c>
+      <c r="GD2">
         <v>1929.916211348289</v>
       </c>
-      <c r="FV2">
-        <v>2182.696054906332</v>
-      </c>
-      <c r="FW2">
-        <v>68.23472775528421</v>
-      </c>
-      <c r="FX2">
+      <c r="GE2">
         <v>1292.599525678821</v>
       </c>
-      <c r="FY2">
-        <v>2017.711281567832</v>
-      </c>
-      <c r="FZ2">
-        <v>499.828761115336</v>
-      </c>
-      <c r="GA2">
-        <v>2329.15564227634</v>
-      </c>
-      <c r="GB2">
-        <v>1659.091004192277</v>
-      </c>
-      <c r="GC2">
-        <v>1477.516443308458</v>
-      </c>
-      <c r="GD2">
-        <v>235.4530370997837</v>
-      </c>
-      <c r="GE2">
-        <v>1788.02538151044</v>
-      </c>
       <c r="GF2">
-        <v>777.9564491880736</v>
-      </c>
-      <c r="GG2">
-        <v>590.8753096158525</v>
+        <v>642.6427083647148</v>
       </c>
     </row>
-    <row r="3" spans="1:189">
+    <row r="3" spans="1:188">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2034,49 +2028,46 @@
         <v>313.8159461816721</v>
       </c>
       <c r="FT3">
+        <v>119.9810678410887</v>
+      </c>
+      <c r="FU3">
+        <v>2201.829653085244</v>
+      </c>
+      <c r="FV3">
+        <v>2282.22463871915</v>
+      </c>
+      <c r="FW3">
+        <v>1455.816318836141</v>
+      </c>
+      <c r="FX3">
+        <v>2012.873448361303</v>
+      </c>
+      <c r="FY3">
+        <v>552.8246308581652</v>
+      </c>
+      <c r="FZ3">
+        <v>725.1964588627189</v>
+      </c>
+      <c r="GA3">
         <v>755.8968785478631</v>
       </c>
-      <c r="FU3">
+      <c r="GB3">
+        <v>1693.981849421586</v>
+      </c>
+      <c r="GC3">
+        <v>205.6644318399566</v>
+      </c>
+      <c r="GD3">
         <v>1889.707969954462</v>
       </c>
-      <c r="FV3">
-        <v>2201.829653085244</v>
-      </c>
-      <c r="FW3">
-        <v>119.9810678410887</v>
-      </c>
-      <c r="FX3">
+      <c r="GE3">
         <v>1239.393482207187</v>
       </c>
-      <c r="FY3">
-        <v>2012.873448361303</v>
-      </c>
-      <c r="FZ3">
-        <v>552.8246308581652</v>
-      </c>
-      <c r="GA3">
-        <v>2282.22463871915</v>
-      </c>
-      <c r="GB3">
-        <v>1675.36195824165</v>
-      </c>
-      <c r="GC3">
-        <v>1455.816318836141</v>
-      </c>
-      <c r="GD3">
-        <v>205.6644318399566</v>
-      </c>
-      <c r="GE3">
-        <v>1795.30596429027</v>
-      </c>
       <c r="GF3">
-        <v>725.1964588627189</v>
-      </c>
-      <c r="GG3">
-        <v>636.795949304528</v>
+        <v>689.2719903805393</v>
       </c>
     </row>
-    <row r="4" spans="1:189">
+    <row r="4" spans="1:188">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2603,49 +2594,46 @@
         <v>282.6550824726456</v>
       </c>
       <c r="FT4">
+        <v>33.75417744322083</v>
+      </c>
+      <c r="FU4">
+        <v>2132.225978818416</v>
+      </c>
+      <c r="FV4">
+        <v>2343.59718120381</v>
+      </c>
+      <c r="FW4">
+        <v>1457.547999795097</v>
+      </c>
+      <c r="FX4">
+        <v>1981.974322024073</v>
+      </c>
+      <c r="FY4">
+        <v>460.4628766475249</v>
+      </c>
+      <c r="FZ4">
+        <v>820.5342063823327</v>
+      </c>
+      <c r="GA4">
         <v>737.4939851432998</v>
       </c>
-      <c r="FU4">
+      <c r="GB4">
+        <v>1635.500581835901</v>
+      </c>
+      <c r="GC4">
+        <v>289.9914075239419</v>
+      </c>
+      <c r="GD4">
         <v>1932.709572099754</v>
       </c>
-      <c r="FV4">
-        <v>2132.225978818416</v>
-      </c>
-      <c r="FW4">
-        <v>33.75417744322083</v>
-      </c>
-      <c r="FX4">
+      <c r="GE4">
         <v>1328.714351684101</v>
       </c>
-      <c r="FY4">
-        <v>1981.974322024073</v>
-      </c>
-      <c r="FZ4">
-        <v>460.4628766475249</v>
-      </c>
-      <c r="GA4">
-        <v>2343.59718120381</v>
-      </c>
-      <c r="GB4">
-        <v>1610.041559023887</v>
-      </c>
-      <c r="GC4">
-        <v>1457.547999795097</v>
-      </c>
-      <c r="GD4">
-        <v>289.9914075239419</v>
-      </c>
-      <c r="GE4">
-        <v>1743.889382626035</v>
-      </c>
       <c r="GF4">
-        <v>820.5342063823327</v>
-      </c>
-      <c r="GG4">
-        <v>538.5327479054644</v>
+        <v>590.7857273641202</v>
       </c>
     </row>
-    <row r="5" spans="1:189">
+    <row r="5" spans="1:188">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3172,49 +3160,46 @@
         <v>165.3961363034745</v>
       </c>
       <c r="FT5">
+        <v>219.4108008267956</v>
+      </c>
+      <c r="FU5">
+        <v>2072.291506156633</v>
+      </c>
+      <c r="FV5">
+        <v>2164.134504508932</v>
+      </c>
+      <c r="FW5">
+        <v>1287.057905047885</v>
+      </c>
+      <c r="FX5">
+        <v>1847.575466782786</v>
+      </c>
+      <c r="FY5">
+        <v>610.8356810933979</v>
+      </c>
+      <c r="FZ5">
+        <v>718.0893743957261</v>
+      </c>
+      <c r="GA5">
         <v>587.9787999046868</v>
       </c>
-      <c r="FU5">
+      <c r="GB5">
+        <v>1550.509069033862</v>
+      </c>
+      <c r="GC5">
+        <v>346.9167348197104</v>
+      </c>
+      <c r="GD5">
         <v>1747.00521286878</v>
       </c>
-      <c r="FV5">
-        <v>2072.291506156633</v>
-      </c>
-      <c r="FW5">
-        <v>219.4108008267956</v>
-      </c>
-      <c r="FX5">
+      <c r="GE5">
         <v>1194.192857799619</v>
       </c>
-      <c r="FY5">
-        <v>1847.575466782786</v>
-      </c>
-      <c r="FZ5">
-        <v>610.8356810933979</v>
-      </c>
-      <c r="GA5">
-        <v>2164.134504508932</v>
-      </c>
-      <c r="GB5">
-        <v>1540.818703126225</v>
-      </c>
-      <c r="GC5">
-        <v>1287.057905047885</v>
-      </c>
-      <c r="GD5">
-        <v>346.9167348197104</v>
-      </c>
-      <c r="GE5">
-        <v>1644.124953362366</v>
-      </c>
       <c r="GF5">
-        <v>718.0893743957261</v>
-      </c>
-      <c r="GG5">
-        <v>623.8695207799367</v>
+        <v>678.7241630073122</v>
       </c>
     </row>
-    <row r="6" spans="1:189">
+    <row r="6" spans="1:188">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3741,49 +3726,46 @@
         <v>308.9697075534158</v>
       </c>
       <c r="FT6">
+        <v>0</v>
+      </c>
+      <c r="FU6">
+        <v>2140.838814979187</v>
+      </c>
+      <c r="FV6">
+        <v>2377.05705330035</v>
+      </c>
+      <c r="FW6">
+        <v>1487.212085563108</v>
+      </c>
+      <c r="FX6">
+        <v>2004.435505640418</v>
+      </c>
+      <c r="FY6">
+        <v>433.4175883183877</v>
+      </c>
+      <c r="FZ6">
+        <v>845.1010770467474</v>
+      </c>
+      <c r="GA6">
         <v>764.1087266705579</v>
       </c>
-      <c r="FU6">
+      <c r="GB6">
+        <v>1649.142707861918</v>
+      </c>
+      <c r="GC6">
+        <v>295.3976522992114</v>
+      </c>
+      <c r="GD6">
         <v>1966.356178939537</v>
       </c>
-      <c r="FV6">
-        <v>2140.838814979187</v>
-      </c>
-      <c r="FW6">
-        <v>0</v>
-      </c>
-      <c r="FX6">
+      <c r="GE6">
         <v>1356.847101704532</v>
       </c>
-      <c r="FY6">
-        <v>2004.435505640418</v>
-      </c>
-      <c r="FZ6">
-        <v>433.4175883183877</v>
-      </c>
-      <c r="GA6">
-        <v>2377.05705330035</v>
-      </c>
-      <c r="GB6">
-        <v>1620.858236866926</v>
-      </c>
-      <c r="GC6">
-        <v>1487.212085563108</v>
-      </c>
-      <c r="GD6">
-        <v>295.3976522992114</v>
-      </c>
-      <c r="GE6">
-        <v>1760.107068229698</v>
-      </c>
       <c r="GF6">
-        <v>845.1010770467474</v>
-      </c>
-      <c r="GG6">
-        <v>524.7822504163031</v>
+        <v>576.0318945452501</v>
       </c>
     </row>
-    <row r="7" spans="1:189">
+    <row r="7" spans="1:188">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4310,49 +4292,46 @@
         <v>548.8862333947122</v>
       </c>
       <c r="FT7">
+        <v>242.9852099925136</v>
+      </c>
+      <c r="FU7">
+        <v>2303.999965680242</v>
+      </c>
+      <c r="FV7">
+        <v>2586.092919593492</v>
+      </c>
+      <c r="FW7">
+        <v>1729.787059622296</v>
+      </c>
+      <c r="FX7">
+        <v>2229.635049283246</v>
+      </c>
+      <c r="FY7">
+        <v>387.5077091653985</v>
+      </c>
+      <c r="FZ7">
+        <v>965.9398208494165</v>
+      </c>
+      <c r="GA7">
         <v>1002.661878292422</v>
       </c>
-      <c r="FU7">
+      <c r="GB7">
+        <v>1839.375653003462</v>
+      </c>
+      <c r="GC7">
+        <v>340.7838360056893</v>
+      </c>
+      <c r="GD7">
         <v>2196.183169056604</v>
       </c>
-      <c r="FV7">
-        <v>2303.999965680242</v>
-      </c>
-      <c r="FW7">
-        <v>242.9852099925136</v>
-      </c>
-      <c r="FX7">
+      <c r="GE7">
         <v>1500.664642956036</v>
       </c>
-      <c r="FY7">
-        <v>2229.635049283246</v>
-      </c>
-      <c r="FZ7">
-        <v>387.5077091653985</v>
-      </c>
-      <c r="GA7">
-        <v>2586.092919593492</v>
-      </c>
-      <c r="GB7">
-        <v>1797.757767487578</v>
-      </c>
-      <c r="GC7">
-        <v>1729.787059622296</v>
-      </c>
-      <c r="GD7">
-        <v>340.7838360056893</v>
-      </c>
-      <c r="GE7">
-        <v>1961.430438226987</v>
-      </c>
       <c r="GF7">
-        <v>965.9398208494165</v>
-      </c>
-      <c r="GG7">
-        <v>586.8152820784762</v>
+        <v>625.8757881298391</v>
       </c>
     </row>
-    <row r="8" spans="1:189">
+    <row r="8" spans="1:188">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4879,49 +4858,46 @@
         <v>306.537003760296</v>
       </c>
       <c r="FT8">
+        <v>72.48074115398526</v>
+      </c>
+      <c r="FU8">
+        <v>2177.268860513786</v>
+      </c>
+      <c r="FV8">
+        <v>2319.61347546458</v>
+      </c>
+      <c r="FW8">
+        <v>1467.346937524479</v>
+      </c>
+      <c r="FX8">
+        <v>2008.879832023911</v>
+      </c>
+      <c r="FY8">
+        <v>505.4998868973768</v>
+      </c>
+      <c r="FZ8">
+        <v>772.6712205839927</v>
+      </c>
+      <c r="GA8">
         <v>757.0874913299622</v>
       </c>
-      <c r="FU8">
+      <c r="GB8">
+        <v>1675.531326695622</v>
+      </c>
+      <c r="GC8">
+        <v>237.8883351432412</v>
+      </c>
+      <c r="GD8">
         <v>1919.676910196227</v>
       </c>
-      <c r="FV8">
-        <v>2177.268860513786</v>
-      </c>
-      <c r="FW8">
-        <v>72.48074115398526</v>
-      </c>
-      <c r="FX8">
+      <c r="GE8">
         <v>1285.878882318404</v>
       </c>
-      <c r="FY8">
-        <v>2008.879832023911</v>
-      </c>
-      <c r="FZ8">
-        <v>505.4998868973768</v>
-      </c>
-      <c r="GA8">
-        <v>2319.61347546458</v>
-      </c>
-      <c r="GB8">
-        <v>1653.135236689358</v>
-      </c>
-      <c r="GC8">
-        <v>1467.346937524479</v>
-      </c>
-      <c r="GD8">
-        <v>237.8883351432412</v>
-      </c>
-      <c r="GE8">
-        <v>1780.678214543751</v>
-      </c>
       <c r="GF8">
-        <v>772.6712205839927</v>
-      </c>
-      <c r="GG8">
-        <v>592.1464341842486</v>
+        <v>644.2130473318587</v>
       </c>
     </row>
-    <row r="9" spans="1:189">
+    <row r="9" spans="1:188">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -5448,49 +5424,46 @@
         <v>197.8680961078175</v>
       </c>
       <c r="FT9">
+        <v>138.2078322678896</v>
+      </c>
+      <c r="FU9">
+        <v>2088.446306861457</v>
+      </c>
+      <c r="FV9">
+        <v>2244.737232545102</v>
+      </c>
+      <c r="FW9">
+        <v>1357.63488616813</v>
+      </c>
+      <c r="FX9">
+        <v>1899.252435369556</v>
+      </c>
+      <c r="FY9">
+        <v>537.4895962142388</v>
+      </c>
+      <c r="FZ9">
+        <v>766.2846397826282</v>
+      </c>
+      <c r="GA9">
         <v>645.8766832870573</v>
       </c>
-      <c r="FU9">
+      <c r="GB9">
+        <v>1577.804693301043</v>
+      </c>
+      <c r="GC9">
+        <v>317.9818582996949</v>
+      </c>
+      <c r="GD9">
         <v>1828.555686020546</v>
       </c>
-      <c r="FV9">
-        <v>2088.446306861457</v>
-      </c>
-      <c r="FW9">
-        <v>138.2078322678896</v>
-      </c>
-      <c r="FX9">
+      <c r="GE9">
         <v>1257.416923004291</v>
       </c>
-      <c r="FY9">
-        <v>1899.252435369556</v>
-      </c>
-      <c r="FZ9">
-        <v>537.4895962142388</v>
-      </c>
-      <c r="GA9">
-        <v>2244.737232545102</v>
-      </c>
-      <c r="GB9">
-        <v>1560.673370672326</v>
-      </c>
-      <c r="GC9">
-        <v>1357.63488616813</v>
-      </c>
-      <c r="GD9">
-        <v>317.9818582996949</v>
-      </c>
-      <c r="GE9">
-        <v>1678.599542237891</v>
-      </c>
       <c r="GF9">
-        <v>766.2846397826282</v>
-      </c>
-      <c r="GG9">
-        <v>573.2186395527904</v>
+        <v>627.565412719794</v>
       </c>
     </row>
-    <row r="10" spans="1:189">
+    <row r="10" spans="1:188">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -6017,49 +5990,46 @@
         <v>1461.595377865535</v>
       </c>
       <c r="FT10">
+        <v>1528.596183820728</v>
+      </c>
+      <c r="FU10">
+        <v>3021.958611696206</v>
+      </c>
+      <c r="FV10">
+        <v>1240.422206834747</v>
+      </c>
+      <c r="FW10">
+        <v>1579.844712103981</v>
+      </c>
+      <c r="FX10">
+        <v>2365.808848096005</v>
+      </c>
+      <c r="FY10">
+        <v>1961.523354543054</v>
+      </c>
+      <c r="FZ10">
+        <v>699.5957353787878</v>
+      </c>
+      <c r="GA10">
         <v>1484.702750769659</v>
       </c>
-      <c r="FU10">
+      <c r="GB10">
+        <v>2446.194035857552</v>
+      </c>
+      <c r="GC10">
+        <v>1326.143370440209</v>
+      </c>
+      <c r="GD10">
         <v>1251.176878418219</v>
       </c>
-      <c r="FV10">
-        <v>3021.958611696206</v>
-      </c>
-      <c r="FW10">
-        <v>1528.596183820728</v>
-      </c>
-      <c r="FX10">
+      <c r="GE10">
         <v>177.7979728949436</v>
       </c>
-      <c r="FY10">
-        <v>2365.808848096005</v>
-      </c>
-      <c r="FZ10">
-        <v>1961.523354543054</v>
-      </c>
-      <c r="GA10">
-        <v>1240.422206834747</v>
-      </c>
-      <c r="GB10">
-        <v>2511.266390825244</v>
-      </c>
-      <c r="GC10">
-        <v>1579.844712103981</v>
-      </c>
-      <c r="GD10">
-        <v>1326.143370440209</v>
-      </c>
-      <c r="GE10">
-        <v>2444.669948481261</v>
-      </c>
       <c r="GF10">
-        <v>699.5957353787878</v>
-      </c>
-      <c r="GG10">
-        <v>1990.672286692612</v>
+        <v>2045.5216898217</v>
       </c>
     </row>
-    <row r="11" spans="1:189">
+    <row r="11" spans="1:188">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -6586,49 +6556,46 @@
         <v>1283.993057924355</v>
       </c>
       <c r="FT11">
+        <v>1356.847101704532</v>
+      </c>
+      <c r="FU11">
+        <v>2865.750722220912</v>
+      </c>
+      <c r="FV11">
+        <v>1294.431249717264</v>
+      </c>
+      <c r="FW11">
+        <v>1454.961215984152</v>
+      </c>
+      <c r="FX11">
+        <v>2239.32858767394</v>
+      </c>
+      <c r="FY11">
+        <v>1789.055123291982</v>
+      </c>
+      <c r="FZ11">
+        <v>540.7414212062423</v>
+      </c>
+      <c r="GA11">
         <v>1313.981033523644</v>
       </c>
-      <c r="FU11">
+      <c r="GB11">
+        <v>2289.807931209242</v>
+      </c>
+      <c r="GC11">
+        <v>1164.231267850083</v>
+      </c>
+      <c r="GD11">
         <v>1218.467442353749</v>
       </c>
-      <c r="FV11">
-        <v>2865.750722220912</v>
-      </c>
-      <c r="FW11">
-        <v>1356.847101704532</v>
-      </c>
-      <c r="FX11">
+      <c r="GE11">
         <v>0</v>
       </c>
-      <c r="FY11">
-        <v>2239.32858767394</v>
-      </c>
-      <c r="FZ11">
-        <v>1789.055123291982</v>
-      </c>
-      <c r="GA11">
-        <v>1294.431249717264</v>
-      </c>
-      <c r="GB11">
-        <v>2350.372934179823</v>
-      </c>
-      <c r="GC11">
-        <v>1454.961215984152</v>
-      </c>
-      <c r="GD11">
-        <v>1164.231267850083</v>
-      </c>
-      <c r="GE11">
-        <v>2295.2138595336</v>
-      </c>
       <c r="GF11">
-        <v>540.7414212062423</v>
-      </c>
-      <c r="GG11">
-        <v>1813.916337113418</v>
+        <v>1868.74034593594</v>
       </c>
     </row>
-    <row r="12" spans="1:189">
+    <row r="12" spans="1:188">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -7155,49 +7122,46 @@
         <v>1106.041669761432</v>
       </c>
       <c r="FT12">
+        <v>1137.579954668279</v>
+      </c>
+      <c r="FU12">
+        <v>2807.836298111551</v>
+      </c>
+      <c r="FV12">
+        <v>1536.129149294197</v>
+      </c>
+      <c r="FW12">
+        <v>1491.294702671202</v>
+      </c>
+      <c r="FX12">
+        <v>2260.70604099593</v>
+      </c>
+      <c r="FY12">
+        <v>1570.892275923546</v>
+      </c>
+      <c r="FZ12">
+        <v>296.8198749537156</v>
+      </c>
+      <c r="GA12">
         <v>1215.982773525993</v>
       </c>
-      <c r="FU12">
+      <c r="GB12">
+        <v>2235.142025101945</v>
+      </c>
+      <c r="GC12">
+        <v>922.8438395917019</v>
+      </c>
+      <c r="GD12">
         <v>1395.402470239412</v>
       </c>
-      <c r="FV12">
-        <v>2807.836298111551</v>
-      </c>
-      <c r="FW12">
-        <v>1137.579954668279</v>
-      </c>
-      <c r="FX12">
+      <c r="GE12">
         <v>259.4731435209294</v>
       </c>
-      <c r="FY12">
-        <v>2260.70604099593</v>
-      </c>
-      <c r="FZ12">
-        <v>1570.892275923546</v>
-      </c>
-      <c r="GA12">
-        <v>1536.129149294197</v>
-      </c>
-      <c r="GB12">
-        <v>2280.410207953933</v>
-      </c>
-      <c r="GC12">
-        <v>1491.294702671202</v>
-      </c>
-      <c r="GD12">
-        <v>922.8438395917019</v>
-      </c>
-      <c r="GE12">
-        <v>2260.885857323207</v>
-      </c>
       <c r="GF12">
-        <v>296.8198749537156</v>
-      </c>
-      <c r="GG12">
-        <v>1619.532141376912</v>
+        <v>1674.36844081184</v>
       </c>
     </row>
-    <row r="13" spans="1:189">
+    <row r="13" spans="1:188">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -7724,49 +7688,46 @@
         <v>1451.650000256546</v>
       </c>
       <c r="FT13">
+        <v>1445.040802669525</v>
+      </c>
+      <c r="FU13">
+        <v>3170.263880024</v>
+      </c>
+      <c r="FV13">
+        <v>1593.30520647498</v>
+      </c>
+      <c r="FW13">
+        <v>1815.880191592712</v>
+      </c>
+      <c r="FX13">
+        <v>2595.452956163945</v>
+      </c>
+      <c r="FY13">
+        <v>1873.120477754921</v>
+      </c>
+      <c r="FZ13">
+        <v>610.3386837218271</v>
+      </c>
+      <c r="GA13">
         <v>1580.682345658619</v>
       </c>
-      <c r="FU13">
+      <c r="GB13">
+        <v>2596.631647035584</v>
+      </c>
+      <c r="GC13">
+        <v>1195.929288972397</v>
+      </c>
+      <c r="GD13">
         <v>1588.590826010172</v>
       </c>
-      <c r="FV13">
-        <v>3170.263880024</v>
-      </c>
-      <c r="FW13">
-        <v>1445.040802669525</v>
-      </c>
-      <c r="FX13">
+      <c r="GE13">
         <v>380.1861951930076</v>
       </c>
-      <c r="FY13">
-        <v>2595.452956163945</v>
-      </c>
-      <c r="FZ13">
-        <v>1873.120477754921</v>
-      </c>
-      <c r="GA13">
-        <v>1593.30520647498</v>
-      </c>
-      <c r="GB13">
-        <v>2644.098930450178</v>
-      </c>
-      <c r="GC13">
-        <v>1815.880191592712</v>
-      </c>
-      <c r="GD13">
-        <v>1195.929288972397</v>
-      </c>
-      <c r="GE13">
-        <v>2617.789898468679</v>
-      </c>
       <c r="GF13">
-        <v>610.3386837218271</v>
-      </c>
-      <c r="GG13">
-        <v>1948.050915625905</v>
+        <v>2002.446998791217</v>
       </c>
     </row>
-    <row r="14" spans="1:189">
+    <row r="14" spans="1:188">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -8293,49 +8254,46 @@
         <v>1385.169897549702</v>
       </c>
       <c r="FT14">
+        <v>1481.106314016997</v>
+      </c>
+      <c r="FU14">
+        <v>2885.339385821297</v>
+      </c>
+      <c r="FV14">
+        <v>1143.613443978647</v>
+      </c>
+      <c r="FW14">
+        <v>1428.627021511098</v>
+      </c>
+      <c r="FX14">
+        <v>2214.407076819162</v>
+      </c>
+      <c r="FY14">
+        <v>1910.649808266605</v>
+      </c>
+      <c r="FZ14">
+        <v>685.6986900537775</v>
+      </c>
+      <c r="GA14">
         <v>1369.599914058275</v>
       </c>
-      <c r="FU14">
+      <c r="GB14">
+        <v>2310.213379857735</v>
+      </c>
+      <c r="GC14">
+        <v>1302.885575975877</v>
+      </c>
+      <c r="GD14">
         <v>1106.769534191074</v>
       </c>
-      <c r="FV14">
-        <v>2885.339385821297</v>
-      </c>
-      <c r="FW14">
-        <v>1481.106314016997</v>
-      </c>
-      <c r="FX14">
+      <c r="GE14">
         <v>155.7531290556531</v>
       </c>
-      <c r="FY14">
-        <v>2214.407076819162</v>
-      </c>
-      <c r="FZ14">
-        <v>1910.649808266605</v>
-      </c>
-      <c r="GA14">
-        <v>1143.613443978647</v>
-      </c>
-      <c r="GB14">
-        <v>2379.599205056869</v>
-      </c>
-      <c r="GC14">
-        <v>1428.627021511098</v>
-      </c>
-      <c r="GD14">
-        <v>1302.885575975877</v>
-      </c>
-      <c r="GE14">
-        <v>2303.392702484089</v>
-      </c>
       <c r="GF14">
-        <v>685.6986900537775</v>
-      </c>
-      <c r="GG14">
-        <v>1920.768989834054</v>
+        <v>1975.324930865973</v>
       </c>
     </row>
-    <row r="15" spans="1:189">
+    <row r="15" spans="1:188">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -8862,49 +8820,46 @@
         <v>1288.114482973389</v>
       </c>
       <c r="FT15">
+        <v>1310.48412058798</v>
+      </c>
+      <c r="FU15">
+        <v>2975.631398838817</v>
+      </c>
+      <c r="FV15">
+        <v>1500.132893479447</v>
+      </c>
+      <c r="FW15">
+        <v>1620.746114676799</v>
+      </c>
+      <c r="FX15">
+        <v>2398.975878132381</v>
+      </c>
+      <c r="FY15">
+        <v>1743.014913195684</v>
+      </c>
+      <c r="FZ15">
+        <v>465.3992412719157</v>
+      </c>
+      <c r="GA15">
         <v>1391.062678317408</v>
       </c>
-      <c r="FU15">
+      <c r="GB15">
+        <v>2401.429243740838</v>
+      </c>
+      <c r="GC15">
+        <v>1082.724855270781</v>
+      </c>
+      <c r="GD15">
         <v>1434.550270512337</v>
       </c>
-      <c r="FV15">
-        <v>2975.631398838817</v>
-      </c>
-      <c r="FW15">
-        <v>1310.48412058798</v>
-      </c>
-      <c r="FX15">
+      <c r="GE15">
         <v>217.6295994438368</v>
       </c>
-      <c r="FY15">
-        <v>2398.975878132381</v>
-      </c>
-      <c r="FZ15">
-        <v>1743.014913195684</v>
-      </c>
-      <c r="GA15">
-        <v>1500.132893479447</v>
-      </c>
-      <c r="GB15">
-        <v>2450.927920782348</v>
-      </c>
-      <c r="GC15">
-        <v>1620.746114676799</v>
-      </c>
-      <c r="GD15">
-        <v>1082.724855270781</v>
-      </c>
-      <c r="GE15">
-        <v>2420.866234351441</v>
-      </c>
       <c r="GF15">
-        <v>465.3992412719157</v>
-      </c>
-      <c r="GG15">
-        <v>1798.856511394922</v>
+        <v>1853.631165900631</v>
       </c>
     </row>
-    <row r="16" spans="1:189">
+    <row r="16" spans="1:188">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -9431,49 +9386,46 @@
         <v>1161.18728233045</v>
       </c>
       <c r="FT16">
+        <v>1245.854554670888</v>
+      </c>
+      <c r="FU16">
+        <v>2743.699215139246</v>
+      </c>
+      <c r="FV16">
+        <v>1320.539983813022</v>
+      </c>
+      <c r="FW16">
+        <v>1352.750260845459</v>
+      </c>
+      <c r="FX16">
+        <v>2134.260049088228</v>
+      </c>
+      <c r="FY16">
+        <v>1676.360469784923</v>
+      </c>
+      <c r="FZ16">
+        <v>455.8446408389261</v>
+      </c>
+      <c r="GA16">
         <v>1186.644700732664</v>
       </c>
-      <c r="FU16">
+      <c r="GB16">
+        <v>2167.880328452104</v>
+      </c>
+      <c r="GC16">
+        <v>1067.309954018196</v>
+      </c>
+      <c r="GD16">
         <v>1183.117354132929</v>
       </c>
-      <c r="FV16">
-        <v>2743.699215139246</v>
-      </c>
-      <c r="FW16">
-        <v>1245.854554670888</v>
-      </c>
-      <c r="FX16">
+      <c r="GE16">
         <v>127.8372292771171</v>
       </c>
-      <c r="FY16">
-        <v>2134.260049088228</v>
-      </c>
-      <c r="FZ16">
-        <v>1676.360469784923</v>
-      </c>
-      <c r="GA16">
-        <v>1320.539983813022</v>
-      </c>
-      <c r="GB16">
-        <v>2226.348730157236</v>
-      </c>
-      <c r="GC16">
-        <v>1352.750260845459</v>
-      </c>
-      <c r="GD16">
-        <v>1067.309954018196</v>
-      </c>
-      <c r="GE16">
-        <v>2176.803984931717</v>
-      </c>
       <c r="GF16">
-        <v>455.8446408389261</v>
-      </c>
-      <c r="GG16">
-        <v>1693.516971856567</v>
+        <v>1748.256870052213</v>
       </c>
     </row>
-    <row r="17" spans="1:189">
+    <row r="17" spans="1:188">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -10000,49 +9952,46 @@
         <v>686.4379173447376</v>
       </c>
       <c r="FT17">
+        <v>695.0951870593037</v>
+      </c>
+      <c r="FU17">
+        <v>2500.848591676263</v>
+      </c>
+      <c r="FV17">
+        <v>1818.722895897162</v>
+      </c>
+      <c r="FW17">
+        <v>1372.896696281221</v>
+      </c>
+      <c r="FX17">
+        <v>2083.014961580369</v>
+      </c>
+      <c r="FY17">
+        <v>1128.494047953592</v>
+      </c>
+      <c r="FZ17">
+        <v>158.2159316369835</v>
+      </c>
+      <c r="GA17">
         <v>899.1697759149674</v>
       </c>
-      <c r="FU17">
+      <c r="GB17">
+        <v>1942.102530201886</v>
+      </c>
+      <c r="GC17">
+        <v>500.3345081770329</v>
+      </c>
+      <c r="GD17">
         <v>1536.110224681321</v>
       </c>
-      <c r="FV17">
-        <v>2500.848591676263</v>
-      </c>
-      <c r="FW17">
-        <v>695.0951870593037</v>
-      </c>
-      <c r="FX17">
+      <c r="GE17">
         <v>668.5102921102138</v>
       </c>
-      <c r="FY17">
-        <v>2083.014961580369</v>
-      </c>
-      <c r="FZ17">
-        <v>1128.494047953592</v>
-      </c>
-      <c r="GA17">
-        <v>1818.722895897162</v>
-      </c>
-      <c r="GB17">
-        <v>1965.213608276392</v>
-      </c>
-      <c r="GC17">
-        <v>1372.896696281221</v>
-      </c>
-      <c r="GD17">
-        <v>500.3345081770329</v>
-      </c>
-      <c r="GE17">
-        <v>1996.727149616185</v>
-      </c>
       <c r="GF17">
-        <v>158.2159316369835</v>
-      </c>
-      <c r="GG17">
-        <v>1182.083672027997</v>
+        <v>1236.734958500635</v>
       </c>
     </row>
-    <row r="18" spans="1:189">
+    <row r="18" spans="1:188">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -10569,49 +10518,46 @@
         <v>868.9621989519748</v>
       </c>
       <c r="FT18">
+        <v>914.4737539108199</v>
+      </c>
+      <c r="FU18">
+        <v>2597.178549576636</v>
+      </c>
+      <c r="FV18">
+        <v>1621.796709564227</v>
+      </c>
+      <c r="FW18">
+        <v>1349.698871374432</v>
+      </c>
+      <c r="FX18">
+        <v>2098.390007109119</v>
+      </c>
+      <c r="FY18">
+        <v>1347.474124890846</v>
+      </c>
+      <c r="FZ18">
+        <v>134.1946951228162</v>
+      </c>
+      <c r="GA18">
         <v>996.2623547411174</v>
       </c>
-      <c r="FU18">
+      <c r="GB18">
+        <v>2027.982481628943</v>
+      </c>
+      <c r="GC18">
+        <v>724.8003264429573</v>
+      </c>
+      <c r="GD18">
         <v>1389.159077644704</v>
       </c>
-      <c r="FV18">
-        <v>2597.178549576636</v>
-      </c>
-      <c r="FW18">
-        <v>914.4737539108199</v>
-      </c>
-      <c r="FX18">
+      <c r="GE18">
         <v>443.8571358358769</v>
       </c>
-      <c r="FY18">
-        <v>2098.390007109119</v>
-      </c>
-      <c r="FZ18">
-        <v>1347.474124890846</v>
-      </c>
-      <c r="GA18">
-        <v>1621.796709564227</v>
-      </c>
-      <c r="GB18">
-        <v>2066.02870245886</v>
-      </c>
-      <c r="GC18">
-        <v>1349.698871374432</v>
-      </c>
-      <c r="GD18">
-        <v>724.8003264429573</v>
-      </c>
-      <c r="GE18">
-        <v>2064.070963470615</v>
-      </c>
       <c r="GF18">
-        <v>134.1946951228162</v>
-      </c>
-      <c r="GG18">
-        <v>1385.667691667149</v>
+        <v>1440.55304358981</v>
       </c>
     </row>
-    <row r="19" spans="1:189">
+    <row r="19" spans="1:188">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -11138,49 +11084,46 @@
         <v>658.3316503717103</v>
       </c>
       <c r="FT19">
+        <v>650.752194375063</v>
+      </c>
+      <c r="FU19">
+        <v>2493.209661740727</v>
+      </c>
+      <c r="FV19">
+        <v>1868.663518865395</v>
+      </c>
+      <c r="FW19">
+        <v>1394.923214008804</v>
+      </c>
+      <c r="FX19">
+        <v>2095.174022367706</v>
+      </c>
+      <c r="FY19">
+        <v>1083.841148785195</v>
+      </c>
+      <c r="FZ19">
+        <v>195.394688078447</v>
+      </c>
+      <c r="GA19">
         <v>895.8509045983132</v>
       </c>
-      <c r="FU19">
+      <c r="GB19">
+        <v>1937.849699786463</v>
+      </c>
+      <c r="GC19">
+        <v>449.4936967938019</v>
+      </c>
+      <c r="GD19">
         <v>1579.772104975718</v>
       </c>
-      <c r="FV19">
-        <v>2493.209661740727</v>
-      </c>
-      <c r="FW19">
-        <v>650.752194375063</v>
-      </c>
-      <c r="FX19">
+      <c r="GE19">
         <v>717.5644714292528</v>
       </c>
-      <c r="FY19">
-        <v>2095.174022367706</v>
-      </c>
-      <c r="FZ19">
-        <v>1083.841148785195</v>
-      </c>
-      <c r="GA19">
-        <v>1868.663518865395</v>
-      </c>
-      <c r="GB19">
-        <v>1957.114991127318</v>
-      </c>
-      <c r="GC19">
-        <v>1394.923214008804</v>
-      </c>
-      <c r="GD19">
-        <v>449.4936967938019</v>
-      </c>
-      <c r="GE19">
-        <v>1996.959444229212</v>
-      </c>
       <c r="GF19">
-        <v>195.394688078447</v>
-      </c>
-      <c r="GG19">
-        <v>1144.170443917885</v>
+        <v>1198.648318952709</v>
       </c>
     </row>
-    <row r="20" spans="1:189">
+    <row r="20" spans="1:188">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -11707,49 +11650,46 @@
         <v>956.5093385149976</v>
       </c>
       <c r="FT20">
+        <v>898.5357239800097</v>
+      </c>
+      <c r="FU20">
+        <v>2797.309037926208</v>
+      </c>
+      <c r="FV20">
+        <v>1882.042790668936</v>
+      </c>
+      <c r="FW20">
+        <v>1636.395277564387</v>
+      </c>
+      <c r="FX20">
+        <v>2366.113040668501</v>
+      </c>
+      <c r="FY20">
+        <v>1319.991280714714</v>
+      </c>
+      <c r="FZ20">
+        <v>189.3950268057681</v>
+      </c>
+      <c r="GA20">
         <v>1196.095414057623</v>
       </c>
-      <c r="FU20">
+      <c r="GB20">
+        <v>2239.03138068126</v>
+      </c>
+      <c r="GC20">
+        <v>637.33585011402</v>
+      </c>
+      <c r="GD20">
         <v>1689.527138201934</v>
       </c>
-      <c r="FV20">
-        <v>2797.309037926208</v>
-      </c>
-      <c r="FW20">
-        <v>898.5357239800097</v>
-      </c>
-      <c r="FX20">
+      <c r="GE20">
         <v>614.0156486026202</v>
       </c>
-      <c r="FY20">
-        <v>2366.113040668501</v>
-      </c>
-      <c r="FZ20">
-        <v>1319.991280714714</v>
-      </c>
-      <c r="GA20">
-        <v>1882.042790668936</v>
-      </c>
-      <c r="GB20">
-        <v>2261.487857708213</v>
-      </c>
-      <c r="GC20">
-        <v>1636.395277564387</v>
-      </c>
-      <c r="GD20">
-        <v>637.33585011402</v>
-      </c>
-      <c r="GE20">
-        <v>2292.571891080082</v>
-      </c>
       <c r="GF20">
-        <v>189.3950268057681</v>
-      </c>
-      <c r="GG20">
-        <v>1414.593716085028</v>
+        <v>1467.977990851022</v>
       </c>
     </row>
-    <row r="21" spans="1:189">
+    <row r="21" spans="1:188">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -12276,49 +12216,46 @@
         <v>892.5508738987196</v>
       </c>
       <c r="FT21">
+        <v>871.8610333823568</v>
+      </c>
+      <c r="FU21">
+        <v>2703.017612396271</v>
+      </c>
+      <c r="FV21">
+        <v>1791.333238778456</v>
+      </c>
+      <c r="FW21">
+        <v>1518.726898973712</v>
+      </c>
+      <c r="FX21">
+        <v>2252.672164175856</v>
+      </c>
+      <c r="FY21">
+        <v>1301.804540031623</v>
+      </c>
+      <c r="FZ21">
+        <v>71.67504812270678</v>
+      </c>
+      <c r="GA21">
         <v>1098.819083516361</v>
       </c>
-      <c r="FU21">
+      <c r="GB21">
+        <v>2140.906899322383</v>
+      </c>
+      <c r="GC21">
+        <v>635.6073320583638</v>
+      </c>
+      <c r="GD21">
         <v>1578.403135778178</v>
       </c>
-      <c r="FV21">
-        <v>2703.017612396271</v>
-      </c>
-      <c r="FW21">
-        <v>871.8610333823568</v>
-      </c>
-      <c r="FX21">
+      <c r="GE21">
         <v>550.8865148576836</v>
       </c>
-      <c r="FY21">
-        <v>2252.672164175856</v>
-      </c>
-      <c r="FZ21">
-        <v>1301.804540031623</v>
-      </c>
-      <c r="GA21">
-        <v>1791.333238778456</v>
-      </c>
-      <c r="GB21">
-        <v>2168.092466597079</v>
-      </c>
-      <c r="GC21">
-        <v>1518.726898973712</v>
-      </c>
-      <c r="GD21">
-        <v>635.6073320583638</v>
-      </c>
-      <c r="GE21">
-        <v>2189.431624620642</v>
-      </c>
       <c r="GF21">
-        <v>71.67504812270678</v>
-      </c>
-      <c r="GG21">
-        <v>1375.358701630832</v>
+        <v>1429.589506819375</v>
       </c>
     </row>
-    <row r="22" spans="1:189">
+    <row r="22" spans="1:188">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -12845,49 +12782,46 @@
         <v>844.0987264833343</v>
       </c>
       <c r="FT22">
+        <v>845.1010770467474</v>
+      </c>
+      <c r="FU22">
+        <v>2637.454212781936</v>
+      </c>
+      <c r="FV22">
+        <v>1752.997237725009</v>
+      </c>
+      <c r="FW22">
+        <v>1447.372454793094</v>
+      </c>
+      <c r="FX22">
+        <v>2181.129490787039</v>
+      </c>
+      <c r="FY22">
+        <v>1277.658653156077</v>
+      </c>
+      <c r="FZ22">
+        <v>0</v>
+      </c>
+      <c r="GA22">
         <v>1032.766324625263</v>
       </c>
-      <c r="FU22">
+      <c r="GB22">
+        <v>2073.938014463946</v>
+      </c>
+      <c r="GC22">
+        <v>626.5915178077541</v>
+      </c>
+      <c r="GD22">
         <v>1521.801904484974</v>
       </c>
-      <c r="FV22">
-        <v>2637.454212781936</v>
-      </c>
-      <c r="FW22">
-        <v>845.1010770467474</v>
-      </c>
-      <c r="FX22">
+      <c r="GE22">
         <v>540.7414212062423</v>
       </c>
-      <c r="FY22">
-        <v>2181.129490787039</v>
-      </c>
-      <c r="FZ22">
-        <v>1277.658653156077</v>
-      </c>
-      <c r="GA22">
-        <v>1752.997237725009</v>
-      </c>
-      <c r="GB22">
-        <v>2103.040243106572</v>
-      </c>
-      <c r="GC22">
-        <v>1447.372454793094</v>
-      </c>
-      <c r="GD22">
-        <v>626.5915178077541</v>
-      </c>
-      <c r="GE22">
-        <v>2120.593147051139</v>
-      </c>
       <c r="GF22">
-        <v>0</v>
-      </c>
-      <c r="GG22">
-        <v>1338.897548960874</v>
+        <v>1393.455016447605</v>
       </c>
     </row>
-    <row r="23" spans="1:189">
+    <row r="23" spans="1:188">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -13414,49 +13348,46 @@
         <v>830.286949905208</v>
       </c>
       <c r="FT23">
+        <v>850.6526737409038</v>
+      </c>
+      <c r="FU23">
+        <v>2602.329872670471</v>
+      </c>
+      <c r="FV23">
+        <v>1709.709762922764</v>
+      </c>
+      <c r="FW23">
+        <v>1397.170670130281</v>
+      </c>
+      <c r="FX23">
+        <v>2134.238381606189</v>
+      </c>
+      <c r="FY23">
+        <v>1284.036587173867</v>
+      </c>
+      <c r="FZ23">
+        <v>52.99949669990065</v>
+      </c>
+      <c r="GA23">
         <v>997.7392227692377</v>
       </c>
-      <c r="FU23">
+      <c r="GB23">
+        <v>2036.901341653366</v>
+      </c>
+      <c r="GC23">
+        <v>646.5792024935108</v>
+      </c>
+      <c r="GD23">
         <v>1470.610743846127</v>
       </c>
-      <c r="FV23">
-        <v>2602.329872670471</v>
-      </c>
-      <c r="FW23">
-        <v>850.6526737409038</v>
-      </c>
-      <c r="FX23">
+      <c r="GE23">
         <v>517.7164578106275</v>
       </c>
-      <c r="FY23">
-        <v>2134.238381606189</v>
-      </c>
-      <c r="FZ23">
-        <v>1284.036587173867</v>
-      </c>
-      <c r="GA23">
-        <v>1709.709762922764</v>
-      </c>
-      <c r="GB23">
-        <v>2068.759293323599</v>
-      </c>
-      <c r="GC23">
-        <v>1397.170670130281</v>
-      </c>
-      <c r="GD23">
-        <v>646.5792024935108</v>
-      </c>
-      <c r="GE23">
-        <v>2080.487881224038</v>
-      </c>
       <c r="GF23">
-        <v>52.99949669990065</v>
-      </c>
-      <c r="GG23">
-        <v>1334.997593611675</v>
+        <v>1389.750377095339</v>
       </c>
     </row>
-    <row r="24" spans="1:189">
+    <row r="24" spans="1:188">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -13983,49 +13914,46 @@
         <v>1837.74873619307</v>
       </c>
       <c r="FT24">
+        <v>2056.980738633294</v>
+      </c>
+      <c r="FU24">
+        <v>158.5521057776684</v>
+      </c>
+      <c r="FV24">
+        <v>3032.266333800138</v>
+      </c>
+      <c r="FW24">
+        <v>1591.249574041257</v>
+      </c>
+      <c r="FX24">
+        <v>1070.536583284225</v>
+      </c>
+      <c r="FY24">
+        <v>1903.382094656844</v>
+      </c>
+      <c r="FZ24">
+        <v>2594.979889346879</v>
+      </c>
+      <c r="GA24">
         <v>1566.153072454196</v>
       </c>
-      <c r="FU24">
+      <c r="GB24">
+        <v>579.4163274486818</v>
+      </c>
+      <c r="GC24">
+        <v>2329.920850496618</v>
+      </c>
+      <c r="GD24">
         <v>2420.08986910537</v>
       </c>
-      <c r="FV24">
-        <v>158.5521057776684</v>
-      </c>
-      <c r="FW24">
-        <v>2056.980738633294</v>
-      </c>
-      <c r="FX24">
+      <c r="GE24">
         <v>2850.842611271256</v>
       </c>
-      <c r="FY24">
-        <v>1070.536583284225</v>
-      </c>
-      <c r="FZ24">
-        <v>1903.382094656844</v>
-      </c>
-      <c r="GA24">
-        <v>3032.266333800138</v>
-      </c>
-      <c r="GB24">
-        <v>500.4937523573565</v>
-      </c>
-      <c r="GC24">
-        <v>1591.249574041257</v>
-      </c>
-      <c r="GD24">
-        <v>2329.920850496618</v>
-      </c>
-      <c r="GE24">
-        <v>655.0590286600707</v>
-      </c>
       <c r="GF24">
-        <v>2594.979889346879</v>
-      </c>
-      <c r="GG24">
-        <v>1647.698095944643</v>
+        <v>1626.32258675641</v>
       </c>
     </row>
-    <row r="25" spans="1:189">
+    <row r="25" spans="1:188">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -14552,49 +14480,46 @@
         <v>1653.058975003952</v>
       </c>
       <c r="FT25">
+        <v>1893.019039457731</v>
+      </c>
+      <c r="FU25">
+        <v>257.6707504164244</v>
+      </c>
+      <c r="FV25">
+        <v>2777.743225316957</v>
+      </c>
+      <c r="FW25">
+        <v>1336.060138294878</v>
+      </c>
+      <c r="FX25">
+        <v>845.5395286766365</v>
+      </c>
+      <c r="FY25">
+        <v>1785.406061785597</v>
+      </c>
+      <c r="FZ25">
+        <v>2379.898214048765</v>
+      </c>
+      <c r="GA25">
         <v>1347.274333669257</v>
       </c>
-      <c r="FU25">
+      <c r="GB25">
+        <v>328.6167491499622</v>
+      </c>
+      <c r="GC25">
+        <v>2154.602301249736</v>
+      </c>
+      <c r="GD25">
         <v>2165.542723992149</v>
       </c>
-      <c r="FV25">
-        <v>257.6707504164244</v>
-      </c>
-      <c r="FW25">
-        <v>1893.019039457731</v>
-      </c>
-      <c r="FX25">
+      <c r="GE25">
         <v>2614.11063290799</v>
       </c>
-      <c r="FY25">
-        <v>845.5395286766365</v>
-      </c>
-      <c r="FZ25">
-        <v>1785.406061785597</v>
-      </c>
-      <c r="GA25">
-        <v>2777.743225316957</v>
-      </c>
-      <c r="GB25">
-        <v>279.1297681198093</v>
-      </c>
-      <c r="GC25">
-        <v>1336.060138294878</v>
-      </c>
-      <c r="GD25">
-        <v>2154.602301249736</v>
-      </c>
-      <c r="GE25">
-        <v>403.1816248236352</v>
-      </c>
       <c r="GF25">
-        <v>2379.898214048765</v>
-      </c>
-      <c r="GG25">
-        <v>1525.762754665343</v>
+        <v>1511.84378270692</v>
       </c>
     </row>
-    <row r="26" spans="1:189">
+    <row r="26" spans="1:188">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -15121,49 +15046,46 @@
         <v>1906.905932428755</v>
       </c>
       <c r="FT26">
+        <v>2140.838814979187</v>
+      </c>
+      <c r="FU26">
+        <v>0</v>
+      </c>
+      <c r="FV26">
+        <v>2978.161445398661</v>
+      </c>
+      <c r="FW26">
+        <v>1555.370820870623</v>
+      </c>
+      <c r="FX26">
+        <v>971.7399439992511</v>
+      </c>
+      <c r="FY26">
+        <v>2012.59800866785</v>
+      </c>
+      <c r="FZ26">
+        <v>2637.454212781936</v>
+      </c>
+      <c r="GA26">
         <v>1604.763311894769</v>
       </c>
-      <c r="FU26">
+      <c r="GB26">
+        <v>575.9546717543826</v>
+      </c>
+      <c r="GC26">
+        <v>2406.335303967287</v>
+      </c>
+      <c r="GD26">
         <v>2367.239097417825</v>
       </c>
-      <c r="FV26">
-        <v>0</v>
-      </c>
-      <c r="FW26">
-        <v>2140.838814979187</v>
-      </c>
-      <c r="FX26">
+      <c r="GE26">
         <v>2865.750722220912</v>
       </c>
-      <c r="FY26">
-        <v>971.7399439992511</v>
-      </c>
-      <c r="FZ26">
-        <v>2012.59800866785</v>
-      </c>
-      <c r="GA26">
-        <v>2978.161445398661</v>
-      </c>
-      <c r="GB26">
-        <v>536.2752611961101</v>
-      </c>
-      <c r="GC26">
-        <v>1555.370820870623</v>
-      </c>
-      <c r="GD26">
-        <v>2406.335303967287</v>
-      </c>
-      <c r="GE26">
-        <v>606.7308341206729</v>
-      </c>
       <c r="GF26">
-        <v>2637.454212781936</v>
-      </c>
-      <c r="GG26">
-        <v>1754.442681727774</v>
+        <v>1736.57327351836</v>
       </c>
     </row>
-    <row r="27" spans="1:189">
+    <row r="27" spans="1:188">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -15690,49 +15612,46 @@
         <v>2052.249646218537</v>
       </c>
       <c r="FT27">
+        <v>2293.385239618192</v>
+      </c>
+      <c r="FU27">
+        <v>167.516770776738</v>
+      </c>
+      <c r="FV27">
+        <v>3018.590927675719</v>
+      </c>
+      <c r="FW27">
+        <v>1622.126768652684</v>
+      </c>
+      <c r="FX27">
+        <v>974.3678295961532</v>
+      </c>
+      <c r="FY27">
+        <v>2175.600703077734</v>
+      </c>
+      <c r="FZ27">
+        <v>2764.47341475763</v>
+      </c>
+      <c r="GA27">
         <v>1732.500195056582</v>
       </c>
-      <c r="FU27">
+      <c r="GB27">
+        <v>690.9893717161247</v>
+      </c>
+      <c r="GC27">
+        <v>2554.68826712181</v>
+      </c>
+      <c r="GD27">
         <v>2411.18382971289</v>
       </c>
-      <c r="FV27">
-        <v>167.516770776738</v>
-      </c>
-      <c r="FW27">
-        <v>2293.385239618192</v>
-      </c>
-      <c r="FX27">
+      <c r="GE27">
         <v>2971.613412956453</v>
       </c>
-      <c r="FY27">
-        <v>974.3678295961532</v>
-      </c>
-      <c r="FZ27">
-        <v>2175.600703077734</v>
-      </c>
-      <c r="GA27">
-        <v>3018.590927675719</v>
-      </c>
-      <c r="GB27">
-        <v>676.7601827435179</v>
-      </c>
-      <c r="GC27">
-        <v>1622.126768652684</v>
-      </c>
-      <c r="GD27">
-        <v>2554.68826712181</v>
-      </c>
-      <c r="GE27">
-        <v>682.9075949699363</v>
-      </c>
       <c r="GF27">
-        <v>2764.47341475763</v>
-      </c>
-      <c r="GG27">
-        <v>1916.876422679432</v>
+        <v>1900.109611806428</v>
       </c>
     </row>
-    <row r="28" spans="1:189">
+    <row r="28" spans="1:188">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -16259,49 +16178,46 @@
         <v>1330.892736939903</v>
       </c>
       <c r="FT28">
+        <v>1555.729020794156</v>
+      </c>
+      <c r="FU28">
+        <v>586.4430727889381</v>
+      </c>
+      <c r="FV28">
+        <v>2690.414472549051</v>
+      </c>
+      <c r="FW28">
+        <v>1235.221275231684</v>
+      </c>
+      <c r="FX28">
+        <v>967.6428057527756</v>
+      </c>
+      <c r="FY28">
+        <v>1434.496321395527</v>
+      </c>
+      <c r="FZ28">
+        <v>2095.287940847649</v>
+      </c>
+      <c r="GA28">
         <v>1073.585795678836</v>
       </c>
-      <c r="FU28">
+      <c r="GB28">
+        <v>304.904350600825</v>
+      </c>
+      <c r="GC28">
+        <v>1824.966455338222</v>
+      </c>
+      <c r="GD28">
         <v>2084.20621369875</v>
       </c>
-      <c r="FV28">
-        <v>586.4430727889381</v>
-      </c>
-      <c r="FW28">
-        <v>1555.729020794156</v>
-      </c>
-      <c r="FX28">
+      <c r="GE28">
         <v>2376.457261219382</v>
       </c>
-      <c r="FY28">
-        <v>967.6428057527756</v>
-      </c>
-      <c r="FZ28">
-        <v>1434.496321395527</v>
-      </c>
-      <c r="GA28">
-        <v>2690.414472549051</v>
-      </c>
-      <c r="GB28">
-        <v>160.0485342092437</v>
-      </c>
-      <c r="GC28">
-        <v>1235.221275231684</v>
-      </c>
-      <c r="GD28">
-        <v>1824.966455338222</v>
-      </c>
-      <c r="GE28">
-        <v>483.5656160875095</v>
-      </c>
       <c r="GF28">
-        <v>2095.287940847649</v>
-      </c>
-      <c r="GG28">
-        <v>1174.962635865266</v>
+        <v>1160.798038497201</v>
       </c>
     </row>
-    <row r="29" spans="1:189">
+    <row r="29" spans="1:188">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -16828,49 +16744,46 @@
         <v>1258.459187385208</v>
       </c>
       <c r="FT29">
+        <v>1497.295876944792</v>
+      </c>
+      <c r="FU29">
+        <v>648.4509309450181</v>
+      </c>
+      <c r="FV29">
+        <v>2574.003135761803</v>
+      </c>
+      <c r="FW29">
+        <v>1119.117477497037</v>
+      </c>
+      <c r="FX29">
+        <v>888.4389276463099</v>
+      </c>
+      <c r="FY29">
+        <v>1406.954436197033</v>
+      </c>
+      <c r="FZ29">
+        <v>2003.765577681036</v>
+      </c>
+      <c r="GA29">
         <v>976.0986337945037</v>
       </c>
-      <c r="FU29">
+      <c r="GB29">
+        <v>236.3378732886219</v>
+      </c>
+      <c r="GC29">
+        <v>1758.814527425947</v>
+      </c>
+      <c r="GD29">
         <v>1968.137441328871</v>
       </c>
-      <c r="FV29">
-        <v>648.4509309450181</v>
-      </c>
-      <c r="FW29">
-        <v>1497.295876944792</v>
-      </c>
-      <c r="FX29">
+      <c r="GE29">
         <v>2271.678408396217</v>
       </c>
-      <c r="FY29">
-        <v>888.4389276463099</v>
-      </c>
-      <c r="FZ29">
-        <v>1406.954436197033</v>
-      </c>
-      <c r="GA29">
-        <v>2574.003135761803</v>
-      </c>
-      <c r="GB29">
-        <v>130.0126445624274</v>
-      </c>
-      <c r="GC29">
-        <v>1119.117477497037</v>
-      </c>
-      <c r="GD29">
-        <v>1758.814527425947</v>
-      </c>
-      <c r="GE29">
-        <v>416.6494225194275</v>
-      </c>
       <c r="GF29">
-        <v>2003.765577681036</v>
-      </c>
-      <c r="GG29">
-        <v>1147.109024676767</v>
+        <v>1138.2345107661</v>
       </c>
     </row>
-    <row r="30" spans="1:189">
+    <row r="30" spans="1:188">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -17397,49 +17310,46 @@
         <v>1284.312872648968</v>
       </c>
       <c r="FT30">
+        <v>1519.711482543415</v>
+      </c>
+      <c r="FU30">
+        <v>623.0959688387464</v>
+      </c>
+      <c r="FV30">
+        <v>2606.816680819979</v>
+      </c>
+      <c r="FW30">
+        <v>1151.585532993183</v>
+      </c>
+      <c r="FX30">
+        <v>904.7641489351713</v>
+      </c>
+      <c r="FY30">
+        <v>1421.0631777125</v>
+      </c>
+      <c r="FZ30">
+        <v>2034.245987215027</v>
+      </c>
+      <c r="GA30">
         <v>1007.65410467755</v>
       </c>
-      <c r="FU30">
+      <c r="GB30">
+        <v>246.1550899265569</v>
+      </c>
+      <c r="GC30">
+        <v>1783.280536539226</v>
+      </c>
+      <c r="GD30">
         <v>2000.572158023802</v>
       </c>
-      <c r="FV30">
-        <v>623.0959688387464</v>
-      </c>
-      <c r="FW30">
-        <v>1519.711482543415</v>
-      </c>
-      <c r="FX30">
+      <c r="GE30">
         <v>2304.752486311645</v>
       </c>
-      <c r="FY30">
-        <v>904.7641489351713</v>
-      </c>
-      <c r="FZ30">
-        <v>1421.0631777125</v>
-      </c>
-      <c r="GA30">
-        <v>2606.816680819979</v>
-      </c>
-      <c r="GB30">
-        <v>121.5939988741015</v>
-      </c>
-      <c r="GC30">
-        <v>1151.585532993183</v>
-      </c>
-      <c r="GD30">
-        <v>1783.280536539226</v>
-      </c>
-      <c r="GE30">
-        <v>427.4441476670224</v>
-      </c>
       <c r="GF30">
-        <v>2034.245987215027</v>
-      </c>
-      <c r="GG30">
-        <v>1161.101655992264</v>
+        <v>1150.749281912029</v>
       </c>
     </row>
-    <row r="31" spans="1:189">
+    <row r="31" spans="1:188">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -17966,49 +17876,46 @@
         <v>1432.190468381216</v>
       </c>
       <c r="FT31">
+        <v>1676.410385144314</v>
+      </c>
+      <c r="FU31">
+        <v>479.4083542778912</v>
+      </c>
+      <c r="FV31">
+        <v>2626.627364680352</v>
+      </c>
+      <c r="FW31">
+        <v>1172.650846280296</v>
+      </c>
+      <c r="FX31">
+        <v>808.5828555426174</v>
+      </c>
+      <c r="FY31">
+        <v>1587.17906010864</v>
+      </c>
+      <c r="FZ31">
+        <v>2159.38352421807</v>
+      </c>
+      <c r="GA31">
         <v>1127.207405024305</v>
       </c>
-      <c r="FU31">
+      <c r="GB31">
+        <v>163.541453167294</v>
+      </c>
+      <c r="GC31">
+        <v>1934.953612372864</v>
+      </c>
+      <c r="GD31">
         <v>2015.814063468659</v>
       </c>
-      <c r="FV31">
-        <v>479.4083542778912</v>
-      </c>
-      <c r="FW31">
-        <v>1676.410385144314</v>
-      </c>
-      <c r="FX31">
+      <c r="GE31">
         <v>2403.630782641907</v>
       </c>
-      <c r="FY31">
-        <v>808.5828555426174</v>
-      </c>
-      <c r="FZ31">
-        <v>1587.17906010864</v>
-      </c>
-      <c r="GA31">
-        <v>2626.627364680352</v>
-      </c>
-      <c r="GB31">
-        <v>56.97139655378361</v>
-      </c>
-      <c r="GC31">
-        <v>1172.650846280296</v>
-      </c>
-      <c r="GD31">
-        <v>1934.953612372864</v>
-      </c>
-      <c r="GE31">
-        <v>321.8858831337699</v>
-      </c>
       <c r="GF31">
-        <v>2159.38352421807</v>
-      </c>
-      <c r="GG31">
-        <v>1327.240896317115</v>
+        <v>1317.233753592191</v>
       </c>
     </row>
-    <row r="32" spans="1:189">
+    <row r="32" spans="1:188">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -18535,49 +18442,46 @@
         <v>1375.501742849538</v>
       </c>
       <c r="FT32">
+        <v>1620.858236866926</v>
+      </c>
+      <c r="FU32">
+        <v>536.2752611961101</v>
+      </c>
+      <c r="FV32">
+        <v>2590.340308597805</v>
+      </c>
+      <c r="FW32">
+        <v>1134.765445180305</v>
+      </c>
+      <c r="FX32">
+        <v>809.7785923858052</v>
+      </c>
+      <c r="FY32">
+        <v>1536.888020980227</v>
+      </c>
+      <c r="FZ32">
+        <v>2103.040243106572</v>
+      </c>
+      <c r="GA32">
         <v>1071.090925273024</v>
       </c>
-      <c r="FU32">
+      <c r="GB32">
+        <v>148.7513857171557</v>
+      </c>
+      <c r="GC32">
+        <v>1878.560735837452</v>
+      </c>
+      <c r="GD32">
         <v>1980.441267399269</v>
       </c>
-      <c r="FV32">
-        <v>536.2752611961101</v>
-      </c>
-      <c r="FW32">
-        <v>1620.858236866926</v>
-      </c>
-      <c r="FX32">
+      <c r="GE32">
         <v>2350.372934179823</v>
       </c>
-      <c r="FY32">
-        <v>809.7785923858052</v>
-      </c>
-      <c r="FZ32">
-        <v>1536.888020980227</v>
-      </c>
-      <c r="GA32">
-        <v>2590.340308597805</v>
-      </c>
-      <c r="GB32">
-        <v>0</v>
-      </c>
-      <c r="GC32">
-        <v>1134.765445180305</v>
-      </c>
-      <c r="GD32">
-        <v>1878.560735837452</v>
-      </c>
-      <c r="GE32">
-        <v>324.1557342892302</v>
-      </c>
       <c r="GF32">
-        <v>2103.040243106572</v>
-      </c>
-      <c r="GG32">
-        <v>1277.068398901912</v>
+        <v>1268.229875752277</v>
       </c>
     </row>
-    <row r="33" spans="1:189">
+    <row r="33" spans="1:188">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -19104,49 +19008,46 @@
         <v>499.6863318086068</v>
       </c>
       <c r="FT33">
+        <v>368.2980322688836</v>
+      </c>
+      <c r="FU33">
+        <v>1962.779488937596</v>
+      </c>
+      <c r="FV33">
+        <v>2665.886041556122</v>
+      </c>
+      <c r="FW33">
+        <v>1612.099961461016</v>
+      </c>
+      <c r="FX33">
+        <v>1996.768719322315</v>
+      </c>
+      <c r="FY33">
+        <v>97.80084843190912</v>
+      </c>
+      <c r="FZ33">
+        <v>1211.974803267944</v>
+      </c>
+      <c r="GA33">
         <v>872.6733517525387</v>
       </c>
-      <c r="FU33">
+      <c r="GB33">
+        <v>1535.56679147305</v>
+      </c>
+      <c r="GC33">
+        <v>642.827697502079</v>
+      </c>
+      <c r="GD33">
         <v>2207.315718818601</v>
       </c>
-      <c r="FV33">
-        <v>1962.779488937596</v>
-      </c>
-      <c r="FW33">
-        <v>368.2980322688836</v>
-      </c>
-      <c r="FX33">
+      <c r="GE33">
         <v>1714.717925323395</v>
       </c>
-      <c r="FY33">
-        <v>1996.768719322315</v>
-      </c>
-      <c r="FZ33">
-        <v>97.80084843190912</v>
-      </c>
-      <c r="GA33">
-        <v>2665.886041556122</v>
-      </c>
-      <c r="GB33">
-        <v>1476.061013173426</v>
-      </c>
-      <c r="GC33">
-        <v>1612.099961461016</v>
-      </c>
-      <c r="GD33">
-        <v>642.827697502079</v>
-      </c>
-      <c r="GE33">
-        <v>1674.553418278093</v>
-      </c>
       <c r="GF33">
-        <v>1211.974803267944</v>
-      </c>
-      <c r="GG33">
-        <v>213.8692844463879</v>
+        <v>248.5427273192036</v>
       </c>
     </row>
-    <row r="34" spans="1:189">
+    <row r="34" spans="1:188">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -19673,49 +19574,46 @@
         <v>594.4424609073457</v>
       </c>
       <c r="FT34">
+        <v>433.4175883183877</v>
+      </c>
+      <c r="FU34">
+        <v>2012.59800866785</v>
+      </c>
+      <c r="FV34">
+        <v>2759.125586227252</v>
+      </c>
+      <c r="FW34">
+        <v>1708.449175647813</v>
+      </c>
+      <c r="FX34">
+        <v>2080.178776275282</v>
+      </c>
+      <c r="FY34">
+        <v>0</v>
+      </c>
+      <c r="FZ34">
+        <v>1277.658653156077</v>
+      </c>
+      <c r="GA34">
         <v>969.7956996288503</v>
       </c>
-      <c r="FU34">
+      <c r="GB34">
+        <v>1602.872144433732</v>
+      </c>
+      <c r="GC34">
+        <v>687.589820448837</v>
+      </c>
+      <c r="GD34">
         <v>2304.137529427024</v>
       </c>
-      <c r="FV34">
-        <v>2012.59800866785</v>
-      </c>
-      <c r="FW34">
-        <v>433.4175883183877</v>
-      </c>
-      <c r="FX34">
+      <c r="GE34">
         <v>1789.055123291982</v>
       </c>
-      <c r="FY34">
-        <v>2080.178776275282</v>
-      </c>
-      <c r="FZ34">
-        <v>0</v>
-      </c>
-      <c r="GA34">
-        <v>2759.125586227252</v>
-      </c>
-      <c r="GB34">
-        <v>1536.888020980227</v>
-      </c>
-      <c r="GC34">
-        <v>1708.449175647813</v>
-      </c>
-      <c r="GD34">
-        <v>687.589820448837</v>
-      </c>
-      <c r="GE34">
-        <v>1746.609525649385</v>
-      </c>
       <c r="GF34">
-        <v>1277.658653156077</v>
-      </c>
-      <c r="GG34">
-        <v>259.9665107247332</v>
+        <v>277.1653991609436</v>
       </c>
     </row>
-    <row r="35" spans="1:189">
+    <row r="35" spans="1:188">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -20242,49 +20140,46 @@
         <v>755.0872144746781</v>
       </c>
       <c r="FT35">
+        <v>580.0127338392987</v>
+      </c>
+      <c r="FU35">
+        <v>2064.883951247962</v>
+      </c>
+      <c r="FV35">
+        <v>2919.719359964111</v>
+      </c>
+      <c r="FW35">
+        <v>1855.791054700558</v>
+      </c>
+      <c r="FX35">
+        <v>2195.327289306505</v>
+      </c>
+      <c r="FY35">
+        <v>160.7125477956193</v>
+      </c>
+      <c r="FZ35">
+        <v>1417.612595351679</v>
+      </c>
+      <c r="GA35">
         <v>1120.965921766643</v>
       </c>
-      <c r="FU35">
+      <c r="GB35">
+        <v>1688.456757141028</v>
+      </c>
+      <c r="GC35">
+        <v>810.7807648351719</v>
+      </c>
+      <c r="GD35">
         <v>2463.713343017408</v>
       </c>
-      <c r="FV35">
-        <v>2064.883951247962</v>
-      </c>
-      <c r="FW35">
-        <v>580.0127338392987</v>
-      </c>
-      <c r="FX35">
+      <c r="GE35">
         <v>1936.436764601656</v>
       </c>
-      <c r="FY35">
-        <v>2195.327289306505</v>
-      </c>
-      <c r="FZ35">
-        <v>160.7125477956193</v>
-      </c>
-      <c r="GA35">
-        <v>2919.719359964111</v>
-      </c>
-      <c r="GB35">
-        <v>1611.181948250061</v>
-      </c>
-      <c r="GC35">
-        <v>1855.791054700558</v>
-      </c>
-      <c r="GD35">
-        <v>810.7807648351719</v>
-      </c>
-      <c r="GE35">
-        <v>1840.332864447834</v>
-      </c>
       <c r="GF35">
-        <v>1417.612595351679</v>
-      </c>
-      <c r="GG35">
-        <v>355.3380555784184</v>
+        <v>348.112618387679</v>
       </c>
     </row>
-    <row r="36" spans="1:189">
+    <row r="36" spans="1:188">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -20811,49 +20706,46 @@
         <v>697.4835267259695</v>
       </c>
       <c r="FT36">
+        <v>691.5424721935267</v>
+      </c>
+      <c r="FU36">
+        <v>1673.445439334468</v>
+      </c>
+      <c r="FV36">
+        <v>2809.945554185307</v>
+      </c>
+      <c r="FW36">
+        <v>1604.852990571556</v>
+      </c>
+      <c r="FX36">
+        <v>1848.251976140012</v>
+      </c>
+      <c r="FY36">
+        <v>362.8613623325087</v>
+      </c>
+      <c r="FZ36">
+        <v>1507.42128199751</v>
+      </c>
+      <c r="GA36">
         <v>916.0963288158725</v>
       </c>
-      <c r="FU36">
+      <c r="GB36">
+        <v>1308.709805264569</v>
+      </c>
+      <c r="GC36">
+        <v>981.9962124468219</v>
+      </c>
+      <c r="GD36">
         <v>2301.188640977916</v>
       </c>
-      <c r="FV36">
-        <v>1673.445439334468</v>
-      </c>
-      <c r="FW36">
-        <v>691.5424721935267</v>
-      </c>
-      <c r="FX36">
+      <c r="GE36">
         <v>1978.194081478968</v>
       </c>
-      <c r="FY36">
-        <v>1848.251976140012</v>
-      </c>
-      <c r="FZ36">
-        <v>362.8613623325087</v>
-      </c>
-      <c r="GA36">
-        <v>2809.945554185307</v>
-      </c>
-      <c r="GB36">
-        <v>1224.623231128728</v>
-      </c>
-      <c r="GC36">
-        <v>1604.852990571556</v>
-      </c>
-      <c r="GD36">
-        <v>981.9962124468219</v>
-      </c>
-      <c r="GE36">
-        <v>1466.982453320637</v>
-      </c>
       <c r="GF36">
-        <v>1507.42128199751</v>
-      </c>
-      <c r="GG36">
-        <v>169.035102014544</v>
+        <v>115.6860997425716</v>
       </c>
     </row>
-    <row r="37" spans="1:189">
+    <row r="37" spans="1:188">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -21380,49 +21272,46 @@
         <v>361.4727480284768</v>
       </c>
       <c r="FT37">
+        <v>294.8756744411115</v>
+      </c>
+      <c r="FU37">
+        <v>1908.449616501309</v>
+      </c>
+      <c r="FV37">
+        <v>2528.03406041927</v>
+      </c>
+      <c r="FW37">
+        <v>1475.798174128969</v>
+      </c>
+      <c r="FX37">
+        <v>1885.766226525997</v>
+      </c>
+      <c r="FY37">
+        <v>239.2445087355543</v>
+      </c>
+      <c r="FZ37">
+        <v>1115.502421840838</v>
+      </c>
+      <c r="GA37">
         <v>734.7307554835129</v>
       </c>
-      <c r="FU37">
+      <c r="GB37">
+        <v>1454.199474322635</v>
+      </c>
+      <c r="GC37">
+        <v>588.9035985712939</v>
+      </c>
+      <c r="GD37">
         <v>2065.919124598204</v>
       </c>
-      <c r="FV37">
-        <v>1908.449616501309</v>
-      </c>
-      <c r="FW37">
-        <v>294.8756744411115</v>
-      </c>
-      <c r="FX37">
+      <c r="GE37">
         <v>1603.301329830905</v>
       </c>
-      <c r="FY37">
-        <v>1885.766226525997</v>
-      </c>
-      <c r="FZ37">
-        <v>239.2445087355543</v>
-      </c>
-      <c r="GA37">
-        <v>2528.03406041927</v>
-      </c>
-      <c r="GB37">
-        <v>1406.002080099486</v>
-      </c>
-      <c r="GC37">
-        <v>1475.798174128969</v>
-      </c>
-      <c r="GD37">
-        <v>588.9035985712939</v>
-      </c>
-      <c r="GE37">
-        <v>1584.420219005443</v>
-      </c>
       <c r="GF37">
-        <v>1115.502421840838</v>
-      </c>
-      <c r="GG37">
-        <v>230.3561245199942</v>
+        <v>282.7326842760723</v>
       </c>
     </row>
-    <row r="38" spans="1:189">
+    <row r="38" spans="1:188">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -21949,49 +21838,46 @@
         <v>401.561301216823</v>
       </c>
       <c r="FT38">
+        <v>354.7999012763352</v>
+      </c>
+      <c r="FU38">
+        <v>1865.847176348344</v>
+      </c>
+      <c r="FV38">
+        <v>2564.777166122035</v>
+      </c>
+      <c r="FW38">
+        <v>1484.308627896925</v>
+      </c>
+      <c r="FX38">
+        <v>1869.921850173073</v>
+      </c>
+      <c r="FY38">
+        <v>224.2826594112225</v>
+      </c>
+      <c r="FZ38">
+        <v>1173.093270343165</v>
+      </c>
+      <c r="GA38">
         <v>746.6650947624413</v>
       </c>
-      <c r="FU38">
+      <c r="GB38">
+        <v>1421.813303208068</v>
+      </c>
+      <c r="GC38">
+        <v>648.4661020716937</v>
+      </c>
+      <c r="GD38">
         <v>2093.972058572037</v>
       </c>
-      <c r="FV38">
-        <v>1865.847176348344</v>
-      </c>
-      <c r="FW38">
-        <v>354.7999012763352</v>
-      </c>
-      <c r="FX38">
+      <c r="GE38">
         <v>1657.099095143359</v>
       </c>
-      <c r="FY38">
-        <v>1869.921850173073</v>
-      </c>
-      <c r="FZ38">
-        <v>224.2826594112225</v>
-      </c>
-      <c r="GA38">
-        <v>2564.777166122035</v>
-      </c>
-      <c r="GB38">
-        <v>1368.776753350516</v>
-      </c>
-      <c r="GC38">
-        <v>1484.308627896925</v>
-      </c>
-      <c r="GD38">
-        <v>648.4661020716937</v>
-      </c>
-      <c r="GE38">
-        <v>1556.305693656192</v>
-      </c>
       <c r="GF38">
-        <v>1173.093270343165</v>
-      </c>
-      <c r="GG38">
-        <v>170.3590125363384</v>
+        <v>223.0016457640002</v>
       </c>
     </row>
-    <row r="39" spans="1:189">
+    <row r="39" spans="1:188">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -22518,49 +22404,46 @@
         <v>660.3463077932836</v>
       </c>
       <c r="FT39">
+        <v>640.6616920557194</v>
+      </c>
+      <c r="FU39">
+        <v>1717.462185776625</v>
+      </c>
+      <c r="FV39">
+        <v>2787.406676970597</v>
+      </c>
+      <c r="FW39">
+        <v>1603.056487871657</v>
+      </c>
+      <c r="FX39">
+        <v>1869.408868263184</v>
+      </c>
+      <c r="FY39">
+        <v>310.3534750620796</v>
+      </c>
+      <c r="FZ39">
+        <v>1461.62513993125</v>
+      </c>
+      <c r="GA39">
         <v>902.6998600863592</v>
       </c>
-      <c r="FU39">
+      <c r="GB39">
+        <v>1341.603027051589</v>
+      </c>
+      <c r="GC39">
+        <v>929.9090566503509</v>
+      </c>
+      <c r="GD39">
         <v>2285.571133856522</v>
       </c>
-      <c r="FV39">
-        <v>1717.462185776625</v>
-      </c>
-      <c r="FW39">
-        <v>640.6616920557194</v>
-      </c>
-      <c r="FX39">
+      <c r="GE39">
         <v>1937.377589476593</v>
       </c>
-      <c r="FY39">
-        <v>1869.408868263184</v>
-      </c>
-      <c r="FZ39">
-        <v>310.3534750620796</v>
-      </c>
-      <c r="GA39">
-        <v>2787.406676970597</v>
-      </c>
-      <c r="GB39">
-        <v>1261.524372511312</v>
-      </c>
-      <c r="GC39">
-        <v>1603.056487871657</v>
-      </c>
-      <c r="GD39">
-        <v>929.9090566503509</v>
-      </c>
-      <c r="GE39">
-        <v>1497.012199202651</v>
-      </c>
       <c r="GF39">
-        <v>1461.62513993125</v>
-      </c>
-      <c r="GG39">
-        <v>123.5719557505343</v>
+        <v>68.67846497453625</v>
       </c>
     </row>
-    <row r="40" spans="1:189">
+    <row r="40" spans="1:188">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -23087,49 +22970,46 @@
         <v>625.0782022691268</v>
       </c>
       <c r="FT40">
+        <v>489.1738294279598</v>
+      </c>
+      <c r="FU40">
+        <v>1964.853058476094</v>
+      </c>
+      <c r="FV40">
+        <v>2791.734222303068</v>
+      </c>
+      <c r="FW40">
+        <v>1711.995455368464</v>
+      </c>
+      <c r="FX40">
+        <v>2059.272350347574</v>
+      </c>
+      <c r="FY40">
+        <v>66.41513577600516</v>
+      </c>
+      <c r="FZ40">
+        <v>1334.274780825663</v>
+      </c>
+      <c r="GA40">
         <v>977.989286611395</v>
       </c>
-      <c r="FU40">
+      <c r="GB40">
+        <v>1567.01273456174</v>
+      </c>
+      <c r="GC40">
+        <v>750.5665339015206</v>
+      </c>
+      <c r="GD40">
         <v>2327.13672205501</v>
       </c>
-      <c r="FV40">
-        <v>1964.853058476094</v>
-      </c>
-      <c r="FW40">
-        <v>489.1738294279598</v>
-      </c>
-      <c r="FX40">
+      <c r="GE40">
         <v>1841.177312687092</v>
       </c>
-      <c r="FY40">
-        <v>2059.272350347574</v>
-      </c>
-      <c r="FZ40">
-        <v>66.41513577600516</v>
-      </c>
-      <c r="GA40">
-        <v>2791.734222303068</v>
-      </c>
-      <c r="GB40">
-        <v>1496.398381936366</v>
-      </c>
-      <c r="GC40">
-        <v>1711.995455368464</v>
-      </c>
-      <c r="GD40">
-        <v>750.5665339015206</v>
-      </c>
-      <c r="GE40">
-        <v>1714.469637073092</v>
-      </c>
       <c r="GF40">
-        <v>1334.274780825663</v>
-      </c>
-      <c r="GG40">
-        <v>222.8352304153107</v>
+        <v>228.9934651589758</v>
       </c>
     </row>
-    <row r="41" spans="1:189">
+    <row r="41" spans="1:188">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -23656,49 +23536,46 @@
         <v>577.8294795234111</v>
       </c>
       <c r="FT41">
+        <v>505.1960574210812</v>
+      </c>
+      <c r="FU41">
+        <v>1848.428038898033</v>
+      </c>
+      <c r="FV41">
+        <v>2736.386568762136</v>
+      </c>
+      <c r="FW41">
+        <v>1615.879119232104</v>
+      </c>
+      <c r="FX41">
+        <v>1942.924215355498</v>
+      </c>
+      <c r="FY41">
+        <v>164.8373329215132</v>
+      </c>
+      <c r="FZ41">
+        <v>1341.130591383734</v>
+      </c>
+      <c r="GA41">
         <v>890.0483309987566</v>
       </c>
-      <c r="FU41">
+      <c r="GB41">
+        <v>1446.883735012267</v>
+      </c>
+      <c r="GC41">
+        <v>787.849758262534</v>
+      </c>
+      <c r="GD41">
         <v>2256.011973688054</v>
       </c>
-      <c r="FV41">
-        <v>1848.428038898033</v>
-      </c>
-      <c r="FW41">
-        <v>505.1960574210812</v>
-      </c>
-      <c r="FX41">
+      <c r="GE41">
         <v>1832.12521716133</v>
       </c>
-      <c r="FY41">
-        <v>1942.924215355498</v>
-      </c>
-      <c r="FZ41">
-        <v>164.8373329215132</v>
-      </c>
-      <c r="GA41">
-        <v>2736.386568762136</v>
-      </c>
-      <c r="GB41">
-        <v>1376.785058571447</v>
-      </c>
-      <c r="GC41">
-        <v>1615.879119232104</v>
-      </c>
-      <c r="GD41">
-        <v>787.849758262534</v>
-      </c>
-      <c r="GE41">
-        <v>1594.579431044276</v>
-      </c>
       <c r="GF41">
-        <v>1341.130591383734</v>
-      </c>
-      <c r="GG41">
-        <v>103.4348811662454</v>
+        <v>112.3288559341177</v>
       </c>
     </row>
-    <row r="42" spans="1:189">
+    <row r="42" spans="1:188">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -24225,49 +24102,46 @@
         <v>579.7609763158861</v>
       </c>
       <c r="FT42">
+        <v>544.1088040406474</v>
+      </c>
+      <c r="FU42">
+        <v>1778.168611469406</v>
+      </c>
+      <c r="FV42">
+        <v>2724.522184902092</v>
+      </c>
+      <c r="FW42">
+        <v>1575.595967659209</v>
+      </c>
+      <c r="FX42">
+        <v>1882.857872641294</v>
+      </c>
+      <c r="FY42">
+        <v>234.9779488106452</v>
+      </c>
+      <c r="FZ42">
+        <v>1368.690125379696</v>
+      </c>
+      <c r="GA42">
         <v>858.6197069088229</v>
       </c>
-      <c r="FU42">
+      <c r="GB42">
+        <v>1379.34987739488</v>
+      </c>
+      <c r="GC42">
+        <v>833.1088191782339</v>
+      </c>
+      <c r="GD42">
         <v>2233.880170327612</v>
       </c>
-      <c r="FV42">
-        <v>1778.168611469406</v>
-      </c>
-      <c r="FW42">
-        <v>544.1088040406474</v>
-      </c>
-      <c r="FX42">
+      <c r="GE42">
         <v>1849.707381781982</v>
       </c>
-      <c r="FY42">
-        <v>1882.857872641294</v>
-      </c>
-      <c r="FZ42">
-        <v>234.9779488106452</v>
-      </c>
-      <c r="GA42">
-        <v>2724.522184902092</v>
-      </c>
-      <c r="GB42">
-        <v>1307.711944994037</v>
-      </c>
-      <c r="GC42">
-        <v>1575.595967659209</v>
-      </c>
-      <c r="GD42">
-        <v>833.1088191782339</v>
-      </c>
-      <c r="GE42">
-        <v>1528.571909901297</v>
-      </c>
       <c r="GF42">
-        <v>1368.690125379696</v>
-      </c>
-      <c r="GG42">
-        <v>49.79181675242354</v>
+        <v>42.49665954282744</v>
       </c>
     </row>
-    <row r="43" spans="1:189">
+    <row r="43" spans="1:188">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -24794,49 +24668,46 @@
         <v>592.5526851156742</v>
       </c>
       <c r="FT43">
+        <v>576.0318945452501</v>
+      </c>
+      <c r="FU43">
+        <v>1736.57327351836</v>
+      </c>
+      <c r="FV43">
+        <v>2725.952761402729</v>
+      </c>
+      <c r="FW43">
+        <v>1559.164906045376</v>
+      </c>
+      <c r="FX43">
+        <v>1851.644086354249</v>
+      </c>
+      <c r="FY43">
+        <v>277.1653991609436</v>
+      </c>
+      <c r="FZ43">
+        <v>1393.455016447605</v>
+      </c>
+      <c r="GA43">
         <v>849.331368981776</v>
       </c>
-      <c r="FU43">
+      <c r="GB43">
+        <v>1341.59871060092</v>
+      </c>
+      <c r="GC43">
+        <v>867.184836433303</v>
+      </c>
+      <c r="GD43">
         <v>2229.079032317666</v>
       </c>
-      <c r="FV43">
-        <v>1736.57327351836</v>
-      </c>
-      <c r="FW43">
-        <v>576.0318945452501</v>
-      </c>
-      <c r="FX43">
+      <c r="GE43">
         <v>1868.74034593594</v>
       </c>
-      <c r="FY43">
-        <v>1851.644086354249</v>
-      </c>
-      <c r="FZ43">
-        <v>277.1653991609436</v>
-      </c>
-      <c r="GA43">
-        <v>2725.952761402729</v>
-      </c>
-      <c r="GB43">
-        <v>1268.229875752277</v>
-      </c>
-      <c r="GC43">
-        <v>1559.164906045376</v>
-      </c>
-      <c r="GD43">
-        <v>867.184836433303</v>
-      </c>
-      <c r="GE43">
-        <v>1492.301977372202</v>
-      </c>
       <c r="GF43">
-        <v>1393.455016447605</v>
-      </c>
-      <c r="GG43">
-        <v>54.89720394667815</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:189">
+    <row r="44" spans="1:188">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -25363,49 +25234,46 @@
         <v>538.6904395112406</v>
       </c>
       <c r="FT44">
+        <v>524.7822504163031</v>
+      </c>
+      <c r="FU44">
+        <v>1754.442681727774</v>
+      </c>
+      <c r="FV44">
+        <v>2677.482710022975</v>
+      </c>
+      <c r="FW44">
+        <v>1526.083523222766</v>
+      </c>
+      <c r="FX44">
+        <v>1840.003959379539</v>
+      </c>
+      <c r="FY44">
+        <v>259.9665107247332</v>
+      </c>
+      <c r="FZ44">
+        <v>1338.897548960874</v>
+      </c>
+      <c r="GA44">
         <v>808.9249118163835</v>
       </c>
-      <c r="FU44">
+      <c r="GB44">
+        <v>1344.975323227697</v>
+      </c>
+      <c r="GC44">
+        <v>817.3587631501539</v>
+      </c>
+      <c r="GD44">
         <v>2184.933818183642</v>
       </c>
-      <c r="FV44">
-        <v>1754.442681727774</v>
-      </c>
-      <c r="FW44">
-        <v>524.7822504163031</v>
-      </c>
-      <c r="FX44">
+      <c r="GE44">
         <v>1813.916337113418</v>
       </c>
-      <c r="FY44">
-        <v>1840.003959379539</v>
-      </c>
-      <c r="FZ44">
-        <v>259.9665107247332</v>
-      </c>
-      <c r="GA44">
-        <v>2677.482710022975</v>
-      </c>
-      <c r="GB44">
-        <v>1277.068398901912</v>
-      </c>
-      <c r="GC44">
-        <v>1526.083523222766</v>
-      </c>
-      <c r="GD44">
-        <v>817.3587631501539</v>
-      </c>
-      <c r="GE44">
-        <v>1491.659691234148</v>
-      </c>
       <c r="GF44">
-        <v>1338.897548960874</v>
-      </c>
-      <c r="GG44">
-        <v>0</v>
+        <v>54.89720394667815</v>
       </c>
     </row>
-    <row r="45" spans="1:189">
+    <row r="45" spans="1:188">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -25932,49 +25800,46 @@
         <v>741.7761624019241</v>
       </c>
       <c r="FT45">
+        <v>562.7970042104752</v>
+      </c>
+      <c r="FU45">
+        <v>2648.668716114871</v>
+      </c>
+      <c r="FV45">
+        <v>2238.836476121754</v>
+      </c>
+      <c r="FW45">
+        <v>1719.337563231224</v>
+      </c>
+      <c r="FX45">
+        <v>2369.293856951108</v>
+      </c>
+      <c r="FY45">
+        <v>941.3528095601845</v>
+      </c>
+      <c r="FZ45">
+        <v>493.2620174868303</v>
+      </c>
+      <c r="GA45">
         <v>1116.887223865106</v>
       </c>
-      <c r="FU45">
+      <c r="GB45">
+        <v>2122.229810363167</v>
+      </c>
+      <c r="GC45">
+        <v>267.4801508070989</v>
+      </c>
+      <c r="GD45">
         <v>1960.280787775514</v>
       </c>
-      <c r="FV45">
-        <v>2648.668716114871</v>
-      </c>
-      <c r="FW45">
-        <v>562.7970042104752</v>
-      </c>
-      <c r="FX45">
+      <c r="GE45">
         <v>1024.33879427389</v>
       </c>
-      <c r="FY45">
-        <v>2369.293856951108</v>
-      </c>
-      <c r="FZ45">
-        <v>941.3528095601845</v>
-      </c>
-      <c r="GA45">
-        <v>2238.836476121754</v>
-      </c>
-      <c r="GB45">
-        <v>2116.636145581857</v>
-      </c>
-      <c r="GC45">
-        <v>1719.337563231224</v>
-      </c>
-      <c r="GD45">
-        <v>267.4801508070989</v>
-      </c>
-      <c r="GE45">
-        <v>2207.567559155363</v>
-      </c>
       <c r="GF45">
-        <v>493.2620174868303</v>
-      </c>
-      <c r="GG45">
-        <v>1084.245970187232</v>
+        <v>1133.557964900759</v>
       </c>
     </row>
-    <row r="46" spans="1:189">
+    <row r="46" spans="1:188">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -26501,49 +26366,46 @@
         <v>455.4653813541684</v>
       </c>
       <c r="FT46">
+        <v>301.226156485895</v>
+      </c>
+      <c r="FU46">
+        <v>2361.97543645961</v>
+      </c>
+      <c r="FV46">
+        <v>2205.606171059078</v>
+      </c>
+      <c r="FW46">
+        <v>1506.915868564414</v>
+      </c>
+      <c r="FX46">
+        <v>2115.599817737079</v>
+      </c>
+      <c r="FY46">
+        <v>721.9200721722793</v>
+      </c>
+      <c r="FZ46">
+        <v>564.5988662923388</v>
+      </c>
+      <c r="GA46">
         <v>854.59151967027</v>
       </c>
-      <c r="FU46">
+      <c r="GB46">
+        <v>1840.118824872799</v>
+      </c>
+      <c r="GC46">
+        <v>92.24119508760425</v>
+      </c>
+      <c r="GD46">
         <v>1855.779292698527</v>
       </c>
-      <c r="FV46">
-        <v>2361.97543645961</v>
-      </c>
-      <c r="FW46">
-        <v>301.226156485895</v>
-      </c>
-      <c r="FX46">
+      <c r="GE46">
         <v>1095.936964396971</v>
       </c>
-      <c r="FY46">
-        <v>2115.599817737079</v>
-      </c>
-      <c r="FZ46">
-        <v>721.9200721722793</v>
-      </c>
-      <c r="GA46">
-        <v>2205.606171059078</v>
-      </c>
-      <c r="GB46">
-        <v>1830.966521834425</v>
-      </c>
-      <c r="GC46">
-        <v>1506.915868564414</v>
-      </c>
-      <c r="GD46">
-        <v>92.24119508760425</v>
-      </c>
-      <c r="GE46">
-        <v>1930.864578422501</v>
-      </c>
       <c r="GF46">
-        <v>564.5988662923388</v>
-      </c>
-      <c r="GG46">
-        <v>824.2132756402364</v>
+        <v>876.2452760257975</v>
       </c>
     </row>
-    <row r="47" spans="1:189">
+    <row r="47" spans="1:188">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -27070,49 +26932,46 @@
         <v>622.2411035268569</v>
       </c>
       <c r="FT47">
+        <v>326.4645256237236</v>
+      </c>
+      <c r="FU47">
+        <v>2458.131052381989</v>
+      </c>
+      <c r="FV47">
+        <v>2519.155888968042</v>
+      </c>
+      <c r="FW47">
+        <v>1772.568045659715</v>
+      </c>
+      <c r="FX47">
+        <v>2324.499446773549</v>
+      </c>
+      <c r="FY47">
+        <v>578.7765844126178</v>
+      </c>
+      <c r="FZ47">
+        <v>836.4603302117282</v>
+      </c>
+      <c r="GA47">
         <v>1072.231558122217</v>
       </c>
-      <c r="FU47">
+      <c r="GB47">
+        <v>1974.374438864762</v>
+      </c>
+      <c r="GC47">
+        <v>226.195091072986</v>
+      </c>
+      <c r="GD47">
         <v>2167.443376431992</v>
       </c>
-      <c r="FV47">
-        <v>2458.131052381989</v>
-      </c>
-      <c r="FW47">
-        <v>326.4645256237236</v>
-      </c>
-      <c r="FX47">
+      <c r="GE47">
         <v>1377.057768929679</v>
       </c>
-      <c r="FY47">
-        <v>2324.499446773549</v>
-      </c>
-      <c r="FZ47">
-        <v>578.7765844126178</v>
-      </c>
-      <c r="GA47">
-        <v>2519.155888968042</v>
-      </c>
-      <c r="GB47">
-        <v>1942.705862896893</v>
-      </c>
-      <c r="GC47">
-        <v>1772.568045659715</v>
-      </c>
-      <c r="GD47">
-        <v>226.195091072986</v>
-      </c>
-      <c r="GE47">
-        <v>2086.55503047109</v>
-      </c>
       <c r="GF47">
-        <v>836.4603302117282</v>
-      </c>
-      <c r="GG47">
-        <v>769.4219340353922</v>
+        <v>811.2689363368894</v>
       </c>
     </row>
-    <row r="48" spans="1:189">
+    <row r="48" spans="1:188">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -27639,49 +27498,46 @@
         <v>507.8009905580573</v>
       </c>
       <c r="FT48">
+        <v>295.3976522992114</v>
+      </c>
+      <c r="FU48">
+        <v>2406.335303967287</v>
+      </c>
+      <c r="FV48">
+        <v>2292.978805295378</v>
+      </c>
+      <c r="FW48">
+        <v>1592.844294549488</v>
+      </c>
+      <c r="FX48">
+        <v>2189.064501471923</v>
+      </c>
+      <c r="FY48">
+        <v>687.589820448837</v>
+      </c>
+      <c r="FZ48">
+        <v>626.5915178077541</v>
+      </c>
+      <c r="GA48">
         <v>927.2556214530194</v>
       </c>
-      <c r="FU48">
+      <c r="GB48">
+        <v>1893.852326734406</v>
+      </c>
+      <c r="GC48">
+        <v>0</v>
+      </c>
+      <c r="GD48">
         <v>1947.71051178082</v>
       </c>
-      <c r="FV48">
-        <v>2406.335303967287</v>
-      </c>
-      <c r="FW48">
-        <v>295.3976522992114</v>
-      </c>
-      <c r="FX48">
+      <c r="GE48">
         <v>1164.231267850083</v>
       </c>
-      <c r="FY48">
-        <v>2189.064501471923</v>
-      </c>
-      <c r="FZ48">
-        <v>687.589820448837</v>
-      </c>
-      <c r="GA48">
-        <v>2292.978805295378</v>
-      </c>
-      <c r="GB48">
-        <v>1878.560735837452</v>
-      </c>
-      <c r="GC48">
-        <v>1592.844294549488</v>
-      </c>
-      <c r="GD48">
-        <v>0</v>
-      </c>
-      <c r="GE48">
-        <v>1990.498302305505</v>
-      </c>
       <c r="GF48">
-        <v>626.5915178077541</v>
-      </c>
-      <c r="GG48">
-        <v>817.3587631501539</v>
+        <v>867.184836433303</v>
       </c>
     </row>
-    <row r="49" spans="1:189">
+    <row r="49" spans="1:188">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -28208,49 +28064,46 @@
         <v>366.5033846826824</v>
       </c>
       <c r="FT49">
+        <v>220.0126786021348</v>
+      </c>
+      <c r="FU49">
+        <v>2271.150836845505</v>
+      </c>
+      <c r="FV49">
+        <v>2217.580546933605</v>
+      </c>
+      <c r="FW49">
+        <v>1455.106311487037</v>
+      </c>
+      <c r="FX49">
+        <v>2043.423364269398</v>
+      </c>
+      <c r="FY49">
+        <v>650.6764070209389</v>
+      </c>
+      <c r="FZ49">
+        <v>627.1145873979671</v>
+      </c>
+      <c r="GA49">
         <v>781.6633328847261</v>
       </c>
-      <c r="FU49">
+      <c r="GB49">
+        <v>1752.930284369352</v>
+      </c>
+      <c r="GC49">
+        <v>145.7882796965619</v>
+      </c>
+      <c r="GD49">
         <v>1844.775310027142</v>
       </c>
-      <c r="FV49">
-        <v>2271.150836845505</v>
-      </c>
-      <c r="FW49">
-        <v>220.0126786021348</v>
-      </c>
-      <c r="FX49">
+      <c r="GE49">
         <v>1147.029781521533</v>
       </c>
-      <c r="FY49">
-        <v>2043.423364269398</v>
-      </c>
-      <c r="FZ49">
-        <v>650.6764070209389</v>
-      </c>
-      <c r="GA49">
-        <v>2217.580546933605</v>
-      </c>
-      <c r="GB49">
-        <v>1741.153487597905</v>
-      </c>
-      <c r="GC49">
-        <v>1455.106311487037</v>
-      </c>
-      <c r="GD49">
-        <v>145.7882796965619</v>
-      </c>
-      <c r="GE49">
-        <v>1846.977048451541</v>
-      </c>
       <c r="GF49">
-        <v>627.1145873979671</v>
-      </c>
-      <c r="GG49">
-        <v>736.8013576909603</v>
+        <v>789.5571226920863</v>
       </c>
     </row>
-    <row r="50" spans="1:189">
+    <row r="50" spans="1:188">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -28777,49 +28630,46 @@
         <v>507.0739383664227</v>
       </c>
       <c r="FT50">
+        <v>203.1677295790646</v>
+      </c>
+      <c r="FU50">
+        <v>2264.887177015536</v>
+      </c>
+      <c r="FV50">
+        <v>2558.523020105009</v>
+      </c>
+      <c r="FW50">
+        <v>1688.682576980445</v>
+      </c>
+      <c r="FX50">
+        <v>2186.455970611118</v>
+      </c>
+      <c r="FY50">
+        <v>369.7623910080335</v>
+      </c>
+      <c r="FZ50">
+        <v>955.2360002939307</v>
+      </c>
+      <c r="GA50">
         <v>960.3339955103513</v>
       </c>
-      <c r="FU50">
+      <c r="GB50">
+        <v>1797.773746664019</v>
+      </c>
+      <c r="GC50">
+        <v>334.9623995294463</v>
+      </c>
+      <c r="GD50">
         <v>2162.598411548857</v>
       </c>
-      <c r="FV50">
-        <v>2264.887177015536</v>
-      </c>
-      <c r="FW50">
-        <v>203.1677295790646</v>
-      </c>
-      <c r="FX50">
+      <c r="GE50">
         <v>1486.861547401626</v>
       </c>
-      <c r="FY50">
-        <v>2186.455970611118</v>
-      </c>
-      <c r="FZ50">
-        <v>369.7623910080335</v>
-      </c>
-      <c r="GA50">
-        <v>2558.523020105009</v>
-      </c>
-      <c r="GB50">
-        <v>1757.206261106456</v>
-      </c>
-      <c r="GC50">
-        <v>1688.682576980445</v>
-      </c>
-      <c r="GD50">
-        <v>334.9623995294463</v>
-      </c>
-      <c r="GE50">
-        <v>1919.108233831766</v>
-      </c>
       <c r="GF50">
-        <v>955.2360002939307</v>
-      </c>
-      <c r="GG50">
-        <v>555.8164620551599</v>
+        <v>596.8482531650253</v>
       </c>
     </row>
-    <row r="51" spans="1:189">
+    <row r="51" spans="1:188">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -29346,49 +29196,46 @@
         <v>440.5289576377635</v>
       </c>
       <c r="FT51">
+        <v>235.9926750336956</v>
+      </c>
+      <c r="FU51">
+        <v>2338.333692743688</v>
+      </c>
+      <c r="FV51">
+        <v>2278.959077323523</v>
+      </c>
+      <c r="FW51">
+        <v>1539.993593385953</v>
+      </c>
+      <c r="FX51">
+        <v>2126.369210130919</v>
+      </c>
+      <c r="FY51">
+        <v>645.3713052189403</v>
+      </c>
+      <c r="FZ51">
+        <v>645.8822385250492</v>
+      </c>
+      <c r="GA51">
         <v>864.9100117272241</v>
       </c>
-      <c r="FU51">
+      <c r="GB51">
+        <v>1826.182650569356</v>
+      </c>
+      <c r="GC51">
+        <v>68.02076529614645</v>
+      </c>
+      <c r="GD51">
         <v>1918.361865253077</v>
       </c>
-      <c r="FV51">
-        <v>2338.333692743688</v>
-      </c>
-      <c r="FW51">
-        <v>235.9926750336956</v>
-      </c>
-      <c r="FX51">
+      <c r="GE51">
         <v>1177.525810938293</v>
       </c>
-      <c r="FY51">
-        <v>2126.369210130919</v>
-      </c>
-      <c r="FZ51">
-        <v>645.3713052189403</v>
-      </c>
-      <c r="GA51">
-        <v>2278.959077323523</v>
-      </c>
-      <c r="GB51">
-        <v>1810.556042026494</v>
-      </c>
-      <c r="GC51">
-        <v>1539.993593385953</v>
-      </c>
-      <c r="GD51">
-        <v>68.02076529614645</v>
-      </c>
-      <c r="GE51">
-        <v>1923.600294227255</v>
-      </c>
       <c r="GF51">
-        <v>645.8822385250492</v>
-      </c>
-      <c r="GG51">
-        <v>760.5930825326394</v>
+        <v>811.4472501685578</v>
       </c>
     </row>
-    <row r="52" spans="1:189">
+    <row r="52" spans="1:188">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -29915,49 +29762,46 @@
         <v>519.9308673513192</v>
       </c>
       <c r="FT52">
+        <v>330.5179178289891</v>
+      </c>
+      <c r="FU52">
+        <v>2424.027813383663</v>
+      </c>
+      <c r="FV52">
+        <v>2254.32488075841</v>
+      </c>
+      <c r="FW52">
+        <v>1579.367853106086</v>
+      </c>
+      <c r="FX52">
+        <v>2188.003725412793</v>
+      </c>
+      <c r="FY52">
+        <v>731.3580729839653</v>
+      </c>
+      <c r="FZ52">
+        <v>580.557837723432</v>
+      </c>
+      <c r="GA52">
         <v>926.6696853912049</v>
       </c>
-      <c r="FU52">
+      <c r="GB52">
+        <v>1906.267085249128</v>
+      </c>
+      <c r="GC52">
+        <v>46.41187113353489</v>
+      </c>
+      <c r="GD52">
         <v>1916.373273195157</v>
       </c>
-      <c r="FV52">
-        <v>2424.027813383663</v>
-      </c>
-      <c r="FW52">
-        <v>330.5179178289891</v>
-      </c>
-      <c r="FX52">
+      <c r="GE52">
         <v>1118.695029320384</v>
       </c>
-      <c r="FY52">
-        <v>2188.003725412793</v>
-      </c>
-      <c r="FZ52">
-        <v>731.3580729839653</v>
-      </c>
-      <c r="GA52">
-        <v>2254.32488075841</v>
-      </c>
-      <c r="GB52">
-        <v>1894.433843529429</v>
-      </c>
-      <c r="GC52">
-        <v>1579.367853106086</v>
-      </c>
-      <c r="GD52">
-        <v>46.41187113353489</v>
-      </c>
-      <c r="GE52">
-        <v>1999.328086965613</v>
-      </c>
       <c r="GF52">
-        <v>580.557837723432</v>
-      </c>
-      <c r="GG52">
-        <v>854.7191709424565</v>
+        <v>905.2449402751772</v>
       </c>
     </row>
-    <row r="53" spans="1:189">
+    <row r="53" spans="1:188">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -30484,49 +30328,46 @@
         <v>403.3966689560276</v>
       </c>
       <c r="FT53">
+        <v>228.7657657151987</v>
+      </c>
+      <c r="FU53">
+        <v>2305.82214210157</v>
+      </c>
+      <c r="FV53">
+        <v>2242.715469121756</v>
+      </c>
+      <c r="FW53">
+        <v>1494.72308145771</v>
+      </c>
+      <c r="FX53">
+        <v>2083.629380884304</v>
+      </c>
+      <c r="FY53">
+        <v>651.9466940040791</v>
+      </c>
+      <c r="FZ53">
+        <v>629.5586374117785</v>
+      </c>
+      <c r="GA53">
         <v>821.9127281234219</v>
       </c>
-      <c r="FU53">
+      <c r="GB53">
+        <v>1789.937396762529</v>
+      </c>
+      <c r="GC53">
+        <v>105.9898320501571</v>
+      </c>
+      <c r="GD53">
         <v>1876.717489671799</v>
       </c>
-      <c r="FV53">
-        <v>2305.82214210157</v>
-      </c>
-      <c r="FW53">
-        <v>228.7657657151987</v>
-      </c>
-      <c r="FX53">
+      <c r="GE53">
         <v>1155.888266734348</v>
       </c>
-      <c r="FY53">
-        <v>2083.629380884304</v>
-      </c>
-      <c r="FZ53">
-        <v>651.9466940040791</v>
-      </c>
-      <c r="GA53">
-        <v>2242.715469121756</v>
-      </c>
-      <c r="GB53">
-        <v>1776.667907392082</v>
-      </c>
-      <c r="GC53">
-        <v>1494.72308145771</v>
-      </c>
-      <c r="GD53">
-        <v>105.9898320501571</v>
-      </c>
-      <c r="GE53">
-        <v>1885.229780341391</v>
-      </c>
       <c r="GF53">
-        <v>629.5586374117785</v>
-      </c>
-      <c r="GG53">
-        <v>751.8609641086211</v>
+        <v>803.8112831074268</v>
       </c>
     </row>
-    <row r="54" spans="1:189">
+    <row r="54" spans="1:188">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -31053,49 +30894,46 @@
         <v>540.5939823983861</v>
       </c>
       <c r="FT54">
+        <v>303.5739546757216</v>
+      </c>
+      <c r="FU54">
+        <v>2431.228443106197</v>
+      </c>
+      <c r="FV54">
+        <v>2341.415349436308</v>
+      </c>
+      <c r="FW54">
+        <v>1640.129824602487</v>
+      </c>
+      <c r="FX54">
+        <v>2229.618014109515</v>
+      </c>
+      <c r="FY54">
+        <v>672.6374765387297</v>
+      </c>
+      <c r="FZ54">
+        <v>664.1817872163393</v>
+      </c>
+      <c r="GA54">
         <v>968.2090243034412</v>
       </c>
-      <c r="FU54">
+      <c r="GB54">
+        <v>1924.052138685201</v>
+      </c>
+      <c r="GC54">
+        <v>50.72838674286199</v>
+      </c>
+      <c r="GD54">
         <v>1998.333805919081</v>
       </c>
-      <c r="FV54">
-        <v>2431.228443106197</v>
-      </c>
-      <c r="FW54">
-        <v>303.5739546757216</v>
-      </c>
-      <c r="FX54">
+      <c r="GE54">
         <v>1203.622894190623</v>
       </c>
-      <c r="FY54">
-        <v>2229.618014109515</v>
-      </c>
-      <c r="FZ54">
-        <v>672.6374765387297</v>
-      </c>
-      <c r="GA54">
-        <v>2341.415349436308</v>
-      </c>
-      <c r="GB54">
-        <v>1905.501971731118</v>
-      </c>
-      <c r="GC54">
-        <v>1640.129824602487</v>
-      </c>
-      <c r="GD54">
-        <v>50.72838674286199</v>
-      </c>
-      <c r="GE54">
-        <v>2023.777614163008</v>
-      </c>
       <c r="GF54">
-        <v>664.1817872163393</v>
-      </c>
-      <c r="GG54">
-        <v>817.2578983014064</v>
+        <v>865.6050501020849</v>
       </c>
     </row>
-    <row r="55" spans="1:189">
+    <row r="55" spans="1:188">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -31622,49 +31460,46 @@
         <v>520.8380927333058</v>
       </c>
       <c r="FT55">
+        <v>440.7715081940946</v>
+      </c>
+      <c r="FU55">
+        <v>2415.79200558208</v>
+      </c>
+      <c r="FV55">
+        <v>2069.560239301473</v>
+      </c>
+      <c r="FW55">
+        <v>1457.020973451717</v>
+      </c>
+      <c r="FX55">
+        <v>2106.044612398462</v>
+      </c>
+      <c r="FY55">
+        <v>869.962280914538</v>
+      </c>
+      <c r="FZ55">
+        <v>410.8224260220781</v>
+      </c>
+      <c r="GA55">
         <v>858.5658500087894</v>
       </c>
-      <c r="FU55">
+      <c r="GB55">
+        <v>1878.166536238873</v>
+      </c>
+      <c r="GC55">
+        <v>228.1105643415489</v>
+      </c>
+      <c r="GD55">
         <v>1743.246987433977</v>
       </c>
-      <c r="FV55">
-        <v>2415.79200558208</v>
-      </c>
-      <c r="FW55">
-        <v>440.7715081940946</v>
-      </c>
-      <c r="FX55">
+      <c r="GE55">
         <v>941.6138316362913</v>
       </c>
-      <c r="FY55">
-        <v>2106.044612398462</v>
-      </c>
-      <c r="FZ55">
-        <v>869.962280914538</v>
-      </c>
-      <c r="GA55">
-        <v>2069.560239301473</v>
-      </c>
-      <c r="GB55">
-        <v>1880.872421527929</v>
-      </c>
-      <c r="GC55">
-        <v>1457.020973451717</v>
-      </c>
-      <c r="GD55">
-        <v>228.1105643415489</v>
-      </c>
-      <c r="GE55">
-        <v>1956.149291968002</v>
-      </c>
       <c r="GF55">
-        <v>410.8224260220781</v>
-      </c>
-      <c r="GG55">
-        <v>953.3706239468535</v>
+        <v>1006.787935622078</v>
       </c>
     </row>
-    <row r="56" spans="1:189">
+    <row r="56" spans="1:188">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -32191,49 +32026,46 @@
         <v>1712.958890746949</v>
       </c>
       <c r="FT56">
+        <v>1966.356178939537</v>
+      </c>
+      <c r="FU56">
+        <v>2367.239097417825</v>
+      </c>
+      <c r="FV56">
+        <v>612.2011787023229</v>
+      </c>
+      <c r="FW56">
+        <v>849.0218689274357</v>
+      </c>
+      <c r="FX56">
+        <v>1468.200226639043</v>
+      </c>
+      <c r="FY56">
+        <v>2304.137529427024</v>
+      </c>
+      <c r="FZ56">
+        <v>1521.801904484974</v>
+      </c>
+      <c r="GA56">
         <v>1385.569038720099</v>
       </c>
-      <c r="FU56">
+      <c r="GB56">
+        <v>1857.592856382699</v>
+      </c>
+      <c r="GC56">
+        <v>1947.71051178082</v>
+      </c>
+      <c r="GD56">
         <v>0</v>
       </c>
-      <c r="FV56">
-        <v>2367.239097417825</v>
-      </c>
-      <c r="FW56">
-        <v>1966.356178939537</v>
-      </c>
-      <c r="FX56">
+      <c r="GE56">
         <v>1218.467442353749</v>
       </c>
-      <c r="FY56">
-        <v>1468.200226639043</v>
-      </c>
-      <c r="FZ56">
-        <v>2304.137529427024</v>
-      </c>
-      <c r="GA56">
-        <v>612.2011787023229</v>
-      </c>
-      <c r="GB56">
-        <v>1980.441267399269</v>
-      </c>
-      <c r="GC56">
-        <v>849.0218689274357</v>
-      </c>
-      <c r="GD56">
-        <v>1947.71051178082</v>
-      </c>
-      <c r="GE56">
-        <v>1766.468128509116</v>
-      </c>
       <c r="GF56">
-        <v>1521.801904484974</v>
-      </c>
-      <c r="GG56">
-        <v>2184.933818183642</v>
+        <v>2229.079032317666</v>
       </c>
     </row>
-    <row r="57" spans="1:189">
+    <row r="57" spans="1:188">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -32760,49 +32592,46 @@
         <v>1579.529605844037</v>
       </c>
       <c r="FT57">
+        <v>1838.705873627947</v>
+      </c>
+      <c r="FU57">
+        <v>2247.01036799259</v>
+      </c>
+      <c r="FV57">
+        <v>741.9941724982177</v>
+      </c>
+      <c r="FW57">
+        <v>714.3329203907607</v>
+      </c>
+      <c r="FX57">
+        <v>1367.643024033791</v>
+      </c>
+      <c r="FY57">
+        <v>2168.871014282338</v>
+      </c>
+      <c r="FZ57">
+        <v>1434.170334138102</v>
+      </c>
+      <c r="GA57">
         <v>1244.002265374939</v>
       </c>
-      <c r="FU57">
+      <c r="GB57">
+        <v>1728.367135958493</v>
+      </c>
+      <c r="GC57">
+        <v>1831.784379386889</v>
+      </c>
+      <c r="GD57">
         <v>143.4959789630574</v>
       </c>
-      <c r="FV57">
-        <v>2247.01036799259</v>
-      </c>
-      <c r="FW57">
-        <v>1838.705873627947</v>
-      </c>
-      <c r="FX57">
+      <c r="GE57">
         <v>1174.974862743859</v>
       </c>
-      <c r="FY57">
-        <v>1367.643024033791</v>
-      </c>
-      <c r="FZ57">
-        <v>2168.871014282338</v>
-      </c>
-      <c r="GA57">
-        <v>741.9941724982177</v>
-      </c>
-      <c r="GB57">
-        <v>1848.463159752431</v>
-      </c>
-      <c r="GC57">
-        <v>714.3329203907607</v>
-      </c>
-      <c r="GD57">
-        <v>1831.784379386889</v>
-      </c>
-      <c r="GE57">
-        <v>1643.426128267196</v>
-      </c>
       <c r="GF57">
-        <v>1434.170334138102</v>
-      </c>
-      <c r="GG57">
-        <v>2045.365509620538</v>
+        <v>2089.012728423209</v>
       </c>
     </row>
-    <row r="58" spans="1:189">
+    <row r="58" spans="1:188">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -33329,49 +33158,46 @@
         <v>1879.462760743626</v>
       </c>
       <c r="FT58">
+        <v>2141.070515819373</v>
+      </c>
+      <c r="FU58">
+        <v>2390.689742061864</v>
+      </c>
+      <c r="FV58">
+        <v>613.3949530573411</v>
+      </c>
+      <c r="FW58">
+        <v>928.4607188114537</v>
+      </c>
+      <c r="FX58">
+        <v>1458.210387784508</v>
+      </c>
+      <c r="FY58">
+        <v>2466.81567997644</v>
+      </c>
+      <c r="FZ58">
+        <v>1715.690378637673</v>
+      </c>
+      <c r="GA58">
         <v>1530.408810780716</v>
       </c>
-      <c r="FU58">
+      <c r="GB58">
+        <v>1907.259638794943</v>
+      </c>
+      <c r="GC58">
+        <v>2132.78745792187</v>
+      </c>
+      <c r="GD58">
         <v>194.1363056056288</v>
       </c>
-      <c r="FV58">
-        <v>2390.689742061864</v>
-      </c>
-      <c r="FW58">
-        <v>2141.070515819373</v>
-      </c>
-      <c r="FX58">
+      <c r="GE58">
         <v>1406.225268311255</v>
       </c>
-      <c r="FY58">
-        <v>1458.210387784508</v>
-      </c>
-      <c r="FZ58">
-        <v>2466.81567997644</v>
-      </c>
-      <c r="GA58">
-        <v>613.3949530573411</v>
-      </c>
-      <c r="GB58">
-        <v>2037.583738710657</v>
-      </c>
-      <c r="GC58">
-        <v>928.4607188114537</v>
-      </c>
-      <c r="GD58">
-        <v>2132.78745792187</v>
-      </c>
-      <c r="GE58">
-        <v>1800.428307323139</v>
-      </c>
       <c r="GF58">
-        <v>1715.690378637673</v>
-      </c>
-      <c r="GG58">
-        <v>2336.429842641679</v>
+        <v>2378.759168916865</v>
       </c>
     </row>
-    <row r="59" spans="1:189">
+    <row r="59" spans="1:188">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -33898,49 +33724,46 @@
         <v>1458.321487475708</v>
       </c>
       <c r="FT59">
+        <v>1712.524250521775</v>
+      </c>
+      <c r="FU59">
+        <v>2226.831199363003</v>
+      </c>
+      <c r="FV59">
+        <v>800.6469760851916</v>
+      </c>
+      <c r="FW59">
+        <v>674.9747676672591</v>
+      </c>
+      <c r="FX59">
+        <v>1381.231187581728</v>
+      </c>
+      <c r="FY59">
+        <v>2049.813197151171</v>
+      </c>
+      <c r="FZ59">
+        <v>1303.355668270563</v>
+      </c>
+      <c r="GA59">
         <v>1138.723307843685</v>
       </c>
-      <c r="FU59">
+      <c r="GB59">
+        <v>1692.732673551185</v>
+      </c>
+      <c r="GC59">
+        <v>1700.555790702361</v>
+      </c>
+      <c r="GD59">
         <v>254.694544939913</v>
       </c>
-      <c r="FV59">
-        <v>2226.831199363003</v>
-      </c>
-      <c r="FW59">
-        <v>1712.524250521775</v>
-      </c>
-      <c r="FX59">
+      <c r="GE59">
         <v>1062.372994576193</v>
       </c>
-      <c r="FY59">
-        <v>1381.231187581728</v>
-      </c>
-      <c r="FZ59">
-        <v>2049.813197151171</v>
-      </c>
-      <c r="GA59">
-        <v>800.6469760851916</v>
-      </c>
-      <c r="GB59">
-        <v>1806.228205960925</v>
-      </c>
-      <c r="GC59">
-        <v>674.9747676672591</v>
-      </c>
-      <c r="GD59">
-        <v>1700.555790702361</v>
-      </c>
-      <c r="GE59">
-        <v>1620.438158095671</v>
-      </c>
       <c r="GF59">
-        <v>1303.355668270563</v>
-      </c>
-      <c r="GG59">
-        <v>1933.642377930124</v>
+        <v>1978.460213983548</v>
       </c>
     </row>
-    <row r="60" spans="1:189">
+    <row r="60" spans="1:188">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -34467,49 +34290,46 @@
         <v>1519.305594937145</v>
       </c>
       <c r="FT60">
+        <v>1793.627309153909</v>
+      </c>
+      <c r="FU60">
+        <v>2078.003067948911</v>
+      </c>
+      <c r="FV60">
+        <v>904.2643322405752</v>
+      </c>
+      <c r="FW60">
+        <v>558.6607201629156</v>
+      </c>
+      <c r="FX60">
+        <v>1196.240769113751</v>
+      </c>
+      <c r="FY60">
+        <v>2099.596057966915</v>
+      </c>
+      <c r="FZ60">
+        <v>1469.710034203682</v>
+      </c>
+      <c r="GA60">
         <v>1151.272157527125</v>
       </c>
-      <c r="FU60">
+      <c r="GB60">
+        <v>1565.099913258613</v>
+      </c>
+      <c r="GC60">
+        <v>1814.117379681718</v>
+      </c>
+      <c r="GD60">
         <v>292.5196854541394</v>
       </c>
-      <c r="FV60">
-        <v>2078.003067948911</v>
-      </c>
-      <c r="FW60">
-        <v>1793.627309153909</v>
-      </c>
-      <c r="FX60">
+      <c r="GE60">
         <v>1268.813089008749</v>
       </c>
-      <c r="FY60">
-        <v>1196.240769113751</v>
-      </c>
-      <c r="FZ60">
-        <v>2099.596057966915</v>
-      </c>
-      <c r="GA60">
-        <v>904.2643322405752</v>
-      </c>
-      <c r="GB60">
-        <v>1688.08991884421</v>
-      </c>
-      <c r="GC60">
-        <v>558.6607201629156</v>
-      </c>
-      <c r="GD60">
-        <v>1814.117379681718</v>
-      </c>
-      <c r="GE60">
-        <v>1475.662518801673</v>
-      </c>
       <c r="GF60">
-        <v>1469.710034203682</v>
-      </c>
-      <c r="GG60">
-        <v>1959.483814068845</v>
+        <v>2000.57928602719</v>
       </c>
     </row>
-    <row r="61" spans="1:189">
+    <row r="61" spans="1:188">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -35036,49 +34856,46 @@
         <v>1801.583669203883</v>
       </c>
       <c r="FT61">
+        <v>2058.48544681988</v>
+      </c>
+      <c r="FU61">
+        <v>2388.147477045949</v>
+      </c>
+      <c r="FV61">
+        <v>593.8897389818142</v>
+      </c>
+      <c r="FW61">
+        <v>894.6578043382506</v>
+      </c>
+      <c r="FX61">
+        <v>1471.132315428259</v>
+      </c>
+      <c r="FY61">
+        <v>2391.295791045003</v>
+      </c>
+      <c r="FZ61">
+        <v>1619.692114480247</v>
+      </c>
+      <c r="GA61">
         <v>1464.272447824977</v>
       </c>
-      <c r="FU61">
+      <c r="GB61">
+        <v>1890.979430310116</v>
+      </c>
+      <c r="GC61">
+        <v>2043.771658392359</v>
+      </c>
+      <c r="GD61">
         <v>98.05901464887026</v>
       </c>
-      <c r="FV61">
-        <v>2388.147477045949</v>
-      </c>
-      <c r="FW61">
-        <v>2058.48544681988</v>
-      </c>
-      <c r="FX61">
+      <c r="GE61">
         <v>1309.666653667009</v>
       </c>
-      <c r="FY61">
-        <v>1471.132315428259</v>
-      </c>
-      <c r="FZ61">
-        <v>2391.295791045003</v>
-      </c>
-      <c r="GA61">
-        <v>593.8897389818142</v>
-      </c>
-      <c r="GB61">
-        <v>2017.65380181623</v>
-      </c>
-      <c r="GC61">
-        <v>894.6578043382506</v>
-      </c>
-      <c r="GD61">
-        <v>2043.771658392359</v>
-      </c>
-      <c r="GE61">
-        <v>1791.949705895003</v>
-      </c>
       <c r="GF61">
-        <v>1619.692114480247</v>
-      </c>
-      <c r="GG61">
-        <v>2267.141399197434</v>
+        <v>2310.488937132395</v>
       </c>
     </row>
-    <row r="62" spans="1:189">
+    <row r="62" spans="1:188">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -35605,49 +35422,46 @@
         <v>1724.192530942505</v>
       </c>
       <c r="FT62">
+        <v>1938.010722329472</v>
+      </c>
+      <c r="FU62">
+        <v>2648.644410534672</v>
+      </c>
+      <c r="FV62">
+        <v>442.5183713362562</v>
+      </c>
+      <c r="FW62">
+        <v>1096.169081390228</v>
+      </c>
+      <c r="FX62">
+        <v>1789.713125354962</v>
+      </c>
+      <c r="FY62">
+        <v>2316.897532167678</v>
+      </c>
+      <c r="FZ62">
+        <v>1354.898587323019</v>
+      </c>
+      <c r="GA62">
         <v>1476.87460710462</v>
       </c>
-      <c r="FU62">
+      <c r="GB62">
+        <v>2112.998715443366</v>
+      </c>
+      <c r="GC62">
+        <v>1865.406391911059</v>
+      </c>
+      <c r="GD62">
         <v>360.9731297400503</v>
       </c>
-      <c r="FV62">
-        <v>2648.644410534672</v>
-      </c>
-      <c r="FW62">
-        <v>1938.010722329472</v>
-      </c>
-      <c r="FX62">
+      <c r="GE62">
         <v>956.7917471854025</v>
       </c>
-      <c r="FY62">
-        <v>1789.713125354962</v>
-      </c>
-      <c r="FZ62">
-        <v>2316.897532167678</v>
-      </c>
-      <c r="GA62">
-        <v>442.5183713362562</v>
-      </c>
-      <c r="GB62">
-        <v>2224.13884244292</v>
-      </c>
-      <c r="GC62">
-        <v>1096.169081390228</v>
-      </c>
-      <c r="GD62">
-        <v>1865.406391911059</v>
-      </c>
-      <c r="GE62">
-        <v>2042.285145376576</v>
-      </c>
       <c r="GF62">
-        <v>1354.898587323019</v>
-      </c>
-      <c r="GG62">
-        <v>2235.844710275173</v>
+        <v>2284.625907600956</v>
       </c>
     </row>
-    <row r="63" spans="1:189">
+    <row r="63" spans="1:188">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -36174,49 +35988,46 @@
         <v>1182.604231994676</v>
       </c>
       <c r="FT63">
+        <v>1487.212085563108</v>
+      </c>
+      <c r="FU63">
+        <v>1555.370820870623</v>
+      </c>
+      <c r="FV63">
+        <v>1456.300827132447</v>
+      </c>
+      <c r="FW63">
+        <v>0</v>
+      </c>
+      <c r="FX63">
+        <v>785.968908805777</v>
+      </c>
+      <c r="FY63">
+        <v>1708.449175647813</v>
+      </c>
+      <c r="FZ63">
+        <v>1447.372454793094</v>
+      </c>
+      <c r="GA63">
         <v>742.1300272160526</v>
       </c>
-      <c r="FU63">
+      <c r="GB63">
+        <v>1018.131974997718</v>
+      </c>
+      <c r="GC63">
+        <v>1592.844294549488</v>
+      </c>
+      <c r="GD63">
         <v>849.0218689274357</v>
       </c>
-      <c r="FV63">
-        <v>1555.370820870623</v>
-      </c>
-      <c r="FW63">
-        <v>1487.212085563108</v>
-      </c>
-      <c r="FX63">
+      <c r="GE63">
         <v>1454.961215984152</v>
       </c>
-      <c r="FY63">
-        <v>785.968908805777</v>
-      </c>
-      <c r="FZ63">
-        <v>1708.449175647813</v>
-      </c>
-      <c r="GA63">
-        <v>1456.300827132447</v>
-      </c>
-      <c r="GB63">
-        <v>1134.765445180305</v>
-      </c>
-      <c r="GC63">
-        <v>0</v>
-      </c>
-      <c r="GD63">
-        <v>1592.844294549488</v>
-      </c>
-      <c r="GE63">
-        <v>948.6759183891151</v>
-      </c>
       <c r="GF63">
-        <v>1447.372454793094</v>
-      </c>
-      <c r="GG63">
-        <v>1526.083523222766</v>
+        <v>1559.164906045376</v>
       </c>
     </row>
-    <row r="64" spans="1:189">
+    <row r="64" spans="1:188">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -36743,49 +36554,46 @@
         <v>1032.198007813574</v>
       </c>
       <c r="FT64">
+        <v>1319.608174212826</v>
+      </c>
+      <c r="FU64">
+        <v>1800.281730152573</v>
+      </c>
+      <c r="FV64">
+        <v>1312.770493539037</v>
+      </c>
+      <c r="FW64">
+        <v>302.8748624694482</v>
+      </c>
+      <c r="FX64">
+        <v>1086.680734677368</v>
+      </c>
+      <c r="FY64">
+        <v>1603.175640372244</v>
+      </c>
+      <c r="FZ64">
+        <v>1162.992986188108</v>
+      </c>
+      <c r="GA64">
         <v>649.6839626712886</v>
       </c>
-      <c r="FU64">
+      <c r="GB64">
+        <v>1239.214365246256</v>
+      </c>
+      <c r="GC64">
+        <v>1379.082979396924</v>
+      </c>
+      <c r="GD64">
         <v>746.9099455086618</v>
       </c>
-      <c r="FV64">
-        <v>1800.281730152573</v>
-      </c>
-      <c r="FW64">
-        <v>1319.608174212826</v>
-      </c>
-      <c r="FX64">
+      <c r="GE64">
         <v>1152.808813437833</v>
       </c>
-      <c r="FY64">
-        <v>1086.680734677368</v>
-      </c>
-      <c r="FZ64">
-        <v>1603.175640372244</v>
-      </c>
-      <c r="GA64">
-        <v>1312.770493539037</v>
-      </c>
-      <c r="GB64">
-        <v>1336.954844386958</v>
-      </c>
-      <c r="GC64">
-        <v>302.8748624694482</v>
-      </c>
-      <c r="GD64">
-        <v>1379.082979396924</v>
-      </c>
-      <c r="GE64">
-        <v>1199.584346023232</v>
-      </c>
       <c r="GF64">
-        <v>1162.992986188108</v>
-      </c>
-      <c r="GG64">
-        <v>1457.987891725407</v>
+        <v>1498.979896829636</v>
       </c>
     </row>
-    <row r="65" spans="1:189">
+    <row r="65" spans="1:188">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -37312,49 +37120,46 @@
         <v>1225.122161815765</v>
       </c>
       <c r="FT65">
+        <v>1534.091619523791</v>
+      </c>
+      <c r="FU65">
+        <v>1325.334161500135</v>
+      </c>
+      <c r="FV65">
+        <v>1670.037460352651</v>
+      </c>
+      <c r="FW65">
+        <v>232.6038714904711</v>
+      </c>
+      <c r="FX65">
+        <v>579.638425840815</v>
+      </c>
+      <c r="FY65">
+        <v>1699.303973312193</v>
+      </c>
+      <c r="FZ65">
+        <v>1608.767796622782</v>
+      </c>
+      <c r="GA65">
         <v>770.0085988518408</v>
       </c>
-      <c r="FU65">
+      <c r="GB65">
+        <v>799.0861652196731</v>
+      </c>
+      <c r="GC65">
+        <v>1677.71221367733</v>
+      </c>
+      <c r="GD65">
         <v>1058.528985589027</v>
       </c>
-      <c r="FV65">
-        <v>1325.334161500135</v>
-      </c>
-      <c r="FW65">
-        <v>1534.091619523791</v>
-      </c>
-      <c r="FX65">
+      <c r="GE65">
         <v>1664.225575478051</v>
       </c>
-      <c r="FY65">
-        <v>579.638425840815</v>
-      </c>
-      <c r="FZ65">
-        <v>1699.303973312193</v>
-      </c>
-      <c r="GA65">
-        <v>1670.037460352651</v>
-      </c>
-      <c r="GB65">
-        <v>923.6822375405293</v>
-      </c>
-      <c r="GC65">
-        <v>232.6038714904711</v>
-      </c>
-      <c r="GD65">
-        <v>1677.71221367733</v>
-      </c>
-      <c r="GE65">
-        <v>718.7378101358277</v>
-      </c>
       <c r="GF65">
-        <v>1608.767796622782</v>
-      </c>
-      <c r="GG65">
-        <v>1492.150641507411</v>
+        <v>1518.274598686564</v>
       </c>
     </row>
-    <row r="66" spans="1:189">
+    <row r="66" spans="1:188">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -37881,49 +37686,46 @@
         <v>1205.121608579108</v>
       </c>
       <c r="FT66">
+        <v>1510.637973388774</v>
+      </c>
+      <c r="FU66">
+        <v>1531.17349697149</v>
+      </c>
+      <c r="FV66">
+        <v>1472.984549208486</v>
+      </c>
+      <c r="FW66">
+        <v>33.84503696752498</v>
+      </c>
+      <c r="FX66">
+        <v>753.0000765960648</v>
+      </c>
+      <c r="FY66">
+        <v>1725.572323643961</v>
+      </c>
+      <c r="FZ66">
+        <v>1480.339600527344</v>
+      </c>
+      <c r="GA66">
         <v>761.6112661088823</v>
       </c>
-      <c r="FU66">
+      <c r="GB66">
+        <v>998.3161386727373</v>
+      </c>
+      <c r="GC66">
+        <v>1620.215667625813</v>
+      </c>
+      <c r="GD66">
         <v>863.8510562006435</v>
       </c>
-      <c r="FV66">
-        <v>1531.17349697149</v>
-      </c>
-      <c r="FW66">
-        <v>1510.637973388774</v>
-      </c>
-      <c r="FX66">
+      <c r="GE66">
         <v>1488.464409476226</v>
       </c>
-      <c r="FY66">
-        <v>753.0000765960648</v>
-      </c>
-      <c r="FZ66">
-        <v>1725.572323643961</v>
-      </c>
-      <c r="GA66">
-        <v>1472.984549208486</v>
-      </c>
-      <c r="GB66">
-        <v>1117.356824361293</v>
-      </c>
-      <c r="GC66">
-        <v>33.84503696752498</v>
-      </c>
-      <c r="GD66">
-        <v>1620.215667625813</v>
-      </c>
-      <c r="GE66">
-        <v>924.4661339346878</v>
-      </c>
       <c r="GF66">
-        <v>1480.339600527344</v>
-      </c>
-      <c r="GG66">
-        <v>1539.799026825227</v>
+        <v>1571.993315836649</v>
       </c>
     </row>
-    <row r="67" spans="1:189">
+    <row r="67" spans="1:188">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -38450,49 +38252,46 @@
         <v>1056.806093947772</v>
       </c>
       <c r="FT67">
+        <v>1353.932247849718</v>
+      </c>
+      <c r="FU67">
+        <v>1687.827754178614</v>
+      </c>
+      <c r="FV67">
+        <v>1387.394876575396</v>
+      </c>
+      <c r="FW67">
+        <v>189.2344112232919</v>
+      </c>
+      <c r="FX67">
+        <v>968.6136688862637</v>
+      </c>
+      <c r="FY67">
+        <v>1610.302609668838</v>
+      </c>
+      <c r="FZ67">
+        <v>1260.897726577338</v>
+      </c>
+      <c r="GA67">
         <v>642.6366431223045</v>
       </c>
-      <c r="FU67">
+      <c r="GB67">
+        <v>1131.178573497587</v>
+      </c>
+      <c r="GC67">
+        <v>1436.442388385263</v>
+      </c>
+      <c r="GD67">
         <v>801.3504864338805</v>
       </c>
-      <c r="FV67">
-        <v>1687.827754178614</v>
-      </c>
-      <c r="FW67">
-        <v>1353.932247849718</v>
-      </c>
-      <c r="FX67">
+      <c r="GE67">
         <v>1270.738839531788</v>
       </c>
-      <c r="FY67">
-        <v>968.6136688862637</v>
-      </c>
-      <c r="FZ67">
-        <v>1610.302609668838</v>
-      </c>
-      <c r="GA67">
-        <v>1387.394876575396</v>
-      </c>
-      <c r="GB67">
-        <v>1233.883961317546</v>
-      </c>
-      <c r="GC67">
-        <v>189.2344112232919</v>
-      </c>
-      <c r="GD67">
-        <v>1436.442388385263</v>
-      </c>
-      <c r="GE67">
-        <v>1085.089812960672</v>
-      </c>
       <c r="GF67">
-        <v>1260.897726577338</v>
-      </c>
-      <c r="GG67">
-        <v>1448.715819828684</v>
+        <v>1486.627537326069</v>
       </c>
     </row>
-    <row r="68" spans="1:189">
+    <row r="68" spans="1:188">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -39019,49 +38818,46 @@
         <v>1004.831728154517</v>
       </c>
       <c r="FT68">
+        <v>1310.627258356753</v>
+      </c>
+      <c r="FU68">
+        <v>1531.854605450893</v>
+      </c>
+      <c r="FV68">
+        <v>1548.706317579863</v>
+      </c>
+      <c r="FW68">
+        <v>179.8266870929529</v>
+      </c>
+      <c r="FX68">
+        <v>865.0336529388038</v>
+      </c>
+      <c r="FY68">
+        <v>1528.937183021177</v>
+      </c>
+      <c r="FZ68">
+        <v>1323.112769129727</v>
+      </c>
+      <c r="GA68">
         <v>562.3372593958078</v>
       </c>
-      <c r="FU68">
+      <c r="GB68">
+        <v>970.5874335205049</v>
+      </c>
+      <c r="GC68">
+        <v>1425.801597711021</v>
+      </c>
+      <c r="GD68">
         <v>956.3724738276285</v>
       </c>
-      <c r="FV68">
-        <v>1531.854605450893</v>
-      </c>
-      <c r="FW68">
-        <v>1310.627258356753</v>
-      </c>
-      <c r="FX68">
+      <c r="GE68">
         <v>1388.95638950359</v>
       </c>
-      <c r="FY68">
-        <v>865.0336529388038</v>
-      </c>
-      <c r="FZ68">
-        <v>1528.937183021177</v>
-      </c>
-      <c r="GA68">
-        <v>1548.706317579863</v>
-      </c>
-      <c r="GB68">
-        <v>1070.64142983219</v>
-      </c>
-      <c r="GC68">
-        <v>179.8266870929529</v>
-      </c>
-      <c r="GD68">
-        <v>1425.801597711021</v>
-      </c>
-      <c r="GE68">
-        <v>932.8136102767006</v>
-      </c>
       <c r="GF68">
-        <v>1323.112769129727</v>
-      </c>
-      <c r="GG68">
-        <v>1349.218847475684</v>
+        <v>1383.351087543669</v>
       </c>
     </row>
-    <row r="69" spans="1:189">
+    <row r="69" spans="1:188">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -39588,49 +39384,46 @@
         <v>1233.528694333948</v>
       </c>
       <c r="FT69">
+        <v>1533.728184429853</v>
+      </c>
+      <c r="FU69">
+        <v>1654.240744621133</v>
+      </c>
+      <c r="FV69">
+        <v>1349.905749892677</v>
+      </c>
+      <c r="FW69">
+        <v>107.0697737575445</v>
+      </c>
+      <c r="FX69">
+        <v>852.6759613393226</v>
+      </c>
+      <c r="FY69">
+        <v>1775.424577226897</v>
+      </c>
+      <c r="FZ69">
+        <v>1433.534981433488</v>
+      </c>
+      <c r="GA69">
         <v>805.6935487948261</v>
       </c>
-      <c r="FU69">
+      <c r="GB69">
+        <v>1122.380803958357</v>
+      </c>
+      <c r="GC69">
+        <v>1621.405530564566</v>
+      </c>
+      <c r="GD69">
         <v>742.0425671156638</v>
       </c>
-      <c r="FV69">
-        <v>1654.240744621133</v>
-      </c>
-      <c r="FW69">
-        <v>1533.728184429853</v>
-      </c>
-      <c r="FX69">
+      <c r="GE69">
         <v>1402.81190903839</v>
       </c>
-      <c r="FY69">
-        <v>852.6759613393226</v>
-      </c>
-      <c r="FZ69">
-        <v>1775.424577226897</v>
-      </c>
-      <c r="GA69">
-        <v>1349.905749892677</v>
-      </c>
-      <c r="GB69">
-        <v>1240.649043303421</v>
-      </c>
-      <c r="GC69">
-        <v>107.0697737575445</v>
-      </c>
-      <c r="GD69">
-        <v>1621.405530564566</v>
-      </c>
-      <c r="GE69">
-        <v>1047.650310425549</v>
-      </c>
       <c r="GF69">
-        <v>1433.534981433488</v>
-      </c>
-      <c r="GG69">
-        <v>1602.199154307693</v>
+        <v>1637.301690784213</v>
       </c>
     </row>
-    <row r="70" spans="1:189">
+    <row r="70" spans="1:188">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -40157,49 +39950,46 @@
         <v>981.9833781749766</v>
       </c>
       <c r="FT70">
+        <v>1278.476133202621</v>
+      </c>
+      <c r="FU70">
+        <v>1693.472690553678</v>
+      </c>
+      <c r="FV70">
+        <v>1422.208408237486</v>
+      </c>
+      <c r="FW70">
+        <v>249.4380072966607</v>
+      </c>
+      <c r="FX70">
+        <v>1011.405534579599</v>
+      </c>
+      <c r="FY70">
+        <v>1538.435889182408</v>
+      </c>
+      <c r="FZ70">
+        <v>1198.340917086457</v>
+      </c>
+      <c r="GA70">
         <v>572.8699181703921</v>
       </c>
-      <c r="FU70">
+      <c r="GB70">
+        <v>1129.568180991047</v>
+      </c>
+      <c r="GC70">
+        <v>1361.439387908185</v>
+      </c>
+      <c r="GD70">
         <v>847.6816562721161</v>
       </c>
-      <c r="FV70">
-        <v>1693.472690553678</v>
-      </c>
-      <c r="FW70">
-        <v>1278.476133202621</v>
-      </c>
-      <c r="FX70">
+      <c r="GE70">
         <v>1232.223986342361</v>
       </c>
-      <c r="FY70">
-        <v>1011.405534579599</v>
-      </c>
-      <c r="FZ70">
-        <v>1538.435889182408</v>
-      </c>
-      <c r="GA70">
-        <v>1422.208408237486</v>
-      </c>
-      <c r="GB70">
-        <v>1225.175414733926</v>
-      </c>
-      <c r="GC70">
-        <v>249.4380072966607</v>
-      </c>
-      <c r="GD70">
-        <v>1361.439387908185</v>
-      </c>
-      <c r="GE70">
-        <v>1095.51062419614</v>
-      </c>
       <c r="GF70">
-        <v>1198.340917086457</v>
-      </c>
-      <c r="GG70">
-        <v>1380.780827032846</v>
+        <v>1419.63079478014</v>
       </c>
     </row>
-    <row r="71" spans="1:189">
+    <row r="71" spans="1:188">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -40726,49 +40516,46 @@
         <v>1329.704811022829</v>
       </c>
       <c r="FT71">
+        <v>1606.190689103894</v>
+      </c>
+      <c r="FU71">
+        <v>701.6493097757242</v>
+      </c>
+      <c r="FV71">
+        <v>2323.199939147177</v>
+      </c>
+      <c r="FW71">
+        <v>873.579957474921</v>
+      </c>
+      <c r="FX71">
+        <v>564.0475214545233</v>
+      </c>
+      <c r="FY71">
+        <v>1598.563169443345</v>
+      </c>
+      <c r="FZ71">
+        <v>1978.496700469187</v>
+      </c>
+      <c r="GA71">
         <v>955.6531922966975</v>
       </c>
-      <c r="FU71">
+      <c r="GB71">
+        <v>146.1486715652675</v>
+      </c>
+      <c r="GC71">
+        <v>1837.105501767512</v>
+      </c>
+      <c r="GD71">
         <v>1711.601523545493</v>
       </c>
-      <c r="FV71">
-        <v>701.6493097757242</v>
-      </c>
-      <c r="FW71">
-        <v>1606.190689103894</v>
-      </c>
-      <c r="FX71">
+      <c r="GE71">
         <v>2171.121949023391</v>
       </c>
-      <c r="FY71">
-        <v>564.0475214545233</v>
-      </c>
-      <c r="FZ71">
-        <v>1598.563169443345</v>
-      </c>
-      <c r="GA71">
-        <v>2323.199939147177</v>
-      </c>
-      <c r="GB71">
-        <v>282.7243549562519</v>
-      </c>
-      <c r="GC71">
-        <v>873.579957474921</v>
-      </c>
-      <c r="GD71">
-        <v>1837.105501767512</v>
-      </c>
-      <c r="GE71">
-        <v>153.9425274258294</v>
-      </c>
       <c r="GF71">
-        <v>1978.496700469187</v>
-      </c>
-      <c r="GG71">
-        <v>1345.201782396599</v>
+        <v>1347.789233315065</v>
       </c>
     </row>
-    <row r="72" spans="1:189">
+    <row r="72" spans="1:188">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -41295,49 +41082,46 @@
         <v>1753.177461365114</v>
       </c>
       <c r="FT72">
+        <v>2030.419811251658</v>
+      </c>
+      <c r="FU72">
+        <v>513.3066621313901</v>
+      </c>
+      <c r="FV72">
+        <v>2496.662306113575</v>
+      </c>
+      <c r="FW72">
+        <v>1121.149891729814</v>
+      </c>
+      <c r="FX72">
+        <v>459.1223610704129</v>
+      </c>
+      <c r="FY72">
+        <v>2008.490445839093</v>
+      </c>
+      <c r="FZ72">
+        <v>2374.138874090274</v>
+      </c>
+      <c r="GA72">
         <v>1366.532293359762</v>
       </c>
-      <c r="FU72">
+      <c r="GB72">
+        <v>409.2094277671001</v>
+      </c>
+      <c r="GC72">
+        <v>2260.168513170813</v>
+      </c>
+      <c r="GD72">
         <v>1890.566338866817</v>
       </c>
-      <c r="FV72">
-        <v>513.3066621313901</v>
-      </c>
-      <c r="FW72">
-        <v>2030.419811251658</v>
-      </c>
-      <c r="FX72">
+      <c r="GE72">
         <v>2521.774448257541</v>
       </c>
-      <c r="FY72">
-        <v>459.1223610704129</v>
-      </c>
-      <c r="FZ72">
-        <v>2008.490445839093</v>
-      </c>
-      <c r="GA72">
-        <v>2496.662306113575</v>
-      </c>
-      <c r="GB72">
-        <v>513.0969448920848</v>
-      </c>
-      <c r="GC72">
-        <v>1121.149891729814</v>
-      </c>
-      <c r="GD72">
-        <v>2260.168513170813</v>
-      </c>
-      <c r="GE72">
-        <v>270.370062834607</v>
-      </c>
       <c r="GF72">
-        <v>2374.138874090274</v>
-      </c>
-      <c r="GG72">
-        <v>1751.687605798541</v>
+        <v>1749.66468820382</v>
       </c>
     </row>
-    <row r="73" spans="1:189">
+    <row r="73" spans="1:188">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -41864,49 +41648,46 @@
         <v>1646.110380745351</v>
       </c>
       <c r="FT73">
+        <v>1890.092789428946</v>
+      </c>
+      <c r="FU73">
+        <v>273.8377376902392</v>
+      </c>
+      <c r="FV73">
+        <v>2744.677394159593</v>
+      </c>
+      <c r="FW73">
+        <v>1305.126252294265</v>
+      </c>
+      <c r="FX73">
+        <v>808.2252201700509</v>
+      </c>
+      <c r="FY73">
+        <v>1791.014086632373</v>
+      </c>
+      <c r="FZ73">
+        <v>2365.092307862843</v>
+      </c>
+      <c r="GA73">
         <v>1332.329436063281</v>
       </c>
-      <c r="FU73">
+      <c r="GB73">
+        <v>304.0374006734781</v>
+      </c>
+      <c r="GC73">
+        <v>2149.109981067109</v>
+      </c>
+      <c r="GD73">
         <v>2132.498827978574</v>
       </c>
-      <c r="FV73">
-        <v>273.8377376902392</v>
-      </c>
-      <c r="FW73">
-        <v>1890.092789428946</v>
-      </c>
-      <c r="FX73">
+      <c r="GE73">
         <v>2592.885919350477</v>
       </c>
-      <c r="FY73">
-        <v>808.2252201700509</v>
-      </c>
-      <c r="FZ73">
-        <v>1791.014086632373</v>
-      </c>
-      <c r="GA73">
-        <v>2744.677394159593</v>
-      </c>
-      <c r="GB73">
-        <v>270.6369937427432</v>
-      </c>
-      <c r="GC73">
-        <v>1305.126252294265</v>
-      </c>
-      <c r="GD73">
-        <v>2149.109981067109</v>
-      </c>
-      <c r="GE73">
-        <v>368.3541428344373</v>
-      </c>
       <c r="GF73">
-        <v>2365.092307862843</v>
-      </c>
-      <c r="GG73">
-        <v>1531.146192972155</v>
+        <v>1518.516180810221</v>
       </c>
     </row>
-    <row r="74" spans="1:189">
+    <row r="74" spans="1:188">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -42433,49 +42214,46 @@
         <v>1480.304325499007</v>
       </c>
       <c r="FT74">
+        <v>1762.629584225142</v>
+      </c>
+      <c r="FU74">
+        <v>664.4656160577582</v>
+      </c>
+      <c r="FV74">
+        <v>2316.521334110994</v>
+      </c>
+      <c r="FW74">
+        <v>893.2118810424475</v>
+      </c>
+      <c r="FX74">
+        <v>425.5276968863239</v>
+      </c>
+      <c r="FY74">
+        <v>1765.513056301651</v>
+      </c>
+      <c r="FZ74">
+        <v>2096.55162701937</v>
+      </c>
+      <c r="GA74">
         <v>1087.875346971875</v>
       </c>
-      <c r="FU74">
+      <c r="GB74">
+        <v>237.4058624015208</v>
+      </c>
+      <c r="GC74">
+        <v>1986.220209848038</v>
+      </c>
+      <c r="GD74">
         <v>1704.810127305452</v>
       </c>
-      <c r="FV74">
-        <v>664.4656160577582</v>
-      </c>
-      <c r="FW74">
-        <v>1762.629584225142</v>
-      </c>
-      <c r="FX74">
+      <c r="GE74">
         <v>2257.173449125231</v>
       </c>
-      <c r="FY74">
-        <v>425.5276968863239</v>
-      </c>
-      <c r="FZ74">
-        <v>1765.513056301651</v>
-      </c>
-      <c r="GA74">
-        <v>2316.521334110994</v>
-      </c>
-      <c r="GB74">
-        <v>384.3225728969718</v>
-      </c>
-      <c r="GC74">
-        <v>893.2118810424475</v>
-      </c>
-      <c r="GD74">
-        <v>1986.220209848038</v>
-      </c>
-      <c r="GE74">
-        <v>67.34605862364431</v>
-      </c>
       <c r="GF74">
-        <v>2096.55162701937</v>
-      </c>
-      <c r="GG74">
-        <v>1512.774922140095</v>
+        <v>1515.73716180079</v>
       </c>
     </row>
-    <row r="75" spans="1:189">
+    <row r="75" spans="1:188">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -43002,49 +42780,46 @@
         <v>1595.230604037031</v>
       </c>
       <c r="FT75">
+        <v>1864.79367793904</v>
+      </c>
+      <c r="FU75">
+        <v>476.7399328676094</v>
+      </c>
+      <c r="FV75">
+        <v>2502.223615724191</v>
+      </c>
+      <c r="FW75">
+        <v>1081.488532034626</v>
+      </c>
+      <c r="FX75">
+        <v>546.0283918483485</v>
+      </c>
+      <c r="FY75">
+        <v>1827.021981140202</v>
+      </c>
+      <c r="FZ75">
+        <v>2250.968703903236</v>
+      </c>
+      <c r="GA75">
         <v>1228.705510457825</v>
       </c>
-      <c r="FU75">
+      <c r="GB75">
+        <v>224.2374854021976</v>
+      </c>
+      <c r="GC75">
+        <v>2103.030196370858</v>
+      </c>
+      <c r="GD75">
         <v>1890.93639892742</v>
       </c>
-      <c r="FV75">
-        <v>476.7399328676094</v>
-      </c>
-      <c r="FW75">
-        <v>1864.79367793904</v>
-      </c>
-      <c r="FX75">
+      <c r="GE75">
         <v>2431.981251108199</v>
       </c>
-      <c r="FY75">
-        <v>546.0283918483485</v>
-      </c>
-      <c r="FZ75">
-        <v>1827.021981140202</v>
-      </c>
-      <c r="GA75">
-        <v>2502.223615724191</v>
-      </c>
-      <c r="GB75">
-        <v>325.9135388590792</v>
-      </c>
-      <c r="GC75">
-        <v>1081.488532034626</v>
-      </c>
-      <c r="GD75">
-        <v>2103.030196370858</v>
-      </c>
-      <c r="GE75">
-        <v>137.3981072880761</v>
-      </c>
       <c r="GF75">
-        <v>2250.968703903236</v>
-      </c>
-      <c r="GG75">
-        <v>1569.207324416219</v>
+        <v>1565.730070129918</v>
       </c>
     </row>
-    <row r="76" spans="1:189">
+    <row r="76" spans="1:188">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -43571,49 +43346,46 @@
         <v>1483.258354295864</v>
       </c>
       <c r="FT76">
+        <v>1760.107068229698</v>
+      </c>
+      <c r="FU76">
+        <v>606.7308341206729</v>
+      </c>
+      <c r="FV76">
+        <v>2378.450378414138</v>
+      </c>
+      <c r="FW76">
+        <v>948.6759183891151</v>
+      </c>
+      <c r="FX76">
+        <v>487.011547218689</v>
+      </c>
+      <c r="FY76">
+        <v>1746.609525649385</v>
+      </c>
+      <c r="FZ76">
+        <v>2120.593147051139</v>
+      </c>
+      <c r="GA76">
         <v>1103.433129294198</v>
       </c>
-      <c r="FU76">
+      <c r="GB76">
+        <v>181.2894030044008</v>
+      </c>
+      <c r="GC76">
+        <v>1990.498302305505</v>
+      </c>
+      <c r="GD76">
         <v>1766.468128509116</v>
       </c>
-      <c r="FV76">
-        <v>606.7308341206729</v>
-      </c>
-      <c r="FW76">
-        <v>1760.107068229698</v>
-      </c>
-      <c r="FX76">
+      <c r="GE76">
         <v>2295.2138595336</v>
       </c>
-      <c r="FY76">
-        <v>487.011547218689</v>
-      </c>
-      <c r="FZ76">
-        <v>1746.609525649385</v>
-      </c>
-      <c r="GA76">
-        <v>2378.450378414138</v>
-      </c>
-      <c r="GB76">
-        <v>324.1557342892302</v>
-      </c>
-      <c r="GC76">
-        <v>948.6759183891151</v>
-      </c>
-      <c r="GD76">
-        <v>1990.498302305505</v>
-      </c>
-      <c r="GE76">
-        <v>0</v>
-      </c>
       <c r="GF76">
-        <v>2120.593147051139</v>
-      </c>
-      <c r="GG76">
-        <v>1491.659691234148</v>
+        <v>1492.301977372202</v>
       </c>
     </row>
-    <row r="77" spans="1:189">
+    <row r="77" spans="1:188">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -44140,49 +43912,46 @@
         <v>1386.563828253004</v>
       </c>
       <c r="FT77">
+        <v>1649.142707861918</v>
+      </c>
+      <c r="FU77">
+        <v>575.9546717543826</v>
+      </c>
+      <c r="FV77">
+        <v>2469.084695111085</v>
+      </c>
+      <c r="FW77">
+        <v>1018.131974997718</v>
+      </c>
+      <c r="FX77">
+        <v>662.7394045387417</v>
+      </c>
+      <c r="FY77">
+        <v>1602.872144433732</v>
+      </c>
+      <c r="FZ77">
+        <v>2073.938014463946</v>
+      </c>
+      <c r="GA77">
         <v>1042.939864350439</v>
       </c>
-      <c r="FU77">
+      <c r="GB77">
+        <v>0</v>
+      </c>
+      <c r="GC77">
+        <v>1893.852326734406</v>
+      </c>
+      <c r="GD77">
         <v>1857.592856382699</v>
       </c>
-      <c r="FV77">
-        <v>575.9546717543826</v>
-      </c>
-      <c r="FW77">
-        <v>1649.142707861918</v>
-      </c>
-      <c r="FX77">
+      <c r="GE77">
         <v>2289.807931209242</v>
       </c>
-      <c r="FY77">
-        <v>662.7394045387417</v>
-      </c>
-      <c r="FZ77">
-        <v>1602.872144433732</v>
-      </c>
-      <c r="GA77">
-        <v>2469.084695111085</v>
-      </c>
-      <c r="GB77">
-        <v>148.7513857171557</v>
-      </c>
-      <c r="GC77">
-        <v>1018.131974997718</v>
-      </c>
-      <c r="GD77">
-        <v>1893.852326734406</v>
-      </c>
-      <c r="GE77">
-        <v>181.2894030044008</v>
-      </c>
       <c r="GF77">
-        <v>2073.938014463946</v>
-      </c>
-      <c r="GG77">
-        <v>1344.975323227697</v>
+        <v>1341.59871060092</v>
       </c>
     </row>
-    <row r="78" spans="1:189">
+    <row r="78" spans="1:188">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -44709,49 +44478,46 @@
         <v>1637.217121241835</v>
       </c>
       <c r="FT78">
+        <v>1917.381932143699</v>
+      </c>
+      <c r="FU78">
+        <v>577.1982863134238</v>
+      </c>
+      <c r="FV78">
+        <v>2407.259504208528</v>
+      </c>
+      <c r="FW78">
+        <v>1012.615310433973</v>
+      </c>
+      <c r="FX78">
+        <v>411.0816437505482</v>
+      </c>
+      <c r="FY78">
+        <v>1907.885477686847</v>
+      </c>
+      <c r="FZ78">
+        <v>2252.761725222908</v>
+      </c>
+      <c r="GA78">
         <v>1246.34942642334</v>
       </c>
-      <c r="FU78">
+      <c r="GB78">
+        <v>325.4031523102259</v>
+      </c>
+      <c r="GC78">
+        <v>2143.607838751089</v>
+      </c>
+      <c r="GD78">
         <v>1798.332658341223</v>
       </c>
-      <c r="FV78">
-        <v>577.1982863134238</v>
-      </c>
-      <c r="FW78">
-        <v>1917.381932143699</v>
-      </c>
-      <c r="FX78">
+      <c r="GE78">
         <v>2403.050632691989</v>
       </c>
-      <c r="FY78">
-        <v>411.0816437505482</v>
-      </c>
-      <c r="FZ78">
-        <v>1907.885477686847</v>
-      </c>
-      <c r="GA78">
-        <v>2407.259504208528</v>
-      </c>
-      <c r="GB78">
-        <v>450.913775465109</v>
-      </c>
-      <c r="GC78">
-        <v>1012.615310433973</v>
-      </c>
-      <c r="GD78">
-        <v>2143.607838751089</v>
-      </c>
-      <c r="GE78">
-        <v>161.2907276789513</v>
-      </c>
       <c r="GF78">
-        <v>2252.761725222908</v>
-      </c>
-      <c r="GG78">
-        <v>1652.798869655626</v>
+        <v>1653.098389730191</v>
       </c>
     </row>
-    <row r="79" spans="1:189">
+    <row r="79" spans="1:188">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -45278,49 +45044,46 @@
         <v>674.4512416612494</v>
       </c>
       <c r="FT79">
+        <v>979.0386328321982</v>
+      </c>
+      <c r="FU79">
+        <v>1382.587222149701</v>
+      </c>
+      <c r="FV79">
+        <v>1939.625037337395</v>
+      </c>
+      <c r="FW79">
+        <v>615.9853988904827</v>
+      </c>
+      <c r="FX79">
+        <v>1028.280642550083</v>
+      </c>
+      <c r="FY79">
+        <v>1118.985232914958</v>
+      </c>
+      <c r="FZ79">
+        <v>1262.622741749623</v>
+      </c>
+      <c r="GA79">
         <v>243.6289659784976</v>
       </c>
-      <c r="FU79">
+      <c r="GB79">
+        <v>812.6947054043526</v>
+      </c>
+      <c r="GC79">
+        <v>1164.020939396995</v>
+      </c>
+      <c r="GD79">
         <v>1373.298226931041</v>
       </c>
-      <c r="FV79">
-        <v>1382.587222149701</v>
-      </c>
-      <c r="FW79">
-        <v>979.0386328321982</v>
-      </c>
-      <c r="FX79">
+      <c r="GE79">
         <v>1497.899898365263</v>
       </c>
-      <c r="FY79">
-        <v>1028.280642550083</v>
-      </c>
-      <c r="FZ79">
-        <v>1118.985232914958</v>
-      </c>
-      <c r="GA79">
-        <v>1939.625037337395</v>
-      </c>
-      <c r="GB79">
-        <v>855.7833727582489</v>
-      </c>
-      <c r="GC79">
-        <v>615.9853988904827</v>
-      </c>
-      <c r="GD79">
-        <v>1164.020939396995</v>
-      </c>
-      <c r="GE79">
-        <v>862.5592459037262</v>
-      </c>
       <c r="GF79">
-        <v>1262.622741749623</v>
-      </c>
-      <c r="GG79">
-        <v>917.7213742844619</v>
+        <v>947.6094081588481</v>
       </c>
     </row>
-    <row r="80" spans="1:189">
+    <row r="80" spans="1:188">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -45847,49 +45610,46 @@
         <v>632.9398862959245</v>
       </c>
       <c r="FT80">
+        <v>941.9094668858282</v>
+      </c>
+      <c r="FU80">
+        <v>1513.553693513409</v>
+      </c>
+      <c r="FV80">
+        <v>1826.073758601715</v>
+      </c>
+      <c r="FW80">
+        <v>573.6370536670489</v>
+      </c>
+      <c r="FX80">
+        <v>1095.311251735366</v>
+      </c>
+      <c r="FY80">
+        <v>1134.903363763771</v>
+      </c>
+      <c r="FZ80">
+        <v>1142.964825926888</v>
+      </c>
+      <c r="GA80">
         <v>177.8786399332136</v>
       </c>
-      <c r="FU80">
+      <c r="GB80">
+        <v>940.5815185919871</v>
+      </c>
+      <c r="GC80">
+        <v>1097.222591840506</v>
+      </c>
+      <c r="GD80">
         <v>1273.557336349578</v>
       </c>
-      <c r="FV80">
-        <v>1513.553693513409</v>
-      </c>
-      <c r="FW80">
-        <v>941.9094668858282</v>
-      </c>
-      <c r="FX80">
+      <c r="GE80">
         <v>1361.051770185596</v>
       </c>
-      <c r="FY80">
-        <v>1095.311251735366</v>
-      </c>
-      <c r="FZ80">
-        <v>1134.903363763771</v>
-      </c>
-      <c r="GA80">
-        <v>1826.073758601715</v>
-      </c>
-      <c r="GB80">
-        <v>990.3860427871608</v>
-      </c>
-      <c r="GC80">
-        <v>573.6370536670489</v>
-      </c>
-      <c r="GD80">
-        <v>1097.222591840506</v>
-      </c>
-      <c r="GE80">
-        <v>977.6440958475506</v>
-      </c>
       <c r="GF80">
-        <v>1142.964825926888</v>
-      </c>
-      <c r="GG80">
-        <v>957.0516653228299</v>
+        <v>993.001578469387</v>
       </c>
     </row>
-    <row r="81" spans="1:189">
+    <row r="81" spans="1:188">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -46416,49 +46176,46 @@
         <v>621.3448838802391</v>
       </c>
       <c r="FT81">
+        <v>909.2927278698656</v>
+      </c>
+      <c r="FU81">
+        <v>1788.589441457957</v>
+      </c>
+      <c r="FV81">
+        <v>1619.287121571243</v>
+      </c>
+      <c r="FW81">
+        <v>604.8643466475432</v>
+      </c>
+      <c r="FX81">
+        <v>1281.528221774515</v>
+      </c>
+      <c r="FY81">
+        <v>1199.485455459765</v>
+      </c>
+      <c r="FZ81">
+        <v>903.7920720149059</v>
+      </c>
+      <c r="GA81">
         <v>295.8191950233522</v>
       </c>
-      <c r="FU81">
+      <c r="GB81">
+        <v>1213.358985764359</v>
+      </c>
+      <c r="GC81">
+        <v>989.3330802994128</v>
+      </c>
+      <c r="GD81">
         <v>1112.098906652667</v>
       </c>
-      <c r="FV81">
-        <v>1788.589441457957</v>
-      </c>
-      <c r="FW81">
-        <v>909.2927278698656</v>
-      </c>
-      <c r="FX81">
+      <c r="GE81">
         <v>1080.165273336332</v>
       </c>
-      <c r="FY81">
-        <v>1281.528221774515</v>
-      </c>
-      <c r="FZ81">
-        <v>1199.485455459765</v>
-      </c>
-      <c r="GA81">
-        <v>1619.287121571243</v>
-      </c>
-      <c r="GB81">
-        <v>1270.210806071794</v>
-      </c>
-      <c r="GC81">
-        <v>604.8643466475432</v>
-      </c>
-      <c r="GD81">
-        <v>989.3330802994128</v>
-      </c>
-      <c r="GE81">
-        <v>1234.686132749848</v>
-      </c>
       <c r="GF81">
-        <v>903.7920720149059</v>
-      </c>
-      <c r="GG81">
-        <v>1073.270664886812</v>
+        <v>1118.29276192073</v>
       </c>
     </row>
-    <row r="82" spans="1:189">
+    <row r="82" spans="1:188">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -46985,49 +46742,46 @@
         <v>582.6816464437462</v>
       </c>
       <c r="FT82">
+        <v>886.1841365439677</v>
+      </c>
+      <c r="FU82">
+        <v>1663.723580182163</v>
+      </c>
+      <c r="FV82">
+        <v>1734.500045075881</v>
+      </c>
+      <c r="FW82">
+        <v>601.0347539873843</v>
+      </c>
+      <c r="FX82">
+        <v>1209.204222944999</v>
+      </c>
+      <c r="FY82">
+        <v>1133.25561500881</v>
+      </c>
+      <c r="FZ82">
+        <v>1000.382845051785</v>
+      </c>
+      <c r="GA82">
         <v>179.0121187164972</v>
       </c>
-      <c r="FU82">
+      <c r="GB82">
+        <v>1090.224183321514</v>
+      </c>
+      <c r="GC82">
+        <v>1006.577707663798</v>
+      </c>
+      <c r="GD82">
         <v>1206.658481128847</v>
       </c>
-      <c r="FV82">
-        <v>1663.723580182163</v>
-      </c>
-      <c r="FW82">
-        <v>886.1841365439677</v>
-      </c>
-      <c r="FX82">
+      <c r="GE82">
         <v>1211.423372066764</v>
       </c>
-      <c r="FY82">
-        <v>1209.204222944999</v>
-      </c>
-      <c r="FZ82">
-        <v>1133.25561500881</v>
-      </c>
-      <c r="GA82">
-        <v>1734.500045075881</v>
-      </c>
-      <c r="GB82">
-        <v>1140.721943006315</v>
-      </c>
-      <c r="GC82">
-        <v>601.0347539873843</v>
-      </c>
-      <c r="GD82">
-        <v>1006.577707663798</v>
-      </c>
-      <c r="GE82">
-        <v>1122.424606818479</v>
-      </c>
       <c r="GF82">
-        <v>1000.382845051785</v>
-      </c>
-      <c r="GG82">
-        <v>984.2351544748586</v>
+        <v>1025.947386239112</v>
       </c>
     </row>
-    <row r="83" spans="1:189">
+    <row r="83" spans="1:188">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -47554,49 +47308,46 @@
         <v>410.2639656024951</v>
       </c>
       <c r="FT83">
+        <v>704.2033245577431</v>
+      </c>
+      <c r="FU83">
+        <v>1790.067691801918</v>
+      </c>
+      <c r="FV83">
+        <v>1808.015615423747</v>
+      </c>
+      <c r="FW83">
+        <v>788.005044648549</v>
+      </c>
+      <c r="FX83">
+        <v>1396.01198343432</v>
+      </c>
+      <c r="FY83">
+        <v>988.4218810096019</v>
+      </c>
+      <c r="FZ83">
+        <v>849.0479585273794</v>
+      </c>
+      <c r="GA83">
         <v>187.9009605509411</v>
       </c>
-      <c r="FU83">
+      <c r="GB83">
+        <v>1224.890335583636</v>
+      </c>
+      <c r="GC83">
+        <v>812.921158720423</v>
+      </c>
+      <c r="GD83">
         <v>1318.733953250071</v>
       </c>
-      <c r="FV83">
-        <v>1790.067691801918</v>
-      </c>
-      <c r="FW83">
-        <v>704.2033245577431</v>
-      </c>
-      <c r="FX83">
+      <c r="GE83">
         <v>1130.785046188998</v>
       </c>
-      <c r="FY83">
-        <v>1396.01198343432</v>
-      </c>
-      <c r="FZ83">
-        <v>988.4218810096019</v>
-      </c>
-      <c r="GA83">
-        <v>1808.015615423747</v>
-      </c>
-      <c r="GB83">
-        <v>1257.523222365614</v>
-      </c>
-      <c r="GC83">
-        <v>788.005044648549</v>
-      </c>
-      <c r="GD83">
-        <v>812.921158720423</v>
-      </c>
-      <c r="GE83">
-        <v>1276.40284021037</v>
-      </c>
       <c r="GF83">
-        <v>849.0479585273794</v>
-      </c>
-      <c r="GG83">
-        <v>871.915527224387</v>
+        <v>919.0251540415106</v>
       </c>
     </row>
-    <row r="84" spans="1:189">
+    <row r="84" spans="1:188">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -48123,49 +47874,46 @@
         <v>490.7578844520484</v>
       </c>
       <c r="FT84">
+        <v>794.868607158942</v>
+      </c>
+      <c r="FU84">
+        <v>1506.213772885434</v>
+      </c>
+      <c r="FV84">
+        <v>1992.307265591839</v>
+      </c>
+      <c r="FW84">
+        <v>759.8428935813431</v>
+      </c>
+      <c r="FX84">
+        <v>1211.593457365197</v>
+      </c>
+      <c r="FY84">
+        <v>951.7955616167743</v>
+      </c>
+      <c r="FZ84">
+        <v>1132.047406759517</v>
+      </c>
+      <c r="GA84">
         <v>107.4292940712628</v>
       </c>
-      <c r="FU84">
+      <c r="GB84">
+        <v>949.7190605239954</v>
+      </c>
+      <c r="GC84">
+        <v>984.8165205329321</v>
+      </c>
+      <c r="GD84">
         <v>1452.930347077751</v>
       </c>
-      <c r="FV84">
-        <v>1506.213772885434</v>
-      </c>
-      <c r="FW84">
-        <v>794.868607158942</v>
-      </c>
-      <c r="FX84">
+      <c r="GE84">
         <v>1421.402844152136</v>
       </c>
-      <c r="FY84">
-        <v>1211.593457365197</v>
-      </c>
-      <c r="FZ84">
-        <v>951.7955616167743</v>
-      </c>
-      <c r="GA84">
-        <v>1992.307265591839</v>
-      </c>
-      <c r="GB84">
-        <v>971.105242567399</v>
-      </c>
-      <c r="GC84">
-        <v>759.8428935813431</v>
-      </c>
-      <c r="GD84">
-        <v>984.8165205329321</v>
-      </c>
-      <c r="GE84">
-        <v>1020.226591728707</v>
-      </c>
       <c r="GF84">
-        <v>1132.047406759517</v>
-      </c>
-      <c r="GG84">
-        <v>767.871983738428</v>
+        <v>803.4627585618975</v>
       </c>
     </row>
-    <row r="85" spans="1:189">
+    <row r="85" spans="1:188">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -48692,49 +48440,46 @@
         <v>572.3459735225481</v>
       </c>
       <c r="FT85">
+        <v>867.1474725322995</v>
+      </c>
+      <c r="FU85">
+        <v>1393.665695214136</v>
+      </c>
+      <c r="FV85">
+        <v>2058.686824062338</v>
+      </c>
+      <c r="FW85">
+        <v>763.5803695378321</v>
+      </c>
+      <c r="FX85">
+        <v>1139.234763227529</v>
+      </c>
+      <c r="FY85">
+        <v>976.9616683642233</v>
+      </c>
+      <c r="FZ85">
+        <v>1245.425025880942</v>
+      </c>
+      <c r="GA85">
         <v>219.1491539917556</v>
       </c>
-      <c r="FU85">
+      <c r="GB85">
+        <v>840.5343996236766</v>
+      </c>
+      <c r="GC85">
+        <v>1075.680296223071</v>
+      </c>
+      <c r="GD85">
         <v>1503.858635952434</v>
       </c>
-      <c r="FV85">
-        <v>1393.665695214136</v>
-      </c>
-      <c r="FW85">
-        <v>867.1474725322995</v>
-      </c>
-      <c r="FX85">
+      <c r="GE85">
         <v>1531.5272503234</v>
       </c>
-      <c r="FY85">
-        <v>1139.234763227529</v>
-      </c>
-      <c r="FZ85">
-        <v>976.9616683642233</v>
-      </c>
-      <c r="GA85">
-        <v>2058.686824062338</v>
-      </c>
-      <c r="GB85">
-        <v>858.1264915265141</v>
-      </c>
-      <c r="GC85">
-        <v>763.5803695378321</v>
-      </c>
-      <c r="GD85">
-        <v>1075.680296223071</v>
-      </c>
-      <c r="GE85">
-        <v>918.4823343640123</v>
-      </c>
       <c r="GF85">
-        <v>1245.425025880942</v>
-      </c>
-      <c r="GG85">
-        <v>770.5699081451664</v>
+        <v>799.7425862733932</v>
       </c>
     </row>
-    <row r="86" spans="1:189">
+    <row r="86" spans="1:188">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -49261,49 +49006,46 @@
         <v>420.5131485125544</v>
       </c>
       <c r="FT86">
+        <v>727.6805321103533</v>
+      </c>
+      <c r="FU86">
+        <v>1583.914020055373</v>
+      </c>
+      <c r="FV86">
+        <v>1977.342631865509</v>
+      </c>
+      <c r="FW86">
+        <v>796.7556962495172</v>
+      </c>
+      <c r="FX86">
+        <v>1283.966180389816</v>
+      </c>
+      <c r="FY86">
+        <v>912.0844778520328</v>
+      </c>
+      <c r="FZ86">
+        <v>1055.794126046708</v>
+      </c>
+      <c r="GA86">
         <v>66.79262625569991</v>
       </c>
-      <c r="FU86">
+      <c r="GB86">
+        <v>1029.160186995852</v>
+      </c>
+      <c r="GC86">
+        <v>908.4383377310276</v>
+      </c>
+      <c r="GD86">
         <v>1452.129922133154</v>
       </c>
-      <c r="FV86">
-        <v>1583.914020055373</v>
-      </c>
-      <c r="FW86">
-        <v>727.6805321103533</v>
-      </c>
-      <c r="FX86">
+      <c r="GE86">
         <v>1358.995803506446</v>
       </c>
-      <c r="FY86">
-        <v>1283.966180389816</v>
-      </c>
-      <c r="FZ86">
-        <v>912.0844778520328</v>
-      </c>
-      <c r="GA86">
-        <v>1977.342631865509</v>
-      </c>
-      <c r="GB86">
-        <v>1048.308713851717</v>
-      </c>
-      <c r="GC86">
-        <v>796.7556962495172</v>
-      </c>
-      <c r="GD86">
-        <v>908.4383377310276</v>
-      </c>
-      <c r="GE86">
-        <v>1100.127785477576</v>
-      </c>
       <c r="GF86">
-        <v>1055.794126046708</v>
-      </c>
-      <c r="GG86">
-        <v>744.9398857485049</v>
+        <v>784.5127212918381</v>
       </c>
     </row>
-    <row r="87" spans="1:189">
+    <row r="87" spans="1:188">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -49830,49 +49572,46 @@
         <v>455.1515384320251</v>
       </c>
       <c r="FT87">
+        <v>764.1087266705579</v>
+      </c>
+      <c r="FU87">
+        <v>1604.763311894769</v>
+      </c>
+      <c r="FV87">
+        <v>1910.927125445697</v>
+      </c>
+      <c r="FW87">
+        <v>742.1300272160526</v>
+      </c>
+      <c r="FX87">
+        <v>1261.823060385196</v>
+      </c>
+      <c r="FY87">
+        <v>969.7956996288503</v>
+      </c>
+      <c r="FZ87">
+        <v>1032.766324625263</v>
+      </c>
+      <c r="GA87">
         <v>0</v>
       </c>
-      <c r="FU87">
+      <c r="GB87">
+        <v>1042.939864350439</v>
+      </c>
+      <c r="GC87">
+        <v>927.2556214530194</v>
+      </c>
+      <c r="GD87">
         <v>1385.569038720099</v>
       </c>
-      <c r="FV87">
-        <v>1604.763311894769</v>
-      </c>
-      <c r="FW87">
-        <v>764.1087266705579</v>
-      </c>
-      <c r="FX87">
+      <c r="GE87">
         <v>1313.981033523644</v>
       </c>
-      <c r="FY87">
-        <v>1261.823060385196</v>
-      </c>
-      <c r="FZ87">
-        <v>969.7956996288503</v>
-      </c>
-      <c r="GA87">
-        <v>1910.927125445697</v>
-      </c>
-      <c r="GB87">
-        <v>1071.090925273024</v>
-      </c>
-      <c r="GC87">
-        <v>742.1300272160526</v>
-      </c>
-      <c r="GD87">
-        <v>927.2556214530194</v>
-      </c>
-      <c r="GE87">
-        <v>1103.433129294198</v>
-      </c>
       <c r="GF87">
-        <v>1032.766324625263</v>
-      </c>
-      <c r="GG87">
-        <v>808.9249118163835</v>
+        <v>849.331368981776</v>
       </c>
     </row>
-    <row r="88" spans="1:189">
+    <row r="88" spans="1:188">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -50399,49 +50138,46 @@
         <v>2085.840642839735</v>
       </c>
       <c r="FT88">
+        <v>2284.411711379415</v>
+      </c>
+      <c r="FU88">
+        <v>2990.883971444247</v>
+      </c>
+      <c r="FV88">
+        <v>143.0416520787503</v>
+      </c>
+      <c r="FW88">
+        <v>1450.574424036748</v>
+      </c>
+      <c r="FX88">
+        <v>2097.559283836537</v>
+      </c>
+      <c r="FY88">
+        <v>2675.246242760777</v>
+      </c>
+      <c r="FZ88">
+        <v>1633.819771344985</v>
+      </c>
+      <c r="GA88">
         <v>1854.168852944468</v>
       </c>
-      <c r="FU88">
+      <c r="GB88">
+        <v>2468.334609723202</v>
+      </c>
+      <c r="GC88">
+        <v>2187.645464108314</v>
+      </c>
+      <c r="GD88">
         <v>629.7390398150832</v>
       </c>
-      <c r="FV88">
-        <v>2990.883971444247</v>
-      </c>
-      <c r="FW88">
-        <v>2284.411711379415</v>
-      </c>
-      <c r="FX88">
+      <c r="GE88">
         <v>1162.365885000306</v>
       </c>
-      <c r="FY88">
-        <v>2097.559283836537</v>
-      </c>
-      <c r="FZ88">
-        <v>2675.246242760777</v>
-      </c>
-      <c r="GA88">
-        <v>143.0416520787503</v>
-      </c>
-      <c r="GB88">
-        <v>2584.522796704426</v>
-      </c>
-      <c r="GC88">
-        <v>1450.574424036748</v>
-      </c>
-      <c r="GD88">
-        <v>2187.645464108314</v>
-      </c>
-      <c r="GE88">
-        <v>2387.110114446656</v>
-      </c>
       <c r="GF88">
-        <v>1633.819771344985</v>
-      </c>
-      <c r="GG88">
-        <v>2604.70555940965</v>
+        <v>2654.317411202699</v>
       </c>
     </row>
-    <row r="89" spans="1:189">
+    <row r="89" spans="1:188">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -50968,49 +50704,46 @@
         <v>2166.661152871417</v>
       </c>
       <c r="FT89">
+        <v>2377.05705330035</v>
+      </c>
+      <c r="FU89">
+        <v>2978.161445398661</v>
+      </c>
+      <c r="FV89">
+        <v>0</v>
+      </c>
+      <c r="FW89">
+        <v>1456.300827132447</v>
+      </c>
+      <c r="FX89">
+        <v>2064.612053979791</v>
+      </c>
+      <c r="FY89">
+        <v>2759.125586227252</v>
+      </c>
+      <c r="FZ89">
+        <v>1752.997237725009</v>
+      </c>
+      <c r="GA89">
         <v>1910.927125445697</v>
       </c>
-      <c r="FU89">
+      <c r="GB89">
+        <v>2469.084695111085</v>
+      </c>
+      <c r="GC89">
+        <v>2292.978805295378</v>
+      </c>
+      <c r="GD89">
         <v>612.2011787023229</v>
       </c>
-      <c r="FV89">
-        <v>2978.161445398661</v>
-      </c>
-      <c r="FW89">
-        <v>2377.05705330035</v>
-      </c>
-      <c r="FX89">
+      <c r="GE89">
         <v>1294.431249717264</v>
       </c>
-      <c r="FY89">
-        <v>2064.612053979791</v>
-      </c>
-      <c r="FZ89">
-        <v>2759.125586227252</v>
-      </c>
-      <c r="GA89">
-        <v>0</v>
-      </c>
-      <c r="GB89">
-        <v>2590.340308597805</v>
-      </c>
-      <c r="GC89">
-        <v>1456.300827132447</v>
-      </c>
-      <c r="GD89">
-        <v>2292.978805295378</v>
-      </c>
-      <c r="GE89">
-        <v>2378.450378414138</v>
-      </c>
       <c r="GF89">
-        <v>1752.997237725009</v>
-      </c>
-      <c r="GG89">
-        <v>2677.482710022975</v>
+        <v>2725.952761402729</v>
       </c>
     </row>
-    <row r="90" spans="1:189">
+    <row r="90" spans="1:188">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -51537,49 +51270,46 @@
         <v>2341.336685435321</v>
       </c>
       <c r="FT90">
+        <v>2540.795111546557</v>
+      </c>
+      <c r="FU90">
+        <v>3179.072486159952</v>
+      </c>
+      <c r="FV90">
+        <v>202.7073544089431</v>
+      </c>
+      <c r="FW90">
+        <v>1658.983447191009</v>
+      </c>
+      <c r="FX90">
+        <v>2260.555485237192</v>
+      </c>
+      <c r="FY90">
+        <v>2931.283173519457</v>
+      </c>
+      <c r="FZ90">
+        <v>1880.415390181699</v>
+      </c>
+      <c r="GA90">
         <v>2101.186822142997</v>
       </c>
-      <c r="FU90">
+      <c r="GB90">
+        <v>2671.654711549311</v>
+      </c>
+      <c r="GC90">
+        <v>2441.713349078249</v>
+      </c>
+      <c r="GD90">
         <v>814.420760765028</v>
       </c>
-      <c r="FV90">
-        <v>3179.072486159952</v>
-      </c>
-      <c r="FW90">
-        <v>2540.795111546557</v>
-      </c>
-      <c r="FX90">
+      <c r="GE90">
         <v>1393.752125503732</v>
       </c>
-      <c r="FY90">
-        <v>2260.555485237192</v>
-      </c>
-      <c r="FZ90">
-        <v>2931.283173519457</v>
-      </c>
-      <c r="GA90">
-        <v>202.7073544089431</v>
-      </c>
-      <c r="GB90">
-        <v>2793.045987373165</v>
-      </c>
-      <c r="GC90">
-        <v>1658.983447191009</v>
-      </c>
-      <c r="GD90">
-        <v>2441.713349078249</v>
-      </c>
-      <c r="GE90">
-        <v>2580.165780139078</v>
-      </c>
       <c r="GF90">
-        <v>1880.415390181699</v>
-      </c>
-      <c r="GG90">
-        <v>2858.427081327212</v>
+        <v>2907.707926029943</v>
       </c>
     </row>
-    <row r="91" spans="1:189">
+    <row r="91" spans="1:188">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -52106,49 +51836,46 @@
         <v>2032.218298615531</v>
       </c>
       <c r="FT91">
+        <v>2273.20303874762</v>
+      </c>
+      <c r="FU91">
+        <v>2666.033997145066</v>
+      </c>
+      <c r="FV91">
+        <v>342.5767844385426</v>
+      </c>
+      <c r="FW91">
+        <v>1179.000189021479</v>
+      </c>
+      <c r="FX91">
+        <v>1736.503454204559</v>
+      </c>
+      <c r="FY91">
+        <v>2625.882080607564</v>
+      </c>
+      <c r="FZ91">
+        <v>1753.151848716588</v>
+      </c>
+      <c r="GA91">
         <v>1721.52108531072</v>
       </c>
-      <c r="FU91">
+      <c r="GB91">
+        <v>2174.624107184008</v>
+      </c>
+      <c r="GC91">
+        <v>2230.944375741169</v>
+      </c>
+      <c r="GD91">
         <v>340.5001789684775</v>
       </c>
-      <c r="FV91">
-        <v>2666.033997145066</v>
-      </c>
-      <c r="FW91">
-        <v>2273.20303874762</v>
-      </c>
-      <c r="FX91">
+      <c r="GE91">
         <v>1369.440922737579</v>
       </c>
-      <c r="FY91">
-        <v>1736.503454204559</v>
-      </c>
-      <c r="FZ91">
-        <v>2625.882080607564</v>
-      </c>
-      <c r="GA91">
-        <v>342.5767844385426</v>
-      </c>
-      <c r="GB91">
-        <v>2302.050943033654</v>
-      </c>
-      <c r="GC91">
-        <v>1179.000189021479</v>
-      </c>
-      <c r="GD91">
-        <v>2230.944375741169</v>
-      </c>
-      <c r="GE91">
-        <v>2072.815635888687</v>
-      </c>
       <c r="GF91">
-        <v>1753.151848716588</v>
-      </c>
-      <c r="GG91">
-        <v>2515.976150313739</v>
+        <v>2561.165572304993</v>
       </c>
     </row>
-    <row r="92" spans="1:189">
+    <row r="92" spans="1:188">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -52675,49 +52402,46 @@
         <v>2188.53726030792</v>
       </c>
       <c r="FT92">
+        <v>2408.795925242089</v>
+      </c>
+      <c r="FU92">
+        <v>2928.55245556869</v>
+      </c>
+      <c r="FV92">
+        <v>105.1140432231545</v>
+      </c>
+      <c r="FW92">
+        <v>1423.404806204417</v>
+      </c>
+      <c r="FX92">
+        <v>2003.543313126395</v>
+      </c>
+      <c r="FY92">
+        <v>2782.508769643509</v>
+      </c>
+      <c r="FZ92">
+        <v>1811.52280855225</v>
+      </c>
+      <c r="GA92">
         <v>1913.887027965326</v>
       </c>
-      <c r="FU92">
+      <c r="GB92">
+        <v>2429.319500166556</v>
+      </c>
+      <c r="GC92">
+        <v>2336.59242806869</v>
+      </c>
+      <c r="GD92">
         <v>574.3830556368341</v>
       </c>
-      <c r="FV92">
-        <v>2928.55245556869</v>
-      </c>
-      <c r="FW92">
-        <v>2408.795925242089</v>
-      </c>
-      <c r="FX92">
+      <c r="GE92">
         <v>1368.703328815124</v>
       </c>
-      <c r="FY92">
-        <v>2003.543313126395</v>
-      </c>
-      <c r="FZ92">
-        <v>2782.508769643509</v>
-      </c>
-      <c r="GA92">
-        <v>105.1140432231545</v>
-      </c>
-      <c r="GB92">
-        <v>2553.844855762413</v>
-      </c>
-      <c r="GC92">
-        <v>1423.404806204417</v>
-      </c>
-      <c r="GD92">
-        <v>2336.59242806869</v>
-      </c>
-      <c r="GE92">
-        <v>2332.485326838606</v>
-      </c>
       <c r="GF92">
-        <v>1811.52280855225</v>
-      </c>
-      <c r="GG92">
-        <v>2691.566375012972</v>
+        <v>2739.008738280041</v>
       </c>
     </row>
-    <row r="93" spans="1:189">
+    <row r="93" spans="1:188">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -53244,49 +52968,46 @@
         <v>2061.247868539997</v>
       </c>
       <c r="FT93">
+        <v>2273.738630751659</v>
+      </c>
+      <c r="FU93">
+        <v>2888.052681764204</v>
+      </c>
+      <c r="FV93">
+        <v>106.514079164533</v>
+      </c>
+      <c r="FW93">
+        <v>1358.758856541469</v>
+      </c>
+      <c r="FX93">
+        <v>1983.373323291821</v>
+      </c>
+      <c r="FY93">
+        <v>2654.028735718156</v>
+      </c>
+      <c r="FZ93">
+        <v>1661.413652401142</v>
+      </c>
+      <c r="GA93">
         <v>1804.527133820729</v>
       </c>
-      <c r="FU93">
+      <c r="GB93">
+        <v>2373.791387667277</v>
+      </c>
+      <c r="GC93">
+        <v>2193.669996266093</v>
+      </c>
+      <c r="GD93">
         <v>520.9447492018544</v>
       </c>
-      <c r="FV93">
-        <v>2888.052681764204</v>
-      </c>
-      <c r="FW93">
-        <v>2273.738630751659</v>
-      </c>
-      <c r="FX93">
+      <c r="GE93">
         <v>1215.68886474172</v>
       </c>
-      <c r="FY93">
-        <v>1983.373323291821</v>
-      </c>
-      <c r="FZ93">
-        <v>2654.028735718156</v>
-      </c>
-      <c r="GA93">
-        <v>106.514079164533</v>
-      </c>
-      <c r="GB93">
-        <v>2493.431822771382</v>
-      </c>
-      <c r="GC93">
-        <v>1358.758856541469</v>
-      </c>
-      <c r="GD93">
-        <v>2193.669996266093</v>
-      </c>
-      <c r="GE93">
-        <v>2286.529504182276</v>
-      </c>
       <c r="GF93">
-        <v>1661.413652401142</v>
-      </c>
-      <c r="GG93">
-        <v>2571.234899093045</v>
+        <v>2619.636562093568</v>
       </c>
     </row>
-    <row r="94" spans="1:189">
+    <row r="94" spans="1:188">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -53813,49 +53534,46 @@
         <v>2233.877809707645</v>
       </c>
       <c r="FT94">
+        <v>2464.274705427926</v>
+      </c>
+      <c r="FU94">
+        <v>2888.360523271532</v>
+      </c>
+      <c r="FV94">
+        <v>226.9480192324523</v>
+      </c>
+      <c r="FW94">
+        <v>1408.805720404409</v>
+      </c>
+      <c r="FX94">
+        <v>1950.357203408483</v>
+      </c>
+      <c r="FY94">
+        <v>2828.310470874469</v>
+      </c>
+      <c r="FZ94">
+        <v>1895.737273710907</v>
+      </c>
+      <c r="GA94">
         <v>1939.100645380867</v>
       </c>
-      <c r="FU94">
+      <c r="GB94">
+        <v>2402.350000456121</v>
+      </c>
+      <c r="GC94">
+        <v>2404.702132482176</v>
+      </c>
+      <c r="GD94">
         <v>567.5175633086475</v>
       </c>
-      <c r="FV94">
-        <v>2888.360523271532</v>
-      </c>
-      <c r="FW94">
-        <v>2464.274705427926</v>
-      </c>
-      <c r="FX94">
+      <c r="GE94">
         <v>1468.734947707836</v>
       </c>
-      <c r="FY94">
-        <v>1950.357203408483</v>
-      </c>
-      <c r="FZ94">
-        <v>2828.310470874469</v>
-      </c>
-      <c r="GA94">
-        <v>226.9480192324523</v>
-      </c>
-      <c r="GB94">
-        <v>2530.657392835387</v>
-      </c>
-      <c r="GC94">
-        <v>1408.805720404409</v>
-      </c>
-      <c r="GD94">
-        <v>2404.702132482176</v>
-      </c>
-      <c r="GE94">
-        <v>2297.971969800574</v>
-      </c>
       <c r="GF94">
-        <v>1895.737273710907</v>
-      </c>
-      <c r="GG94">
-        <v>2727.26961221897</v>
+        <v>2773.485044350038</v>
       </c>
     </row>
-    <row r="95" spans="1:189">
+    <row r="95" spans="1:188">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -54382,49 +54100,46 @@
         <v>2068.688137287756</v>
       </c>
       <c r="FT95">
+        <v>2273.676962700783</v>
+      </c>
+      <c r="FU95">
+        <v>2940.069799676609</v>
+      </c>
+      <c r="FV95">
+        <v>113.6357700454867</v>
+      </c>
+      <c r="FW95">
+        <v>1403.90047198046</v>
+      </c>
+      <c r="FX95">
+        <v>2042.132703633684</v>
+      </c>
+      <c r="FY95">
+        <v>2659.846391539954</v>
+      </c>
+      <c r="FZ95">
+        <v>1640.516312538851</v>
+      </c>
+      <c r="GA95">
         <v>1825.722393253814</v>
       </c>
-      <c r="FU95">
+      <c r="GB95">
+        <v>2420.857723788964</v>
+      </c>
+      <c r="GC95">
+        <v>2184.561276208833</v>
+      </c>
+      <c r="GD95">
         <v>575.5769397304546</v>
       </c>
-      <c r="FV95">
-        <v>2940.069799676609</v>
-      </c>
-      <c r="FW95">
-        <v>2273.676962700783</v>
-      </c>
-      <c r="FX95">
+      <c r="GE95">
         <v>1180.967236908127</v>
       </c>
-      <c r="FY95">
-        <v>2042.132703633684</v>
-      </c>
-      <c r="FZ95">
-        <v>2659.846391539954</v>
-      </c>
-      <c r="GA95">
-        <v>113.6357700454867</v>
-      </c>
-      <c r="GB95">
-        <v>2538.50252016393</v>
-      </c>
-      <c r="GC95">
-        <v>1403.90047198046</v>
-      </c>
-      <c r="GD95">
-        <v>2184.561276208833</v>
-      </c>
-      <c r="GE95">
-        <v>2337.137084804796</v>
-      </c>
       <c r="GF95">
-        <v>1640.516312538851</v>
-      </c>
-      <c r="GG95">
-        <v>2583.756175746235</v>
+        <v>2632.839990964951</v>
       </c>
     </row>
-    <row r="96" spans="1:189">
+    <row r="96" spans="1:188">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -54951,49 +54666,46 @@
         <v>1762.294127114606</v>
       </c>
       <c r="FT96">
+        <v>2064.491448449923</v>
+      </c>
+      <c r="FU96">
+        <v>981.5638096654868</v>
+      </c>
+      <c r="FV96">
+        <v>2082.420511046259</v>
+      </c>
+      <c r="FW96">
+        <v>831.7331936287776</v>
+      </c>
+      <c r="FX96">
+        <v>60.0945328883939</v>
+      </c>
+      <c r="FY96">
+        <v>2139.401278860867</v>
+      </c>
+      <c r="FZ96">
+        <v>2235.789718278801</v>
+      </c>
+      <c r="GA96">
         <v>1321.276780816838</v>
       </c>
-      <c r="FU96">
+      <c r="GB96">
+        <v>705.0375249777818</v>
+      </c>
+      <c r="GC96">
+        <v>2248.532332593565</v>
+      </c>
+      <c r="GD96">
         <v>1490.783063696187</v>
       </c>
-      <c r="FV96">
-        <v>981.5638096654868</v>
-      </c>
-      <c r="FW96">
-        <v>2064.491448449923</v>
-      </c>
-      <c r="FX96">
+      <c r="GE96">
         <v>2286.439210074429</v>
       </c>
-      <c r="FY96">
-        <v>60.0945328883939</v>
-      </c>
-      <c r="FZ96">
-        <v>2139.401278860867</v>
-      </c>
-      <c r="GA96">
-        <v>2082.420511046259</v>
-      </c>
-      <c r="GB96">
-        <v>850.535110643594</v>
-      </c>
-      <c r="GC96">
-        <v>831.7331936287776</v>
-      </c>
-      <c r="GD96">
-        <v>2248.532332593565</v>
-      </c>
-      <c r="GE96">
-        <v>526.4692782087576</v>
-      </c>
       <c r="GF96">
-        <v>2235.789718278801</v>
-      </c>
-      <c r="GG96">
-        <v>1898.645879019992</v>
+        <v>1909.885882472841</v>
       </c>
     </row>
-    <row r="97" spans="1:189">
+    <row r="97" spans="1:188">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -55520,49 +55232,46 @@
         <v>1622.338170277859</v>
       </c>
       <c r="FT97">
+        <v>1926.212498710177</v>
+      </c>
+      <c r="FU97">
+        <v>1020.959963425247</v>
+      </c>
+      <c r="FV97">
+        <v>1989.434008756974</v>
+      </c>
+      <c r="FW97">
+        <v>690.9640408768793</v>
+      </c>
+      <c r="FX97">
+        <v>95.50454497260695</v>
+      </c>
+      <c r="FY97">
+        <v>2015.274293857335</v>
+      </c>
+      <c r="FZ97">
+        <v>2087.602538020352</v>
+      </c>
+      <c r="GA97">
         <v>1178.127312488492</v>
       </c>
-      <c r="FU97">
+      <c r="GB97">
+        <v>658.602244913885</v>
+      </c>
+      <c r="GC97">
+        <v>2105.142435880916</v>
+      </c>
+      <c r="GD97">
         <v>1388.796834748075</v>
       </c>
-      <c r="FV97">
-        <v>1020.959963425247</v>
-      </c>
-      <c r="FW97">
-        <v>1926.212498710177</v>
-      </c>
-      <c r="FX97">
+      <c r="GE97">
         <v>2143.922720523957</v>
       </c>
-      <c r="FY97">
-        <v>95.50454497260695</v>
-      </c>
-      <c r="FZ97">
-        <v>2015.274293857335</v>
-      </c>
-      <c r="GA97">
-        <v>1989.434008756974</v>
-      </c>
-      <c r="GB97">
-        <v>807.3202565481743</v>
-      </c>
-      <c r="GC97">
-        <v>690.9640408768793</v>
-      </c>
-      <c r="GD97">
-        <v>2105.142435880916</v>
-      </c>
-      <c r="GE97">
-        <v>492.8048197742068</v>
-      </c>
       <c r="GF97">
-        <v>2087.602538020352</v>
-      </c>
-      <c r="GG97">
-        <v>1778.976847245407</v>
+        <v>1792.803787608952</v>
       </c>
     </row>
-    <row r="98" spans="1:189">
+    <row r="98" spans="1:188">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -56089,49 +55798,46 @@
         <v>1702.347825829961</v>
       </c>
       <c r="FT98">
+        <v>2004.435505640418</v>
+      </c>
+      <c r="FU98">
+        <v>971.7399439992511</v>
+      </c>
+      <c r="FV98">
+        <v>2064.612053979791</v>
+      </c>
+      <c r="FW98">
+        <v>785.968908805777</v>
+      </c>
+      <c r="FX98">
+        <v>0</v>
+      </c>
+      <c r="FY98">
+        <v>2080.178776275282</v>
+      </c>
+      <c r="FZ98">
+        <v>2181.129490787039</v>
+      </c>
+      <c r="GA98">
         <v>1261.823060385196</v>
       </c>
-      <c r="FU98">
+      <c r="GB98">
+        <v>662.7394045387417</v>
+      </c>
+      <c r="GC98">
+        <v>2189.064501471923</v>
+      </c>
+      <c r="GD98">
         <v>1468.200226639043</v>
       </c>
-      <c r="FV98">
-        <v>971.7399439992511</v>
-      </c>
-      <c r="FW98">
-        <v>2004.435505640418</v>
-      </c>
-      <c r="FX98">
+      <c r="GE98">
         <v>2239.32858767394</v>
       </c>
-      <c r="FY98">
-        <v>0</v>
-      </c>
-      <c r="FZ98">
-        <v>2080.178776275282</v>
-      </c>
-      <c r="GA98">
-        <v>2064.612053979791</v>
-      </c>
-      <c r="GB98">
-        <v>809.7785923858052</v>
-      </c>
-      <c r="GC98">
-        <v>785.968908805777</v>
-      </c>
-      <c r="GD98">
-        <v>2189.064501471923</v>
-      </c>
-      <c r="GE98">
-        <v>487.011547218689</v>
-      </c>
       <c r="GF98">
-        <v>2181.129490787039</v>
-      </c>
-      <c r="GG98">
-        <v>1840.003959379539</v>
+        <v>1851.644086354249</v>
       </c>
     </row>
-    <row r="99" spans="1:189">
+    <row r="99" spans="1:188">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -56658,49 +56364,46 @@
         <v>1609.349008123349</v>
       </c>
       <c r="FT99">
+        <v>1910.071626924605</v>
+      </c>
+      <c r="FU99">
+        <v>933.5392674050487</v>
+      </c>
+      <c r="FV99">
+        <v>2068.825986885106</v>
+      </c>
+      <c r="FW99">
+        <v>739.6756873231482</v>
+      </c>
+      <c r="FX99">
+        <v>100.4439222071138</v>
+      </c>
+      <c r="FY99">
+        <v>1980.648067372531</v>
+      </c>
+      <c r="FZ99">
+        <v>2107.965774877132</v>
+      </c>
+      <c r="GA99">
         <v>1172.394111895128</v>
       </c>
-      <c r="FU99">
+      <c r="GB99">
+        <v>577.5624918194264</v>
+      </c>
+      <c r="GC99">
+        <v>2099.128167886137</v>
+      </c>
+      <c r="GD99">
         <v>1465.440699228469</v>
       </c>
-      <c r="FV99">
-        <v>933.5392674050487</v>
-      </c>
-      <c r="FW99">
-        <v>1910.071626924605</v>
-      </c>
-      <c r="FX99">
+      <c r="GE99">
         <v>2185.207656289705</v>
       </c>
-      <c r="FY99">
-        <v>100.4439222071138</v>
-      </c>
-      <c r="FZ99">
-        <v>1980.648067372531</v>
-      </c>
-      <c r="GA99">
-        <v>2068.825986885106</v>
-      </c>
-      <c r="GB99">
-        <v>725.9169775681808</v>
-      </c>
-      <c r="GC99">
-        <v>739.6756873231482</v>
-      </c>
-      <c r="GD99">
-        <v>2099.128167886137</v>
-      </c>
-      <c r="GE99">
-        <v>407.7673330796325</v>
-      </c>
       <c r="GF99">
-        <v>2107.965774877132</v>
-      </c>
-      <c r="GG99">
-        <v>1739.906634973697</v>
+        <v>1751.342254479836</v>
       </c>
     </row>
-    <row r="100" spans="1:189">
+    <row r="100" spans="1:188">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -57227,49 +56930,46 @@
         <v>1662.564205898721</v>
       </c>
       <c r="FT100">
+        <v>1961.878631361313</v>
+      </c>
+      <c r="FU100">
+        <v>898.5532901470923</v>
+      </c>
+      <c r="FV100">
+        <v>2118.036163968248</v>
+      </c>
+      <c r="FW100">
+        <v>801.1993631117732</v>
+      </c>
+      <c r="FX100">
+        <v>82.58726662375588</v>
+      </c>
+      <c r="FY100">
+        <v>2023.648622031338</v>
+      </c>
+      <c r="FZ100">
+        <v>2169.402735092009</v>
+      </c>
+      <c r="GA100">
         <v>1228.46894317921</v>
       </c>
-      <c r="FU100">
+      <c r="GB100">
+        <v>581.262218244234</v>
+      </c>
+      <c r="GC100">
+        <v>2154.50384690763</v>
+      </c>
+      <c r="GD100">
         <v>1516.955095705132</v>
       </c>
-      <c r="FV100">
-        <v>898.5532901470923</v>
-      </c>
-      <c r="FW100">
-        <v>1961.878631361313</v>
-      </c>
-      <c r="FX100">
+      <c r="GE100">
         <v>2247.651411534252</v>
       </c>
-      <c r="FY100">
-        <v>82.58726662375588</v>
-      </c>
-      <c r="FZ100">
-        <v>2023.648622031338</v>
-      </c>
-      <c r="GA100">
-        <v>2118.036163968248</v>
-      </c>
-      <c r="GB100">
-        <v>727.8847533122329</v>
-      </c>
-      <c r="GC100">
-        <v>801.1993631117732</v>
-      </c>
-      <c r="GD100">
-        <v>2154.50384690763</v>
-      </c>
-      <c r="GE100">
-        <v>404.705062227588</v>
-      </c>
       <c r="GF100">
-        <v>2169.402735092009</v>
-      </c>
-      <c r="GG100">
-        <v>1780.550999277638</v>
+        <v>1790.517916765083</v>
       </c>
     </row>
-    <row r="101" spans="1:189">
+    <row r="101" spans="1:188">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -57796,49 +57496,46 @@
         <v>1596.044088785165</v>
       </c>
       <c r="FT101">
+        <v>1896.930767292745</v>
+      </c>
+      <c r="FU101">
+        <v>938.1754923583968</v>
+      </c>
+      <c r="FV101">
+        <v>2060.938632139293</v>
+      </c>
+      <c r="FW101">
+        <v>727.4034514751789</v>
+      </c>
+      <c r="FX101">
+        <v>111.5757229068901</v>
+      </c>
+      <c r="FY101">
+        <v>1968.775145502505</v>
+      </c>
+      <c r="FZ101">
+        <v>2094.194025192947</v>
+      </c>
+      <c r="GA101">
         <v>1158.794735382131</v>
       </c>
-      <c r="FU101">
+      <c r="GB101">
+        <v>573.7317210924773</v>
+      </c>
+      <c r="GC101">
+        <v>2085.58068896</v>
+      </c>
+      <c r="GD101">
         <v>1456.902353546904</v>
       </c>
-      <c r="FV101">
-        <v>938.1754923583968</v>
-      </c>
-      <c r="FW101">
-        <v>1896.930767292745</v>
-      </c>
-      <c r="FX101">
+      <c r="GE101">
         <v>2172.194737866935</v>
       </c>
-      <c r="FY101">
-        <v>111.5757229068901</v>
-      </c>
-      <c r="FZ101">
-        <v>1968.775145502505</v>
-      </c>
-      <c r="GA101">
-        <v>2060.938632139293</v>
-      </c>
-      <c r="GB101">
-        <v>722.2786785354651</v>
-      </c>
-      <c r="GC101">
-        <v>727.4034514751789</v>
-      </c>
-      <c r="GD101">
-        <v>2085.58068896</v>
-      </c>
-      <c r="GE101">
-        <v>405.7781336251169</v>
-      </c>
       <c r="GF101">
-        <v>2094.194025192947</v>
-      </c>
-      <c r="GG101">
-        <v>1728.428836461589</v>
+        <v>1740.10814575514</v>
       </c>
     </row>
-    <row r="102" spans="1:189">
+    <row r="102" spans="1:188">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -58365,49 +58062,46 @@
         <v>1705.113718739868</v>
       </c>
       <c r="FT102">
+        <v>2006.588472192445</v>
+      </c>
+      <c r="FU102">
+        <v>954.8776542162676</v>
+      </c>
+      <c r="FV102">
+        <v>2081.539941752834</v>
+      </c>
+      <c r="FW102">
+        <v>798.6172872664207</v>
+      </c>
+      <c r="FX102">
+        <v>17.27877067005251</v>
+      </c>
+      <c r="FY102">
+        <v>2078.71904921713</v>
+      </c>
+      <c r="FZ102">
+        <v>2189.744111833585</v>
+      </c>
+      <c r="GA102">
         <v>1265.938970684921</v>
       </c>
-      <c r="FU102">
+      <c r="GB102">
+        <v>651.2471847907051</v>
+      </c>
+      <c r="GC102">
+        <v>2193.081446633184</v>
+      </c>
+      <c r="GD102">
         <v>1484.803930059252</v>
       </c>
-      <c r="FV102">
-        <v>954.8776542162676</v>
-      </c>
-      <c r="FW102">
-        <v>2006.588472192445</v>
-      </c>
-      <c r="FX102">
+      <c r="GE102">
         <v>2251.296659748836</v>
       </c>
-      <c r="FY102">
-        <v>17.27877067005251</v>
-      </c>
-      <c r="FZ102">
-        <v>2078.71904921713</v>
-      </c>
-      <c r="GA102">
-        <v>2081.539941752834</v>
-      </c>
-      <c r="GB102">
-        <v>797.8701798809374</v>
-      </c>
-      <c r="GC102">
-        <v>798.6172872664207</v>
-      </c>
-      <c r="GD102">
-        <v>2193.081446633184</v>
-      </c>
-      <c r="GE102">
-        <v>474.574793622317</v>
-      </c>
       <c r="GF102">
-        <v>2189.744111833585</v>
-      </c>
-      <c r="GG102">
-        <v>1837.679661501414</v>
+        <v>1848.82233794995</v>
       </c>
     </row>
-    <row r="103" spans="1:189">
+    <row r="103" spans="1:188">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -58934,49 +58628,46 @@
         <v>1598.17968480109</v>
       </c>
       <c r="FT103">
+        <v>1903.872220748577</v>
+      </c>
+      <c r="FU103">
+        <v>1083.517876147561</v>
+      </c>
+      <c r="FV103">
+        <v>1922.207543064886</v>
+      </c>
+      <c r="FW103">
+        <v>631.9538617667313</v>
+      </c>
+      <c r="FX103">
+        <v>156.1299639899798</v>
+      </c>
+      <c r="FY103">
+        <v>2007.087518780928</v>
+      </c>
+      <c r="FZ103">
+        <v>2041.16164102135</v>
+      </c>
+      <c r="GA103">
         <v>1149.921450787148</v>
       </c>
-      <c r="FU103">
+      <c r="GB103">
+        <v>700.0178935918827</v>
+      </c>
+      <c r="GC103">
+        <v>2075.403454942868</v>
+      </c>
+      <c r="GD103">
         <v>1321.312309578699</v>
       </c>
-      <c r="FV103">
-        <v>1083.517876147561</v>
-      </c>
-      <c r="FW103">
-        <v>1903.872220748577</v>
-      </c>
-      <c r="FX103">
+      <c r="GE103">
         <v>2086.50984087331</v>
       </c>
-      <c r="FY103">
-        <v>156.1299639899798</v>
-      </c>
-      <c r="FZ103">
-        <v>2007.087518780928</v>
-      </c>
-      <c r="GA103">
-        <v>1922.207543064886</v>
-      </c>
-      <c r="GB103">
-        <v>848.5833796309727</v>
-      </c>
-      <c r="GC103">
-        <v>631.9538617667313</v>
-      </c>
-      <c r="GD103">
-        <v>2075.403454942868</v>
-      </c>
-      <c r="GE103">
-        <v>541.0511406344351</v>
-      </c>
       <c r="GF103">
-        <v>2041.16164102135</v>
-      </c>
-      <c r="GG103">
-        <v>1774.792026467163</v>
+        <v>1790.616144050821</v>
       </c>
     </row>
-    <row r="104" spans="1:189">
+    <row r="104" spans="1:188">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -59503,49 +59194,46 @@
         <v>570.8000231720082</v>
       </c>
       <c r="FT104">
+        <v>381.4367056421884</v>
+      </c>
+      <c r="FU104">
+        <v>2062.459549219011</v>
+      </c>
+      <c r="FV104">
+        <v>2728.475511396906</v>
+      </c>
+      <c r="FW104">
+        <v>1708.561029432534</v>
+      </c>
+      <c r="FX104">
+        <v>2104.155556190674</v>
+      </c>
+      <c r="FY104">
+        <v>66.90852831829814</v>
+      </c>
+      <c r="FZ104">
+        <v>1222.229948182216</v>
+      </c>
+      <c r="GA104">
         <v>967.1762537502468</v>
       </c>
-      <c r="FU104">
+      <c r="GB104">
+        <v>1641.795950747206</v>
+      </c>
+      <c r="GC104">
+        <v>625.2680030750175</v>
+      </c>
+      <c r="GD104">
         <v>2283.716066382881</v>
       </c>
-      <c r="FV104">
-        <v>2062.459549219011</v>
-      </c>
-      <c r="FW104">
-        <v>381.4367056421884</v>
-      </c>
-      <c r="FX104">
+      <c r="GE104">
         <v>1738.236489288902</v>
       </c>
-      <c r="FY104">
-        <v>2104.155556190674</v>
-      </c>
-      <c r="FZ104">
-        <v>66.90852831829814</v>
-      </c>
-      <c r="GA104">
-        <v>2728.475511396906</v>
-      </c>
-      <c r="GB104">
-        <v>1580.268526119061</v>
-      </c>
-      <c r="GC104">
-        <v>1708.561029432534</v>
-      </c>
-      <c r="GD104">
-        <v>625.2680030750175</v>
-      </c>
-      <c r="GE104">
-        <v>1781.819075279842</v>
-      </c>
       <c r="GF104">
-        <v>1222.229948182216</v>
-      </c>
-      <c r="GG104">
-        <v>308.2007945522555</v>
+        <v>332.6762543352143</v>
       </c>
     </row>
-    <row r="105" spans="1:189">
+    <row r="105" spans="1:188">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -60072,49 +59760,46 @@
         <v>512.838883159973</v>
       </c>
       <c r="FT105">
+        <v>320.7866510885363</v>
+      </c>
+      <c r="FU105">
+        <v>2058.995117655576</v>
+      </c>
+      <c r="FV105">
+        <v>2667.582625079087</v>
+      </c>
+      <c r="FW105">
+        <v>1660.421314580667</v>
+      </c>
+      <c r="FX105">
+        <v>2072.913971981963</v>
+      </c>
+      <c r="FY105">
+        <v>115.4101110334508</v>
+      </c>
+      <c r="FZ105">
+        <v>1163.444404434374</v>
+      </c>
+      <c r="GA105">
         <v>918.3661082112619</v>
       </c>
-      <c r="FU105">
+      <c r="GB105">
+        <v>1625.456134747246</v>
+      </c>
+      <c r="GC105">
+        <v>572.7153090500901</v>
+      </c>
+      <c r="GD105">
         <v>2225.661375217637</v>
       </c>
-      <c r="FV105">
-        <v>2058.995117655576</v>
-      </c>
-      <c r="FW105">
-        <v>320.7866510885363</v>
-      </c>
-      <c r="FX105">
+      <c r="GE105">
         <v>1677.590310659193</v>
       </c>
-      <c r="FY105">
-        <v>2072.913971981963</v>
-      </c>
-      <c r="FZ105">
-        <v>115.4101110334508</v>
-      </c>
-      <c r="GA105">
-        <v>2667.582625079087</v>
-      </c>
-      <c r="GB105">
-        <v>1569.071652194851</v>
-      </c>
-      <c r="GC105">
-        <v>1660.421314580667</v>
-      </c>
-      <c r="GD105">
-        <v>572.7153090500901</v>
-      </c>
-      <c r="GE105">
-        <v>1761.390900789849</v>
-      </c>
       <c r="GF105">
-        <v>1163.444404434374</v>
-      </c>
-      <c r="GG105">
-        <v>311.9832572493019</v>
+        <v>345.285446870078</v>
       </c>
     </row>
-    <row r="106" spans="1:189">
+    <row r="106" spans="1:188">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -60641,49 +60326,46 @@
         <v>828.7347589446098</v>
       </c>
       <c r="FT106">
+        <v>695.576238294231</v>
+      </c>
+      <c r="FU106">
+        <v>1969.366169168735</v>
+      </c>
+      <c r="FV106">
+        <v>2993.668618957312</v>
+      </c>
+      <c r="FW106">
+        <v>1872.530567329037</v>
+      </c>
+      <c r="FX106">
+        <v>2159.577132345645</v>
+      </c>
+      <c r="FY106">
+        <v>262.2387927354486</v>
+      </c>
+      <c r="FZ106">
+        <v>1539.854343094222</v>
+      </c>
+      <c r="GA106">
         <v>1151.702936174674</v>
       </c>
-      <c r="FU106">
+      <c r="GB106">
+        <v>1623.038910694772</v>
+      </c>
+      <c r="GC106">
+        <v>944.1293865715401</v>
+      </c>
+      <c r="GD106">
         <v>2518.315043608914</v>
       </c>
-      <c r="FV106">
-        <v>1969.366169168735</v>
-      </c>
-      <c r="FW106">
-        <v>695.576238294231</v>
-      </c>
-      <c r="FX106">
+      <c r="GE106">
         <v>2050.232160689974</v>
       </c>
-      <c r="FY106">
-        <v>2159.577132345645</v>
-      </c>
-      <c r="FZ106">
-        <v>262.2387927354486</v>
-      </c>
-      <c r="GA106">
-        <v>2993.668618957312</v>
-      </c>
-      <c r="GB106">
-        <v>1535.852319787468</v>
-      </c>
-      <c r="GC106">
-        <v>1872.530567329037</v>
-      </c>
-      <c r="GD106">
-        <v>944.1293865715401</v>
-      </c>
-      <c r="GE106">
-        <v>1782.085541410669</v>
-      </c>
       <c r="GF106">
-        <v>1539.854343094222</v>
-      </c>
-      <c r="GG106">
-        <v>346.4476110833114</v>
+        <v>317.1986241405571</v>
       </c>
     </row>
-    <row r="107" spans="1:189">
+    <row r="107" spans="1:188">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -61210,49 +60892,46 @@
         <v>524.5150829415981</v>
       </c>
       <c r="FT107">
+        <v>665.1480837665837</v>
+      </c>
+      <c r="FU107">
+        <v>1497.509902247095</v>
+      </c>
+      <c r="FV107">
+        <v>2518.665906142461</v>
+      </c>
+      <c r="FW107">
+        <v>1276.979206655618</v>
+      </c>
+      <c r="FX107">
+        <v>1546.326291295974</v>
+      </c>
+      <c r="FY107">
+        <v>546.5851025213542</v>
+      </c>
+      <c r="FZ107">
+        <v>1368.318067067148</v>
+      </c>
+      <c r="GA107">
         <v>609.1148224596865</v>
       </c>
-      <c r="FU107">
+      <c r="GB107">
+        <v>1058.117929102317</v>
+      </c>
+      <c r="GC107">
+        <v>953.1422334131393</v>
+      </c>
+      <c r="GD107">
         <v>1991.825418293704</v>
       </c>
-      <c r="FV107">
-        <v>1497.509902247095</v>
-      </c>
-      <c r="FW107">
-        <v>665.1480837665837</v>
-      </c>
-      <c r="FX107">
+      <c r="GE107">
         <v>1786.303799473342</v>
       </c>
-      <c r="FY107">
-        <v>1546.326291295974</v>
-      </c>
-      <c r="FZ107">
-        <v>546.5851025213542</v>
-      </c>
-      <c r="GA107">
-        <v>2518.665906142461</v>
-      </c>
-      <c r="GB107">
-        <v>999.9656633945109</v>
-      </c>
-      <c r="GC107">
-        <v>1276.979206655618</v>
-      </c>
-      <c r="GD107">
-        <v>953.1422334131393</v>
-      </c>
-      <c r="GE107">
-        <v>1200.024502011771</v>
-      </c>
       <c r="GF107">
-        <v>1368.318067067148</v>
-      </c>
-      <c r="GG107">
-        <v>294.701221637118</v>
+        <v>306.3044040597314</v>
       </c>
     </row>
-    <row r="108" spans="1:189">
+    <row r="108" spans="1:188">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -61779,49 +61458,46 @@
         <v>589.8190711278985</v>
       </c>
       <c r="FT108">
+        <v>666.3343209673583</v>
+      </c>
+      <c r="FU108">
+        <v>1557.631380079257</v>
+      </c>
+      <c r="FV108">
+        <v>2645.263549976445</v>
+      </c>
+      <c r="FW108">
+        <v>1416.290967694169</v>
+      </c>
+      <c r="FX108">
+        <v>1668.859124282156</v>
+      </c>
+      <c r="FY108">
+        <v>456.7956713868294</v>
+      </c>
+      <c r="FZ108">
+        <v>1428.361703463058</v>
+      </c>
+      <c r="GA108">
         <v>740.1524711507923</v>
       </c>
-      <c r="FU108">
+      <c r="GB108">
+        <v>1152.95765814684</v>
+      </c>
+      <c r="GC108">
+        <v>961.3674350134374</v>
+      </c>
+      <c r="GD108">
         <v>2125.216635042185</v>
       </c>
-      <c r="FV108">
-        <v>1557.631380079257</v>
-      </c>
-      <c r="FW108">
-        <v>666.3343209673583</v>
-      </c>
-      <c r="FX108">
+      <c r="GE108">
         <v>1870.692960319367</v>
       </c>
-      <c r="FY108">
-        <v>1668.859124282156</v>
-      </c>
-      <c r="FZ108">
-        <v>456.7956713868294</v>
-      </c>
-      <c r="GA108">
-        <v>2645.263549976445</v>
-      </c>
-      <c r="GB108">
-        <v>1081.346922928538</v>
-      </c>
-      <c r="GC108">
-        <v>1416.290967694169</v>
-      </c>
-      <c r="GD108">
-        <v>961.3674350134374</v>
-      </c>
-      <c r="GE108">
-        <v>1303.739285787557</v>
-      </c>
       <c r="GF108">
-        <v>1428.361703463058</v>
-      </c>
-      <c r="GG108">
-        <v>197.128532235374</v>
+        <v>188.7426399995301</v>
       </c>
     </row>
-    <row r="109" spans="1:189">
+    <row r="109" spans="1:188">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -62348,49 +62024,46 @@
         <v>647.294281112568</v>
       </c>
       <c r="FT109">
+        <v>494.6106417055487</v>
+      </c>
+      <c r="FU109">
+        <v>1999.667989591111</v>
+      </c>
+      <c r="FV109">
+        <v>2813.509362711236</v>
+      </c>
+      <c r="FW109">
+        <v>1744.731010051728</v>
+      </c>
+      <c r="FX109">
+        <v>2096.198469191059</v>
+      </c>
+      <c r="FY109">
+        <v>61.21525370028444</v>
+      </c>
+      <c r="FZ109">
+        <v>1338.859179375401</v>
+      </c>
+      <c r="GA109">
         <v>1009.217570879871</v>
       </c>
-      <c r="FU109">
+      <c r="GB109">
+        <v>1603.926483548961</v>
+      </c>
+      <c r="GC109">
+        <v>747.0856296615908</v>
+      </c>
+      <c r="GD109">
         <v>2353.355303324</v>
       </c>
-      <c r="FV109">
-        <v>1999.667989591111</v>
-      </c>
-      <c r="FW109">
-        <v>494.6106417055487</v>
-      </c>
-      <c r="FX109">
+      <c r="GE109">
         <v>1850.009988287148</v>
       </c>
-      <c r="FY109">
-        <v>2096.198469191059</v>
-      </c>
-      <c r="FZ109">
-        <v>61.21525370028444</v>
-      </c>
-      <c r="GA109">
-        <v>2813.509362711236</v>
-      </c>
-      <c r="GB109">
-        <v>1532.792945557662</v>
-      </c>
-      <c r="GC109">
-        <v>1744.731010051728</v>
-      </c>
-      <c r="GD109">
-        <v>747.0856296615908</v>
-      </c>
-      <c r="GE109">
-        <v>1751.60084838467</v>
-      </c>
       <c r="GF109">
-        <v>1338.859179375401</v>
-      </c>
-      <c r="GG109">
-        <v>259.9990473408942</v>
+        <v>264.8615957888548</v>
       </c>
     </row>
-    <row r="110" spans="1:189">
+    <row r="110" spans="1:188">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -62917,49 +62590,46 @@
         <v>759.1253136230611</v>
       </c>
       <c r="FT110">
+        <v>705.2419457556932</v>
+      </c>
+      <c r="FU110">
+        <v>1769.785138394243</v>
+      </c>
+      <c r="FV110">
+        <v>2897.606995452644</v>
+      </c>
+      <c r="FW110">
+        <v>1715.599254735632</v>
+      </c>
+      <c r="FX110">
+        <v>1965.544629278248</v>
+      </c>
+      <c r="FY110">
+        <v>318.8556655696736</v>
+      </c>
+      <c r="FZ110">
+        <v>1540.610941799147</v>
+      </c>
+      <c r="GA110">
         <v>1016.26732035214</v>
       </c>
-      <c r="FU110">
+      <c r="GB110">
+        <v>1420.563955242887</v>
+      </c>
+      <c r="GC110">
+        <v>985.1822076988818</v>
+      </c>
+      <c r="GD110">
         <v>2398.571510284511</v>
       </c>
-      <c r="FV110">
-        <v>1769.785138394243</v>
-      </c>
-      <c r="FW110">
-        <v>705.2419457556932</v>
-      </c>
-      <c r="FX110">
+      <c r="GE110">
         <v>2027.22081473407</v>
       </c>
-      <c r="FY110">
-        <v>1965.544629278248</v>
-      </c>
-      <c r="FZ110">
-        <v>318.8556655696736</v>
-      </c>
-      <c r="GA110">
-        <v>2897.606995452644</v>
-      </c>
-      <c r="GB110">
-        <v>1332.652954140139</v>
-      </c>
-      <c r="GC110">
-        <v>1715.599254735632</v>
-      </c>
-      <c r="GD110">
-        <v>985.1822076988818</v>
-      </c>
-      <c r="GE110">
-        <v>1580.825923868529</v>
-      </c>
       <c r="GF110">
-        <v>1540.610941799147</v>
-      </c>
-      <c r="GG110">
-        <v>222.1639839070232</v>
+        <v>171.6897602049043</v>
       </c>
     </row>
-    <row r="111" spans="1:189">
+    <row r="111" spans="1:188">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -63486,49 +63156,46 @@
         <v>567.3270930370339</v>
       </c>
       <c r="FT111">
+        <v>354.5353855585357</v>
+      </c>
+      <c r="FU111">
+        <v>2104.411167415854</v>
+      </c>
+      <c r="FV111">
+        <v>2715.867947902166</v>
+      </c>
+      <c r="FW111">
+        <v>1719.475747371227</v>
+      </c>
+      <c r="FX111">
+        <v>2130.802211677115</v>
+      </c>
+      <c r="FY111">
+        <v>114.7460663953346</v>
+      </c>
+      <c r="FZ111">
+        <v>1189.127463179708</v>
+      </c>
+      <c r="GA111">
         <v>977.3710339724882</v>
       </c>
-      <c r="FU111">
+      <c r="GB111">
+        <v>1677.80459241338</v>
+      </c>
+      <c r="GC111">
+        <v>585.5343575777036</v>
+      </c>
+      <c r="GD111">
         <v>2279.222959143337</v>
       </c>
-      <c r="FV111">
-        <v>2104.411167415854</v>
-      </c>
-      <c r="FW111">
-        <v>354.5353855585357</v>
-      </c>
-      <c r="FX111">
+      <c r="GE111">
         <v>1709.11156277478</v>
       </c>
-      <c r="FY111">
-        <v>2130.802211677115</v>
-      </c>
-      <c r="FZ111">
-        <v>114.7460663953346</v>
-      </c>
-      <c r="GA111">
-        <v>2715.867947902166</v>
-      </c>
-      <c r="GB111">
-        <v>1618.843768593025</v>
-      </c>
-      <c r="GC111">
-        <v>1719.475747371227</v>
-      </c>
-      <c r="GD111">
-        <v>585.5343575777036</v>
-      </c>
-      <c r="GE111">
-        <v>1815.570637426209</v>
-      </c>
       <c r="GF111">
-        <v>1189.127463179708</v>
-      </c>
-      <c r="GG111">
-        <v>351.5150897351692</v>
+        <v>378.5965000544917</v>
       </c>
     </row>
-    <row r="112" spans="1:189">
+    <row r="112" spans="1:188">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -64055,49 +63722,46 @@
         <v>637.0298386880614</v>
       </c>
       <c r="FT112">
+        <v>478.6839804908348</v>
+      </c>
+      <c r="FU112">
+        <v>2010.503452811589</v>
+      </c>
+      <c r="FV112">
+        <v>2802.643065022577</v>
+      </c>
+      <c r="FW112">
+        <v>1741.21303802816</v>
+      </c>
+      <c r="FX112">
+        <v>2099.265952192047</v>
+      </c>
+      <c r="FY112">
+        <v>45.68096676446184</v>
+      </c>
+      <c r="FZ112">
+        <v>1322.520818095869</v>
+      </c>
+      <c r="GA112">
         <v>1004.459472665077</v>
       </c>
-      <c r="FU112">
+      <c r="GB112">
+        <v>1611.168802322705</v>
+      </c>
+      <c r="GC112">
+        <v>729.56751007516</v>
+      </c>
+      <c r="GD112">
         <v>2344.872084925416</v>
       </c>
-      <c r="FV112">
-        <v>2010.503452811589</v>
-      </c>
-      <c r="FW112">
-        <v>478.6839804908348</v>
-      </c>
-      <c r="FX112">
+      <c r="GE112">
         <v>1834.605209884034</v>
       </c>
-      <c r="FY112">
-        <v>2099.265952192047</v>
-      </c>
-      <c r="FZ112">
-        <v>45.68096676446184</v>
-      </c>
-      <c r="GA112">
-        <v>2802.643065022577</v>
-      </c>
-      <c r="GB112">
-        <v>1541.378248421275</v>
-      </c>
-      <c r="GC112">
-        <v>1741.21303802816</v>
-      </c>
-      <c r="GD112">
-        <v>729.56751007516</v>
-      </c>
-      <c r="GE112">
-        <v>1757.793385649477</v>
-      </c>
       <c r="GF112">
-        <v>1322.520818095869</v>
-      </c>
-      <c r="GG112">
-        <v>266.323670786231</v>
+        <v>274.474807527662</v>
       </c>
     </row>
-    <row r="113" spans="1:189">
+    <row r="113" spans="1:188">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -64624,49 +64288,46 @@
         <v>632.8414847017278</v>
       </c>
       <c r="FT113">
+        <v>423.1865558011732</v>
+      </c>
+      <c r="FU113">
+        <v>2114.718206011168</v>
+      </c>
+      <c r="FV113">
+        <v>2784.649414665677</v>
+      </c>
+      <c r="FW113">
+        <v>1776.225221704897</v>
+      </c>
+      <c r="FX113">
+        <v>2170.463735806192</v>
+      </c>
+      <c r="FY113">
+        <v>102.1388831184507</v>
+      </c>
+      <c r="FZ113">
+        <v>1254.306065366782</v>
+      </c>
+      <c r="GA113">
         <v>1034.631411822385</v>
       </c>
-      <c r="FU113">
+      <c r="GB113">
+        <v>1702.130540617874</v>
+      </c>
+      <c r="GC113">
+        <v>645.3449563998477</v>
+      </c>
+      <c r="GD113">
         <v>2345.551624348236</v>
       </c>
-      <c r="FV113">
-        <v>2114.718206011168</v>
-      </c>
-      <c r="FW113">
-        <v>423.1865558011732</v>
-      </c>
-      <c r="FX113">
+      <c r="GE113">
         <v>1776.309358315718</v>
       </c>
-      <c r="FY113">
-        <v>2170.463735806192</v>
-      </c>
-      <c r="FZ113">
-        <v>102.1388831184507</v>
-      </c>
-      <c r="GA113">
-        <v>2784.649414665677</v>
-      </c>
-      <c r="GB113">
-        <v>1637.7956473729</v>
-      </c>
-      <c r="GC113">
-        <v>1776.225221704897</v>
-      </c>
-      <c r="GD113">
-        <v>645.3449563998477</v>
-      </c>
-      <c r="GE113">
-        <v>1844.098797238877</v>
-      </c>
       <c r="GF113">
-        <v>1254.306065366782</v>
-      </c>
-      <c r="GG113">
-        <v>361.48756390706</v>
+        <v>379.1482013107773</v>
       </c>
     </row>
-    <row r="114" spans="1:189">
+    <row r="114" spans="1:188">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -65193,49 +64854,46 @@
         <v>344.8073698221564</v>
       </c>
       <c r="FT114">
+        <v>46.4486611784135</v>
+      </c>
+      <c r="FU114">
+        <v>2149.248817465333</v>
+      </c>
+      <c r="FV114">
+        <v>2423.474584478633</v>
+      </c>
+      <c r="FW114">
+        <v>1526.12248729905</v>
+      </c>
+      <c r="FX114">
+        <v>2032.520942739618</v>
+      </c>
+      <c r="FY114">
+        <v>395.1119580307268</v>
+      </c>
+      <c r="FZ114">
+        <v>882.5897323985873</v>
+      </c>
+      <c r="GA114">
         <v>798.9340702434125</v>
       </c>
-      <c r="FU114">
+      <c r="GB114">
+        <v>1664.826357137806</v>
+      </c>
+      <c r="GC114">
+        <v>312.7862411060349</v>
+      </c>
+      <c r="GD114">
         <v>2012.124162977426</v>
       </c>
-      <c r="FV114">
-        <v>2149.248817465333</v>
-      </c>
-      <c r="FW114">
-        <v>46.4486611784135</v>
-      </c>
-      <c r="FX114">
+      <c r="GE114">
         <v>1398.121355141747</v>
       </c>
-      <c r="FY114">
-        <v>2032.520942739618</v>
-      </c>
-      <c r="FZ114">
-        <v>395.1119580307268</v>
-      </c>
-      <c r="GA114">
-        <v>2423.474584478633</v>
-      </c>
-      <c r="GB114">
-        <v>1632.605522106974</v>
-      </c>
-      <c r="GC114">
-        <v>1526.12248729905</v>
-      </c>
-      <c r="GD114">
-        <v>312.7862411060349</v>
-      </c>
-      <c r="GE114">
-        <v>1779.358110598144</v>
-      </c>
       <c r="GF114">
-        <v>882.5897323985873</v>
-      </c>
-      <c r="GG114">
-        <v>504.8185312321597</v>
+        <v>554.4021159590952</v>
       </c>
     </row>
-    <row r="115" spans="1:189">
+    <row r="115" spans="1:188">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -65762,49 +65420,46 @@
         <v>346.0706491154921</v>
       </c>
       <c r="FT115">
+        <v>91.04804121557227</v>
+      </c>
+      <c r="FU115">
+        <v>2215.63162074931</v>
+      </c>
+      <c r="FV115">
+        <v>2336.04742417552</v>
+      </c>
+      <c r="FW115">
+        <v>1502.513699993801</v>
+      </c>
+      <c r="FX115">
+        <v>2048.326903498619</v>
+      </c>
+      <c r="FY115">
+        <v>513.1193948602713</v>
+      </c>
+      <c r="FZ115">
+        <v>765.3001971313081</v>
+      </c>
+      <c r="GA115">
         <v>795.4111346797201</v>
       </c>
-      <c r="FU115">
+      <c r="GB115">
+        <v>1715.149546015592</v>
+      </c>
+      <c r="GC115">
+        <v>205.5551328839888</v>
+      </c>
+      <c r="GD115">
         <v>1943.694995221083</v>
       </c>
-      <c r="FV115">
-        <v>2215.63162074931</v>
-      </c>
-      <c r="FW115">
-        <v>91.04804121557227</v>
-      </c>
-      <c r="FX115">
+      <c r="GE115">
         <v>1284.91443624306</v>
       </c>
-      <c r="FY115">
-        <v>2048.326903498619</v>
-      </c>
-      <c r="FZ115">
-        <v>513.1193948602713</v>
-      </c>
-      <c r="GA115">
-        <v>2336.04742417552</v>
-      </c>
-      <c r="GB115">
-        <v>1692.111154718892</v>
-      </c>
-      <c r="GC115">
-        <v>1502.513699993801</v>
-      </c>
-      <c r="GD115">
-        <v>205.5551328839888</v>
-      </c>
-      <c r="GE115">
-        <v>1820.630463283911</v>
-      </c>
       <c r="GF115">
-        <v>765.3001971313081</v>
-      </c>
-      <c r="GG115">
-        <v>615.7766302855484</v>
+        <v>666.8706029539269</v>
       </c>
     </row>
-    <row r="116" spans="1:189">
+    <row r="116" spans="1:188">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -66331,49 +65986,46 @@
         <v>247.7502713028823</v>
       </c>
       <c r="FT116">
+        <v>63.1436218408767</v>
+      </c>
+      <c r="FU116">
+        <v>2083.94582544947</v>
+      </c>
+      <c r="FV116">
+        <v>2343.225155352953</v>
+      </c>
+      <c r="FW116">
+        <v>1428.546148186869</v>
+      </c>
+      <c r="FX116">
+        <v>1941.314715809784</v>
+      </c>
+      <c r="FY116">
+        <v>440.7041624135588</v>
+      </c>
+      <c r="FZ116">
+        <v>849.5916606544675</v>
+      </c>
+      <c r="GA116">
         <v>702.5354803286618</v>
       </c>
-      <c r="FU116">
+      <c r="GB116">
+        <v>1588.59897833568</v>
+      </c>
+      <c r="GC116">
+        <v>337.1715874067943</v>
+      </c>
+      <c r="GD116">
         <v>1922.148686641001</v>
       </c>
-      <c r="FV116">
-        <v>2083.94582544947</v>
-      </c>
-      <c r="FW116">
-        <v>63.1436218408767</v>
-      </c>
-      <c r="FX116">
+      <c r="GE116">
         <v>1350.154048710479</v>
       </c>
-      <c r="FY116">
-        <v>1941.314715809784</v>
-      </c>
-      <c r="FZ116">
-        <v>440.7041624135588</v>
-      </c>
-      <c r="GA116">
-        <v>2343.225155352953</v>
-      </c>
-      <c r="GB116">
-        <v>1562.197890852499</v>
-      </c>
-      <c r="GC116">
-        <v>1428.546148186869</v>
-      </c>
-      <c r="GD116">
-        <v>337.1715874067943</v>
-      </c>
-      <c r="GE116">
-        <v>1698.246425209766</v>
-      </c>
       <c r="GF116">
-        <v>849.5916606544675</v>
-      </c>
-      <c r="GG116">
-        <v>499.2213468234353</v>
+        <v>552.2968130437771</v>
       </c>
     </row>
-    <row r="117" spans="1:189">
+    <row r="117" spans="1:188">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -66900,49 +66552,46 @@
         <v>344.5740099152765</v>
       </c>
       <c r="FT117">
+        <v>114.1871660817137</v>
+      </c>
+      <c r="FU117">
+        <v>2224.849384492247</v>
+      </c>
+      <c r="FV117">
+        <v>2311.862810038825</v>
+      </c>
+      <c r="FW117">
+        <v>1491.094675541428</v>
+      </c>
+      <c r="FX117">
+        <v>2045.36287956254</v>
+      </c>
+      <c r="FY117">
+        <v>540.0580263202095</v>
+      </c>
+      <c r="FZ117">
+        <v>738.1152414309634</v>
+      </c>
+      <c r="GA117">
         <v>789.5569285862889</v>
       </c>
-      <c r="FU117">
+      <c r="GB117">
+        <v>1720.567763772338</v>
+      </c>
+      <c r="GC117">
+        <v>188.2586437061806</v>
+      </c>
+      <c r="GD117">
         <v>1922.930549456376</v>
       </c>
-      <c r="FV117">
-        <v>2224.849384492247</v>
-      </c>
-      <c r="FW117">
-        <v>114.1871660817137</v>
-      </c>
-      <c r="FX117">
+      <c r="GE117">
         <v>1257.591986652068</v>
       </c>
-      <c r="FY117">
-        <v>2045.36287956254</v>
-      </c>
-      <c r="FZ117">
-        <v>540.0580263202095</v>
-      </c>
-      <c r="GA117">
-        <v>2311.862810038825</v>
-      </c>
-      <c r="GB117">
-        <v>1699.817822149693</v>
-      </c>
-      <c r="GC117">
-        <v>1491.094675541428</v>
-      </c>
-      <c r="GD117">
-        <v>188.2586437061806</v>
-      </c>
-      <c r="GE117">
-        <v>1823.785522505112</v>
-      </c>
       <c r="GF117">
-        <v>738.1152414309634</v>
-      </c>
-      <c r="GG117">
-        <v>638.4437241923678</v>
+        <v>689.9848422987005</v>
       </c>
     </row>
-    <row r="118" spans="1:189">
+    <row r="118" spans="1:188">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -67469,49 +67118,46 @@
         <v>538.6928152400144</v>
       </c>
       <c r="FT118">
+        <v>300.4801575000173</v>
+      </c>
+      <c r="FU118">
+        <v>2428.720945560795</v>
+      </c>
+      <c r="FV118">
+        <v>2343.30567809679</v>
+      </c>
+      <c r="FW118">
+        <v>1639.772823432862</v>
+      </c>
+      <c r="FX118">
+        <v>2228.322750662384</v>
+      </c>
+      <c r="FY118">
+        <v>669.0908628491879</v>
+      </c>
+      <c r="FZ118">
+        <v>667.1167159521041</v>
+      </c>
+      <c r="GA118">
         <v>966.9899678838547</v>
       </c>
-      <c r="FU118">
+      <c r="GB118">
+        <v>1921.881095202411</v>
+      </c>
+      <c r="GC118">
+        <v>51.76382015734057</v>
+      </c>
+      <c r="GD118">
         <v>1999.474306954776</v>
       </c>
-      <c r="FV118">
-        <v>2428.720945560795</v>
-      </c>
-      <c r="FW118">
-        <v>300.4801575000173</v>
-      </c>
-      <c r="FX118">
+      <c r="GE118">
         <v>1206.470491935434</v>
       </c>
-      <c r="FY118">
-        <v>2228.322750662384</v>
-      </c>
-      <c r="FZ118">
-        <v>669.0908628491879</v>
-      </c>
-      <c r="GA118">
-        <v>2343.30567809679</v>
-      </c>
-      <c r="GB118">
-        <v>1903.121266160041</v>
-      </c>
-      <c r="GC118">
-        <v>1639.772823432862</v>
-      </c>
-      <c r="GD118">
-        <v>51.76382015734057</v>
-      </c>
-      <c r="GE118">
-        <v>2021.827977770254</v>
-      </c>
       <c r="GF118">
-        <v>667.1167159521041</v>
-      </c>
-      <c r="GG118">
-        <v>813.8620989492139</v>
+        <v>862.1791525187688</v>
       </c>
     </row>
-    <row r="119" spans="1:189">
+    <row r="119" spans="1:188">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -68038,46 +67684,43 @@
         <v>269.1097153918495</v>
       </c>
       <c r="FT119">
+        <v>100.5655802129055</v>
+      </c>
+      <c r="FU119">
+        <v>2046.469917864226</v>
+      </c>
+      <c r="FV119">
+        <v>2400.059946228459</v>
+      </c>
+      <c r="FW119">
+        <v>1449.78454306351</v>
+      </c>
+      <c r="FX119">
+        <v>1936.722876804326</v>
+      </c>
+      <c r="FY119">
+        <v>372.7808667076673</v>
+      </c>
+      <c r="FZ119">
+        <v>921.2435492479507</v>
+      </c>
+      <c r="GA119">
         <v>714.8969284484222</v>
       </c>
-      <c r="FU119">
+      <c r="GB119">
+        <v>1561.860798907826</v>
+      </c>
+      <c r="GC119">
+        <v>395.243934710645</v>
+      </c>
+      <c r="GD119">
         <v>1968.911403977059</v>
       </c>
-      <c r="FV119">
-        <v>2046.469917864226</v>
-      </c>
-      <c r="FW119">
-        <v>100.5655802129055</v>
-      </c>
-      <c r="FX119">
+      <c r="GE119">
         <v>1420.544040741213</v>
       </c>
-      <c r="FY119">
-        <v>1936.722876804326</v>
-      </c>
-      <c r="FZ119">
-        <v>372.7808667076673</v>
-      </c>
-      <c r="GA119">
-        <v>2400.059946228459</v>
-      </c>
-      <c r="GB119">
-        <v>1529.371446870437</v>
-      </c>
-      <c r="GC119">
-        <v>1449.78454306351</v>
-      </c>
-      <c r="GD119">
-        <v>395.243934710645</v>
-      </c>
-      <c r="GE119">
-        <v>1677.39640836603</v>
-      </c>
       <c r="GF119">
-        <v>921.2435492479507</v>
-      </c>
-      <c r="GG119">
-        <v>430.1570314008308</v>
+        <v>482.6798693545946</v>
       </c>
     </row>
   </sheetData>
